--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3616300</v>
+        <v>3736100</v>
       </c>
       <c r="E8" s="3">
-        <v>3764300</v>
+        <v>3695900</v>
       </c>
       <c r="F8" s="3">
-        <v>3499100</v>
+        <v>3847100</v>
       </c>
       <c r="G8" s="3">
-        <v>3720500</v>
+        <v>3576100</v>
       </c>
       <c r="H8" s="3">
-        <v>3761300</v>
+        <v>3802300</v>
       </c>
       <c r="I8" s="3">
-        <v>3755600</v>
+        <v>3844000</v>
       </c>
       <c r="J8" s="3">
+        <v>3838200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3522200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3905500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3676300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3554400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3120300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3620100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3205500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2598700</v>
+        <v>2783100</v>
       </c>
       <c r="E9" s="3">
-        <v>2704300</v>
+        <v>2655800</v>
       </c>
       <c r="F9" s="3">
-        <v>2499000</v>
+        <v>2763800</v>
       </c>
       <c r="G9" s="3">
-        <v>2693100</v>
+        <v>2554000</v>
       </c>
       <c r="H9" s="3">
-        <v>2655000</v>
+        <v>2752300</v>
       </c>
       <c r="I9" s="3">
-        <v>2664300</v>
+        <v>2713400</v>
       </c>
       <c r="J9" s="3">
+        <v>2722900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2529100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3355700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2680900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2574800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2240500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2643900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2335900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1017700</v>
+        <v>953000</v>
       </c>
       <c r="E10" s="3">
-        <v>1060000</v>
+        <v>1040100</v>
       </c>
       <c r="F10" s="3">
-        <v>1000100</v>
+        <v>1083300</v>
       </c>
       <c r="G10" s="3">
-        <v>1027400</v>
+        <v>1022100</v>
       </c>
       <c r="H10" s="3">
-        <v>1106200</v>
+        <v>1050000</v>
       </c>
       <c r="I10" s="3">
-        <v>1091300</v>
+        <v>1130600</v>
       </c>
       <c r="J10" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="K10" s="3">
         <v>993100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>549800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>995400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>979600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>879800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>976200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>869600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,11 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3302400</v>
+        <v>3686600</v>
       </c>
       <c r="E17" s="3">
-        <v>3421700</v>
+        <v>3375000</v>
       </c>
       <c r="F17" s="3">
-        <v>3293400</v>
+        <v>3497000</v>
       </c>
       <c r="G17" s="3">
-        <v>3409200</v>
+        <v>3365800</v>
       </c>
       <c r="H17" s="3">
-        <v>3961500</v>
+        <v>3484200</v>
       </c>
       <c r="I17" s="3">
-        <v>3342000</v>
+        <v>4048600</v>
       </c>
       <c r="J17" s="3">
+        <v>3415500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3185000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4026700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3323300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3210700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2837700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3288000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2910000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>314000</v>
+        <v>49500</v>
       </c>
       <c r="E18" s="3">
-        <v>342600</v>
+        <v>320900</v>
       </c>
       <c r="F18" s="3">
-        <v>205700</v>
+        <v>350100</v>
       </c>
       <c r="G18" s="3">
-        <v>311300</v>
+        <v>210200</v>
       </c>
       <c r="H18" s="3">
-        <v>-200200</v>
+        <v>318200</v>
       </c>
       <c r="I18" s="3">
-        <v>413600</v>
+        <v>-204600</v>
       </c>
       <c r="J18" s="3">
+        <v>422700</v>
+      </c>
+      <c r="K18" s="3">
         <v>337300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-121200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>353000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>343600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>282600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>332100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>295500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>198900</v>
+        <v>17300</v>
       </c>
       <c r="E20" s="3">
-        <v>18500</v>
+        <v>203200</v>
       </c>
       <c r="F20" s="3">
-        <v>207800</v>
+        <v>18900</v>
       </c>
       <c r="G20" s="3">
-        <v>20600</v>
+        <v>212300</v>
       </c>
       <c r="H20" s="3">
-        <v>185800</v>
+        <v>21000</v>
       </c>
       <c r="I20" s="3">
-        <v>42800</v>
+        <v>189900</v>
       </c>
       <c r="J20" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K20" s="3">
         <v>167100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>160500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>166500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>149100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>308600</v>
       </c>
       <c r="E21" s="3">
-        <v>556900</v>
+        <v>749800</v>
       </c>
       <c r="F21" s="3">
-        <v>603400</v>
+        <v>569200</v>
       </c>
       <c r="G21" s="3">
-        <v>481800</v>
+        <v>616700</v>
       </c>
       <c r="H21" s="3">
-        <v>139300</v>
+        <v>492400</v>
       </c>
       <c r="I21" s="3">
-        <v>598900</v>
+        <v>142300</v>
       </c>
       <c r="J21" s="3">
+        <v>612100</v>
+      </c>
+      <c r="K21" s="3">
         <v>638900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>707700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>549700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>607500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>543200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>623600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1331,123 +1371,132 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>3700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3000</v>
       </c>
       <c r="M22" s="3">
         <v>3000</v>
       </c>
       <c r="N22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>512800</v>
+        <v>66900</v>
       </c>
       <c r="E23" s="3">
-        <v>361100</v>
+        <v>524100</v>
       </c>
       <c r="F23" s="3">
-        <v>413500</v>
+        <v>369100</v>
       </c>
       <c r="G23" s="3">
-        <v>331900</v>
+        <v>422600</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>339200</v>
       </c>
       <c r="I23" s="3">
-        <v>456300</v>
+        <v>-14800</v>
       </c>
       <c r="J23" s="3">
+        <v>466400</v>
+      </c>
+      <c r="K23" s="3">
         <v>504400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-117500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>510500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>374600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>446200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>347200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>444600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116200</v>
+        <v>25200</v>
       </c>
       <c r="E24" s="3">
-        <v>93900</v>
+        <v>118800</v>
       </c>
       <c r="F24" s="3">
-        <v>101300</v>
+        <v>96000</v>
       </c>
       <c r="G24" s="3">
-        <v>90500</v>
+        <v>103600</v>
       </c>
       <c r="H24" s="3">
-        <v>-52600</v>
+        <v>92500</v>
       </c>
       <c r="I24" s="3">
-        <v>99000</v>
+        <v>-53700</v>
       </c>
       <c r="J24" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K24" s="3">
         <v>97100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-57600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>261300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>115400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>123600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>396600</v>
+        <v>41600</v>
       </c>
       <c r="E26" s="3">
-        <v>267200</v>
+        <v>405300</v>
       </c>
       <c r="F26" s="3">
-        <v>312100</v>
+        <v>273100</v>
       </c>
       <c r="G26" s="3">
-        <v>241400</v>
+        <v>319000</v>
       </c>
       <c r="H26" s="3">
-        <v>38100</v>
+        <v>246700</v>
       </c>
       <c r="I26" s="3">
-        <v>357300</v>
+        <v>39000</v>
       </c>
       <c r="J26" s="3">
+        <v>365200</v>
+      </c>
+      <c r="K26" s="3">
         <v>407200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-59900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>273900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>330700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>309900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>321000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>378600</v>
+        <v>60000</v>
       </c>
       <c r="E27" s="3">
-        <v>250700</v>
+        <v>386900</v>
       </c>
       <c r="F27" s="3">
-        <v>291200</v>
+        <v>256200</v>
       </c>
       <c r="G27" s="3">
-        <v>216300</v>
+        <v>297600</v>
       </c>
       <c r="H27" s="3">
-        <v>9300</v>
+        <v>221000</v>
       </c>
       <c r="I27" s="3">
-        <v>328200</v>
+        <v>9500</v>
       </c>
       <c r="J27" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K27" s="3">
         <v>384400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>268000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>256900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>316600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>307800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-198900</v>
+        <v>-17300</v>
       </c>
       <c r="E32" s="3">
-        <v>-18500</v>
+        <v>-203200</v>
       </c>
       <c r="F32" s="3">
-        <v>-207800</v>
+        <v>-18900</v>
       </c>
       <c r="G32" s="3">
-        <v>-20600</v>
+        <v>-212300</v>
       </c>
       <c r="H32" s="3">
-        <v>-185800</v>
+        <v>-21000</v>
       </c>
       <c r="I32" s="3">
-        <v>-42800</v>
+        <v>-189900</v>
       </c>
       <c r="J32" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-167100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-160500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-166500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-149100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>378600</v>
+        <v>60000</v>
       </c>
       <c r="E33" s="3">
-        <v>250700</v>
+        <v>386900</v>
       </c>
       <c r="F33" s="3">
-        <v>291200</v>
+        <v>256200</v>
       </c>
       <c r="G33" s="3">
-        <v>216300</v>
+        <v>297600</v>
       </c>
       <c r="H33" s="3">
-        <v>9300</v>
+        <v>221000</v>
       </c>
       <c r="I33" s="3">
-        <v>328200</v>
+        <v>9500</v>
       </c>
       <c r="J33" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K33" s="3">
         <v>384400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-76600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>268000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>256900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>316600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>292600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>307800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>378600</v>
+        <v>60000</v>
       </c>
       <c r="E35" s="3">
-        <v>250700</v>
+        <v>386900</v>
       </c>
       <c r="F35" s="3">
-        <v>291200</v>
+        <v>256200</v>
       </c>
       <c r="G35" s="3">
-        <v>216300</v>
+        <v>297600</v>
       </c>
       <c r="H35" s="3">
-        <v>9300</v>
+        <v>221000</v>
       </c>
       <c r="I35" s="3">
-        <v>328200</v>
+        <v>9500</v>
       </c>
       <c r="J35" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K35" s="3">
         <v>384400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-76600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>268000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>256900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>316600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>292600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>307800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3894700</v>
+        <v>3898300</v>
       </c>
       <c r="E41" s="3">
-        <v>4082500</v>
+        <v>3980400</v>
       </c>
       <c r="F41" s="3">
-        <v>3804800</v>
+        <v>4172300</v>
       </c>
       <c r="G41" s="3">
-        <v>4661500</v>
+        <v>3888500</v>
       </c>
       <c r="H41" s="3">
-        <v>3783700</v>
+        <v>4764000</v>
       </c>
       <c r="I41" s="3">
-        <v>3621800</v>
+        <v>3867000</v>
       </c>
       <c r="J41" s="3">
+        <v>3701500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3936400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3841400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3161100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3549600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3386800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3336800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2933500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>871600</v>
+        <v>687800</v>
       </c>
       <c r="E42" s="3">
-        <v>771600</v>
+        <v>890700</v>
       </c>
       <c r="F42" s="3">
-        <v>818900</v>
+        <v>788600</v>
       </c>
       <c r="G42" s="3">
-        <v>991500</v>
+        <v>836900</v>
       </c>
       <c r="H42" s="3">
-        <v>1733300</v>
+        <v>1013400</v>
       </c>
       <c r="I42" s="3">
-        <v>2234500</v>
+        <v>1771500</v>
       </c>
       <c r="J42" s="3">
+        <v>2283700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1698900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2240300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2625500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2485300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2702500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2637700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2861200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3001400</v>
+        <v>3124200</v>
       </c>
       <c r="E43" s="3">
-        <v>2917000</v>
+        <v>3067500</v>
       </c>
       <c r="F43" s="3">
-        <v>2994900</v>
+        <v>2981200</v>
       </c>
       <c r="G43" s="3">
-        <v>3248300</v>
+        <v>3060700</v>
       </c>
       <c r="H43" s="3">
-        <v>3347700</v>
+        <v>3319800</v>
       </c>
       <c r="I43" s="3">
-        <v>3211800</v>
+        <v>3421400</v>
       </c>
       <c r="J43" s="3">
+        <v>3282400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3091900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6642700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2955300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2875900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2498600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2787500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2605300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3386300</v>
+        <v>3198600</v>
       </c>
       <c r="E44" s="3">
-        <v>3354200</v>
+        <v>3460800</v>
       </c>
       <c r="F44" s="3">
-        <v>3345800</v>
+        <v>3428000</v>
       </c>
       <c r="G44" s="3">
-        <v>3125900</v>
+        <v>3419500</v>
       </c>
       <c r="H44" s="3">
-        <v>3141400</v>
+        <v>3194600</v>
       </c>
       <c r="I44" s="3">
-        <v>3390000</v>
+        <v>3210500</v>
       </c>
       <c r="J44" s="3">
+        <v>3464600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3359200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6596900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3688200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3229400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3190100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2937300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3162600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244400</v>
+        <v>264300</v>
       </c>
       <c r="E45" s="3">
-        <v>301200</v>
+        <v>249800</v>
       </c>
       <c r="F45" s="3">
-        <v>317700</v>
+        <v>307800</v>
       </c>
       <c r="G45" s="3">
-        <v>314900</v>
+        <v>324700</v>
       </c>
       <c r="H45" s="3">
-        <v>293900</v>
+        <v>321800</v>
       </c>
       <c r="I45" s="3">
-        <v>812300</v>
+        <v>300400</v>
       </c>
       <c r="J45" s="3">
+        <v>830200</v>
+      </c>
+      <c r="K45" s="3">
         <v>785400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>756000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1155700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1160800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1034600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1061900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1071600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11398400</v>
+        <v>11173100</v>
       </c>
       <c r="E46" s="3">
-        <v>11426500</v>
+        <v>11649200</v>
       </c>
       <c r="F46" s="3">
-        <v>11282000</v>
+        <v>11677900</v>
       </c>
       <c r="G46" s="3">
-        <v>12342100</v>
+        <v>11530300</v>
       </c>
       <c r="H46" s="3">
-        <v>12300100</v>
+        <v>12613600</v>
       </c>
       <c r="I46" s="3">
-        <v>13270400</v>
+        <v>12570700</v>
       </c>
       <c r="J46" s="3">
+        <v>13562400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12871800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13251700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13585900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13301000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12812500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12761200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12634200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11575300</v>
+        <v>11531100</v>
       </c>
       <c r="E47" s="3">
-        <v>10224400</v>
+        <v>11830000</v>
       </c>
       <c r="F47" s="3">
-        <v>10069900</v>
+        <v>10449300</v>
       </c>
       <c r="G47" s="3">
-        <v>8922000</v>
+        <v>10291500</v>
       </c>
       <c r="H47" s="3">
-        <v>9634700</v>
+        <v>9118300</v>
       </c>
       <c r="I47" s="3">
-        <v>11303700</v>
+        <v>9846700</v>
       </c>
       <c r="J47" s="3">
+        <v>11552400</v>
+      </c>
+      <c r="K47" s="3">
         <v>10879300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9832500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9896100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10362200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10425800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10029800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9971200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3733800</v>
+        <v>3885000</v>
       </c>
       <c r="E48" s="3">
-        <v>3565000</v>
+        <v>3816000</v>
       </c>
       <c r="F48" s="3">
-        <v>3444200</v>
+        <v>3643500</v>
       </c>
       <c r="G48" s="3">
-        <v>3107500</v>
+        <v>3520000</v>
       </c>
       <c r="H48" s="3">
-        <v>2939600</v>
+        <v>3175800</v>
       </c>
       <c r="I48" s="3">
-        <v>2947800</v>
+        <v>3004300</v>
       </c>
       <c r="J48" s="3">
+        <v>3012700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2790300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5332000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2661600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2499100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2443200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2364800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2386800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2989400</v>
+        <v>3072600</v>
       </c>
       <c r="E49" s="3">
-        <v>2963000</v>
+        <v>3055200</v>
       </c>
       <c r="F49" s="3">
-        <v>2905300</v>
+        <v>3028200</v>
       </c>
       <c r="G49" s="3">
-        <v>2086200</v>
+        <v>2969200</v>
       </c>
       <c r="H49" s="3">
-        <v>2025800</v>
+        <v>2132100</v>
       </c>
       <c r="I49" s="3">
-        <v>2100600</v>
+        <v>2070400</v>
       </c>
       <c r="J49" s="3">
+        <v>2146800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2060600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4058100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1904600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1872200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1573300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1523000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1531900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>549100</v>
+        <v>532300</v>
       </c>
       <c r="E52" s="3">
-        <v>530000</v>
+        <v>561200</v>
       </c>
       <c r="F52" s="3">
-        <v>521600</v>
+        <v>541600</v>
       </c>
       <c r="G52" s="3">
-        <v>525700</v>
+        <v>533100</v>
       </c>
       <c r="H52" s="3">
-        <v>559100</v>
+        <v>537300</v>
       </c>
       <c r="I52" s="3">
-        <v>581800</v>
+        <v>571400</v>
       </c>
       <c r="J52" s="3">
+        <v>594600</v>
+      </c>
+      <c r="K52" s="3">
         <v>577500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>559500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>894000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>920500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1040700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>911000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>910300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30246000</v>
+        <v>30194100</v>
       </c>
       <c r="E54" s="3">
-        <v>28708900</v>
+        <v>30911500</v>
       </c>
       <c r="F54" s="3">
-        <v>28223100</v>
+        <v>29340600</v>
       </c>
       <c r="G54" s="3">
-        <v>26983400</v>
+        <v>28844100</v>
       </c>
       <c r="H54" s="3">
-        <v>27459300</v>
+        <v>27577100</v>
       </c>
       <c r="I54" s="3">
-        <v>30204400</v>
+        <v>28063400</v>
       </c>
       <c r="J54" s="3">
+        <v>30869000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29179400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28284500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28942300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28955100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28295600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27589900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27434500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1638700</v>
+        <v>1610000</v>
       </c>
       <c r="E57" s="3">
-        <v>1656600</v>
+        <v>1674700</v>
       </c>
       <c r="F57" s="3">
-        <v>1687300</v>
+        <v>1693100</v>
       </c>
       <c r="G57" s="3">
-        <v>1693300</v>
+        <v>1724400</v>
       </c>
       <c r="H57" s="3">
-        <v>1697700</v>
+        <v>1730600</v>
       </c>
       <c r="I57" s="3">
-        <v>1935700</v>
+        <v>1735100</v>
       </c>
       <c r="J57" s="3">
+        <v>1978300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1911500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3312400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1440600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1268300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1185500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1148300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1089600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>111000</v>
+        <v>469200</v>
       </c>
       <c r="E58" s="3">
-        <v>95300</v>
+        <v>113500</v>
       </c>
       <c r="F58" s="3">
-        <v>88600</v>
+        <v>97400</v>
       </c>
       <c r="G58" s="3">
-        <v>38200</v>
+        <v>90600</v>
       </c>
       <c r="H58" s="3">
-        <v>52300</v>
+        <v>39100</v>
       </c>
       <c r="I58" s="3">
-        <v>121100</v>
+        <v>53400</v>
       </c>
       <c r="J58" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K58" s="3">
         <v>88100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>130900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>80700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>74700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>77300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1525500</v>
+        <v>1613700</v>
       </c>
       <c r="E59" s="3">
-        <v>1667500</v>
+        <v>1559100</v>
       </c>
       <c r="F59" s="3">
-        <v>1601600</v>
+        <v>1704200</v>
       </c>
       <c r="G59" s="3">
-        <v>1675000</v>
+        <v>1636800</v>
       </c>
       <c r="H59" s="3">
-        <v>1569600</v>
+        <v>1711800</v>
       </c>
       <c r="I59" s="3">
-        <v>1829800</v>
+        <v>1604100</v>
       </c>
       <c r="J59" s="3">
+        <v>1870100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1727300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3013000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2156700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2082900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1899900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2011500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1948800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3275200</v>
+        <v>3692900</v>
       </c>
       <c r="E60" s="3">
-        <v>3419500</v>
+        <v>3347300</v>
       </c>
       <c r="F60" s="3">
-        <v>3377500</v>
+        <v>3494700</v>
       </c>
       <c r="G60" s="3">
-        <v>3406500</v>
+        <v>3451800</v>
       </c>
       <c r="H60" s="3">
-        <v>3319600</v>
+        <v>3481400</v>
       </c>
       <c r="I60" s="3">
-        <v>3886600</v>
+        <v>3392600</v>
       </c>
       <c r="J60" s="3">
+        <v>3972100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3726900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3791300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3679300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3431900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3163500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3234500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3115700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>312200</v>
+        <v>713600</v>
       </c>
       <c r="E61" s="3">
-        <v>291800</v>
+        <v>319100</v>
       </c>
       <c r="F61" s="3">
-        <v>301000</v>
+        <v>298300</v>
       </c>
       <c r="G61" s="3">
-        <v>51400</v>
+        <v>307600</v>
       </c>
       <c r="H61" s="3">
-        <v>74000</v>
+        <v>52500</v>
       </c>
       <c r="I61" s="3">
-        <v>80700</v>
+        <v>75600</v>
       </c>
       <c r="J61" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K61" s="3">
         <v>86000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>66600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>163100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>162300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>159800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>145500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>147700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2913200</v>
+        <v>2987700</v>
       </c>
       <c r="E62" s="3">
-        <v>2509900</v>
+        <v>2977300</v>
       </c>
       <c r="F62" s="3">
-        <v>2453600</v>
+        <v>2565100</v>
       </c>
       <c r="G62" s="3">
-        <v>2052600</v>
+        <v>2507600</v>
       </c>
       <c r="H62" s="3">
-        <v>2316100</v>
+        <v>2097800</v>
       </c>
       <c r="I62" s="3">
-        <v>2953100</v>
+        <v>2367100</v>
       </c>
       <c r="J62" s="3">
+        <v>3018100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2828400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2870000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2752300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2804800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2786100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2754100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2878100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7411900</v>
+        <v>7599600</v>
       </c>
       <c r="E66" s="3">
-        <v>7101500</v>
+        <v>7574900</v>
       </c>
       <c r="F66" s="3">
-        <v>7001100</v>
+        <v>7257700</v>
       </c>
       <c r="G66" s="3">
-        <v>6386200</v>
+        <v>7155100</v>
       </c>
       <c r="H66" s="3">
-        <v>6573900</v>
+        <v>6526700</v>
       </c>
       <c r="I66" s="3">
-        <v>7790300</v>
+        <v>6718500</v>
       </c>
       <c r="J66" s="3">
+        <v>7961700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7466300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7259300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7372800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7200900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6888400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6885300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6899900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15279200</v>
+        <v>15669200</v>
       </c>
       <c r="E72" s="3">
-        <v>15174700</v>
+        <v>15615400</v>
       </c>
       <c r="F72" s="3">
-        <v>14924000</v>
+        <v>15508600</v>
       </c>
       <c r="G72" s="3">
-        <v>14895900</v>
+        <v>15252400</v>
       </c>
       <c r="H72" s="3">
-        <v>14691800</v>
+        <v>15223600</v>
       </c>
       <c r="I72" s="3">
-        <v>14879800</v>
+        <v>15015100</v>
       </c>
       <c r="J72" s="3">
+        <v>15207200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14551600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14261900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15225700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15164100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14925300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14530100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14237500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22834200</v>
+        <v>22594500</v>
       </c>
       <c r="E76" s="3">
-        <v>21607500</v>
+        <v>23336600</v>
       </c>
       <c r="F76" s="3">
-        <v>21222100</v>
+        <v>22082900</v>
       </c>
       <c r="G76" s="3">
-        <v>20597200</v>
+        <v>21689000</v>
       </c>
       <c r="H76" s="3">
-        <v>20885400</v>
+        <v>21050400</v>
       </c>
       <c r="I76" s="3">
-        <v>22414100</v>
+        <v>21344900</v>
       </c>
       <c r="J76" s="3">
+        <v>22907300</v>
+      </c>
+      <c r="K76" s="3">
         <v>21713100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21025200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21569500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21754100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21407200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20704500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20534600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>378600</v>
+        <v>60000</v>
       </c>
       <c r="E81" s="3">
-        <v>250700</v>
+        <v>386900</v>
       </c>
       <c r="F81" s="3">
-        <v>291200</v>
+        <v>256200</v>
       </c>
       <c r="G81" s="3">
-        <v>216300</v>
+        <v>297600</v>
       </c>
       <c r="H81" s="3">
-        <v>9300</v>
+        <v>221000</v>
       </c>
       <c r="I81" s="3">
-        <v>328200</v>
+        <v>9500</v>
       </c>
       <c r="J81" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K81" s="3">
         <v>384400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-76600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>268000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>256900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>316600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>292600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>307800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>241700</v>
       </c>
       <c r="E83" s="3">
-        <v>195800</v>
+        <v>225700</v>
       </c>
       <c r="F83" s="3">
-        <v>189900</v>
+        <v>200100</v>
       </c>
       <c r="G83" s="3">
-        <v>149900</v>
+        <v>194100</v>
       </c>
       <c r="H83" s="3">
-        <v>153700</v>
+        <v>153200</v>
       </c>
       <c r="I83" s="3">
-        <v>142600</v>
+        <v>157100</v>
       </c>
       <c r="J83" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K83" s="3">
         <v>134500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>220900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>195500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>172900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>159100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>193000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>179000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>607200</v>
       </c>
       <c r="E89" s="3">
-        <v>501700</v>
+        <v>365200</v>
       </c>
       <c r="F89" s="3">
-        <v>497900</v>
+        <v>512700</v>
       </c>
       <c r="G89" s="3">
-        <v>558800</v>
+        <v>508800</v>
       </c>
       <c r="H89" s="3">
-        <v>296300</v>
+        <v>571100</v>
       </c>
       <c r="I89" s="3">
-        <v>505400</v>
+        <v>302800</v>
       </c>
       <c r="J89" s="3">
+        <v>516600</v>
+      </c>
+      <c r="K89" s="3">
         <v>639500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>416100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>283100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>540300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>612200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>196700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-239400</v>
       </c>
       <c r="E91" s="3">
         <v>-245700</v>
       </c>
       <c r="F91" s="3">
-        <v>-253500</v>
+        <v>-251100</v>
       </c>
       <c r="G91" s="3">
-        <v>-249400</v>
+        <v>-259100</v>
       </c>
       <c r="H91" s="3">
-        <v>-267100</v>
+        <v>-254900</v>
       </c>
       <c r="I91" s="3">
-        <v>-245300</v>
+        <v>-273000</v>
       </c>
       <c r="J91" s="3">
+        <v>-250700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-247600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-249700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-184700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-148400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-178400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-138400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-161800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-125200</v>
       </c>
       <c r="E94" s="3">
-        <v>-200500</v>
+        <v>-299100</v>
       </c>
       <c r="F94" s="3">
-        <v>-707400</v>
+        <v>-204900</v>
       </c>
       <c r="G94" s="3">
-        <v>340700</v>
+        <v>-723000</v>
       </c>
       <c r="H94" s="3">
-        <v>132300</v>
+        <v>348200</v>
       </c>
       <c r="I94" s="3">
-        <v>-844500</v>
+        <v>135300</v>
       </c>
       <c r="J94" s="3">
+        <v>-863100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-56900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>381500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-398000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-373500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-118500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-142300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-17600</v>
       </c>
       <c r="E96" s="3">
-        <v>-21800</v>
+        <v>-265700</v>
       </c>
       <c r="F96" s="3">
-        <v>-264700</v>
+        <v>-22300</v>
       </c>
       <c r="G96" s="3">
-        <v>-14400</v>
+        <v>-270500</v>
       </c>
       <c r="H96" s="3">
-        <v>-198600</v>
+        <v>-14700</v>
       </c>
       <c r="I96" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-199100</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-19100</v>
       </c>
-      <c r="J96" s="3">
-        <v>-204800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-199100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-199000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-161000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-19100</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-518600</v>
       </c>
       <c r="E100" s="3">
-        <v>-6600</v>
+        <v>-315300</v>
       </c>
       <c r="F100" s="3">
-        <v>-605800</v>
+        <v>-6700</v>
       </c>
       <c r="G100" s="3">
-        <v>-24300</v>
+        <v>-619200</v>
       </c>
       <c r="H100" s="3">
-        <v>-206800</v>
+        <v>-24900</v>
       </c>
       <c r="I100" s="3">
-        <v>-19500</v>
+        <v>-211300</v>
       </c>
       <c r="J100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-558900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-202200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-54900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-202300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-45500</v>
       </c>
       <c r="E101" s="3">
-        <v>-17000</v>
+        <v>57300</v>
       </c>
       <c r="F101" s="3">
-        <v>-41300</v>
+        <v>-17400</v>
       </c>
       <c r="G101" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-60000</v>
-      </c>
       <c r="I101" s="3">
-        <v>43900</v>
+        <v>-61300</v>
       </c>
       <c r="J101" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K101" s="3">
         <v>50100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-111700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-79900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>228500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-82100</v>
       </c>
       <c r="E102" s="3">
-        <v>277600</v>
+        <v>-191900</v>
       </c>
       <c r="F102" s="3">
-        <v>-856700</v>
+        <v>283800</v>
       </c>
       <c r="G102" s="3">
-        <v>877800</v>
+        <v>-875500</v>
       </c>
       <c r="H102" s="3">
-        <v>161900</v>
+        <v>897100</v>
       </c>
       <c r="I102" s="3">
-        <v>-314600</v>
+        <v>165500</v>
       </c>
       <c r="J102" s="3">
+        <v>-321500</v>
+      </c>
+      <c r="K102" s="3">
         <v>73700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>680300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-388500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>162900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>403300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>114900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3736100</v>
+        <v>2993400</v>
       </c>
       <c r="E8" s="3">
-        <v>3695900</v>
+        <v>3796500</v>
       </c>
       <c r="F8" s="3">
-        <v>3847100</v>
+        <v>3755600</v>
       </c>
       <c r="G8" s="3">
-        <v>3576100</v>
+        <v>3909200</v>
       </c>
       <c r="H8" s="3">
-        <v>3802300</v>
+        <v>3633800</v>
       </c>
       <c r="I8" s="3">
-        <v>3844000</v>
+        <v>3863700</v>
       </c>
       <c r="J8" s="3">
+        <v>3906100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3838200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3522200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3905500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3676300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3554400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3120300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3620100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3205500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2783100</v>
+        <v>2204200</v>
       </c>
       <c r="E9" s="3">
-        <v>2655800</v>
+        <v>2828100</v>
       </c>
       <c r="F9" s="3">
-        <v>2763800</v>
+        <v>2698700</v>
       </c>
       <c r="G9" s="3">
-        <v>2554000</v>
+        <v>2808400</v>
       </c>
       <c r="H9" s="3">
-        <v>2752300</v>
+        <v>2595200</v>
       </c>
       <c r="I9" s="3">
-        <v>2713400</v>
+        <v>2796800</v>
       </c>
       <c r="J9" s="3">
+        <v>2757200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2722900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2529100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3355700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2680900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2574800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2240500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2643900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2335900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>953000</v>
+        <v>789200</v>
       </c>
       <c r="E10" s="3">
-        <v>1040100</v>
+        <v>968400</v>
       </c>
       <c r="F10" s="3">
-        <v>1083300</v>
+        <v>1056800</v>
       </c>
       <c r="G10" s="3">
-        <v>1022100</v>
+        <v>1100800</v>
       </c>
       <c r="H10" s="3">
-        <v>1050000</v>
+        <v>1038600</v>
       </c>
       <c r="I10" s="3">
-        <v>1130600</v>
+        <v>1066900</v>
       </c>
       <c r="J10" s="3">
+        <v>1148800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1115300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>993100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>549800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>995400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>979600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>879800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>976200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>869600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,11 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3686600</v>
+        <v>2921900</v>
       </c>
       <c r="E17" s="3">
-        <v>3375000</v>
+        <v>3746100</v>
       </c>
       <c r="F17" s="3">
-        <v>3497000</v>
+        <v>3429500</v>
       </c>
       <c r="G17" s="3">
-        <v>3365800</v>
+        <v>3553400</v>
       </c>
       <c r="H17" s="3">
-        <v>3484200</v>
+        <v>3420200</v>
       </c>
       <c r="I17" s="3">
-        <v>4048600</v>
+        <v>3540400</v>
       </c>
       <c r="J17" s="3">
+        <v>4114000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3415500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3185000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4026700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3323300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3210700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2837700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2910000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49500</v>
+        <v>71500</v>
       </c>
       <c r="E18" s="3">
-        <v>320900</v>
+        <v>50300</v>
       </c>
       <c r="F18" s="3">
-        <v>350100</v>
+        <v>326100</v>
       </c>
       <c r="G18" s="3">
-        <v>210200</v>
+        <v>355800</v>
       </c>
       <c r="H18" s="3">
-        <v>318200</v>
+        <v>213600</v>
       </c>
       <c r="I18" s="3">
-        <v>-204600</v>
+        <v>323300</v>
       </c>
       <c r="J18" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="K18" s="3">
         <v>422700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>337300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-121200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>353000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>343600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>282600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>332100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>295500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>215600</v>
       </c>
       <c r="E20" s="3">
-        <v>203200</v>
+        <v>17600</v>
       </c>
       <c r="F20" s="3">
-        <v>18900</v>
+        <v>206500</v>
       </c>
       <c r="G20" s="3">
-        <v>212300</v>
+        <v>19200</v>
       </c>
       <c r="H20" s="3">
-        <v>21000</v>
+        <v>215800</v>
       </c>
       <c r="I20" s="3">
-        <v>189900</v>
+        <v>21400</v>
       </c>
       <c r="J20" s="3">
+        <v>192900</v>
+      </c>
+      <c r="K20" s="3">
         <v>43700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>167100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>160500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>166500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>149100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>308600</v>
+        <v>528000</v>
       </c>
       <c r="E21" s="3">
-        <v>749800</v>
+        <v>313600</v>
       </c>
       <c r="F21" s="3">
-        <v>569200</v>
+        <v>761900</v>
       </c>
       <c r="G21" s="3">
-        <v>616700</v>
+        <v>578400</v>
       </c>
       <c r="H21" s="3">
-        <v>492400</v>
+        <v>626600</v>
       </c>
       <c r="I21" s="3">
-        <v>142300</v>
+        <v>500400</v>
       </c>
       <c r="J21" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K21" s="3">
         <v>612100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>638900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>707700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>549700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>607500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>543200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>623600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1374,129 +1414,138 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>3700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3000</v>
       </c>
       <c r="N22" s="3">
         <v>3000</v>
       </c>
       <c r="O22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66900</v>
+        <v>287100</v>
       </c>
       <c r="E23" s="3">
-        <v>524100</v>
+        <v>67900</v>
       </c>
       <c r="F23" s="3">
-        <v>369100</v>
+        <v>532600</v>
       </c>
       <c r="G23" s="3">
-        <v>422600</v>
+        <v>375000</v>
       </c>
       <c r="H23" s="3">
-        <v>339200</v>
+        <v>429400</v>
       </c>
       <c r="I23" s="3">
-        <v>-14800</v>
+        <v>344700</v>
       </c>
       <c r="J23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K23" s="3">
         <v>466400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>504400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-117500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>510500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>374600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>446200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>347200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>444600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25200</v>
+        <v>71300</v>
       </c>
       <c r="E24" s="3">
-        <v>118800</v>
+        <v>25600</v>
       </c>
       <c r="F24" s="3">
-        <v>96000</v>
+        <v>120700</v>
       </c>
       <c r="G24" s="3">
-        <v>103600</v>
+        <v>97500</v>
       </c>
       <c r="H24" s="3">
-        <v>92500</v>
+        <v>105200</v>
       </c>
       <c r="I24" s="3">
-        <v>-53700</v>
+        <v>94000</v>
       </c>
       <c r="J24" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K24" s="3">
         <v>101200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-57600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>261300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>115400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>123600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41600</v>
+        <v>215800</v>
       </c>
       <c r="E26" s="3">
-        <v>405300</v>
+        <v>42300</v>
       </c>
       <c r="F26" s="3">
-        <v>273100</v>
+        <v>411900</v>
       </c>
       <c r="G26" s="3">
-        <v>319000</v>
+        <v>277500</v>
       </c>
       <c r="H26" s="3">
-        <v>246700</v>
+        <v>324200</v>
       </c>
       <c r="I26" s="3">
-        <v>39000</v>
+        <v>250700</v>
       </c>
       <c r="J26" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K26" s="3">
         <v>365200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>407200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-59900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>273900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>330700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>309900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>321000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60000</v>
+        <v>211300</v>
       </c>
       <c r="E27" s="3">
-        <v>386900</v>
+        <v>60900</v>
       </c>
       <c r="F27" s="3">
-        <v>256200</v>
+        <v>393200</v>
       </c>
       <c r="G27" s="3">
-        <v>297600</v>
+        <v>260300</v>
       </c>
       <c r="H27" s="3">
-        <v>221000</v>
+        <v>302400</v>
       </c>
       <c r="I27" s="3">
-        <v>9500</v>
+        <v>224600</v>
       </c>
       <c r="J27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K27" s="3">
         <v>335500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>384400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-76600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>268000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>256900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>292600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>307800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-215600</v>
       </c>
       <c r="E32" s="3">
-        <v>-203200</v>
+        <v>-17600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18900</v>
+        <v>-206500</v>
       </c>
       <c r="G32" s="3">
-        <v>-212300</v>
+        <v>-19200</v>
       </c>
       <c r="H32" s="3">
-        <v>-21000</v>
+        <v>-215800</v>
       </c>
       <c r="I32" s="3">
-        <v>-189900</v>
+        <v>-21400</v>
       </c>
       <c r="J32" s="3">
+        <v>-192900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-167100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-160500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-166500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-149100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60000</v>
+        <v>211300</v>
       </c>
       <c r="E33" s="3">
-        <v>386900</v>
+        <v>60900</v>
       </c>
       <c r="F33" s="3">
-        <v>256200</v>
+        <v>393200</v>
       </c>
       <c r="G33" s="3">
-        <v>297600</v>
+        <v>260300</v>
       </c>
       <c r="H33" s="3">
-        <v>221000</v>
+        <v>302400</v>
       </c>
       <c r="I33" s="3">
-        <v>9500</v>
+        <v>224600</v>
       </c>
       <c r="J33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K33" s="3">
         <v>335500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>384400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-76600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>268000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>256900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>292600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>307800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60000</v>
+        <v>211300</v>
       </c>
       <c r="E35" s="3">
-        <v>386900</v>
+        <v>60900</v>
       </c>
       <c r="F35" s="3">
-        <v>256200</v>
+        <v>393200</v>
       </c>
       <c r="G35" s="3">
-        <v>297600</v>
+        <v>260300</v>
       </c>
       <c r="H35" s="3">
-        <v>221000</v>
+        <v>302400</v>
       </c>
       <c r="I35" s="3">
-        <v>9500</v>
+        <v>224600</v>
       </c>
       <c r="J35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K35" s="3">
         <v>335500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>384400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-76600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>268000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>256900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>292600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>307800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3898300</v>
+        <v>3608300</v>
       </c>
       <c r="E41" s="3">
-        <v>3980400</v>
+        <v>3961200</v>
       </c>
       <c r="F41" s="3">
-        <v>4172300</v>
+        <v>4044700</v>
       </c>
       <c r="G41" s="3">
-        <v>3888500</v>
+        <v>4239700</v>
       </c>
       <c r="H41" s="3">
-        <v>4764000</v>
+        <v>3951300</v>
       </c>
       <c r="I41" s="3">
-        <v>3867000</v>
+        <v>4841000</v>
       </c>
       <c r="J41" s="3">
+        <v>3929400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3701500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3936400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3841400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3161100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3549600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3386800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3336800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2933500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>687800</v>
+        <v>655000</v>
       </c>
       <c r="E42" s="3">
-        <v>890700</v>
+        <v>698900</v>
       </c>
       <c r="F42" s="3">
-        <v>788600</v>
+        <v>905100</v>
       </c>
       <c r="G42" s="3">
-        <v>836900</v>
+        <v>801300</v>
       </c>
       <c r="H42" s="3">
-        <v>1013400</v>
+        <v>850400</v>
       </c>
       <c r="I42" s="3">
-        <v>1771500</v>
+        <v>1029700</v>
       </c>
       <c r="J42" s="3">
+        <v>1800100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2283700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1698900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2240300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2625500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2485300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2702500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2637700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2861200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3124200</v>
+        <v>2699500</v>
       </c>
       <c r="E43" s="3">
-        <v>3067500</v>
+        <v>3174600</v>
       </c>
       <c r="F43" s="3">
-        <v>2981200</v>
+        <v>3117000</v>
       </c>
       <c r="G43" s="3">
-        <v>3060700</v>
+        <v>3029400</v>
       </c>
       <c r="H43" s="3">
-        <v>3319800</v>
+        <v>3110200</v>
       </c>
       <c r="I43" s="3">
-        <v>3421400</v>
+        <v>3373400</v>
       </c>
       <c r="J43" s="3">
+        <v>3476600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3282400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3091900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6642700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2955300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2875900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2498600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2787500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2605300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3198600</v>
+        <v>3543400</v>
       </c>
       <c r="E44" s="3">
-        <v>3460800</v>
+        <v>3250200</v>
       </c>
       <c r="F44" s="3">
-        <v>3428000</v>
+        <v>3516600</v>
       </c>
       <c r="G44" s="3">
-        <v>3419500</v>
+        <v>3483300</v>
       </c>
       <c r="H44" s="3">
-        <v>3194600</v>
+        <v>3474700</v>
       </c>
       <c r="I44" s="3">
-        <v>3210500</v>
+        <v>3246200</v>
       </c>
       <c r="J44" s="3">
+        <v>3262400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3464600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3359200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6596900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3688200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3229400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3190100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2937300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3162600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264300</v>
+        <v>313600</v>
       </c>
       <c r="E45" s="3">
-        <v>249800</v>
+        <v>268600</v>
       </c>
       <c r="F45" s="3">
-        <v>307800</v>
+        <v>253800</v>
       </c>
       <c r="G45" s="3">
-        <v>324700</v>
+        <v>312800</v>
       </c>
       <c r="H45" s="3">
-        <v>321800</v>
+        <v>329900</v>
       </c>
       <c r="I45" s="3">
-        <v>300400</v>
+        <v>327000</v>
       </c>
       <c r="J45" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K45" s="3">
         <v>830200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>785400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>756000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1155700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1160800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1034600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1061900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1071600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11173100</v>
+        <v>10819900</v>
       </c>
       <c r="E46" s="3">
-        <v>11649200</v>
+        <v>11353600</v>
       </c>
       <c r="F46" s="3">
-        <v>11677900</v>
+        <v>11837300</v>
       </c>
       <c r="G46" s="3">
-        <v>11530300</v>
+        <v>11866500</v>
       </c>
       <c r="H46" s="3">
-        <v>12613600</v>
+        <v>11716400</v>
       </c>
       <c r="I46" s="3">
-        <v>12570700</v>
+        <v>12817300</v>
       </c>
       <c r="J46" s="3">
+        <v>12773700</v>
+      </c>
+      <c r="K46" s="3">
         <v>13562400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12871800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13251700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13585900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13301000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12812500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12761200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12634200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11531100</v>
+        <v>11989100</v>
       </c>
       <c r="E47" s="3">
-        <v>11830000</v>
+        <v>11717300</v>
       </c>
       <c r="F47" s="3">
-        <v>10449300</v>
+        <v>12068700</v>
       </c>
       <c r="G47" s="3">
-        <v>10291500</v>
+        <v>10653900</v>
       </c>
       <c r="H47" s="3">
-        <v>9118300</v>
+        <v>10491500</v>
       </c>
       <c r="I47" s="3">
-        <v>9846700</v>
+        <v>9304800</v>
       </c>
       <c r="J47" s="3">
+        <v>10046500</v>
+      </c>
+      <c r="K47" s="3">
         <v>11552400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10879300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9832500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9896100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10362200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10425800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10029800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9971200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3885000</v>
+        <v>4072900</v>
       </c>
       <c r="E48" s="3">
-        <v>3816000</v>
+        <v>3947700</v>
       </c>
       <c r="F48" s="3">
-        <v>3643500</v>
+        <v>3877600</v>
       </c>
       <c r="G48" s="3">
-        <v>3520000</v>
+        <v>3702300</v>
       </c>
       <c r="H48" s="3">
-        <v>3175800</v>
+        <v>3576900</v>
       </c>
       <c r="I48" s="3">
-        <v>3004300</v>
+        <v>3227100</v>
       </c>
       <c r="J48" s="3">
+        <v>3052800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3012700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2790300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5332000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2661600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2499100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2443200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2364800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2386800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3072600</v>
+        <v>3367200</v>
       </c>
       <c r="E49" s="3">
-        <v>3055200</v>
+        <v>3122200</v>
       </c>
       <c r="F49" s="3">
-        <v>3028200</v>
+        <v>3104500</v>
       </c>
       <c r="G49" s="3">
-        <v>2969200</v>
+        <v>3077100</v>
       </c>
       <c r="H49" s="3">
-        <v>2132100</v>
+        <v>3017200</v>
       </c>
       <c r="I49" s="3">
-        <v>2070400</v>
+        <v>2166500</v>
       </c>
       <c r="J49" s="3">
+        <v>2103800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2146800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2060600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4058100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1904600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1872200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1573300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1523000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1531900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>532300</v>
+        <v>576900</v>
       </c>
       <c r="E52" s="3">
-        <v>561200</v>
+        <v>540900</v>
       </c>
       <c r="F52" s="3">
-        <v>541600</v>
+        <v>522600</v>
       </c>
       <c r="G52" s="3">
-        <v>533100</v>
+        <v>514600</v>
       </c>
       <c r="H52" s="3">
-        <v>537300</v>
+        <v>507900</v>
       </c>
       <c r="I52" s="3">
-        <v>571400</v>
+        <v>506700</v>
       </c>
       <c r="J52" s="3">
+        <v>539700</v>
+      </c>
+      <c r="K52" s="3">
         <v>594600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>577500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>559500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>894000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>920500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1040700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>911000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>910300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30194100</v>
+        <v>30825800</v>
       </c>
       <c r="E54" s="3">
-        <v>30911500</v>
+        <v>30681700</v>
       </c>
       <c r="F54" s="3">
-        <v>29340600</v>
+        <v>31410600</v>
       </c>
       <c r="G54" s="3">
-        <v>28844100</v>
+        <v>29814300</v>
       </c>
       <c r="H54" s="3">
-        <v>27577100</v>
+        <v>29309800</v>
       </c>
       <c r="I54" s="3">
-        <v>28063400</v>
+        <v>28022400</v>
       </c>
       <c r="J54" s="3">
+        <v>28516600</v>
+      </c>
+      <c r="K54" s="3">
         <v>30869000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29179400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28284500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28942300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28955100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28295600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27589900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27434500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1610000</v>
+        <v>1576000</v>
       </c>
       <c r="E57" s="3">
-        <v>1674700</v>
+        <v>1636000</v>
       </c>
       <c r="F57" s="3">
-        <v>1693100</v>
+        <v>1701800</v>
       </c>
       <c r="G57" s="3">
-        <v>1724400</v>
+        <v>1720400</v>
       </c>
       <c r="H57" s="3">
-        <v>1730600</v>
+        <v>1752200</v>
       </c>
       <c r="I57" s="3">
-        <v>1735100</v>
+        <v>1758500</v>
       </c>
       <c r="J57" s="3">
+        <v>1763100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1978300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1911500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3312400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1440600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1268300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1185500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1148300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1089600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>469200</v>
+        <v>539900</v>
       </c>
       <c r="E58" s="3">
-        <v>113500</v>
+        <v>476700</v>
       </c>
       <c r="F58" s="3">
-        <v>97400</v>
+        <v>115300</v>
       </c>
       <c r="G58" s="3">
-        <v>90600</v>
+        <v>99000</v>
       </c>
       <c r="H58" s="3">
-        <v>39100</v>
+        <v>92000</v>
       </c>
       <c r="I58" s="3">
-        <v>53400</v>
+        <v>39700</v>
       </c>
       <c r="J58" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K58" s="3">
         <v>123800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>130900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>74700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1613700</v>
+        <v>1515200</v>
       </c>
       <c r="E59" s="3">
-        <v>1559100</v>
+        <v>1639800</v>
       </c>
       <c r="F59" s="3">
-        <v>1704200</v>
+        <v>1584300</v>
       </c>
       <c r="G59" s="3">
-        <v>1636800</v>
+        <v>1731700</v>
       </c>
       <c r="H59" s="3">
-        <v>1711800</v>
+        <v>1663200</v>
       </c>
       <c r="I59" s="3">
-        <v>1604100</v>
+        <v>1739400</v>
       </c>
       <c r="J59" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1870100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1727300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3013000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2156700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2082900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1899900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2011500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1948800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3692900</v>
+        <v>3631100</v>
       </c>
       <c r="E60" s="3">
-        <v>3347300</v>
+        <v>3752500</v>
       </c>
       <c r="F60" s="3">
-        <v>3494700</v>
+        <v>3401300</v>
       </c>
       <c r="G60" s="3">
-        <v>3451800</v>
+        <v>3551200</v>
       </c>
       <c r="H60" s="3">
-        <v>3481400</v>
+        <v>3507500</v>
       </c>
       <c r="I60" s="3">
-        <v>3392600</v>
+        <v>3537600</v>
       </c>
       <c r="J60" s="3">
+        <v>3447400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3972100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3726900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3791300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3679300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3431900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3163500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3234500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3115700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>713600</v>
+        <v>774900</v>
       </c>
       <c r="E61" s="3">
-        <v>319100</v>
+        <v>725200</v>
       </c>
       <c r="F61" s="3">
-        <v>298300</v>
+        <v>324200</v>
       </c>
       <c r="G61" s="3">
-        <v>307600</v>
+        <v>303100</v>
       </c>
       <c r="H61" s="3">
-        <v>52500</v>
+        <v>312600</v>
       </c>
       <c r="I61" s="3">
-        <v>75600</v>
+        <v>53400</v>
       </c>
       <c r="J61" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K61" s="3">
         <v>82400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>86000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>66600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>163100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>162300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>159800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>145500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>147700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2987700</v>
+        <v>3183800</v>
       </c>
       <c r="E62" s="3">
-        <v>2977300</v>
+        <v>3036000</v>
       </c>
       <c r="F62" s="3">
-        <v>2565100</v>
+        <v>3025400</v>
       </c>
       <c r="G62" s="3">
-        <v>2507600</v>
+        <v>2606600</v>
       </c>
       <c r="H62" s="3">
-        <v>2097800</v>
+        <v>2548000</v>
       </c>
       <c r="I62" s="3">
-        <v>2367100</v>
+        <v>2131700</v>
       </c>
       <c r="J62" s="3">
+        <v>2405300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3018100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2828400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2870000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2752300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2804800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2786100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2754100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2878100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7599600</v>
+        <v>7804500</v>
       </c>
       <c r="E66" s="3">
-        <v>7574900</v>
+        <v>7722300</v>
       </c>
       <c r="F66" s="3">
-        <v>7257700</v>
+        <v>7697200</v>
       </c>
       <c r="G66" s="3">
-        <v>7155100</v>
+        <v>7374900</v>
       </c>
       <c r="H66" s="3">
-        <v>6526700</v>
+        <v>7270600</v>
       </c>
       <c r="I66" s="3">
-        <v>6718500</v>
+        <v>6632100</v>
       </c>
       <c r="J66" s="3">
+        <v>6827000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7961700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7466300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7259300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7372800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7200900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6888400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6885300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6899900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15669200</v>
+        <v>15859700</v>
       </c>
       <c r="E72" s="3">
-        <v>15615400</v>
+        <v>15922200</v>
       </c>
       <c r="F72" s="3">
-        <v>15508600</v>
+        <v>15867500</v>
       </c>
       <c r="G72" s="3">
-        <v>15252400</v>
+        <v>15759000</v>
       </c>
       <c r="H72" s="3">
-        <v>15223600</v>
+        <v>15498600</v>
       </c>
       <c r="I72" s="3">
-        <v>15015100</v>
+        <v>15469400</v>
       </c>
       <c r="J72" s="3">
+        <v>15257500</v>
+      </c>
+      <c r="K72" s="3">
         <v>15207200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14551600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14261900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15225700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15164100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14925300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14530100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14237500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22594500</v>
+        <v>23021400</v>
       </c>
       <c r="E76" s="3">
-        <v>23336600</v>
+        <v>22959300</v>
       </c>
       <c r="F76" s="3">
-        <v>22082900</v>
+        <v>23713400</v>
       </c>
       <c r="G76" s="3">
-        <v>21689000</v>
+        <v>22439400</v>
       </c>
       <c r="H76" s="3">
-        <v>21050400</v>
+        <v>22039200</v>
       </c>
       <c r="I76" s="3">
-        <v>21344900</v>
+        <v>21390300</v>
       </c>
       <c r="J76" s="3">
+        <v>21689500</v>
+      </c>
+      <c r="K76" s="3">
         <v>22907300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21713100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21025200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21569500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21754100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21407200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20704500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20534600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60000</v>
+        <v>211300</v>
       </c>
       <c r="E81" s="3">
-        <v>386900</v>
+        <v>60900</v>
       </c>
       <c r="F81" s="3">
-        <v>256200</v>
+        <v>393200</v>
       </c>
       <c r="G81" s="3">
-        <v>297600</v>
+        <v>260300</v>
       </c>
       <c r="H81" s="3">
-        <v>221000</v>
+        <v>302400</v>
       </c>
       <c r="I81" s="3">
-        <v>9500</v>
+        <v>224600</v>
       </c>
       <c r="J81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K81" s="3">
         <v>335500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>384400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-76600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>268000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>256900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>292600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>307800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>241700</v>
+        <v>241000</v>
       </c>
       <c r="E83" s="3">
-        <v>225700</v>
+        <v>245600</v>
       </c>
       <c r="F83" s="3">
-        <v>200100</v>
+        <v>229400</v>
       </c>
       <c r="G83" s="3">
-        <v>194100</v>
+        <v>203300</v>
       </c>
       <c r="H83" s="3">
-        <v>153200</v>
+        <v>197200</v>
       </c>
       <c r="I83" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="J83" s="3">
+        <v>159600</v>
+      </c>
+      <c r="K83" s="3">
         <v>145700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>134500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>220900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>195500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>172900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>159100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>193000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>179000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>607200</v>
+        <v>350200</v>
       </c>
       <c r="E89" s="3">
-        <v>365200</v>
+        <v>617000</v>
       </c>
       <c r="F89" s="3">
-        <v>512700</v>
+        <v>371000</v>
       </c>
       <c r="G89" s="3">
-        <v>508800</v>
+        <v>521000</v>
       </c>
       <c r="H89" s="3">
-        <v>571100</v>
+        <v>517000</v>
       </c>
       <c r="I89" s="3">
-        <v>302800</v>
+        <v>580300</v>
       </c>
       <c r="J89" s="3">
+        <v>307700</v>
+      </c>
+      <c r="K89" s="3">
         <v>516600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>639500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>416100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>283100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>540300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>612200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>196700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-239400</v>
+        <v>-213500</v>
       </c>
       <c r="E91" s="3">
-        <v>-245700</v>
+        <v>-243300</v>
       </c>
       <c r="F91" s="3">
-        <v>-251100</v>
+        <v>-249700</v>
       </c>
       <c r="G91" s="3">
-        <v>-259100</v>
+        <v>-255100</v>
       </c>
       <c r="H91" s="3">
-        <v>-254900</v>
+        <v>-263300</v>
       </c>
       <c r="I91" s="3">
-        <v>-273000</v>
+        <v>-259000</v>
       </c>
       <c r="J91" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-250700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-247600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-249700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-184700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-148400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-178400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-138400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-161800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-125200</v>
+        <v>-353700</v>
       </c>
       <c r="E94" s="3">
-        <v>-299100</v>
+        <v>-127300</v>
       </c>
       <c r="F94" s="3">
-        <v>-204900</v>
+        <v>-303900</v>
       </c>
       <c r="G94" s="3">
-        <v>-723000</v>
+        <v>-208200</v>
       </c>
       <c r="H94" s="3">
-        <v>348200</v>
+        <v>-734600</v>
       </c>
       <c r="I94" s="3">
-        <v>135300</v>
+        <v>353900</v>
       </c>
       <c r="J94" s="3">
+        <v>137400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-863100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>381500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-398000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-373500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-118500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-142300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-17600</v>
+        <v>-269200</v>
       </c>
       <c r="E96" s="3">
-        <v>-265700</v>
+        <v>-17900</v>
       </c>
       <c r="F96" s="3">
-        <v>-22300</v>
+        <v>-270000</v>
       </c>
       <c r="G96" s="3">
-        <v>-270500</v>
+        <v>-22700</v>
       </c>
       <c r="H96" s="3">
-        <v>-14700</v>
+        <v>-274900</v>
       </c>
       <c r="I96" s="3">
-        <v>-203000</v>
+        <v>-14900</v>
       </c>
       <c r="J96" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-204800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-199100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-199000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-161000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-518600</v>
+        <v>-331700</v>
       </c>
       <c r="E100" s="3">
-        <v>-315300</v>
+        <v>-526900</v>
       </c>
       <c r="F100" s="3">
-        <v>-6700</v>
+        <v>-320400</v>
       </c>
       <c r="G100" s="3">
-        <v>-619200</v>
+        <v>-6800</v>
       </c>
       <c r="H100" s="3">
-        <v>-24900</v>
+        <v>-629100</v>
       </c>
       <c r="I100" s="3">
-        <v>-211300</v>
+        <v>-25300</v>
       </c>
       <c r="J100" s="3">
+        <v>-214700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-558900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-202200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-202300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-168000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-45500</v>
+        <v>-17700</v>
       </c>
       <c r="E101" s="3">
-        <v>57300</v>
+        <v>-46300</v>
       </c>
       <c r="F101" s="3">
-        <v>-17400</v>
+        <v>58200</v>
       </c>
       <c r="G101" s="3">
-        <v>-42200</v>
+        <v>-17700</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>-42900</v>
       </c>
       <c r="I101" s="3">
-        <v>-61300</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K101" s="3">
         <v>44900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>50100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-111700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-79900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>228500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-82100</v>
+        <v>-352900</v>
       </c>
       <c r="E102" s="3">
-        <v>-191900</v>
+        <v>-83400</v>
       </c>
       <c r="F102" s="3">
-        <v>283800</v>
+        <v>-195000</v>
       </c>
       <c r="G102" s="3">
-        <v>-875500</v>
+        <v>288300</v>
       </c>
       <c r="H102" s="3">
-        <v>897100</v>
+        <v>-889600</v>
       </c>
       <c r="I102" s="3">
-        <v>165500</v>
+        <v>911600</v>
       </c>
       <c r="J102" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-321500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>680300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-388500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>162900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>403300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>114900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2993400</v>
+        <v>3641600</v>
       </c>
       <c r="E8" s="3">
-        <v>3796500</v>
+        <v>3047300</v>
       </c>
       <c r="F8" s="3">
-        <v>3755600</v>
+        <v>3864800</v>
       </c>
       <c r="G8" s="3">
-        <v>3909200</v>
+        <v>3823200</v>
       </c>
       <c r="H8" s="3">
-        <v>3633800</v>
+        <v>3979600</v>
       </c>
       <c r="I8" s="3">
-        <v>3863700</v>
+        <v>3699200</v>
       </c>
       <c r="J8" s="3">
+        <v>3933300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3906100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3838200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3522200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3905500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3676300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3554400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3120300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3620100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3205500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2204200</v>
+        <v>2708500</v>
       </c>
       <c r="E9" s="3">
-        <v>2828100</v>
+        <v>2243900</v>
       </c>
       <c r="F9" s="3">
-        <v>2698700</v>
+        <v>2879000</v>
       </c>
       <c r="G9" s="3">
-        <v>2808400</v>
+        <v>2747300</v>
       </c>
       <c r="H9" s="3">
-        <v>2595200</v>
+        <v>2859000</v>
       </c>
       <c r="I9" s="3">
-        <v>2796800</v>
+        <v>2641900</v>
       </c>
       <c r="J9" s="3">
+        <v>2847200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2757200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2722900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2529100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3355700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2680900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2574800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2240500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2643900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2335900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>789200</v>
+        <v>933100</v>
       </c>
       <c r="E10" s="3">
-        <v>968400</v>
+        <v>803400</v>
       </c>
       <c r="F10" s="3">
-        <v>1056800</v>
+        <v>985900</v>
       </c>
       <c r="G10" s="3">
-        <v>1100800</v>
+        <v>1075900</v>
       </c>
       <c r="H10" s="3">
-        <v>1038600</v>
+        <v>1120600</v>
       </c>
       <c r="I10" s="3">
-        <v>1066900</v>
+        <v>1057300</v>
       </c>
       <c r="J10" s="3">
+        <v>1086200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1148800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1115300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>993100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>549800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>995400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>979600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>879800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>976200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>869600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,11 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2921900</v>
+        <v>3483200</v>
       </c>
       <c r="E17" s="3">
-        <v>3746100</v>
+        <v>2974500</v>
       </c>
       <c r="F17" s="3">
-        <v>3429500</v>
+        <v>3813600</v>
       </c>
       <c r="G17" s="3">
-        <v>3553400</v>
+        <v>3491300</v>
       </c>
       <c r="H17" s="3">
-        <v>3420200</v>
+        <v>3617400</v>
       </c>
       <c r="I17" s="3">
-        <v>3540400</v>
+        <v>3481800</v>
       </c>
       <c r="J17" s="3">
+        <v>3604200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4114000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3415500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3185000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4026700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3323300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3210700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2837700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3288000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2910000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71500</v>
+        <v>158500</v>
       </c>
       <c r="E18" s="3">
-        <v>50300</v>
+        <v>72800</v>
       </c>
       <c r="F18" s="3">
-        <v>326100</v>
+        <v>51300</v>
       </c>
       <c r="G18" s="3">
-        <v>355800</v>
+        <v>331900</v>
       </c>
       <c r="H18" s="3">
-        <v>213600</v>
+        <v>362200</v>
       </c>
       <c r="I18" s="3">
-        <v>323300</v>
+        <v>217500</v>
       </c>
       <c r="J18" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-207900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>422700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>337300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-121200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>353000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>343600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>282600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>332100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>295500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>215600</v>
+        <v>12900</v>
       </c>
       <c r="E20" s="3">
-        <v>17600</v>
+        <v>219500</v>
       </c>
       <c r="F20" s="3">
-        <v>206500</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
-        <v>19200</v>
+        <v>210200</v>
       </c>
       <c r="H20" s="3">
-        <v>215800</v>
+        <v>19600</v>
       </c>
       <c r="I20" s="3">
-        <v>21400</v>
+        <v>219700</v>
       </c>
       <c r="J20" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K20" s="3">
         <v>192900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>167100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>160500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>166500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>149100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>528000</v>
+        <v>427800</v>
       </c>
       <c r="E21" s="3">
-        <v>313600</v>
+        <v>537500</v>
       </c>
       <c r="F21" s="3">
-        <v>761900</v>
+        <v>319200</v>
       </c>
       <c r="G21" s="3">
-        <v>578400</v>
+        <v>775600</v>
       </c>
       <c r="H21" s="3">
-        <v>626600</v>
+        <v>588800</v>
       </c>
       <c r="I21" s="3">
-        <v>500400</v>
+        <v>637900</v>
       </c>
       <c r="J21" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K21" s="3">
         <v>144600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>612100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>638900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>707700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>549700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>607500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>543200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>623600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,135 +1457,144 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>3700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>287100</v>
+        <v>171400</v>
       </c>
       <c r="E23" s="3">
-        <v>67900</v>
+        <v>292200</v>
       </c>
       <c r="F23" s="3">
-        <v>532600</v>
+        <v>69200</v>
       </c>
       <c r="G23" s="3">
-        <v>375000</v>
+        <v>542200</v>
       </c>
       <c r="H23" s="3">
-        <v>429400</v>
+        <v>381800</v>
       </c>
       <c r="I23" s="3">
-        <v>344700</v>
+        <v>437100</v>
       </c>
       <c r="J23" s="3">
+        <v>350900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>466400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>504400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-117500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>510500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>374600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>446200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>347200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>444600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71300</v>
+        <v>48600</v>
       </c>
       <c r="E24" s="3">
-        <v>25600</v>
+        <v>72600</v>
       </c>
       <c r="F24" s="3">
-        <v>120700</v>
+        <v>26100</v>
       </c>
       <c r="G24" s="3">
-        <v>97500</v>
+        <v>122900</v>
       </c>
       <c r="H24" s="3">
-        <v>105200</v>
+        <v>99300</v>
       </c>
       <c r="I24" s="3">
-        <v>94000</v>
+        <v>107100</v>
       </c>
       <c r="J24" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-54600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-57600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>261300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>115400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>123600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215800</v>
+        <v>122800</v>
       </c>
       <c r="E26" s="3">
-        <v>42300</v>
+        <v>219700</v>
       </c>
       <c r="F26" s="3">
-        <v>411900</v>
+        <v>43100</v>
       </c>
       <c r="G26" s="3">
-        <v>277500</v>
+        <v>419300</v>
       </c>
       <c r="H26" s="3">
-        <v>324200</v>
+        <v>282500</v>
       </c>
       <c r="I26" s="3">
-        <v>250700</v>
+        <v>330000</v>
       </c>
       <c r="J26" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K26" s="3">
         <v>39600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>365200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>407200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-59900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>273900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>330700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>309900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>321000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211300</v>
+        <v>115100</v>
       </c>
       <c r="E27" s="3">
-        <v>60900</v>
+        <v>215100</v>
       </c>
       <c r="F27" s="3">
-        <v>393200</v>
+        <v>62000</v>
       </c>
       <c r="G27" s="3">
-        <v>260300</v>
+        <v>400300</v>
       </c>
       <c r="H27" s="3">
-        <v>302400</v>
+        <v>265000</v>
       </c>
       <c r="I27" s="3">
-        <v>224600</v>
+        <v>307900</v>
       </c>
       <c r="J27" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>335500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>384400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-76600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>268000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>256900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>292600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>307800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-215600</v>
+        <v>-12900</v>
       </c>
       <c r="E32" s="3">
-        <v>-17600</v>
+        <v>-219500</v>
       </c>
       <c r="F32" s="3">
-        <v>-206500</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
-        <v>-19200</v>
+        <v>-210200</v>
       </c>
       <c r="H32" s="3">
-        <v>-215800</v>
+        <v>-19600</v>
       </c>
       <c r="I32" s="3">
-        <v>-21400</v>
+        <v>-219700</v>
       </c>
       <c r="J32" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-192900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-167100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-160500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-149100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211300</v>
+        <v>115100</v>
       </c>
       <c r="E33" s="3">
-        <v>60900</v>
+        <v>215100</v>
       </c>
       <c r="F33" s="3">
-        <v>393200</v>
+        <v>62000</v>
       </c>
       <c r="G33" s="3">
-        <v>260300</v>
+        <v>400300</v>
       </c>
       <c r="H33" s="3">
-        <v>302400</v>
+        <v>265000</v>
       </c>
       <c r="I33" s="3">
-        <v>224600</v>
+        <v>307900</v>
       </c>
       <c r="J33" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>335500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>384400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-76600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>268000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>256900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>292600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>307800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211300</v>
+        <v>115100</v>
       </c>
       <c r="E35" s="3">
-        <v>60900</v>
+        <v>215100</v>
       </c>
       <c r="F35" s="3">
-        <v>393200</v>
+        <v>62000</v>
       </c>
       <c r="G35" s="3">
-        <v>260300</v>
+        <v>400300</v>
       </c>
       <c r="H35" s="3">
-        <v>302400</v>
+        <v>265000</v>
       </c>
       <c r="I35" s="3">
-        <v>224600</v>
+        <v>307900</v>
       </c>
       <c r="J35" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>335500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>384400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-76600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>268000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>256900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>292600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>307800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3608300</v>
+        <v>3727000</v>
       </c>
       <c r="E41" s="3">
-        <v>3961200</v>
+        <v>3673300</v>
       </c>
       <c r="F41" s="3">
-        <v>4044700</v>
+        <v>4032500</v>
       </c>
       <c r="G41" s="3">
-        <v>4239700</v>
+        <v>4117500</v>
       </c>
       <c r="H41" s="3">
-        <v>3951300</v>
+        <v>4316000</v>
       </c>
       <c r="I41" s="3">
-        <v>4841000</v>
+        <v>4022500</v>
       </c>
       <c r="J41" s="3">
+        <v>4928100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3929400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3701500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3936400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3841400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3161100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3549600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3386800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3336800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2933500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>655000</v>
+        <v>841500</v>
       </c>
       <c r="E42" s="3">
-        <v>698900</v>
+        <v>666800</v>
       </c>
       <c r="F42" s="3">
-        <v>905100</v>
+        <v>711500</v>
       </c>
       <c r="G42" s="3">
-        <v>801300</v>
+        <v>921400</v>
       </c>
       <c r="H42" s="3">
-        <v>850400</v>
+        <v>815800</v>
       </c>
       <c r="I42" s="3">
-        <v>1029700</v>
+        <v>865700</v>
       </c>
       <c r="J42" s="3">
+        <v>1048300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1800100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2283700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1698900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2240300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2625500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2485300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2702500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2637700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2861200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2699500</v>
+        <v>2878900</v>
       </c>
       <c r="E43" s="3">
-        <v>3174600</v>
+        <v>2748100</v>
       </c>
       <c r="F43" s="3">
-        <v>3117000</v>
+        <v>3231800</v>
       </c>
       <c r="G43" s="3">
-        <v>3029400</v>
+        <v>3173100</v>
       </c>
       <c r="H43" s="3">
-        <v>3110200</v>
+        <v>3083900</v>
       </c>
       <c r="I43" s="3">
-        <v>3373400</v>
+        <v>3166200</v>
       </c>
       <c r="J43" s="3">
+        <v>3434200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3476600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3282400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3091900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6642700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2955300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2875900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2498600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2787500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2605300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3543400</v>
+        <v>3354900</v>
       </c>
       <c r="E44" s="3">
-        <v>3250200</v>
+        <v>3607300</v>
       </c>
       <c r="F44" s="3">
-        <v>3516600</v>
+        <v>3308800</v>
       </c>
       <c r="G44" s="3">
-        <v>3483300</v>
+        <v>3580000</v>
       </c>
       <c r="H44" s="3">
-        <v>3474700</v>
+        <v>3546100</v>
       </c>
       <c r="I44" s="3">
-        <v>3246200</v>
+        <v>3537200</v>
       </c>
       <c r="J44" s="3">
+        <v>3304700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3262400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3464600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3359200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6596900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3688200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3229400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3190100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2937300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3162600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>313600</v>
+        <v>302500</v>
       </c>
       <c r="E45" s="3">
-        <v>268600</v>
+        <v>319200</v>
       </c>
       <c r="F45" s="3">
-        <v>253800</v>
+        <v>273500</v>
       </c>
       <c r="G45" s="3">
-        <v>312800</v>
+        <v>258400</v>
       </c>
       <c r="H45" s="3">
-        <v>329900</v>
+        <v>318400</v>
       </c>
       <c r="I45" s="3">
-        <v>327000</v>
+        <v>335900</v>
       </c>
       <c r="J45" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K45" s="3">
         <v>305200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>830200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>785400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>756000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1155700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1160800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1034600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1061900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1071600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10819900</v>
+        <v>11104900</v>
       </c>
       <c r="E46" s="3">
-        <v>11353600</v>
+        <v>11014700</v>
       </c>
       <c r="F46" s="3">
-        <v>11837300</v>
+        <v>11558000</v>
       </c>
       <c r="G46" s="3">
-        <v>11866500</v>
+        <v>12050400</v>
       </c>
       <c r="H46" s="3">
-        <v>11716400</v>
+        <v>12080200</v>
       </c>
       <c r="I46" s="3">
-        <v>12817300</v>
+        <v>11927400</v>
       </c>
       <c r="J46" s="3">
+        <v>13048100</v>
+      </c>
+      <c r="K46" s="3">
         <v>12773700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13562400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12871800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13251700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13585900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13301000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12812500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12761200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12634200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11989100</v>
+        <v>10217900</v>
       </c>
       <c r="E47" s="3">
-        <v>11717300</v>
+        <v>12205000</v>
       </c>
       <c r="F47" s="3">
-        <v>12068700</v>
+        <v>11928300</v>
       </c>
       <c r="G47" s="3">
-        <v>10653900</v>
+        <v>12286000</v>
       </c>
       <c r="H47" s="3">
-        <v>10491500</v>
+        <v>10845700</v>
       </c>
       <c r="I47" s="3">
-        <v>9304800</v>
+        <v>10680400</v>
       </c>
       <c r="J47" s="3">
+        <v>9472400</v>
+      </c>
+      <c r="K47" s="3">
         <v>10046500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11552400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10879300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9832500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9896100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10362200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10425800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10029800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9971200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4072900</v>
+        <v>4260800</v>
       </c>
       <c r="E48" s="3">
-        <v>3947700</v>
+        <v>4146200</v>
       </c>
       <c r="F48" s="3">
-        <v>3877600</v>
+        <v>4018800</v>
       </c>
       <c r="G48" s="3">
-        <v>3702300</v>
+        <v>3947400</v>
       </c>
       <c r="H48" s="3">
-        <v>3576900</v>
+        <v>3769000</v>
       </c>
       <c r="I48" s="3">
-        <v>3227100</v>
+        <v>3641300</v>
       </c>
       <c r="J48" s="3">
+        <v>3285200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3052800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3012700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2790300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5332000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2661600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2499100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2443200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2364800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2386800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3367200</v>
+        <v>3417700</v>
       </c>
       <c r="E49" s="3">
-        <v>3122200</v>
+        <v>3427800</v>
       </c>
       <c r="F49" s="3">
-        <v>3104500</v>
+        <v>3178400</v>
       </c>
       <c r="G49" s="3">
-        <v>3077100</v>
+        <v>3160500</v>
       </c>
       <c r="H49" s="3">
-        <v>3017200</v>
+        <v>3132500</v>
       </c>
       <c r="I49" s="3">
-        <v>2166500</v>
+        <v>3071500</v>
       </c>
       <c r="J49" s="3">
+        <v>2205500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2103800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2146800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2060600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4058100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1904600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1872200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1573300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1523000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1531900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>576900</v>
+        <v>585600</v>
       </c>
       <c r="E52" s="3">
-        <v>540900</v>
+        <v>587300</v>
       </c>
       <c r="F52" s="3">
-        <v>522600</v>
+        <v>550700</v>
       </c>
       <c r="G52" s="3">
-        <v>514600</v>
+        <v>532000</v>
       </c>
       <c r="H52" s="3">
-        <v>507900</v>
+        <v>523800</v>
       </c>
       <c r="I52" s="3">
-        <v>506700</v>
+        <v>517000</v>
       </c>
       <c r="J52" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K52" s="3">
         <v>539700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>594600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>577500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>559500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>894000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>920500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1040700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>911000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>910300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30825800</v>
+        <v>29586900</v>
       </c>
       <c r="E54" s="3">
-        <v>30681700</v>
+        <v>31381000</v>
       </c>
       <c r="F54" s="3">
-        <v>31410600</v>
+        <v>31234200</v>
       </c>
       <c r="G54" s="3">
-        <v>29814300</v>
+        <v>31976300</v>
       </c>
       <c r="H54" s="3">
-        <v>29309800</v>
+        <v>30351200</v>
       </c>
       <c r="I54" s="3">
-        <v>28022400</v>
+        <v>29837600</v>
       </c>
       <c r="J54" s="3">
+        <v>28527000</v>
+      </c>
+      <c r="K54" s="3">
         <v>28516600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30869000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29179400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28284500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28942300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28955100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28295600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27589900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27434500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1576000</v>
+        <v>1541300</v>
       </c>
       <c r="E57" s="3">
-        <v>1636000</v>
+        <v>1604400</v>
       </c>
       <c r="F57" s="3">
-        <v>1701800</v>
+        <v>1665400</v>
       </c>
       <c r="G57" s="3">
-        <v>1720400</v>
+        <v>1732400</v>
       </c>
       <c r="H57" s="3">
-        <v>1752200</v>
+        <v>1751400</v>
       </c>
       <c r="I57" s="3">
-        <v>1758500</v>
+        <v>1783800</v>
       </c>
       <c r="J57" s="3">
+        <v>1790200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1763100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1978300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1911500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3312400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1440600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1268300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1185500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1148300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1089600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>539900</v>
+        <v>514300</v>
       </c>
       <c r="E58" s="3">
-        <v>476700</v>
+        <v>549600</v>
       </c>
       <c r="F58" s="3">
-        <v>115300</v>
+        <v>485300</v>
       </c>
       <c r="G58" s="3">
-        <v>99000</v>
+        <v>117400</v>
       </c>
       <c r="H58" s="3">
-        <v>92000</v>
+        <v>100800</v>
       </c>
       <c r="I58" s="3">
-        <v>39700</v>
+        <v>93700</v>
       </c>
       <c r="J58" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K58" s="3">
         <v>54300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>123800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>88100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>130900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>82000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>80700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>78200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>74700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1515200</v>
+        <v>1563900</v>
       </c>
       <c r="E59" s="3">
-        <v>1639800</v>
+        <v>1542500</v>
       </c>
       <c r="F59" s="3">
-        <v>1584300</v>
+        <v>1669300</v>
       </c>
       <c r="G59" s="3">
-        <v>1731700</v>
+        <v>1612800</v>
       </c>
       <c r="H59" s="3">
-        <v>1663200</v>
+        <v>1762900</v>
       </c>
       <c r="I59" s="3">
-        <v>1739400</v>
+        <v>1693200</v>
       </c>
       <c r="J59" s="3">
+        <v>1770800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1630000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1870100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1727300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3013000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2156700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2082900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1899900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2011500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1948800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3631100</v>
+        <v>3619600</v>
       </c>
       <c r="E60" s="3">
-        <v>3752500</v>
+        <v>3696500</v>
       </c>
       <c r="F60" s="3">
-        <v>3401300</v>
+        <v>3820100</v>
       </c>
       <c r="G60" s="3">
-        <v>3551200</v>
+        <v>3462600</v>
       </c>
       <c r="H60" s="3">
-        <v>3507500</v>
+        <v>3615100</v>
       </c>
       <c r="I60" s="3">
-        <v>3537600</v>
+        <v>3570700</v>
       </c>
       <c r="J60" s="3">
+        <v>3601300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3447400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3972100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3726900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3791300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3679300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3431900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3163500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3234500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3115700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>774900</v>
+        <v>786900</v>
       </c>
       <c r="E61" s="3">
-        <v>725200</v>
+        <v>788800</v>
       </c>
       <c r="F61" s="3">
-        <v>324200</v>
+        <v>738200</v>
       </c>
       <c r="G61" s="3">
-        <v>303100</v>
+        <v>330100</v>
       </c>
       <c r="H61" s="3">
-        <v>312600</v>
+        <v>308500</v>
       </c>
       <c r="I61" s="3">
-        <v>53400</v>
+        <v>318200</v>
       </c>
       <c r="J61" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K61" s="3">
         <v>76800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>82400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>86000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>66600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>163100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>162300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>159800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>145500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>147700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3183800</v>
+        <v>2697600</v>
       </c>
       <c r="E62" s="3">
-        <v>3036000</v>
+        <v>3241100</v>
       </c>
       <c r="F62" s="3">
-        <v>3025400</v>
+        <v>3090600</v>
       </c>
       <c r="G62" s="3">
-        <v>2606600</v>
+        <v>3079800</v>
       </c>
       <c r="H62" s="3">
-        <v>2548000</v>
+        <v>2653500</v>
       </c>
       <c r="I62" s="3">
-        <v>2131700</v>
+        <v>2593900</v>
       </c>
       <c r="J62" s="3">
+        <v>2170000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2405300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3018100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2828400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2870000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2752300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2804800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2786100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2754100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2878100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7804500</v>
+        <v>7328300</v>
       </c>
       <c r="E66" s="3">
-        <v>7722300</v>
+        <v>7945000</v>
       </c>
       <c r="F66" s="3">
-        <v>7697200</v>
+        <v>7861400</v>
       </c>
       <c r="G66" s="3">
-        <v>7374900</v>
+        <v>7835900</v>
       </c>
       <c r="H66" s="3">
-        <v>7270600</v>
+        <v>7507700</v>
       </c>
       <c r="I66" s="3">
-        <v>6632100</v>
+        <v>7401600</v>
       </c>
       <c r="J66" s="3">
+        <v>6751600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6827000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7961700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7466300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7259300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7372800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7200900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6888400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6885300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6899900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15859700</v>
+        <v>16260500</v>
       </c>
       <c r="E72" s="3">
-        <v>15922200</v>
+        <v>16145300</v>
       </c>
       <c r="F72" s="3">
-        <v>15867500</v>
+        <v>16208900</v>
       </c>
       <c r="G72" s="3">
-        <v>15759000</v>
+        <v>16153300</v>
       </c>
       <c r="H72" s="3">
-        <v>15498600</v>
+        <v>16042800</v>
       </c>
       <c r="I72" s="3">
-        <v>15469400</v>
+        <v>15777800</v>
       </c>
       <c r="J72" s="3">
+        <v>15748000</v>
+      </c>
+      <c r="K72" s="3">
         <v>15257500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15207200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14551600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14261900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15225700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15164100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14925300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14530100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14237500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23021400</v>
+        <v>22258600</v>
       </c>
       <c r="E76" s="3">
-        <v>22959300</v>
+        <v>23436000</v>
       </c>
       <c r="F76" s="3">
-        <v>23713400</v>
+        <v>23372800</v>
       </c>
       <c r="G76" s="3">
-        <v>22439400</v>
+        <v>24140400</v>
       </c>
       <c r="H76" s="3">
-        <v>22039200</v>
+        <v>22843500</v>
       </c>
       <c r="I76" s="3">
-        <v>21390300</v>
+        <v>22436100</v>
       </c>
       <c r="J76" s="3">
+        <v>21775500</v>
+      </c>
+      <c r="K76" s="3">
         <v>21689500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22907300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21713100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21025200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21569500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21754100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21407200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20704500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20534600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211300</v>
+        <v>115100</v>
       </c>
       <c r="E81" s="3">
-        <v>60900</v>
+        <v>215100</v>
       </c>
       <c r="F81" s="3">
-        <v>393200</v>
+        <v>62000</v>
       </c>
       <c r="G81" s="3">
-        <v>260300</v>
+        <v>400300</v>
       </c>
       <c r="H81" s="3">
-        <v>302400</v>
+        <v>265000</v>
       </c>
       <c r="I81" s="3">
-        <v>224600</v>
+        <v>307900</v>
       </c>
       <c r="J81" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>335500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>384400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-76600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>268000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>256900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>292600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>307800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>241000</v>
+        <v>256400</v>
       </c>
       <c r="E83" s="3">
-        <v>245600</v>
+        <v>245300</v>
       </c>
       <c r="F83" s="3">
-        <v>229400</v>
+        <v>250000</v>
       </c>
       <c r="G83" s="3">
-        <v>203300</v>
+        <v>233500</v>
       </c>
       <c r="H83" s="3">
-        <v>197200</v>
+        <v>207000</v>
       </c>
       <c r="I83" s="3">
-        <v>155700</v>
+        <v>200800</v>
       </c>
       <c r="J83" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K83" s="3">
         <v>159600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>134500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>220900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>195500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>172900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>159100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>193000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>179000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>350200</v>
+        <v>472400</v>
       </c>
       <c r="E89" s="3">
-        <v>617000</v>
+        <v>356500</v>
       </c>
       <c r="F89" s="3">
-        <v>371000</v>
+        <v>628100</v>
       </c>
       <c r="G89" s="3">
-        <v>521000</v>
+        <v>377700</v>
       </c>
       <c r="H89" s="3">
-        <v>517000</v>
+        <v>530400</v>
       </c>
       <c r="I89" s="3">
-        <v>580300</v>
+        <v>526300</v>
       </c>
       <c r="J89" s="3">
+        <v>590800</v>
+      </c>
+      <c r="K89" s="3">
         <v>307700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>516600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>639500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>416100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>283100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>540300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>612200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>196700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213500</v>
+        <v>-297200</v>
       </c>
       <c r="E91" s="3">
-        <v>-243300</v>
+        <v>-217400</v>
       </c>
       <c r="F91" s="3">
+        <v>-247600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-259700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-250700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-247600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-249700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-255100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-263300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-259000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-277400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-250700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-247600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-249700</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-184700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-148400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-178400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-138400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-161800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-353700</v>
+        <v>-305000</v>
       </c>
       <c r="E94" s="3">
-        <v>-127300</v>
+        <v>-360100</v>
       </c>
       <c r="F94" s="3">
-        <v>-303900</v>
+        <v>-129500</v>
       </c>
       <c r="G94" s="3">
-        <v>-208200</v>
+        <v>-309400</v>
       </c>
       <c r="H94" s="3">
-        <v>-734600</v>
+        <v>-211900</v>
       </c>
       <c r="I94" s="3">
-        <v>353900</v>
+        <v>-747900</v>
       </c>
       <c r="J94" s="3">
+        <v>360200</v>
+      </c>
+      <c r="K94" s="3">
         <v>137400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-863100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>381500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-398000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-373500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-118500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-142300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-269200</v>
+        <v>-16500</v>
       </c>
       <c r="E96" s="3">
-        <v>-17900</v>
+        <v>-274000</v>
       </c>
       <c r="F96" s="3">
-        <v>-270000</v>
+        <v>-18200</v>
       </c>
       <c r="G96" s="3">
-        <v>-22700</v>
+        <v>-274800</v>
       </c>
       <c r="H96" s="3">
-        <v>-274900</v>
+        <v>-23100</v>
       </c>
       <c r="I96" s="3">
-        <v>-14900</v>
+        <v>-279800</v>
       </c>
       <c r="J96" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-206300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-204800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-199100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-161000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-331700</v>
+        <v>-104100</v>
       </c>
       <c r="E100" s="3">
-        <v>-526900</v>
+        <v>-337600</v>
       </c>
       <c r="F100" s="3">
-        <v>-320400</v>
+        <v>-536400</v>
       </c>
       <c r="G100" s="3">
-        <v>-6800</v>
+        <v>-326100</v>
       </c>
       <c r="H100" s="3">
-        <v>-629100</v>
+        <v>-6900</v>
       </c>
       <c r="I100" s="3">
-        <v>-25300</v>
+        <v>-640500</v>
       </c>
       <c r="J100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-214700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-558900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-202200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-202300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-168000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17700</v>
+        <v>-9700</v>
       </c>
       <c r="E101" s="3">
-        <v>-46300</v>
+        <v>-18000</v>
       </c>
       <c r="F101" s="3">
-        <v>58200</v>
+        <v>-47100</v>
       </c>
       <c r="G101" s="3">
-        <v>-17700</v>
+        <v>59300</v>
       </c>
       <c r="H101" s="3">
-        <v>-42900</v>
+        <v>-18000</v>
       </c>
       <c r="I101" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-62300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>50100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-111700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-79900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>228500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-352900</v>
+        <v>53700</v>
       </c>
       <c r="E102" s="3">
-        <v>-83400</v>
+        <v>-359200</v>
       </c>
       <c r="F102" s="3">
-        <v>-195000</v>
+        <v>-85000</v>
       </c>
       <c r="G102" s="3">
-        <v>288300</v>
+        <v>-198500</v>
       </c>
       <c r="H102" s="3">
-        <v>-889600</v>
+        <v>293500</v>
       </c>
       <c r="I102" s="3">
-        <v>911600</v>
+        <v>-905700</v>
       </c>
       <c r="J102" s="3">
+        <v>928000</v>
+      </c>
+      <c r="K102" s="3">
         <v>168200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-321500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>680300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-388500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>162900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>403300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>114900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3641600</v>
+        <v>3705200</v>
       </c>
       <c r="E8" s="3">
-        <v>3047300</v>
+        <v>3471100</v>
       </c>
       <c r="F8" s="3">
-        <v>3864800</v>
+        <v>2904600</v>
       </c>
       <c r="G8" s="3">
-        <v>3823200</v>
+        <v>3683900</v>
       </c>
       <c r="H8" s="3">
-        <v>3979600</v>
+        <v>3644200</v>
       </c>
       <c r="I8" s="3">
-        <v>3699200</v>
+        <v>3793300</v>
       </c>
       <c r="J8" s="3">
+        <v>3526000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3933300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3906100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3838200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3522200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3905500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3676300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3554400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3120300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3620100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3205500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2708500</v>
+        <v>2686100</v>
       </c>
       <c r="E9" s="3">
-        <v>2243900</v>
+        <v>2581700</v>
       </c>
       <c r="F9" s="3">
-        <v>2879000</v>
+        <v>2138800</v>
       </c>
       <c r="G9" s="3">
-        <v>2747300</v>
+        <v>2744200</v>
       </c>
       <c r="H9" s="3">
-        <v>2859000</v>
+        <v>2618700</v>
       </c>
       <c r="I9" s="3">
-        <v>2641900</v>
+        <v>2725100</v>
       </c>
       <c r="J9" s="3">
+        <v>2518200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2847200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2757200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2722900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2529100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3355700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2680900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2574800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2240500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2643900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2335900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>933100</v>
+        <v>1019100</v>
       </c>
       <c r="E10" s="3">
-        <v>803400</v>
+        <v>889400</v>
       </c>
       <c r="F10" s="3">
-        <v>985900</v>
+        <v>765800</v>
       </c>
       <c r="G10" s="3">
-        <v>1075900</v>
+        <v>939700</v>
       </c>
       <c r="H10" s="3">
-        <v>1120600</v>
+        <v>1025500</v>
       </c>
       <c r="I10" s="3">
-        <v>1057300</v>
+        <v>1068200</v>
       </c>
       <c r="J10" s="3">
+        <v>1007800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1086200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1148800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1115300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>993100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>549800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>995400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>979600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>879800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>976200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>869600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,11 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3483200</v>
+        <v>3531900</v>
       </c>
       <c r="E17" s="3">
-        <v>2974500</v>
+        <v>3320100</v>
       </c>
       <c r="F17" s="3">
-        <v>3813600</v>
+        <v>2835200</v>
       </c>
       <c r="G17" s="3">
-        <v>3491300</v>
+        <v>3635000</v>
       </c>
       <c r="H17" s="3">
-        <v>3617400</v>
+        <v>3327800</v>
       </c>
       <c r="I17" s="3">
-        <v>3481800</v>
+        <v>3448000</v>
       </c>
       <c r="J17" s="3">
+        <v>3318700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3604200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4114000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3415500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3185000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4026700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3323300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3210700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2837700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3288000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2910000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>158500</v>
+        <v>173300</v>
       </c>
       <c r="E18" s="3">
-        <v>72800</v>
+        <v>151100</v>
       </c>
       <c r="F18" s="3">
-        <v>51300</v>
+        <v>69400</v>
       </c>
       <c r="G18" s="3">
-        <v>331900</v>
+        <v>48900</v>
       </c>
       <c r="H18" s="3">
-        <v>362200</v>
+        <v>316400</v>
       </c>
       <c r="I18" s="3">
-        <v>217500</v>
+        <v>345200</v>
       </c>
       <c r="J18" s="3">
+        <v>207300</v>
+      </c>
+      <c r="K18" s="3">
         <v>329100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-207900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>422700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>337300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-121200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>353000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>343600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>282600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>332100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>295500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12900</v>
+        <v>183600</v>
       </c>
       <c r="E20" s="3">
-        <v>219500</v>
+        <v>12300</v>
       </c>
       <c r="F20" s="3">
-        <v>17900</v>
+        <v>209200</v>
       </c>
       <c r="G20" s="3">
-        <v>210200</v>
+        <v>17100</v>
       </c>
       <c r="H20" s="3">
-        <v>19600</v>
+        <v>200400</v>
       </c>
       <c r="I20" s="3">
-        <v>219700</v>
+        <v>18600</v>
       </c>
       <c r="J20" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K20" s="3">
         <v>21700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>192900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>167100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>160500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>166500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>149100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>427800</v>
+        <v>609400</v>
       </c>
       <c r="E21" s="3">
-        <v>537500</v>
+        <v>407800</v>
       </c>
       <c r="F21" s="3">
-        <v>319200</v>
+        <v>512400</v>
       </c>
       <c r="G21" s="3">
-        <v>775600</v>
+        <v>304300</v>
       </c>
       <c r="H21" s="3">
-        <v>588800</v>
+        <v>739300</v>
       </c>
       <c r="I21" s="3">
-        <v>637900</v>
+        <v>561200</v>
       </c>
       <c r="J21" s="3">
+        <v>608000</v>
+      </c>
+      <c r="K21" s="3">
         <v>509400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>612100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>638900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>707700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>549700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>607500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>543200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>623600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,141 +1499,150 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>3700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>171400</v>
+        <v>356900</v>
       </c>
       <c r="E23" s="3">
-        <v>292200</v>
+        <v>163400</v>
       </c>
       <c r="F23" s="3">
-        <v>69200</v>
+        <v>278600</v>
       </c>
       <c r="G23" s="3">
-        <v>542200</v>
+        <v>65900</v>
       </c>
       <c r="H23" s="3">
-        <v>381800</v>
+        <v>516800</v>
       </c>
       <c r="I23" s="3">
-        <v>437100</v>
+        <v>363900</v>
       </c>
       <c r="J23" s="3">
+        <v>416700</v>
+      </c>
+      <c r="K23" s="3">
         <v>350900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>466400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>504400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-117500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>510500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>374600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>446200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>347200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>444600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48600</v>
+        <v>79500</v>
       </c>
       <c r="E24" s="3">
-        <v>72600</v>
+        <v>46300</v>
       </c>
       <c r="F24" s="3">
-        <v>26100</v>
+        <v>69200</v>
       </c>
       <c r="G24" s="3">
-        <v>122900</v>
+        <v>24900</v>
       </c>
       <c r="H24" s="3">
-        <v>99300</v>
+        <v>117100</v>
       </c>
       <c r="I24" s="3">
-        <v>107100</v>
+        <v>94600</v>
       </c>
       <c r="J24" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K24" s="3">
         <v>95700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-54600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-57600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>261300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>115400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>123600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>122800</v>
+        <v>277500</v>
       </c>
       <c r="E26" s="3">
-        <v>219700</v>
+        <v>117000</v>
       </c>
       <c r="F26" s="3">
-        <v>43100</v>
+        <v>209400</v>
       </c>
       <c r="G26" s="3">
-        <v>419300</v>
+        <v>41000</v>
       </c>
       <c r="H26" s="3">
-        <v>282500</v>
+        <v>399700</v>
       </c>
       <c r="I26" s="3">
-        <v>330000</v>
+        <v>269300</v>
       </c>
       <c r="J26" s="3">
+        <v>314500</v>
+      </c>
+      <c r="K26" s="3">
         <v>255200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>365200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>407200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-59900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>249300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>273900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>330700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>309900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>321000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115100</v>
+        <v>270900</v>
       </c>
       <c r="E27" s="3">
-        <v>215100</v>
+        <v>109700</v>
       </c>
       <c r="F27" s="3">
-        <v>62000</v>
+        <v>205000</v>
       </c>
       <c r="G27" s="3">
-        <v>400300</v>
+        <v>59100</v>
       </c>
       <c r="H27" s="3">
-        <v>265000</v>
+        <v>381500</v>
       </c>
       <c r="I27" s="3">
-        <v>307900</v>
+        <v>252600</v>
       </c>
       <c r="J27" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K27" s="3">
         <v>228600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>335500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>384400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-76600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>268000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>256900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>316600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>292600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>307800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12900</v>
+        <v>-183600</v>
       </c>
       <c r="E32" s="3">
-        <v>-219500</v>
+        <v>-12300</v>
       </c>
       <c r="F32" s="3">
-        <v>-17900</v>
+        <v>-209200</v>
       </c>
       <c r="G32" s="3">
-        <v>-210200</v>
+        <v>-17100</v>
       </c>
       <c r="H32" s="3">
-        <v>-19600</v>
+        <v>-200400</v>
       </c>
       <c r="I32" s="3">
-        <v>-219700</v>
+        <v>-18600</v>
       </c>
       <c r="J32" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-192900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-167100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-160500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-166500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-149100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115100</v>
+        <v>270900</v>
       </c>
       <c r="E33" s="3">
-        <v>215100</v>
+        <v>109700</v>
       </c>
       <c r="F33" s="3">
-        <v>62000</v>
+        <v>205000</v>
       </c>
       <c r="G33" s="3">
-        <v>400300</v>
+        <v>59100</v>
       </c>
       <c r="H33" s="3">
-        <v>265000</v>
+        <v>381500</v>
       </c>
       <c r="I33" s="3">
-        <v>307900</v>
+        <v>252600</v>
       </c>
       <c r="J33" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K33" s="3">
         <v>228600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>335500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>384400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-76600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>268000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>256900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>316600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>292600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>307800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115100</v>
+        <v>270900</v>
       </c>
       <c r="E35" s="3">
-        <v>215100</v>
+        <v>109700</v>
       </c>
       <c r="F35" s="3">
-        <v>62000</v>
+        <v>205000</v>
       </c>
       <c r="G35" s="3">
-        <v>400300</v>
+        <v>59100</v>
       </c>
       <c r="H35" s="3">
-        <v>265000</v>
+        <v>381500</v>
       </c>
       <c r="I35" s="3">
-        <v>307900</v>
+        <v>252600</v>
       </c>
       <c r="J35" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K35" s="3">
         <v>228600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>335500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>384400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-76600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>268000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>256900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>316600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>292600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>307800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3727000</v>
+        <v>3345800</v>
       </c>
       <c r="E41" s="3">
-        <v>3673300</v>
+        <v>3552500</v>
       </c>
       <c r="F41" s="3">
-        <v>4032500</v>
+        <v>3501300</v>
       </c>
       <c r="G41" s="3">
-        <v>4117500</v>
+        <v>3843700</v>
       </c>
       <c r="H41" s="3">
-        <v>4316000</v>
+        <v>3924700</v>
       </c>
       <c r="I41" s="3">
-        <v>4022500</v>
+        <v>4113900</v>
       </c>
       <c r="J41" s="3">
+        <v>3834100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4928100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3929400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3701500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3936400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3841400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3161100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3549600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3386800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3336800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2933500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>841500</v>
+        <v>1004100</v>
       </c>
       <c r="E42" s="3">
-        <v>666800</v>
+        <v>802100</v>
       </c>
       <c r="F42" s="3">
-        <v>711500</v>
+        <v>635600</v>
       </c>
       <c r="G42" s="3">
-        <v>921400</v>
+        <v>678200</v>
       </c>
       <c r="H42" s="3">
-        <v>815800</v>
+        <v>878300</v>
       </c>
       <c r="I42" s="3">
-        <v>865700</v>
+        <v>777600</v>
       </c>
       <c r="J42" s="3">
+        <v>825200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1048300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1800100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2283700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1698900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2240300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2625500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2485300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2702500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2637700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2861200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2878900</v>
+        <v>2879000</v>
       </c>
       <c r="E43" s="3">
-        <v>2748100</v>
+        <v>2744100</v>
       </c>
       <c r="F43" s="3">
-        <v>3231800</v>
+        <v>2619400</v>
       </c>
       <c r="G43" s="3">
-        <v>3173100</v>
+        <v>3080500</v>
       </c>
       <c r="H43" s="3">
-        <v>3083900</v>
+        <v>3024500</v>
       </c>
       <c r="I43" s="3">
-        <v>3166200</v>
+        <v>2939500</v>
       </c>
       <c r="J43" s="3">
+        <v>3017900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3434200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3476600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3282400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3091900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6642700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2955300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2875900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2498600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2787500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2605300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3354900</v>
+        <v>3130200</v>
       </c>
       <c r="E44" s="3">
-        <v>3607300</v>
+        <v>3197800</v>
       </c>
       <c r="F44" s="3">
-        <v>3308800</v>
+        <v>3438300</v>
       </c>
       <c r="G44" s="3">
-        <v>3580000</v>
+        <v>3153800</v>
       </c>
       <c r="H44" s="3">
-        <v>3546100</v>
+        <v>3412300</v>
       </c>
       <c r="I44" s="3">
-        <v>3537200</v>
+        <v>3380000</v>
       </c>
       <c r="J44" s="3">
+        <v>3371600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3304700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3262400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3464600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3359200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6596900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3688200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3229400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3190100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2937300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3162600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>302500</v>
+        <v>258700</v>
       </c>
       <c r="E45" s="3">
-        <v>319200</v>
+        <v>288300</v>
       </c>
       <c r="F45" s="3">
-        <v>273500</v>
+        <v>304300</v>
       </c>
       <c r="G45" s="3">
-        <v>258400</v>
+        <v>260600</v>
       </c>
       <c r="H45" s="3">
-        <v>318400</v>
+        <v>246300</v>
       </c>
       <c r="I45" s="3">
-        <v>335900</v>
+        <v>303500</v>
       </c>
       <c r="J45" s="3">
+        <v>320100</v>
+      </c>
+      <c r="K45" s="3">
         <v>332900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>305200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>830200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>785400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>756000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1155700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1160800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1034600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1061900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1071600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11104900</v>
+        <v>10617700</v>
       </c>
       <c r="E46" s="3">
-        <v>11014700</v>
+        <v>10584900</v>
       </c>
       <c r="F46" s="3">
-        <v>11558000</v>
+        <v>10498900</v>
       </c>
       <c r="G46" s="3">
-        <v>12050400</v>
+        <v>11016800</v>
       </c>
       <c r="H46" s="3">
-        <v>12080200</v>
+        <v>11486200</v>
       </c>
       <c r="I46" s="3">
-        <v>11927400</v>
+        <v>11514500</v>
       </c>
       <c r="J46" s="3">
+        <v>11368900</v>
+      </c>
+      <c r="K46" s="3">
         <v>13048100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12773700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13562400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12871800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13251700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13585900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13301000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12812500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12761200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12634200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10217900</v>
+        <v>11093700</v>
       </c>
       <c r="E47" s="3">
-        <v>12205000</v>
+        <v>9739500</v>
       </c>
       <c r="F47" s="3">
-        <v>11928300</v>
+        <v>11633500</v>
       </c>
       <c r="G47" s="3">
-        <v>12286000</v>
+        <v>11369700</v>
       </c>
       <c r="H47" s="3">
-        <v>10845700</v>
+        <v>11710700</v>
       </c>
       <c r="I47" s="3">
-        <v>10680400</v>
+        <v>10337900</v>
       </c>
       <c r="J47" s="3">
+        <v>10180300</v>
+      </c>
+      <c r="K47" s="3">
         <v>9472400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10046500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11552400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10879300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9832500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9896100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10362200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10425800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10029800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9971200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4260800</v>
+        <v>4119000</v>
       </c>
       <c r="E48" s="3">
-        <v>4146200</v>
+        <v>4061300</v>
       </c>
       <c r="F48" s="3">
-        <v>4018800</v>
+        <v>3952100</v>
       </c>
       <c r="G48" s="3">
-        <v>3947400</v>
+        <v>3830600</v>
       </c>
       <c r="H48" s="3">
-        <v>3769000</v>
+        <v>3762600</v>
       </c>
       <c r="I48" s="3">
-        <v>3641300</v>
+        <v>3592500</v>
       </c>
       <c r="J48" s="3">
+        <v>3470800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3285200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3052800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3012700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2790300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5332000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2661600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2499100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2443200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2364800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2386800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3417700</v>
+        <v>3195100</v>
       </c>
       <c r="E49" s="3">
-        <v>3427800</v>
+        <v>3257600</v>
       </c>
       <c r="F49" s="3">
-        <v>3178400</v>
+        <v>3267300</v>
       </c>
       <c r="G49" s="3">
-        <v>3160500</v>
+        <v>3029600</v>
       </c>
       <c r="H49" s="3">
-        <v>3132500</v>
+        <v>3012500</v>
       </c>
       <c r="I49" s="3">
-        <v>3071500</v>
+        <v>2985800</v>
       </c>
       <c r="J49" s="3">
+        <v>2927700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2205500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2103800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2146800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2060600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4058100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1904600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1872200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1573300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1523000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1531900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>585600</v>
+        <v>552800</v>
       </c>
       <c r="E52" s="3">
-        <v>587300</v>
+        <v>558200</v>
       </c>
       <c r="F52" s="3">
-        <v>550700</v>
+        <v>559800</v>
       </c>
       <c r="G52" s="3">
-        <v>532000</v>
+        <v>524900</v>
       </c>
       <c r="H52" s="3">
-        <v>523800</v>
+        <v>507100</v>
       </c>
       <c r="I52" s="3">
-        <v>517000</v>
+        <v>499300</v>
       </c>
       <c r="J52" s="3">
+        <v>492800</v>
+      </c>
+      <c r="K52" s="3">
         <v>515800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>539700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>594600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>577500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>559500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>894000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>920500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1040700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>911000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>910300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29586900</v>
+        <v>29578400</v>
       </c>
       <c r="E54" s="3">
-        <v>31381000</v>
+        <v>28201400</v>
       </c>
       <c r="F54" s="3">
-        <v>31234200</v>
+        <v>29911500</v>
       </c>
       <c r="G54" s="3">
-        <v>31976300</v>
+        <v>29771600</v>
       </c>
       <c r="H54" s="3">
-        <v>30351200</v>
+        <v>30479000</v>
       </c>
       <c r="I54" s="3">
-        <v>29837600</v>
+        <v>28930000</v>
       </c>
       <c r="J54" s="3">
+        <v>28440500</v>
+      </c>
+      <c r="K54" s="3">
         <v>28527000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28516600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30869000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29179400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28284500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28942300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28955100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28295600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27589900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27434500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1541300</v>
+        <v>1534600</v>
       </c>
       <c r="E57" s="3">
-        <v>1604400</v>
+        <v>1469200</v>
       </c>
       <c r="F57" s="3">
-        <v>1665400</v>
+        <v>1529200</v>
       </c>
       <c r="G57" s="3">
-        <v>1732400</v>
+        <v>1587400</v>
       </c>
       <c r="H57" s="3">
-        <v>1751400</v>
+        <v>1651300</v>
       </c>
       <c r="I57" s="3">
-        <v>1783800</v>
+        <v>1669400</v>
       </c>
       <c r="J57" s="3">
+        <v>1700300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1790200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1763100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1978300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1911500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3312400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1440600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1268300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1185500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1148300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1089600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>514300</v>
+        <v>485100</v>
       </c>
       <c r="E58" s="3">
-        <v>549600</v>
+        <v>490300</v>
       </c>
       <c r="F58" s="3">
-        <v>485300</v>
+        <v>523900</v>
       </c>
       <c r="G58" s="3">
-        <v>117400</v>
+        <v>462600</v>
       </c>
       <c r="H58" s="3">
-        <v>100800</v>
+        <v>111900</v>
       </c>
       <c r="I58" s="3">
-        <v>93700</v>
+        <v>96100</v>
       </c>
       <c r="J58" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K58" s="3">
         <v>40400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>123800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>130900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>82000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>80700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>78200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>74700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1563900</v>
+        <v>1425500</v>
       </c>
       <c r="E59" s="3">
-        <v>1542500</v>
+        <v>1490700</v>
       </c>
       <c r="F59" s="3">
-        <v>1669300</v>
+        <v>1470300</v>
       </c>
       <c r="G59" s="3">
-        <v>1612800</v>
+        <v>1591200</v>
       </c>
       <c r="H59" s="3">
-        <v>1762900</v>
+        <v>1537300</v>
       </c>
       <c r="I59" s="3">
-        <v>1693200</v>
+        <v>1680400</v>
       </c>
       <c r="J59" s="3">
+        <v>1613900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1770800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1630000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1870100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1727300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3013000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2156700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2082900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1899900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2011500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1948800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3619600</v>
+        <v>3445200</v>
       </c>
       <c r="E60" s="3">
-        <v>3696500</v>
+        <v>3450100</v>
       </c>
       <c r="F60" s="3">
-        <v>3820100</v>
+        <v>3523400</v>
       </c>
       <c r="G60" s="3">
-        <v>3462600</v>
+        <v>3641200</v>
       </c>
       <c r="H60" s="3">
-        <v>3615100</v>
+        <v>3300400</v>
       </c>
       <c r="I60" s="3">
-        <v>3570700</v>
+        <v>3445800</v>
       </c>
       <c r="J60" s="3">
+        <v>3403500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3601300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3447400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3972100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3726900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3791300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3679300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3431900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3163500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3234500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3115700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>786900</v>
+        <v>741200</v>
       </c>
       <c r="E61" s="3">
-        <v>788800</v>
+        <v>750000</v>
       </c>
       <c r="F61" s="3">
-        <v>738200</v>
+        <v>751900</v>
       </c>
       <c r="G61" s="3">
-        <v>330100</v>
+        <v>703600</v>
       </c>
       <c r="H61" s="3">
-        <v>308500</v>
+        <v>314600</v>
       </c>
       <c r="I61" s="3">
-        <v>318200</v>
+        <v>294100</v>
       </c>
       <c r="J61" s="3">
+        <v>303300</v>
+      </c>
+      <c r="K61" s="3">
         <v>54400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>82400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>86000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>66600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>163100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>162300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>159800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>145500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>147700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2697600</v>
+        <v>2936900</v>
       </c>
       <c r="E62" s="3">
-        <v>3241100</v>
+        <v>2571300</v>
       </c>
       <c r="F62" s="3">
-        <v>3090600</v>
+        <v>3089400</v>
       </c>
       <c r="G62" s="3">
-        <v>3079800</v>
+        <v>2945900</v>
       </c>
       <c r="H62" s="3">
-        <v>2653500</v>
+        <v>2935600</v>
       </c>
       <c r="I62" s="3">
-        <v>2593900</v>
+        <v>2529300</v>
       </c>
       <c r="J62" s="3">
+        <v>2472500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2170000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2405300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3018100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2828400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2870000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2752300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2804800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2786100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2754100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2878100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7328300</v>
+        <v>7342100</v>
       </c>
       <c r="E66" s="3">
-        <v>7945000</v>
+        <v>6985100</v>
       </c>
       <c r="F66" s="3">
-        <v>7861400</v>
+        <v>7573000</v>
       </c>
       <c r="G66" s="3">
-        <v>7835900</v>
+        <v>7493300</v>
       </c>
       <c r="H66" s="3">
-        <v>7507700</v>
+        <v>7468900</v>
       </c>
       <c r="I66" s="3">
-        <v>7401600</v>
+        <v>7156100</v>
       </c>
       <c r="J66" s="3">
+        <v>7055000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6751600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6827000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7961700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7466300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7259300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7372800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7200900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6888400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6885300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6899900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16260500</v>
+        <v>15577100</v>
       </c>
       <c r="E72" s="3">
-        <v>16145300</v>
+        <v>15499100</v>
       </c>
       <c r="F72" s="3">
-        <v>16208900</v>
+        <v>15389300</v>
       </c>
       <c r="G72" s="3">
-        <v>16153300</v>
+        <v>15449900</v>
       </c>
       <c r="H72" s="3">
-        <v>16042800</v>
+        <v>15396900</v>
       </c>
       <c r="I72" s="3">
-        <v>15777800</v>
+        <v>15291500</v>
       </c>
       <c r="J72" s="3">
+        <v>15038900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15748000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15257500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15207200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14551600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14261900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15225700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15164100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14925300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14530100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14237500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22258600</v>
+        <v>22236300</v>
       </c>
       <c r="E76" s="3">
-        <v>23436000</v>
+        <v>21216300</v>
       </c>
       <c r="F76" s="3">
-        <v>23372800</v>
+        <v>22338500</v>
       </c>
       <c r="G76" s="3">
-        <v>24140400</v>
+        <v>22278300</v>
       </c>
       <c r="H76" s="3">
-        <v>22843500</v>
+        <v>23010000</v>
       </c>
       <c r="I76" s="3">
-        <v>22436100</v>
+        <v>21773900</v>
       </c>
       <c r="J76" s="3">
+        <v>21385500</v>
+      </c>
+      <c r="K76" s="3">
         <v>21775500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21689500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22907300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21713100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21025200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21569500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21754100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21407200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20704500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20534600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115100</v>
+        <v>270900</v>
       </c>
       <c r="E81" s="3">
-        <v>215100</v>
+        <v>109700</v>
       </c>
       <c r="F81" s="3">
-        <v>62000</v>
+        <v>205000</v>
       </c>
       <c r="G81" s="3">
-        <v>400300</v>
+        <v>59100</v>
       </c>
       <c r="H81" s="3">
-        <v>265000</v>
+        <v>381500</v>
       </c>
       <c r="I81" s="3">
-        <v>307900</v>
+        <v>252600</v>
       </c>
       <c r="J81" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K81" s="3">
         <v>228600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>335500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>384400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-76600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>268000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>256900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>316600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>292600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>307800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256400</v>
+        <v>252500</v>
       </c>
       <c r="E83" s="3">
-        <v>245300</v>
+        <v>244400</v>
       </c>
       <c r="F83" s="3">
-        <v>250000</v>
+        <v>233800</v>
       </c>
       <c r="G83" s="3">
-        <v>233500</v>
+        <v>238300</v>
       </c>
       <c r="H83" s="3">
-        <v>207000</v>
+        <v>222600</v>
       </c>
       <c r="I83" s="3">
-        <v>200800</v>
+        <v>197300</v>
       </c>
       <c r="J83" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K83" s="3">
         <v>158500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>159600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>134500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>220900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>195500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>172900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>159100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>193000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>179000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>472400</v>
+        <v>614200</v>
       </c>
       <c r="E89" s="3">
-        <v>356500</v>
+        <v>450300</v>
       </c>
       <c r="F89" s="3">
-        <v>628100</v>
+        <v>339800</v>
       </c>
       <c r="G89" s="3">
-        <v>377700</v>
+        <v>598700</v>
       </c>
       <c r="H89" s="3">
-        <v>530400</v>
+        <v>360000</v>
       </c>
       <c r="I89" s="3">
-        <v>526300</v>
+        <v>505500</v>
       </c>
       <c r="J89" s="3">
+        <v>501700</v>
+      </c>
+      <c r="K89" s="3">
         <v>590800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>307700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>516600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>639500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>416100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>197400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>283100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>540300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>612200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>196700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-297200</v>
+        <v>-358000</v>
       </c>
       <c r="E91" s="3">
-        <v>-217400</v>
+        <v>-283300</v>
       </c>
       <c r="F91" s="3">
+        <v>-207200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-236100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-247600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-254200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-259700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-268000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-255400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-263700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-277400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-250700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-247600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-249700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-184700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-148400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-178400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-138400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-161800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-305000</v>
+        <v>-585700</v>
       </c>
       <c r="E94" s="3">
-        <v>-360100</v>
+        <v>-290700</v>
       </c>
       <c r="F94" s="3">
-        <v>-129500</v>
+        <v>-343300</v>
       </c>
       <c r="G94" s="3">
-        <v>-309400</v>
+        <v>-123500</v>
       </c>
       <c r="H94" s="3">
-        <v>-211900</v>
+        <v>-294900</v>
       </c>
       <c r="I94" s="3">
-        <v>-747900</v>
+        <v>-202000</v>
       </c>
       <c r="J94" s="3">
+        <v>-712800</v>
+      </c>
+      <c r="K94" s="3">
         <v>360200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>137400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-863100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>381500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-398000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-90200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-373500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-118500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-142300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16500</v>
+        <v>-193300</v>
       </c>
       <c r="E96" s="3">
-        <v>-274000</v>
+        <v>-15700</v>
       </c>
       <c r="F96" s="3">
-        <v>-18200</v>
+        <v>-261200</v>
       </c>
       <c r="G96" s="3">
-        <v>-274800</v>
+        <v>-17400</v>
       </c>
       <c r="H96" s="3">
-        <v>-23100</v>
+        <v>-262000</v>
       </c>
       <c r="I96" s="3">
-        <v>-279800</v>
+        <v>-22000</v>
       </c>
       <c r="J96" s="3">
+        <v>-266700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-206300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-204800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-199100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-199000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-161000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104100</v>
+        <v>-243600</v>
       </c>
       <c r="E100" s="3">
-        <v>-337600</v>
+        <v>-99200</v>
       </c>
       <c r="F100" s="3">
-        <v>-536400</v>
+        <v>-321800</v>
       </c>
       <c r="G100" s="3">
-        <v>-326100</v>
+        <v>-511300</v>
       </c>
       <c r="H100" s="3">
-        <v>-6900</v>
+        <v>-310900</v>
       </c>
       <c r="I100" s="3">
-        <v>-640500</v>
+        <v>-6600</v>
       </c>
       <c r="J100" s="3">
+        <v>-610500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-25700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-214700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-558900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-202200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-202300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-168000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9700</v>
+        <v>8500</v>
       </c>
       <c r="E101" s="3">
-        <v>-18000</v>
+        <v>-9200</v>
       </c>
       <c r="F101" s="3">
-        <v>-47100</v>
+        <v>-17200</v>
       </c>
       <c r="G101" s="3">
-        <v>59300</v>
+        <v>-44900</v>
       </c>
       <c r="H101" s="3">
-        <v>-18000</v>
+        <v>56500</v>
       </c>
       <c r="I101" s="3">
-        <v>-43700</v>
+        <v>-17100</v>
       </c>
       <c r="J101" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-62300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>44900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>50100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-111700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-79900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>228500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>53700</v>
+        <v>-206600</v>
       </c>
       <c r="E102" s="3">
-        <v>-359200</v>
+        <v>51200</v>
       </c>
       <c r="F102" s="3">
-        <v>-85000</v>
+        <v>-342400</v>
       </c>
       <c r="G102" s="3">
-        <v>-198500</v>
+        <v>-81000</v>
       </c>
       <c r="H102" s="3">
-        <v>293500</v>
+        <v>-189200</v>
       </c>
       <c r="I102" s="3">
-        <v>-905700</v>
+        <v>279800</v>
       </c>
       <c r="J102" s="3">
+        <v>-863300</v>
+      </c>
+      <c r="K102" s="3">
         <v>928000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>168200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-321500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>680300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-388500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>162900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>403300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>114900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3705200</v>
+        <v>3918300</v>
       </c>
       <c r="E8" s="3">
-        <v>3471100</v>
+        <v>3717300</v>
       </c>
       <c r="F8" s="3">
-        <v>2904600</v>
+        <v>3482500</v>
       </c>
       <c r="G8" s="3">
-        <v>3683900</v>
+        <v>2914100</v>
       </c>
       <c r="H8" s="3">
-        <v>3644200</v>
+        <v>3695900</v>
       </c>
       <c r="I8" s="3">
-        <v>3793300</v>
+        <v>3656100</v>
       </c>
       <c r="J8" s="3">
+        <v>3805700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3526000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3933300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3906100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3838200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3522200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3905500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3676300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3554400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3120300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3620100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3205500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2686100</v>
+        <v>2861500</v>
       </c>
       <c r="E9" s="3">
-        <v>2581700</v>
+        <v>2694900</v>
       </c>
       <c r="F9" s="3">
-        <v>2138800</v>
+        <v>2590100</v>
       </c>
       <c r="G9" s="3">
-        <v>2744200</v>
+        <v>2145800</v>
       </c>
       <c r="H9" s="3">
-        <v>2618700</v>
+        <v>2753200</v>
       </c>
       <c r="I9" s="3">
-        <v>2725100</v>
+        <v>2627200</v>
       </c>
       <c r="J9" s="3">
+        <v>2734000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2518200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2847200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2757200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2722900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2529100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3355700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2680900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2574800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2240500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2643900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2335900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1019100</v>
+        <v>1056700</v>
       </c>
       <c r="E10" s="3">
-        <v>889400</v>
+        <v>1022500</v>
       </c>
       <c r="F10" s="3">
-        <v>765800</v>
+        <v>892300</v>
       </c>
       <c r="G10" s="3">
-        <v>939700</v>
+        <v>768300</v>
       </c>
       <c r="H10" s="3">
-        <v>1025500</v>
+        <v>942800</v>
       </c>
       <c r="I10" s="3">
-        <v>1068200</v>
+        <v>1028900</v>
       </c>
       <c r="J10" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1007800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1086200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1148800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1115300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>993100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>549800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>995400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>979600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>879800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>976200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>869600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,11 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3531900</v>
+        <v>3664100</v>
       </c>
       <c r="E17" s="3">
-        <v>3320100</v>
+        <v>3543500</v>
       </c>
       <c r="F17" s="3">
-        <v>2835200</v>
+        <v>3330900</v>
       </c>
       <c r="G17" s="3">
-        <v>3635000</v>
+        <v>2844500</v>
       </c>
       <c r="H17" s="3">
-        <v>3327800</v>
+        <v>3646900</v>
       </c>
       <c r="I17" s="3">
-        <v>3448000</v>
+        <v>3338700</v>
       </c>
       <c r="J17" s="3">
+        <v>3459300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3318700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3604200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4114000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3415500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3185000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4026700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3323300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3210700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2837700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3288000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2910000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>173300</v>
+        <v>254200</v>
       </c>
       <c r="E18" s="3">
-        <v>151100</v>
+        <v>173900</v>
       </c>
       <c r="F18" s="3">
-        <v>69400</v>
+        <v>151600</v>
       </c>
       <c r="G18" s="3">
-        <v>48900</v>
+        <v>69600</v>
       </c>
       <c r="H18" s="3">
-        <v>316400</v>
+        <v>49000</v>
       </c>
       <c r="I18" s="3">
-        <v>345200</v>
+        <v>317400</v>
       </c>
       <c r="J18" s="3">
+        <v>346400</v>
+      </c>
+      <c r="K18" s="3">
         <v>207300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>329100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-207900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>422700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>337300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-121200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>343600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>282600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>332100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>295500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>183600</v>
+        <v>24600</v>
       </c>
       <c r="E20" s="3">
-        <v>12300</v>
+        <v>184300</v>
       </c>
       <c r="F20" s="3">
-        <v>209200</v>
+        <v>12400</v>
       </c>
       <c r="G20" s="3">
+        <v>209900</v>
+      </c>
+      <c r="H20" s="3">
         <v>17100</v>
       </c>
-      <c r="H20" s="3">
-        <v>200400</v>
-      </c>
       <c r="I20" s="3">
-        <v>18600</v>
+        <v>201000</v>
       </c>
       <c r="J20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K20" s="3">
         <v>209400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>192900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>167100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>160500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>166500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>149100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>609400</v>
+        <v>548000</v>
       </c>
       <c r="E21" s="3">
-        <v>407800</v>
+        <v>611400</v>
       </c>
       <c r="F21" s="3">
-        <v>512400</v>
+        <v>409100</v>
       </c>
       <c r="G21" s="3">
-        <v>304300</v>
+        <v>514100</v>
       </c>
       <c r="H21" s="3">
-        <v>739300</v>
+        <v>305300</v>
       </c>
       <c r="I21" s="3">
-        <v>561200</v>
+        <v>741700</v>
       </c>
       <c r="J21" s="3">
+        <v>563000</v>
+      </c>
+      <c r="K21" s="3">
         <v>608000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>509400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>612100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>638900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>110100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>707700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>549700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>607500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>543200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>623600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1502,147 +1542,156 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>3700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
       <c r="R22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>356900</v>
+        <v>278900</v>
       </c>
       <c r="E23" s="3">
-        <v>163400</v>
+        <v>358100</v>
       </c>
       <c r="F23" s="3">
-        <v>278600</v>
+        <v>163900</v>
       </c>
       <c r="G23" s="3">
-        <v>65900</v>
+        <v>279500</v>
       </c>
       <c r="H23" s="3">
-        <v>516800</v>
+        <v>66100</v>
       </c>
       <c r="I23" s="3">
-        <v>363900</v>
+        <v>518500</v>
       </c>
       <c r="J23" s="3">
+        <v>365100</v>
+      </c>
+      <c r="K23" s="3">
         <v>416700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>466400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>504400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-117500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>510500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>374600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>446200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>347200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>444600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79500</v>
+        <v>26900</v>
       </c>
       <c r="E24" s="3">
-        <v>46300</v>
+        <v>79700</v>
       </c>
       <c r="F24" s="3">
-        <v>69200</v>
+        <v>46500</v>
       </c>
       <c r="G24" s="3">
-        <v>24900</v>
+        <v>69400</v>
       </c>
       <c r="H24" s="3">
-        <v>117100</v>
+        <v>25000</v>
       </c>
       <c r="I24" s="3">
-        <v>94600</v>
+        <v>117500</v>
       </c>
       <c r="J24" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K24" s="3">
         <v>102100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>95700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-54600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-57600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>261300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>115400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>123600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>277500</v>
+        <v>252000</v>
       </c>
       <c r="E26" s="3">
-        <v>117000</v>
+        <v>278400</v>
       </c>
       <c r="F26" s="3">
-        <v>209400</v>
+        <v>117400</v>
       </c>
       <c r="G26" s="3">
-        <v>41000</v>
+        <v>210100</v>
       </c>
       <c r="H26" s="3">
-        <v>399700</v>
+        <v>41200</v>
       </c>
       <c r="I26" s="3">
-        <v>269300</v>
+        <v>401000</v>
       </c>
       <c r="J26" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K26" s="3">
         <v>314500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>255200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>365200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>407200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-59900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>273900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>330700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>309900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>321000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>270900</v>
+        <v>241500</v>
       </c>
       <c r="E27" s="3">
-        <v>109700</v>
+        <v>271800</v>
       </c>
       <c r="F27" s="3">
-        <v>205000</v>
+        <v>110100</v>
       </c>
       <c r="G27" s="3">
-        <v>59100</v>
+        <v>205700</v>
       </c>
       <c r="H27" s="3">
-        <v>381500</v>
+        <v>59300</v>
       </c>
       <c r="I27" s="3">
-        <v>252600</v>
+        <v>382800</v>
       </c>
       <c r="J27" s="3">
+        <v>253400</v>
+      </c>
+      <c r="K27" s="3">
         <v>293500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>228600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>335500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>384400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-76600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>268000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>256900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>316600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>292600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>307800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-183600</v>
+        <v>-24600</v>
       </c>
       <c r="E32" s="3">
-        <v>-12300</v>
+        <v>-184300</v>
       </c>
       <c r="F32" s="3">
-        <v>-209200</v>
+        <v>-12400</v>
       </c>
       <c r="G32" s="3">
+        <v>-209900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-17100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-200400</v>
-      </c>
       <c r="I32" s="3">
-        <v>-18600</v>
+        <v>-201000</v>
       </c>
       <c r="J32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-209400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-192900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-43700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-167100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-160500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-166500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-149100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>270900</v>
+        <v>241500</v>
       </c>
       <c r="E33" s="3">
-        <v>109700</v>
+        <v>271800</v>
       </c>
       <c r="F33" s="3">
-        <v>205000</v>
+        <v>110100</v>
       </c>
       <c r="G33" s="3">
-        <v>59100</v>
+        <v>205700</v>
       </c>
       <c r="H33" s="3">
-        <v>381500</v>
+        <v>59300</v>
       </c>
       <c r="I33" s="3">
-        <v>252600</v>
+        <v>382800</v>
       </c>
       <c r="J33" s="3">
+        <v>253400</v>
+      </c>
+      <c r="K33" s="3">
         <v>293500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>335500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>384400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-76600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>268000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>256900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>316600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>292600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>307800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>270900</v>
+        <v>241500</v>
       </c>
       <c r="E35" s="3">
-        <v>109700</v>
+        <v>271800</v>
       </c>
       <c r="F35" s="3">
-        <v>205000</v>
+        <v>110100</v>
       </c>
       <c r="G35" s="3">
-        <v>59100</v>
+        <v>205700</v>
       </c>
       <c r="H35" s="3">
-        <v>381500</v>
+        <v>59300</v>
       </c>
       <c r="I35" s="3">
-        <v>252600</v>
+        <v>382800</v>
       </c>
       <c r="J35" s="3">
+        <v>253400</v>
+      </c>
+      <c r="K35" s="3">
         <v>293500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>335500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>384400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-76600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>268000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>256900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>316600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>292600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>307800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3345800</v>
+        <v>3554000</v>
       </c>
       <c r="E41" s="3">
-        <v>3552500</v>
+        <v>3356800</v>
       </c>
       <c r="F41" s="3">
-        <v>3501300</v>
+        <v>3564100</v>
       </c>
       <c r="G41" s="3">
-        <v>3843700</v>
+        <v>3512800</v>
       </c>
       <c r="H41" s="3">
-        <v>3924700</v>
+        <v>3856300</v>
       </c>
       <c r="I41" s="3">
-        <v>4113900</v>
+        <v>3937500</v>
       </c>
       <c r="J41" s="3">
+        <v>4127400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3834100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4928100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3929400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3701500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3936400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3841400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3161100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3549600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3386800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3336800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2933500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1004100</v>
+        <v>894700</v>
       </c>
       <c r="E42" s="3">
-        <v>802100</v>
+        <v>1007300</v>
       </c>
       <c r="F42" s="3">
-        <v>635600</v>
+        <v>804800</v>
       </c>
       <c r="G42" s="3">
-        <v>678200</v>
+        <v>637700</v>
       </c>
       <c r="H42" s="3">
-        <v>878300</v>
+        <v>680400</v>
       </c>
       <c r="I42" s="3">
-        <v>777600</v>
+        <v>881100</v>
       </c>
       <c r="J42" s="3">
+        <v>780100</v>
+      </c>
+      <c r="K42" s="3">
         <v>825200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1048300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1800100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2283700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1698900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2240300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2625500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2485300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2702500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2637700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2861200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2879000</v>
+        <v>3121100</v>
       </c>
       <c r="E43" s="3">
-        <v>2744100</v>
+        <v>2888400</v>
       </c>
       <c r="F43" s="3">
-        <v>2619400</v>
+        <v>2753100</v>
       </c>
       <c r="G43" s="3">
-        <v>3080500</v>
+        <v>2628000</v>
       </c>
       <c r="H43" s="3">
-        <v>3024500</v>
+        <v>3090500</v>
       </c>
       <c r="I43" s="3">
-        <v>2939500</v>
+        <v>3034500</v>
       </c>
       <c r="J43" s="3">
+        <v>2949100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3017900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3434200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3476600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3282400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3091900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6642700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2955300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2875900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2498600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2787500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2605300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3130200</v>
+        <v>3173800</v>
       </c>
       <c r="E44" s="3">
-        <v>3197800</v>
+        <v>3140400</v>
       </c>
       <c r="F44" s="3">
-        <v>3438300</v>
+        <v>3208300</v>
       </c>
       <c r="G44" s="3">
-        <v>3153800</v>
+        <v>3449600</v>
       </c>
       <c r="H44" s="3">
-        <v>3412300</v>
+        <v>3164200</v>
       </c>
       <c r="I44" s="3">
-        <v>3380000</v>
+        <v>3423500</v>
       </c>
       <c r="J44" s="3">
+        <v>3391100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3371600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3304700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3262400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3464600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3359200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6596900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3688200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3229400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3190100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2937300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3162600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258700</v>
+        <v>282200</v>
       </c>
       <c r="E45" s="3">
-        <v>288300</v>
+        <v>259500</v>
       </c>
       <c r="F45" s="3">
-        <v>304300</v>
+        <v>289300</v>
       </c>
       <c r="G45" s="3">
-        <v>260600</v>
+        <v>305300</v>
       </c>
       <c r="H45" s="3">
-        <v>246300</v>
+        <v>261500</v>
       </c>
       <c r="I45" s="3">
-        <v>303500</v>
+        <v>247100</v>
       </c>
       <c r="J45" s="3">
+        <v>304500</v>
+      </c>
+      <c r="K45" s="3">
         <v>320100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>332900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>305200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>830200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>785400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>756000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1155700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1160800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1034600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1061900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1071600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10617700</v>
+        <v>11025800</v>
       </c>
       <c r="E46" s="3">
-        <v>10584900</v>
+        <v>10652500</v>
       </c>
       <c r="F46" s="3">
-        <v>10498900</v>
+        <v>10619500</v>
       </c>
       <c r="G46" s="3">
-        <v>11016800</v>
+        <v>10533300</v>
       </c>
       <c r="H46" s="3">
-        <v>11486200</v>
+        <v>11052900</v>
       </c>
       <c r="I46" s="3">
-        <v>11514500</v>
+        <v>11523800</v>
       </c>
       <c r="J46" s="3">
+        <v>11552200</v>
+      </c>
+      <c r="K46" s="3">
         <v>11368900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13048100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12773700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13562400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12871800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13251700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13585900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13301000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12812500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12761200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12634200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11093700</v>
+        <v>12172400</v>
       </c>
       <c r="E47" s="3">
-        <v>9739500</v>
+        <v>11130100</v>
       </c>
       <c r="F47" s="3">
-        <v>11633500</v>
+        <v>9771400</v>
       </c>
       <c r="G47" s="3">
-        <v>11369700</v>
+        <v>11671600</v>
       </c>
       <c r="H47" s="3">
-        <v>11710700</v>
+        <v>11406900</v>
       </c>
       <c r="I47" s="3">
-        <v>10337900</v>
+        <v>11749100</v>
       </c>
       <c r="J47" s="3">
+        <v>10371700</v>
+      </c>
+      <c r="K47" s="3">
         <v>10180300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9472400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10046500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11552400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10879300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9832500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9896100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10362200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10425800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10029800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9971200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4119000</v>
+        <v>4390500</v>
       </c>
       <c r="E48" s="3">
-        <v>4061300</v>
+        <v>4132500</v>
       </c>
       <c r="F48" s="3">
-        <v>3952100</v>
+        <v>4074600</v>
       </c>
       <c r="G48" s="3">
-        <v>3830600</v>
+        <v>3965000</v>
       </c>
       <c r="H48" s="3">
-        <v>3762600</v>
+        <v>3843200</v>
       </c>
       <c r="I48" s="3">
-        <v>3592500</v>
+        <v>3774900</v>
       </c>
       <c r="J48" s="3">
+        <v>3604300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3470800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3285200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3052800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3012700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2790300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5332000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2661600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2499100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2443200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2364800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2386800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3195100</v>
+        <v>3747900</v>
       </c>
       <c r="E49" s="3">
-        <v>3257600</v>
+        <v>3205500</v>
       </c>
       <c r="F49" s="3">
-        <v>3267300</v>
+        <v>3268300</v>
       </c>
       <c r="G49" s="3">
-        <v>3029600</v>
+        <v>3278000</v>
       </c>
       <c r="H49" s="3">
-        <v>3012500</v>
+        <v>3039500</v>
       </c>
       <c r="I49" s="3">
-        <v>2985800</v>
+        <v>3022300</v>
       </c>
       <c r="J49" s="3">
+        <v>2995600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2927700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2205500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2103800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2146800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2060600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4058100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1904600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1872200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1573300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1523000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1531900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>552800</v>
+        <v>768300</v>
       </c>
       <c r="E52" s="3">
-        <v>558200</v>
+        <v>554600</v>
       </c>
       <c r="F52" s="3">
-        <v>559800</v>
+        <v>560000</v>
       </c>
       <c r="G52" s="3">
-        <v>524900</v>
+        <v>561600</v>
       </c>
       <c r="H52" s="3">
-        <v>507100</v>
+        <v>526600</v>
       </c>
       <c r="I52" s="3">
-        <v>499300</v>
+        <v>508700</v>
       </c>
       <c r="J52" s="3">
+        <v>500900</v>
+      </c>
+      <c r="K52" s="3">
         <v>492800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>515800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>539700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>594600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>577500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>559500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>894000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>920500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1040700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>911000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>910300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29578400</v>
+        <v>32105000</v>
       </c>
       <c r="E54" s="3">
-        <v>28201400</v>
+        <v>29675300</v>
       </c>
       <c r="F54" s="3">
-        <v>29911500</v>
+        <v>28293800</v>
       </c>
       <c r="G54" s="3">
-        <v>29771600</v>
+        <v>30009500</v>
       </c>
       <c r="H54" s="3">
-        <v>30479000</v>
+        <v>29869100</v>
       </c>
       <c r="I54" s="3">
-        <v>28930000</v>
+        <v>30578800</v>
       </c>
       <c r="J54" s="3">
+        <v>29024800</v>
+      </c>
+      <c r="K54" s="3">
         <v>28440500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28527000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28516600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30869000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29179400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28284500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28942300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28955100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28295600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27589900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27434500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1534600</v>
+        <v>1683100</v>
       </c>
       <c r="E57" s="3">
-        <v>1469200</v>
+        <v>1539600</v>
       </c>
       <c r="F57" s="3">
-        <v>1529200</v>
+        <v>1474000</v>
       </c>
       <c r="G57" s="3">
-        <v>1587400</v>
+        <v>1534300</v>
       </c>
       <c r="H57" s="3">
-        <v>1651300</v>
+        <v>1592600</v>
       </c>
       <c r="I57" s="3">
-        <v>1669400</v>
+        <v>1656700</v>
       </c>
       <c r="J57" s="3">
+        <v>1674900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1700300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1790200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1763100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1978300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1911500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3312400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1440600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1268300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1185500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1148300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1089600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>485100</v>
+        <v>513600</v>
       </c>
       <c r="E58" s="3">
-        <v>490300</v>
+        <v>486700</v>
       </c>
       <c r="F58" s="3">
-        <v>523900</v>
+        <v>491900</v>
       </c>
       <c r="G58" s="3">
-        <v>462600</v>
+        <v>525600</v>
       </c>
       <c r="H58" s="3">
-        <v>111900</v>
+        <v>464100</v>
       </c>
       <c r="I58" s="3">
-        <v>96100</v>
+        <v>112300</v>
       </c>
       <c r="J58" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K58" s="3">
         <v>89300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>123800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>130900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>82000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>78200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>74700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1425500</v>
+        <v>1689400</v>
       </c>
       <c r="E59" s="3">
-        <v>1490700</v>
+        <v>1430200</v>
       </c>
       <c r="F59" s="3">
-        <v>1470300</v>
+        <v>1495600</v>
       </c>
       <c r="G59" s="3">
-        <v>1591200</v>
+        <v>1475100</v>
       </c>
       <c r="H59" s="3">
-        <v>1537300</v>
+        <v>1596400</v>
       </c>
       <c r="I59" s="3">
-        <v>1680400</v>
+        <v>1542300</v>
       </c>
       <c r="J59" s="3">
+        <v>1685900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1613900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1770800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1630000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1870100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1727300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3013000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2156700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2082900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1899900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2011500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1948800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3445200</v>
+        <v>3886000</v>
       </c>
       <c r="E60" s="3">
-        <v>3450100</v>
+        <v>3456500</v>
       </c>
       <c r="F60" s="3">
-        <v>3523400</v>
+        <v>3461400</v>
       </c>
       <c r="G60" s="3">
-        <v>3641200</v>
+        <v>3534900</v>
       </c>
       <c r="H60" s="3">
-        <v>3300400</v>
+        <v>3653100</v>
       </c>
       <c r="I60" s="3">
-        <v>3445800</v>
+        <v>3311300</v>
       </c>
       <c r="J60" s="3">
+        <v>3457100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3403500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3601300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3447400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3972100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3726900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3791300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3679300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3431900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3163500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3234500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3115700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>741200</v>
+        <v>844900</v>
       </c>
       <c r="E61" s="3">
-        <v>750000</v>
+        <v>743600</v>
       </c>
       <c r="F61" s="3">
-        <v>751900</v>
+        <v>752500</v>
       </c>
       <c r="G61" s="3">
-        <v>703600</v>
+        <v>754400</v>
       </c>
       <c r="H61" s="3">
-        <v>314600</v>
+        <v>705900</v>
       </c>
       <c r="I61" s="3">
-        <v>294100</v>
+        <v>315600</v>
       </c>
       <c r="J61" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K61" s="3">
         <v>303300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>82400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>86000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>66600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>163100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>162300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>159800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>145500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>147700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2936900</v>
+        <v>3332000</v>
       </c>
       <c r="E62" s="3">
-        <v>2571300</v>
+        <v>2946500</v>
       </c>
       <c r="F62" s="3">
-        <v>3089400</v>
+        <v>2579700</v>
       </c>
       <c r="G62" s="3">
-        <v>2945900</v>
+        <v>3099500</v>
       </c>
       <c r="H62" s="3">
-        <v>2935600</v>
+        <v>2955600</v>
       </c>
       <c r="I62" s="3">
-        <v>2529300</v>
+        <v>2945200</v>
       </c>
       <c r="J62" s="3">
+        <v>2537500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2472500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2170000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2405300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3018100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2828400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2870000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2752300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2804800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2786100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2754100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2878100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7342100</v>
+        <v>8289900</v>
       </c>
       <c r="E66" s="3">
-        <v>6985100</v>
+        <v>7366200</v>
       </c>
       <c r="F66" s="3">
-        <v>7573000</v>
+        <v>7008000</v>
       </c>
       <c r="G66" s="3">
-        <v>7493300</v>
+        <v>7597800</v>
       </c>
       <c r="H66" s="3">
-        <v>7468900</v>
+        <v>7517800</v>
       </c>
       <c r="I66" s="3">
-        <v>7156100</v>
+        <v>7493400</v>
       </c>
       <c r="J66" s="3">
+        <v>7179600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7055000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6751600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6827000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7961700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7466300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7259300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7372800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7200900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6888400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6885300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6899900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15577100</v>
+        <v>16084900</v>
       </c>
       <c r="E72" s="3">
-        <v>15499100</v>
+        <v>15628100</v>
       </c>
       <c r="F72" s="3">
-        <v>15389300</v>
+        <v>15549800</v>
       </c>
       <c r="G72" s="3">
-        <v>15449900</v>
+        <v>15439700</v>
       </c>
       <c r="H72" s="3">
-        <v>15396900</v>
+        <v>15500500</v>
       </c>
       <c r="I72" s="3">
-        <v>15291500</v>
+        <v>15447300</v>
       </c>
       <c r="J72" s="3">
+        <v>15341600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15038900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15748000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15257500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15207200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14551600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14261900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15225700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15164100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14925300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14530100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14237500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22236300</v>
+        <v>23815100</v>
       </c>
       <c r="E76" s="3">
-        <v>21216300</v>
+        <v>22309100</v>
       </c>
       <c r="F76" s="3">
-        <v>22338500</v>
+        <v>21285800</v>
       </c>
       <c r="G76" s="3">
-        <v>22278300</v>
+        <v>22411700</v>
       </c>
       <c r="H76" s="3">
-        <v>23010000</v>
+        <v>22351300</v>
       </c>
       <c r="I76" s="3">
-        <v>21773900</v>
+        <v>23085400</v>
       </c>
       <c r="J76" s="3">
+        <v>21845200</v>
+      </c>
+      <c r="K76" s="3">
         <v>21385500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21775500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21689500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22907300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21713100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21025200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21569500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21754100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21407200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20704500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20534600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>270900</v>
+        <v>241500</v>
       </c>
       <c r="E81" s="3">
-        <v>109700</v>
+        <v>271800</v>
       </c>
       <c r="F81" s="3">
-        <v>205000</v>
+        <v>110100</v>
       </c>
       <c r="G81" s="3">
-        <v>59100</v>
+        <v>205700</v>
       </c>
       <c r="H81" s="3">
-        <v>381500</v>
+        <v>59300</v>
       </c>
       <c r="I81" s="3">
-        <v>252600</v>
+        <v>382800</v>
       </c>
       <c r="J81" s="3">
+        <v>253400</v>
+      </c>
+      <c r="K81" s="3">
         <v>293500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>335500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>384400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-76600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>268000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>256900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>316600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>292600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>307800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>252500</v>
+        <v>269200</v>
       </c>
       <c r="E83" s="3">
-        <v>244400</v>
+        <v>253300</v>
       </c>
       <c r="F83" s="3">
-        <v>233800</v>
+        <v>245200</v>
       </c>
       <c r="G83" s="3">
-        <v>238300</v>
+        <v>234600</v>
       </c>
       <c r="H83" s="3">
-        <v>222600</v>
+        <v>239100</v>
       </c>
       <c r="I83" s="3">
-        <v>197300</v>
+        <v>223300</v>
       </c>
       <c r="J83" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K83" s="3">
         <v>191400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>158500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>159600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>134500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>220900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>195500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>172900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>159100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>193000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>179000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>614200</v>
+        <v>620500</v>
       </c>
       <c r="E89" s="3">
-        <v>450300</v>
+        <v>616200</v>
       </c>
       <c r="F89" s="3">
-        <v>339800</v>
+        <v>451800</v>
       </c>
       <c r="G89" s="3">
-        <v>598700</v>
+        <v>340900</v>
       </c>
       <c r="H89" s="3">
-        <v>360000</v>
+        <v>600700</v>
       </c>
       <c r="I89" s="3">
-        <v>505500</v>
+        <v>361200</v>
       </c>
       <c r="J89" s="3">
+        <v>507200</v>
+      </c>
+      <c r="K89" s="3">
         <v>501700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>590800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>307700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>516600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>639500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>416100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>197400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>283100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>540300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>612200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>196700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-358000</v>
+        <v>-277600</v>
       </c>
       <c r="E91" s="3">
-        <v>-283300</v>
+        <v>-359200</v>
       </c>
       <c r="F91" s="3">
-        <v>-207200</v>
+        <v>-284200</v>
       </c>
       <c r="G91" s="3">
-        <v>-236100</v>
+        <v>-207900</v>
       </c>
       <c r="H91" s="3">
-        <v>-242300</v>
+        <v>-236800</v>
       </c>
       <c r="I91" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-248400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-255400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-250700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-247600</v>
       </c>
-      <c r="J91" s="3">
-        <v>-255400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-263700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-277400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-250700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-247600</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-249700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-184700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-148400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-178400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-138400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-161800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-585700</v>
+        <v>-465400</v>
       </c>
       <c r="E94" s="3">
-        <v>-290700</v>
+        <v>-587600</v>
       </c>
       <c r="F94" s="3">
-        <v>-343300</v>
+        <v>-291600</v>
       </c>
       <c r="G94" s="3">
-        <v>-123500</v>
+        <v>-344400</v>
       </c>
       <c r="H94" s="3">
-        <v>-294900</v>
+        <v>-123900</v>
       </c>
       <c r="I94" s="3">
-        <v>-202000</v>
+        <v>-295900</v>
       </c>
       <c r="J94" s="3">
+        <v>-202700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-712800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>360200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>137400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-863100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>381500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-398000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-373500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-118500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-142300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-193300</v>
+        <v>-9300</v>
       </c>
       <c r="E96" s="3">
-        <v>-15700</v>
+        <v>-193900</v>
       </c>
       <c r="F96" s="3">
-        <v>-261200</v>
+        <v>-15800</v>
       </c>
       <c r="G96" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-17400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-262000</v>
-      </c>
       <c r="I96" s="3">
-        <v>-22000</v>
+        <v>-262800</v>
       </c>
       <c r="J96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-266700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-206300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-204800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-199100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-199000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-161000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-243600</v>
+        <v>-77300</v>
       </c>
       <c r="E100" s="3">
-        <v>-99200</v>
+        <v>-244400</v>
       </c>
       <c r="F100" s="3">
-        <v>-321800</v>
+        <v>-99500</v>
       </c>
       <c r="G100" s="3">
-        <v>-511300</v>
+        <v>-322900</v>
       </c>
       <c r="H100" s="3">
-        <v>-310900</v>
+        <v>-513000</v>
       </c>
       <c r="I100" s="3">
+        <v>-311900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-610500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-214700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-558900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-202200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-54900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-202300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-168000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E101" s="3">
         <v>8500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9200</v>
-      </c>
       <c r="F101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-17200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-44900</v>
-      </c>
       <c r="H101" s="3">
-        <v>56500</v>
+        <v>-45000</v>
       </c>
       <c r="I101" s="3">
-        <v>-17100</v>
+        <v>56700</v>
       </c>
       <c r="J101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-41600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-62300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>44900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>50100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-111700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-79900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>228500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-206600</v>
+        <v>197200</v>
       </c>
       <c r="E102" s="3">
-        <v>51200</v>
+        <v>-207300</v>
       </c>
       <c r="F102" s="3">
-        <v>-342400</v>
+        <v>51400</v>
       </c>
       <c r="G102" s="3">
-        <v>-81000</v>
+        <v>-343500</v>
       </c>
       <c r="H102" s="3">
-        <v>-189200</v>
+        <v>-81200</v>
       </c>
       <c r="I102" s="3">
-        <v>279800</v>
+        <v>-189800</v>
       </c>
       <c r="J102" s="3">
+        <v>280700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-863300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>928000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>168200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-321500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>680300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-388500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>162900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>403300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>114900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3918300</v>
+        <v>3832700</v>
       </c>
       <c r="E8" s="3">
-        <v>3717300</v>
+        <v>3884200</v>
       </c>
       <c r="F8" s="3">
-        <v>3482500</v>
+        <v>3685000</v>
       </c>
       <c r="G8" s="3">
-        <v>2914100</v>
+        <v>3452200</v>
       </c>
       <c r="H8" s="3">
-        <v>3695900</v>
+        <v>2888700</v>
       </c>
       <c r="I8" s="3">
-        <v>3656100</v>
+        <v>3663800</v>
       </c>
       <c r="J8" s="3">
+        <v>3624300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3805700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3526000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3933300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3906100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3838200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3522200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3905500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3676300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3554400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3120300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3620100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3205500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2861500</v>
+        <v>2746700</v>
       </c>
       <c r="E9" s="3">
-        <v>2694900</v>
+        <v>2836600</v>
       </c>
       <c r="F9" s="3">
-        <v>2590100</v>
+        <v>2671400</v>
       </c>
       <c r="G9" s="3">
-        <v>2145800</v>
+        <v>2567600</v>
       </c>
       <c r="H9" s="3">
-        <v>2753200</v>
+        <v>2127100</v>
       </c>
       <c r="I9" s="3">
-        <v>2627200</v>
+        <v>2729200</v>
       </c>
       <c r="J9" s="3">
+        <v>2604400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2734000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2518200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2847200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2757200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2722900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2529100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3355700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2680900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2574800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2240500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2643900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2335900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1056700</v>
+        <v>1086000</v>
       </c>
       <c r="E10" s="3">
-        <v>1022500</v>
+        <v>1047500</v>
       </c>
       <c r="F10" s="3">
-        <v>892300</v>
+        <v>1013600</v>
       </c>
       <c r="G10" s="3">
-        <v>768300</v>
+        <v>884600</v>
       </c>
       <c r="H10" s="3">
-        <v>942800</v>
+        <v>761600</v>
       </c>
       <c r="I10" s="3">
-        <v>1028900</v>
+        <v>934600</v>
       </c>
       <c r="J10" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1071700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1007800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1086200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1148800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1115300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>993100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>549800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>995400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>979600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>879800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>976200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>869600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,11 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3664100</v>
+        <v>3537700</v>
       </c>
       <c r="E17" s="3">
-        <v>3543500</v>
+        <v>3632200</v>
       </c>
       <c r="F17" s="3">
-        <v>3330900</v>
+        <v>3512600</v>
       </c>
       <c r="G17" s="3">
-        <v>2844500</v>
+        <v>3301900</v>
       </c>
       <c r="H17" s="3">
-        <v>3646900</v>
+        <v>2819700</v>
       </c>
       <c r="I17" s="3">
-        <v>3338700</v>
+        <v>3615200</v>
       </c>
       <c r="J17" s="3">
+        <v>3309600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3459300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3318700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3604200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4114000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3415500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3185000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4026700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3323300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3210700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2837700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3288000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2910000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254200</v>
+        <v>294900</v>
       </c>
       <c r="E18" s="3">
-        <v>173900</v>
+        <v>252000</v>
       </c>
       <c r="F18" s="3">
-        <v>151600</v>
+        <v>172300</v>
       </c>
       <c r="G18" s="3">
-        <v>69600</v>
+        <v>150200</v>
       </c>
       <c r="H18" s="3">
-        <v>49000</v>
+        <v>69000</v>
       </c>
       <c r="I18" s="3">
-        <v>317400</v>
+        <v>48600</v>
       </c>
       <c r="J18" s="3">
+        <v>314700</v>
+      </c>
+      <c r="K18" s="3">
         <v>346400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>207300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>329100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-207900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>422700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>337300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>343600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>282600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>332100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>295500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,155 +1413,162 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24600</v>
+        <v>201300</v>
       </c>
       <c r="E20" s="3">
-        <v>184300</v>
+        <v>24400</v>
       </c>
       <c r="F20" s="3">
-        <v>12400</v>
+        <v>182600</v>
       </c>
       <c r="G20" s="3">
-        <v>209900</v>
+        <v>12300</v>
       </c>
       <c r="H20" s="3">
-        <v>17100</v>
+        <v>208000</v>
       </c>
       <c r="I20" s="3">
-        <v>201000</v>
+        <v>17000</v>
       </c>
       <c r="J20" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K20" s="3">
         <v>18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>209400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>192900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>43700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>167100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>160500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>166500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>149100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>548000</v>
+        <v>773600</v>
       </c>
       <c r="E21" s="3">
-        <v>611400</v>
+        <v>543300</v>
       </c>
       <c r="F21" s="3">
-        <v>409100</v>
+        <v>606100</v>
       </c>
       <c r="G21" s="3">
-        <v>514100</v>
+        <v>405600</v>
       </c>
       <c r="H21" s="3">
-        <v>305300</v>
+        <v>509600</v>
       </c>
       <c r="I21" s="3">
-        <v>741700</v>
+        <v>302600</v>
       </c>
       <c r="J21" s="3">
+        <v>735300</v>
+      </c>
+      <c r="K21" s="3">
         <v>563000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>608000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>509400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>612100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>638900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>707700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>549700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>607500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>543200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>623600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1545,153 +1585,162 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3000</v>
       </c>
       <c r="R22" s="3">
         <v>3000</v>
       </c>
       <c r="S22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>278900</v>
+        <v>496300</v>
       </c>
       <c r="E23" s="3">
-        <v>358100</v>
+        <v>276400</v>
       </c>
       <c r="F23" s="3">
-        <v>163900</v>
+        <v>355000</v>
       </c>
       <c r="G23" s="3">
-        <v>279500</v>
+        <v>162500</v>
       </c>
       <c r="H23" s="3">
-        <v>66100</v>
+        <v>277000</v>
       </c>
       <c r="I23" s="3">
-        <v>518500</v>
+        <v>65600</v>
       </c>
       <c r="J23" s="3">
+        <v>513900</v>
+      </c>
+      <c r="K23" s="3">
         <v>365100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>416700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>466400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>504400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-117500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>510500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>374600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>446200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>347200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>444600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26900</v>
+        <v>118700</v>
       </c>
       <c r="E24" s="3">
-        <v>79700</v>
+        <v>26600</v>
       </c>
       <c r="F24" s="3">
-        <v>46500</v>
+        <v>79000</v>
       </c>
       <c r="G24" s="3">
-        <v>69400</v>
+        <v>46100</v>
       </c>
       <c r="H24" s="3">
-        <v>25000</v>
+        <v>68800</v>
       </c>
       <c r="I24" s="3">
-        <v>117500</v>
+        <v>24800</v>
       </c>
       <c r="J24" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K24" s="3">
         <v>94900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>95700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-54600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>261300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>115400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>123600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>252000</v>
+        <v>377600</v>
       </c>
       <c r="E26" s="3">
-        <v>278400</v>
+        <v>249800</v>
       </c>
       <c r="F26" s="3">
-        <v>117400</v>
+        <v>276000</v>
       </c>
       <c r="G26" s="3">
-        <v>210100</v>
+        <v>116400</v>
       </c>
       <c r="H26" s="3">
-        <v>41200</v>
+        <v>208300</v>
       </c>
       <c r="I26" s="3">
-        <v>401000</v>
+        <v>40800</v>
       </c>
       <c r="J26" s="3">
+        <v>397500</v>
+      </c>
+      <c r="K26" s="3">
         <v>270200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>314500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>255200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>365200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>407200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>249300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>273900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>330700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>309900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>321000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>241500</v>
+        <v>371300</v>
       </c>
       <c r="E27" s="3">
-        <v>271800</v>
+        <v>239400</v>
       </c>
       <c r="F27" s="3">
-        <v>110100</v>
+        <v>269400</v>
       </c>
       <c r="G27" s="3">
-        <v>205700</v>
+        <v>109100</v>
       </c>
       <c r="H27" s="3">
-        <v>59300</v>
+        <v>203900</v>
       </c>
       <c r="I27" s="3">
-        <v>382800</v>
+        <v>58800</v>
       </c>
       <c r="J27" s="3">
+        <v>379400</v>
+      </c>
+      <c r="K27" s="3">
         <v>253400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>293500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>228600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>335500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>384400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>268000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>256900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>316600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>292600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>307800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24600</v>
+        <v>-201300</v>
       </c>
       <c r="E32" s="3">
-        <v>-184300</v>
+        <v>-24400</v>
       </c>
       <c r="F32" s="3">
-        <v>-12400</v>
+        <v>-182600</v>
       </c>
       <c r="G32" s="3">
-        <v>-209900</v>
+        <v>-12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-17100</v>
+        <v>-208000</v>
       </c>
       <c r="I32" s="3">
-        <v>-201000</v>
+        <v>-17000</v>
       </c>
       <c r="J32" s="3">
+        <v>-199300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-209400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-192900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-43700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-167100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-160500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-166500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-149100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>241500</v>
+        <v>371300</v>
       </c>
       <c r="E33" s="3">
-        <v>271800</v>
+        <v>239400</v>
       </c>
       <c r="F33" s="3">
-        <v>110100</v>
+        <v>269400</v>
       </c>
       <c r="G33" s="3">
-        <v>205700</v>
+        <v>109100</v>
       </c>
       <c r="H33" s="3">
-        <v>59300</v>
+        <v>203900</v>
       </c>
       <c r="I33" s="3">
-        <v>382800</v>
+        <v>58800</v>
       </c>
       <c r="J33" s="3">
+        <v>379400</v>
+      </c>
+      <c r="K33" s="3">
         <v>253400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>293500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>335500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>384400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>268000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>256900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>316600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>292600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>307800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>241500</v>
+        <v>371300</v>
       </c>
       <c r="E35" s="3">
-        <v>271800</v>
+        <v>239400</v>
       </c>
       <c r="F35" s="3">
-        <v>110100</v>
+        <v>269400</v>
       </c>
       <c r="G35" s="3">
-        <v>205700</v>
+        <v>109100</v>
       </c>
       <c r="H35" s="3">
-        <v>59300</v>
+        <v>203900</v>
       </c>
       <c r="I35" s="3">
-        <v>382800</v>
+        <v>58800</v>
       </c>
       <c r="J35" s="3">
+        <v>379400</v>
+      </c>
+      <c r="K35" s="3">
         <v>253400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>293500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>335500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>384400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>268000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>256900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>316600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>292600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>307800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3554000</v>
+        <v>3574700</v>
       </c>
       <c r="E41" s="3">
-        <v>3356800</v>
+        <v>3523100</v>
       </c>
       <c r="F41" s="3">
-        <v>3564100</v>
+        <v>3327600</v>
       </c>
       <c r="G41" s="3">
-        <v>3512800</v>
+        <v>3533100</v>
       </c>
       <c r="H41" s="3">
-        <v>3856300</v>
+        <v>3482200</v>
       </c>
       <c r="I41" s="3">
-        <v>3937500</v>
+        <v>3822700</v>
       </c>
       <c r="J41" s="3">
+        <v>3903300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4127400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3834100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4928100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3929400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3701500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3936400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3841400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3161100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3549600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3386800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3336800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2933500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>894700</v>
+        <v>813700</v>
       </c>
       <c r="E42" s="3">
-        <v>1007300</v>
+        <v>886900</v>
       </c>
       <c r="F42" s="3">
-        <v>804800</v>
+        <v>998600</v>
       </c>
       <c r="G42" s="3">
-        <v>637700</v>
+        <v>797800</v>
       </c>
       <c r="H42" s="3">
-        <v>680400</v>
+        <v>632100</v>
       </c>
       <c r="I42" s="3">
-        <v>881100</v>
+        <v>674400</v>
       </c>
       <c r="J42" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K42" s="3">
         <v>780100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>825200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1048300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1800100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2283700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1698900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2240300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2625500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2485300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2702500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2637700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2861200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3121100</v>
+        <v>2916300</v>
       </c>
       <c r="E43" s="3">
-        <v>2888400</v>
+        <v>3093900</v>
       </c>
       <c r="F43" s="3">
-        <v>2753100</v>
+        <v>2863300</v>
       </c>
       <c r="G43" s="3">
-        <v>2628000</v>
+        <v>2729100</v>
       </c>
       <c r="H43" s="3">
-        <v>3090500</v>
+        <v>2605100</v>
       </c>
       <c r="I43" s="3">
-        <v>3034500</v>
+        <v>3063600</v>
       </c>
       <c r="J43" s="3">
+        <v>3008000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2949100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3017900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3434200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3476600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3282400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3091900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6642700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2955300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2875900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2498600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2787500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2605300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3173800</v>
+        <v>3357400</v>
       </c>
       <c r="E44" s="3">
-        <v>3140400</v>
+        <v>3146200</v>
       </c>
       <c r="F44" s="3">
-        <v>3208300</v>
+        <v>3113100</v>
       </c>
       <c r="G44" s="3">
-        <v>3449600</v>
+        <v>3180400</v>
       </c>
       <c r="H44" s="3">
-        <v>3164200</v>
+        <v>3419600</v>
       </c>
       <c r="I44" s="3">
-        <v>3423500</v>
+        <v>3136600</v>
       </c>
       <c r="J44" s="3">
+        <v>3393700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3391100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3371600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3304700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3262400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3464600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3359200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6596900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3688200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3229400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3190100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2937300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3162600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282200</v>
+        <v>269900</v>
       </c>
       <c r="E45" s="3">
-        <v>259500</v>
+        <v>279700</v>
       </c>
       <c r="F45" s="3">
-        <v>289300</v>
+        <v>257200</v>
       </c>
       <c r="G45" s="3">
-        <v>305300</v>
+        <v>286700</v>
       </c>
       <c r="H45" s="3">
-        <v>261500</v>
+        <v>302600</v>
       </c>
       <c r="I45" s="3">
-        <v>247100</v>
+        <v>259200</v>
       </c>
       <c r="J45" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K45" s="3">
         <v>304500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>320100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>332900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>305200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>830200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>785400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>756000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1155700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1160800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1034600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1061900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1071600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11025800</v>
+        <v>10932000</v>
       </c>
       <c r="E46" s="3">
-        <v>10652500</v>
+        <v>10929900</v>
       </c>
       <c r="F46" s="3">
-        <v>10619500</v>
+        <v>10559700</v>
       </c>
       <c r="G46" s="3">
-        <v>10533300</v>
+        <v>10527100</v>
       </c>
       <c r="H46" s="3">
-        <v>11052900</v>
+        <v>10441600</v>
       </c>
       <c r="I46" s="3">
-        <v>11523800</v>
+        <v>10956700</v>
       </c>
       <c r="J46" s="3">
+        <v>11423500</v>
+      </c>
+      <c r="K46" s="3">
         <v>11552200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11368900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13048100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12773700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13562400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12871800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13251700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13585900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13301000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12812500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12761200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12634200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12172400</v>
+        <v>12202800</v>
       </c>
       <c r="E47" s="3">
-        <v>11130100</v>
+        <v>12066500</v>
       </c>
       <c r="F47" s="3">
-        <v>9771400</v>
+        <v>11033200</v>
       </c>
       <c r="G47" s="3">
-        <v>11671600</v>
+        <v>9686300</v>
       </c>
       <c r="H47" s="3">
-        <v>11406900</v>
+        <v>11570000</v>
       </c>
       <c r="I47" s="3">
-        <v>11749100</v>
+        <v>11307700</v>
       </c>
       <c r="J47" s="3">
+        <v>11646800</v>
+      </c>
+      <c r="K47" s="3">
         <v>10371700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10180300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9472400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10046500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11552400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10879300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9832500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9896100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10362200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10425800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10029800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9971200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4390500</v>
+        <v>4527900</v>
       </c>
       <c r="E48" s="3">
-        <v>4132500</v>
+        <v>4352300</v>
       </c>
       <c r="F48" s="3">
-        <v>4074600</v>
+        <v>4096500</v>
       </c>
       <c r="G48" s="3">
-        <v>3965000</v>
+        <v>4039100</v>
       </c>
       <c r="H48" s="3">
-        <v>3843200</v>
+        <v>3930500</v>
       </c>
       <c r="I48" s="3">
-        <v>3774900</v>
+        <v>3809700</v>
       </c>
       <c r="J48" s="3">
+        <v>3742000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3604300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3470800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3285200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3052800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3012700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2790300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5332000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2661600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2499100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2443200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2364800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2386800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3747900</v>
+        <v>3714400</v>
       </c>
       <c r="E49" s="3">
-        <v>3205500</v>
+        <v>3715300</v>
       </c>
       <c r="F49" s="3">
-        <v>3268300</v>
+        <v>3177600</v>
       </c>
       <c r="G49" s="3">
-        <v>3278000</v>
+        <v>3239900</v>
       </c>
       <c r="H49" s="3">
-        <v>3039500</v>
+        <v>3249500</v>
       </c>
       <c r="I49" s="3">
-        <v>3022300</v>
+        <v>3013000</v>
       </c>
       <c r="J49" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2995600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2927700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2205500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2103800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2146800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2060600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4058100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1904600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1872200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1573300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1523000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1531900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>768300</v>
+        <v>778700</v>
       </c>
       <c r="E52" s="3">
-        <v>554600</v>
+        <v>761600</v>
       </c>
       <c r="F52" s="3">
-        <v>560000</v>
+        <v>549800</v>
       </c>
       <c r="G52" s="3">
-        <v>561600</v>
+        <v>555100</v>
       </c>
       <c r="H52" s="3">
-        <v>526600</v>
+        <v>556700</v>
       </c>
       <c r="I52" s="3">
-        <v>508700</v>
+        <v>522000</v>
       </c>
       <c r="J52" s="3">
+        <v>504300</v>
+      </c>
+      <c r="K52" s="3">
         <v>500900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>492800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>515800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>539700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>594600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>577500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>559500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>894000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>920500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1040700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>911000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>910300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32105000</v>
+        <v>32155700</v>
       </c>
       <c r="E54" s="3">
-        <v>29675300</v>
+        <v>31825500</v>
       </c>
       <c r="F54" s="3">
-        <v>28293800</v>
+        <v>29416900</v>
       </c>
       <c r="G54" s="3">
-        <v>30009500</v>
+        <v>28047500</v>
       </c>
       <c r="H54" s="3">
-        <v>29869100</v>
+        <v>29748200</v>
       </c>
       <c r="I54" s="3">
-        <v>30578800</v>
+        <v>29609100</v>
       </c>
       <c r="J54" s="3">
+        <v>30312600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29024800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28440500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28527000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28516600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30869000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29179400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28284500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28942300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28955100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28295600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27589900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27434500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1683100</v>
+        <v>1812900</v>
       </c>
       <c r="E57" s="3">
-        <v>1539600</v>
+        <v>1668500</v>
       </c>
       <c r="F57" s="3">
-        <v>1474000</v>
+        <v>1526200</v>
       </c>
       <c r="G57" s="3">
-        <v>1534300</v>
+        <v>1461100</v>
       </c>
       <c r="H57" s="3">
-        <v>1592600</v>
+        <v>1520900</v>
       </c>
       <c r="I57" s="3">
-        <v>1656700</v>
+        <v>1578800</v>
       </c>
       <c r="J57" s="3">
+        <v>1642300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1674900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1790200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1763100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1978300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1911500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3312400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1440600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1268300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1185500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1148300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1089600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>513600</v>
+        <v>506100</v>
       </c>
       <c r="E58" s="3">
-        <v>486700</v>
+        <v>509100</v>
       </c>
       <c r="F58" s="3">
-        <v>491900</v>
+        <v>482500</v>
       </c>
       <c r="G58" s="3">
-        <v>525600</v>
+        <v>487600</v>
       </c>
       <c r="H58" s="3">
-        <v>464100</v>
+        <v>521000</v>
       </c>
       <c r="I58" s="3">
-        <v>112300</v>
+        <v>460100</v>
       </c>
       <c r="J58" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K58" s="3">
         <v>96400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>123800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>88100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>130900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>82000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>80700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>78200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>74700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689400</v>
+        <v>1628900</v>
       </c>
       <c r="E59" s="3">
-        <v>1430200</v>
+        <v>1674600</v>
       </c>
       <c r="F59" s="3">
-        <v>1495600</v>
+        <v>1417700</v>
       </c>
       <c r="G59" s="3">
-        <v>1475100</v>
+        <v>1482600</v>
       </c>
       <c r="H59" s="3">
-        <v>1596400</v>
+        <v>1462200</v>
       </c>
       <c r="I59" s="3">
-        <v>1542300</v>
+        <v>1582500</v>
       </c>
       <c r="J59" s="3">
+        <v>1528900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1685900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1613900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1770800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1630000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1870100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1727300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3013000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2156700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2082900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1899900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2011500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1948800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3886000</v>
+        <v>3948000</v>
       </c>
       <c r="E60" s="3">
-        <v>3456500</v>
+        <v>3852200</v>
       </c>
       <c r="F60" s="3">
-        <v>3461400</v>
+        <v>3426400</v>
       </c>
       <c r="G60" s="3">
-        <v>3534900</v>
+        <v>3431300</v>
       </c>
       <c r="H60" s="3">
-        <v>3653100</v>
+        <v>3504200</v>
       </c>
       <c r="I60" s="3">
-        <v>3311300</v>
+        <v>3621300</v>
       </c>
       <c r="J60" s="3">
+        <v>3282400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3457100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3403500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3601300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3447400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3972100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3726900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3791300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3679300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3431900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3163500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3234500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3115700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>844900</v>
+        <v>834000</v>
       </c>
       <c r="E61" s="3">
-        <v>743600</v>
+        <v>837600</v>
       </c>
       <c r="F61" s="3">
-        <v>752500</v>
+        <v>737200</v>
       </c>
       <c r="G61" s="3">
-        <v>754400</v>
+        <v>745900</v>
       </c>
       <c r="H61" s="3">
-        <v>705900</v>
+        <v>747800</v>
       </c>
       <c r="I61" s="3">
-        <v>315600</v>
+        <v>699800</v>
       </c>
       <c r="J61" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K61" s="3">
         <v>295100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>303300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>76800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>82400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>86000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>66600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>163100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>162300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>159800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>145500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>147700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3332000</v>
+        <v>3307400</v>
       </c>
       <c r="E62" s="3">
-        <v>2946500</v>
+        <v>3303000</v>
       </c>
       <c r="F62" s="3">
-        <v>2579700</v>
+        <v>2920800</v>
       </c>
       <c r="G62" s="3">
-        <v>3099500</v>
+        <v>2557300</v>
       </c>
       <c r="H62" s="3">
-        <v>2955600</v>
+        <v>3072500</v>
       </c>
       <c r="I62" s="3">
-        <v>2945200</v>
+        <v>2929800</v>
       </c>
       <c r="J62" s="3">
+        <v>2919600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2537500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2472500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2170000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2405300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3018100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2828400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2870000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2752300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2804800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2786100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2754100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2878100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8289900</v>
+        <v>8314000</v>
       </c>
       <c r="E66" s="3">
-        <v>7366200</v>
+        <v>8217700</v>
       </c>
       <c r="F66" s="3">
-        <v>7008000</v>
+        <v>7302000</v>
       </c>
       <c r="G66" s="3">
-        <v>7597800</v>
+        <v>6947000</v>
       </c>
       <c r="H66" s="3">
-        <v>7517800</v>
+        <v>7531600</v>
       </c>
       <c r="I66" s="3">
-        <v>7493400</v>
+        <v>7452400</v>
       </c>
       <c r="J66" s="3">
+        <v>7428200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7179600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7055000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6751600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6827000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7961700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7466300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7259300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7372800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6888400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6885300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6899900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16084900</v>
+        <v>16052100</v>
       </c>
       <c r="E72" s="3">
-        <v>15628100</v>
+        <v>15944900</v>
       </c>
       <c r="F72" s="3">
-        <v>15549800</v>
+        <v>15492100</v>
       </c>
       <c r="G72" s="3">
-        <v>15439700</v>
+        <v>15414500</v>
       </c>
       <c r="H72" s="3">
-        <v>15500500</v>
+        <v>15305300</v>
       </c>
       <c r="I72" s="3">
-        <v>15447300</v>
+        <v>15365600</v>
       </c>
       <c r="J72" s="3">
+        <v>15312800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15341600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15038900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15748000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15257500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15207200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14551600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14261900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15225700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15164100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14925300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14530100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14237500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23815100</v>
+        <v>23841800</v>
       </c>
       <c r="E76" s="3">
-        <v>22309100</v>
+        <v>23607800</v>
       </c>
       <c r="F76" s="3">
-        <v>21285800</v>
+        <v>22114900</v>
       </c>
       <c r="G76" s="3">
-        <v>22411700</v>
+        <v>21100500</v>
       </c>
       <c r="H76" s="3">
-        <v>22351300</v>
+        <v>22216600</v>
       </c>
       <c r="I76" s="3">
-        <v>23085400</v>
+        <v>22156700</v>
       </c>
       <c r="J76" s="3">
+        <v>22884400</v>
+      </c>
+      <c r="K76" s="3">
         <v>21845200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21385500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21775500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21689500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22907300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21713100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21025200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21569500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21754100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21407200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20704500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20534600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>241500</v>
+        <v>371300</v>
       </c>
       <c r="E81" s="3">
-        <v>271800</v>
+        <v>239400</v>
       </c>
       <c r="F81" s="3">
-        <v>110100</v>
+        <v>269400</v>
       </c>
       <c r="G81" s="3">
-        <v>205700</v>
+        <v>109100</v>
       </c>
       <c r="H81" s="3">
-        <v>59300</v>
+        <v>203900</v>
       </c>
       <c r="I81" s="3">
-        <v>382800</v>
+        <v>58800</v>
       </c>
       <c r="J81" s="3">
+        <v>379400</v>
+      </c>
+      <c r="K81" s="3">
         <v>253400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>293500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>335500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>384400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>268000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>256900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>316600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>292600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>307800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269200</v>
+        <v>277400</v>
       </c>
       <c r="E83" s="3">
-        <v>253300</v>
+        <v>266800</v>
       </c>
       <c r="F83" s="3">
-        <v>245200</v>
+        <v>251100</v>
       </c>
       <c r="G83" s="3">
-        <v>234600</v>
+        <v>243100</v>
       </c>
       <c r="H83" s="3">
-        <v>239100</v>
+        <v>232500</v>
       </c>
       <c r="I83" s="3">
-        <v>223300</v>
+        <v>237000</v>
       </c>
       <c r="J83" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K83" s="3">
         <v>198000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>191400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>158500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>159600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>134500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>220900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>195500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>172900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>159100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>193000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>179000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>620500</v>
+        <v>629800</v>
       </c>
       <c r="E89" s="3">
-        <v>616200</v>
+        <v>615100</v>
       </c>
       <c r="F89" s="3">
-        <v>451800</v>
+        <v>610800</v>
       </c>
       <c r="G89" s="3">
-        <v>340900</v>
+        <v>447800</v>
       </c>
       <c r="H89" s="3">
-        <v>600700</v>
+        <v>338000</v>
       </c>
       <c r="I89" s="3">
-        <v>361200</v>
+        <v>595400</v>
       </c>
       <c r="J89" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K89" s="3">
         <v>507200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>501700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>590800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>307700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>516600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>639500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>416100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>197400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>283100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>540300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>612200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>196700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-277600</v>
+        <v>-279600</v>
       </c>
       <c r="E91" s="3">
-        <v>-359200</v>
+        <v>-275200</v>
       </c>
       <c r="F91" s="3">
-        <v>-284200</v>
+        <v>-356100</v>
       </c>
       <c r="G91" s="3">
-        <v>-207900</v>
+        <v>-281700</v>
       </c>
       <c r="H91" s="3">
-        <v>-236800</v>
+        <v>-206100</v>
       </c>
       <c r="I91" s="3">
-        <v>-243100</v>
+        <v>-234800</v>
       </c>
       <c r="J91" s="3">
+        <v>-241000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-248400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-255400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-263700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-277400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-250700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-247600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-184700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-148400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-178400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-138400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-161800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-465400</v>
+        <v>-247200</v>
       </c>
       <c r="E94" s="3">
-        <v>-587600</v>
+        <v>-461400</v>
       </c>
       <c r="F94" s="3">
-        <v>-291600</v>
+        <v>-582500</v>
       </c>
       <c r="G94" s="3">
-        <v>-344400</v>
+        <v>-289100</v>
       </c>
       <c r="H94" s="3">
-        <v>-123900</v>
+        <v>-341400</v>
       </c>
       <c r="I94" s="3">
-        <v>-295900</v>
+        <v>-122800</v>
       </c>
       <c r="J94" s="3">
+        <v>-293300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-202700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-712800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>360200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>137400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-863100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>381500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-398000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-373500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-118500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-142300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9300</v>
+        <v>-263600</v>
       </c>
       <c r="E96" s="3">
-        <v>-193900</v>
+        <v>-9200</v>
       </c>
       <c r="F96" s="3">
-        <v>-15800</v>
+        <v>-192300</v>
       </c>
       <c r="G96" s="3">
-        <v>-262100</v>
+        <v>-15600</v>
       </c>
       <c r="H96" s="3">
-        <v>-17400</v>
+        <v>-259800</v>
       </c>
       <c r="I96" s="3">
-        <v>-262800</v>
+        <v>-17300</v>
       </c>
       <c r="J96" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-266700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-206300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-204800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-199100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-199000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-161000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-77300</v>
+        <v>-322000</v>
       </c>
       <c r="E100" s="3">
-        <v>-244400</v>
+        <v>-76600</v>
       </c>
       <c r="F100" s="3">
-        <v>-99500</v>
+        <v>-242300</v>
       </c>
       <c r="G100" s="3">
-        <v>-322900</v>
+        <v>-98700</v>
       </c>
       <c r="H100" s="3">
-        <v>-513000</v>
+        <v>-320100</v>
       </c>
       <c r="I100" s="3">
-        <v>-311900</v>
+        <v>-508500</v>
       </c>
       <c r="J100" s="3">
+        <v>-309200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-610500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-214700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-558900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-202200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-54900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-202300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-168000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>119500</v>
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>118500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9300</v>
+        <v>8400</v>
       </c>
       <c r="G101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>56700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-62300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>44900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>50100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-111700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-79900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>228500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197200</v>
+        <v>51700</v>
       </c>
       <c r="E102" s="3">
-        <v>-207300</v>
+        <v>195500</v>
       </c>
       <c r="F102" s="3">
-        <v>51400</v>
+        <v>-205500</v>
       </c>
       <c r="G102" s="3">
-        <v>-343500</v>
+        <v>50900</v>
       </c>
       <c r="H102" s="3">
-        <v>-81200</v>
+        <v>-340600</v>
       </c>
       <c r="I102" s="3">
-        <v>-189800</v>
+        <v>-80500</v>
       </c>
       <c r="J102" s="3">
+        <v>-188200</v>
+      </c>
+      <c r="K102" s="3">
         <v>280700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-863300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>928000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>168200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-321500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>680300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-388500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>162900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>403300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>114900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3832700</v>
+        <v>4014100</v>
       </c>
       <c r="E8" s="3">
-        <v>3884200</v>
+        <v>3706500</v>
       </c>
       <c r="F8" s="3">
-        <v>3685000</v>
+        <v>3756300</v>
       </c>
       <c r="G8" s="3">
-        <v>3452200</v>
+        <v>3563600</v>
       </c>
       <c r="H8" s="3">
-        <v>2888700</v>
+        <v>3338500</v>
       </c>
       <c r="I8" s="3">
-        <v>3663800</v>
+        <v>2793600</v>
       </c>
       <c r="J8" s="3">
+        <v>3543100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3624300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3805700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3526000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3933300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3906100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3838200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3522200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3905500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3676300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3554400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3120300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3620100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3205500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2746700</v>
+        <v>2860500</v>
       </c>
       <c r="E9" s="3">
-        <v>2836600</v>
+        <v>2656200</v>
       </c>
       <c r="F9" s="3">
-        <v>2671400</v>
+        <v>2743200</v>
       </c>
       <c r="G9" s="3">
-        <v>2567600</v>
+        <v>2583400</v>
       </c>
       <c r="H9" s="3">
-        <v>2127100</v>
+        <v>2483000</v>
       </c>
       <c r="I9" s="3">
-        <v>2729200</v>
+        <v>2057100</v>
       </c>
       <c r="J9" s="3">
+        <v>2639300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2604400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2734000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2518200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2847200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2757200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2722900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2529100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3355700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2680900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2574800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2240500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2643900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2335900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1086000</v>
+        <v>1153600</v>
       </c>
       <c r="E10" s="3">
-        <v>1047500</v>
+        <v>1050200</v>
       </c>
       <c r="F10" s="3">
-        <v>1013600</v>
+        <v>1013100</v>
       </c>
       <c r="G10" s="3">
-        <v>884600</v>
+        <v>980200</v>
       </c>
       <c r="H10" s="3">
-        <v>761600</v>
+        <v>855400</v>
       </c>
       <c r="I10" s="3">
-        <v>934600</v>
+        <v>736500</v>
       </c>
       <c r="J10" s="3">
+        <v>903800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1019900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1071700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1007800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1086200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1148800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1115300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>993100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>549800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>995400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>979600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>879800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>976200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>869600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,11 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3537700</v>
+        <v>3632600</v>
       </c>
       <c r="E17" s="3">
-        <v>3632200</v>
+        <v>3421200</v>
       </c>
       <c r="F17" s="3">
         <v>3512600</v>
       </c>
       <c r="G17" s="3">
-        <v>3301900</v>
+        <v>3397000</v>
       </c>
       <c r="H17" s="3">
-        <v>2819700</v>
+        <v>3193200</v>
       </c>
       <c r="I17" s="3">
-        <v>3615200</v>
+        <v>2726900</v>
       </c>
       <c r="J17" s="3">
+        <v>3496100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3309600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3459300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3318700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3604200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4114000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3415500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3185000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4026700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3323300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3210700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2837700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3288000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2910000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>294900</v>
+        <v>381500</v>
       </c>
       <c r="E18" s="3">
-        <v>252000</v>
+        <v>285200</v>
       </c>
       <c r="F18" s="3">
-        <v>172300</v>
+        <v>243700</v>
       </c>
       <c r="G18" s="3">
-        <v>150200</v>
+        <v>166700</v>
       </c>
       <c r="H18" s="3">
-        <v>69000</v>
+        <v>145300</v>
       </c>
       <c r="I18" s="3">
-        <v>48600</v>
+        <v>66700</v>
       </c>
       <c r="J18" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K18" s="3">
         <v>314700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>346400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>207300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>329100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-207900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>422700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>337300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-121200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>353000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>343600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>282600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>332100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>295500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>201300</v>
+        <v>13800</v>
       </c>
       <c r="E20" s="3">
-        <v>24400</v>
+        <v>194700</v>
       </c>
       <c r="F20" s="3">
-        <v>182600</v>
+        <v>23600</v>
       </c>
       <c r="G20" s="3">
-        <v>12300</v>
+        <v>176600</v>
       </c>
       <c r="H20" s="3">
-        <v>208000</v>
+        <v>11900</v>
       </c>
       <c r="I20" s="3">
-        <v>17000</v>
+        <v>201200</v>
       </c>
       <c r="J20" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K20" s="3">
         <v>199300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>209400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>192900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>43700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>167100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>160500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>166500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>149100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>773600</v>
+        <v>667400</v>
       </c>
       <c r="E21" s="3">
-        <v>543300</v>
+        <v>748200</v>
       </c>
       <c r="F21" s="3">
-        <v>606100</v>
+        <v>525400</v>
       </c>
       <c r="G21" s="3">
-        <v>405600</v>
+        <v>586100</v>
       </c>
       <c r="H21" s="3">
-        <v>509600</v>
+        <v>392200</v>
       </c>
       <c r="I21" s="3">
-        <v>302600</v>
+        <v>492800</v>
       </c>
       <c r="J21" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K21" s="3">
         <v>735300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>563000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>608000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>509400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>612100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>638900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>707700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>549700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>607500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>543200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>623600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1610,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1588,159 +1628,168 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>3700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3000</v>
       </c>
       <c r="S22" s="3">
         <v>3000</v>
       </c>
       <c r="T22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>496300</v>
+        <v>395300</v>
       </c>
       <c r="E23" s="3">
-        <v>276400</v>
+        <v>479900</v>
       </c>
       <c r="F23" s="3">
-        <v>355000</v>
+        <v>267300</v>
       </c>
       <c r="G23" s="3">
-        <v>162500</v>
+        <v>343300</v>
       </c>
       <c r="H23" s="3">
-        <v>277000</v>
+        <v>157200</v>
       </c>
       <c r="I23" s="3">
-        <v>65600</v>
+        <v>267900</v>
       </c>
       <c r="J23" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K23" s="3">
         <v>513900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>365100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>416700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>350900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>466400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>504400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-117500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>510500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>374600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>446200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>347200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>444600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118700</v>
+        <v>100400</v>
       </c>
       <c r="E24" s="3">
-        <v>26600</v>
+        <v>114800</v>
       </c>
       <c r="F24" s="3">
-        <v>79000</v>
+        <v>25800</v>
       </c>
       <c r="G24" s="3">
-        <v>46100</v>
+        <v>76400</v>
       </c>
       <c r="H24" s="3">
-        <v>68800</v>
+        <v>44600</v>
       </c>
       <c r="I24" s="3">
-        <v>24800</v>
+        <v>66500</v>
       </c>
       <c r="J24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K24" s="3">
         <v>116500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>95700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-54600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>101200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-57600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>261300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>115400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>123600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>377600</v>
+        <v>295000</v>
       </c>
       <c r="E26" s="3">
-        <v>249800</v>
+        <v>365100</v>
       </c>
       <c r="F26" s="3">
-        <v>276000</v>
+        <v>241600</v>
       </c>
       <c r="G26" s="3">
-        <v>116400</v>
+        <v>266900</v>
       </c>
       <c r="H26" s="3">
-        <v>208300</v>
+        <v>112600</v>
       </c>
       <c r="I26" s="3">
-        <v>40800</v>
+        <v>201400</v>
       </c>
       <c r="J26" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K26" s="3">
         <v>397500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>314500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>255200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>365200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>407200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-59900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>249300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>273900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>330700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>309900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>321000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>371300</v>
+        <v>286000</v>
       </c>
       <c r="E27" s="3">
-        <v>239400</v>
+        <v>359100</v>
       </c>
       <c r="F27" s="3">
-        <v>269400</v>
+        <v>231600</v>
       </c>
       <c r="G27" s="3">
-        <v>109100</v>
+        <v>260500</v>
       </c>
       <c r="H27" s="3">
-        <v>203900</v>
+        <v>105500</v>
       </c>
       <c r="I27" s="3">
-        <v>58800</v>
+        <v>197200</v>
       </c>
       <c r="J27" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K27" s="3">
         <v>379400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>253400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>293500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>228600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>335500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>384400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-76600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>268000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>256900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>316600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>292600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>307800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-201300</v>
+        <v>-13800</v>
       </c>
       <c r="E32" s="3">
-        <v>-24400</v>
+        <v>-194700</v>
       </c>
       <c r="F32" s="3">
-        <v>-182600</v>
+        <v>-23600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12300</v>
+        <v>-176600</v>
       </c>
       <c r="H32" s="3">
-        <v>-208000</v>
+        <v>-11900</v>
       </c>
       <c r="I32" s="3">
-        <v>-17000</v>
+        <v>-201200</v>
       </c>
       <c r="J32" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-199300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-209400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-192900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-43700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-167100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-160500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-166500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-149100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>371300</v>
+        <v>286000</v>
       </c>
       <c r="E33" s="3">
-        <v>239400</v>
+        <v>359100</v>
       </c>
       <c r="F33" s="3">
-        <v>269400</v>
+        <v>231600</v>
       </c>
       <c r="G33" s="3">
-        <v>109100</v>
+        <v>260500</v>
       </c>
       <c r="H33" s="3">
-        <v>203900</v>
+        <v>105500</v>
       </c>
       <c r="I33" s="3">
-        <v>58800</v>
+        <v>197200</v>
       </c>
       <c r="J33" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K33" s="3">
         <v>379400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>253400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>293500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>335500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>384400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-76600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>268000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>256900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>316600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>292600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>307800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>371300</v>
+        <v>286000</v>
       </c>
       <c r="E35" s="3">
-        <v>239400</v>
+        <v>359100</v>
       </c>
       <c r="F35" s="3">
-        <v>269400</v>
+        <v>231600</v>
       </c>
       <c r="G35" s="3">
-        <v>109100</v>
+        <v>260500</v>
       </c>
       <c r="H35" s="3">
-        <v>203900</v>
+        <v>105500</v>
       </c>
       <c r="I35" s="3">
-        <v>58800</v>
+        <v>197200</v>
       </c>
       <c r="J35" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K35" s="3">
         <v>379400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>253400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>293500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>335500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>384400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-76600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>268000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>256900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>316600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>292600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>307800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3574700</v>
+        <v>3803800</v>
       </c>
       <c r="E41" s="3">
-        <v>3523100</v>
+        <v>3457000</v>
       </c>
       <c r="F41" s="3">
-        <v>3327600</v>
+        <v>3407100</v>
       </c>
       <c r="G41" s="3">
-        <v>3533100</v>
+        <v>3218000</v>
       </c>
       <c r="H41" s="3">
-        <v>3482200</v>
+        <v>3416700</v>
       </c>
       <c r="I41" s="3">
-        <v>3822700</v>
+        <v>3367500</v>
       </c>
       <c r="J41" s="3">
+        <v>3696900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3903300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4127400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3834100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4928100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3929400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3701500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3936400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3841400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3161100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3549600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3386800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3336800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2933500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>813700</v>
+        <v>504400</v>
       </c>
       <c r="E42" s="3">
-        <v>886900</v>
+        <v>786900</v>
       </c>
       <c r="F42" s="3">
-        <v>998600</v>
+        <v>857700</v>
       </c>
       <c r="G42" s="3">
-        <v>797800</v>
+        <v>965700</v>
       </c>
       <c r="H42" s="3">
-        <v>632100</v>
+        <v>771500</v>
       </c>
       <c r="I42" s="3">
-        <v>674400</v>
+        <v>611300</v>
       </c>
       <c r="J42" s="3">
+        <v>652200</v>
+      </c>
+      <c r="K42" s="3">
         <v>873500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>780100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>825200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1048300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1800100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2283700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1698900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2240300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2625500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2485300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2702500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2637700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2861200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2916300</v>
+        <v>2952600</v>
       </c>
       <c r="E43" s="3">
-        <v>3093900</v>
+        <v>2820200</v>
       </c>
       <c r="F43" s="3">
-        <v>2863300</v>
+        <v>2992100</v>
       </c>
       <c r="G43" s="3">
-        <v>2729100</v>
+        <v>2769000</v>
       </c>
       <c r="H43" s="3">
-        <v>2605100</v>
+        <v>2639200</v>
       </c>
       <c r="I43" s="3">
-        <v>3063600</v>
+        <v>2519300</v>
       </c>
       <c r="J43" s="3">
+        <v>2962800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3008000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2949100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3017900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3434200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3476600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3282400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3091900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6642700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2955300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2875900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2498600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2787500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2605300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3357400</v>
+        <v>3464700</v>
       </c>
       <c r="E44" s="3">
-        <v>3146200</v>
+        <v>3246900</v>
       </c>
       <c r="F44" s="3">
-        <v>3113100</v>
+        <v>3042600</v>
       </c>
       <c r="G44" s="3">
-        <v>3180400</v>
+        <v>3010600</v>
       </c>
       <c r="H44" s="3">
-        <v>3419600</v>
+        <v>3075700</v>
       </c>
       <c r="I44" s="3">
-        <v>3136600</v>
+        <v>3307000</v>
       </c>
       <c r="J44" s="3">
+        <v>3033300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3393700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3391100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3371600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3304700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3262400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3464600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3359200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6596900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3688200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3229400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3190100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2937300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3162600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>269900</v>
+        <v>269000</v>
       </c>
       <c r="E45" s="3">
-        <v>279700</v>
+        <v>261000</v>
       </c>
       <c r="F45" s="3">
-        <v>257200</v>
+        <v>270500</v>
       </c>
       <c r="G45" s="3">
-        <v>286700</v>
+        <v>248800</v>
       </c>
       <c r="H45" s="3">
-        <v>302600</v>
+        <v>277300</v>
       </c>
       <c r="I45" s="3">
-        <v>259200</v>
+        <v>292600</v>
       </c>
       <c r="J45" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K45" s="3">
         <v>245000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>304500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>320100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>332900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>305200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>830200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>785400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>756000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1155700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1160800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1034600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1061900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1071600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10932000</v>
+        <v>10994500</v>
       </c>
       <c r="E46" s="3">
-        <v>10929900</v>
+        <v>10572000</v>
       </c>
       <c r="F46" s="3">
-        <v>10559700</v>
+        <v>10569900</v>
       </c>
       <c r="G46" s="3">
-        <v>10527100</v>
+        <v>10212000</v>
       </c>
       <c r="H46" s="3">
-        <v>10441600</v>
+        <v>10180400</v>
       </c>
       <c r="I46" s="3">
-        <v>10956700</v>
+        <v>10097800</v>
       </c>
       <c r="J46" s="3">
+        <v>10595800</v>
+      </c>
+      <c r="K46" s="3">
         <v>11423500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11552200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11368900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13048100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12773700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13562400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12871800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13251700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13585900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13301000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12812500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12761200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12634200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12202800</v>
+        <v>12515700</v>
       </c>
       <c r="E47" s="3">
-        <v>12066500</v>
+        <v>11800900</v>
       </c>
       <c r="F47" s="3">
-        <v>11033200</v>
+        <v>11669100</v>
       </c>
       <c r="G47" s="3">
-        <v>9686300</v>
+        <v>10669900</v>
       </c>
       <c r="H47" s="3">
-        <v>11570000</v>
+        <v>9367300</v>
       </c>
       <c r="I47" s="3">
-        <v>11307700</v>
+        <v>11189000</v>
       </c>
       <c r="J47" s="3">
+        <v>10935300</v>
+      </c>
+      <c r="K47" s="3">
         <v>11646800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10371700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10180300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9472400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10046500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11552400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10879300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9832500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9896100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10362200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10425800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10029800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9971200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4527900</v>
+        <v>4459400</v>
       </c>
       <c r="E48" s="3">
-        <v>4352300</v>
+        <v>4378800</v>
       </c>
       <c r="F48" s="3">
-        <v>4096500</v>
+        <v>4209000</v>
       </c>
       <c r="G48" s="3">
-        <v>4039100</v>
+        <v>3961600</v>
       </c>
       <c r="H48" s="3">
-        <v>3930500</v>
+        <v>3906100</v>
       </c>
       <c r="I48" s="3">
-        <v>3809700</v>
+        <v>3801000</v>
       </c>
       <c r="J48" s="3">
+        <v>3684300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3742000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3604300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3470800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3285200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3052800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3012700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2790300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5332000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2661600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2499100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2443200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2364800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2386800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3714400</v>
+        <v>3559300</v>
       </c>
       <c r="E49" s="3">
-        <v>3715300</v>
+        <v>3592100</v>
       </c>
       <c r="F49" s="3">
-        <v>3177600</v>
+        <v>3593000</v>
       </c>
       <c r="G49" s="3">
-        <v>3239900</v>
+        <v>3073000</v>
       </c>
       <c r="H49" s="3">
-        <v>3249500</v>
+        <v>3133200</v>
       </c>
       <c r="I49" s="3">
-        <v>3013000</v>
+        <v>3142500</v>
       </c>
       <c r="J49" s="3">
+        <v>2913800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2996000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2995600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2927700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2205500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2103800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2146800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2060600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4058100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1904600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1872200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1573300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1523000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1531900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>778700</v>
+        <v>688400</v>
       </c>
       <c r="E52" s="3">
-        <v>761600</v>
+        <v>753100</v>
       </c>
       <c r="F52" s="3">
-        <v>549800</v>
+        <v>736500</v>
       </c>
       <c r="G52" s="3">
-        <v>555100</v>
+        <v>531700</v>
       </c>
       <c r="H52" s="3">
-        <v>556700</v>
+        <v>536900</v>
       </c>
       <c r="I52" s="3">
-        <v>522000</v>
+        <v>538400</v>
       </c>
       <c r="J52" s="3">
+        <v>504800</v>
+      </c>
+      <c r="K52" s="3">
         <v>504300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>492800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>515800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>539700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>594600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>577500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>559500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>894000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>920500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1040700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>911000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>910300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32155700</v>
+        <v>32217300</v>
       </c>
       <c r="E54" s="3">
-        <v>31825500</v>
+        <v>31096800</v>
       </c>
       <c r="F54" s="3">
-        <v>29416900</v>
+        <v>30777500</v>
       </c>
       <c r="G54" s="3">
-        <v>28047500</v>
+        <v>28448200</v>
       </c>
       <c r="H54" s="3">
-        <v>29748200</v>
+        <v>27123900</v>
       </c>
       <c r="I54" s="3">
-        <v>29609100</v>
+        <v>28768600</v>
       </c>
       <c r="J54" s="3">
+        <v>28634000</v>
+      </c>
+      <c r="K54" s="3">
         <v>30312600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29024800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28440500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28527000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28516600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30869000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29179400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28284500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28942300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28955100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28295600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27589900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27434500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1812900</v>
+        <v>1828600</v>
       </c>
       <c r="E57" s="3">
-        <v>1668500</v>
+        <v>1753200</v>
       </c>
       <c r="F57" s="3">
-        <v>1526200</v>
+        <v>1613500</v>
       </c>
       <c r="G57" s="3">
-        <v>1461100</v>
+        <v>1476000</v>
       </c>
       <c r="H57" s="3">
-        <v>1520900</v>
+        <v>1413000</v>
       </c>
       <c r="I57" s="3">
-        <v>1578800</v>
+        <v>1470800</v>
       </c>
       <c r="J57" s="3">
+        <v>1526800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1642300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1674900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1790200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1763100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1978300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1911500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3312400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1440600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1268300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1185500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1148300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1089600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>506100</v>
+        <v>483500</v>
       </c>
       <c r="E58" s="3">
-        <v>509100</v>
+        <v>489500</v>
       </c>
       <c r="F58" s="3">
-        <v>482500</v>
+        <v>492300</v>
       </c>
       <c r="G58" s="3">
-        <v>487600</v>
+        <v>466600</v>
       </c>
       <c r="H58" s="3">
-        <v>521000</v>
+        <v>471500</v>
       </c>
       <c r="I58" s="3">
-        <v>460100</v>
+        <v>503900</v>
       </c>
       <c r="J58" s="3">
+        <v>444900</v>
+      </c>
+      <c r="K58" s="3">
         <v>111300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>96400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>123800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>88100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>130900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>82000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>80700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>78200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>74700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>77300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1628900</v>
+        <v>1655200</v>
       </c>
       <c r="E59" s="3">
-        <v>1674600</v>
+        <v>1575300</v>
       </c>
       <c r="F59" s="3">
-        <v>1417700</v>
+        <v>1619500</v>
       </c>
       <c r="G59" s="3">
-        <v>1482600</v>
+        <v>1371000</v>
       </c>
       <c r="H59" s="3">
-        <v>1462200</v>
+        <v>1433700</v>
       </c>
       <c r="I59" s="3">
-        <v>1582500</v>
+        <v>1414100</v>
       </c>
       <c r="J59" s="3">
+        <v>1530400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1528900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1685900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1613900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1770800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1630000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1870100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1727300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3013000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2156700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2082900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1899900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2011500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1948800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3948000</v>
+        <v>3967200</v>
       </c>
       <c r="E60" s="3">
-        <v>3852200</v>
+        <v>3818000</v>
       </c>
       <c r="F60" s="3">
-        <v>3426400</v>
+        <v>3725300</v>
       </c>
       <c r="G60" s="3">
-        <v>3431300</v>
+        <v>3313600</v>
       </c>
       <c r="H60" s="3">
-        <v>3504200</v>
+        <v>3318300</v>
       </c>
       <c r="I60" s="3">
-        <v>3621300</v>
+        <v>3388800</v>
       </c>
       <c r="J60" s="3">
+        <v>3502100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3282400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3457100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3403500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3601300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3447400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3972100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3726900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3791300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3679300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3431900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3163500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3234500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3115700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>834000</v>
+        <v>797900</v>
       </c>
       <c r="E61" s="3">
-        <v>837600</v>
+        <v>806500</v>
       </c>
       <c r="F61" s="3">
-        <v>737200</v>
+        <v>810000</v>
       </c>
       <c r="G61" s="3">
-        <v>745900</v>
+        <v>712900</v>
       </c>
       <c r="H61" s="3">
-        <v>747800</v>
+        <v>721400</v>
       </c>
       <c r="I61" s="3">
-        <v>699800</v>
+        <v>723200</v>
       </c>
       <c r="J61" s="3">
+        <v>676800</v>
+      </c>
+      <c r="K61" s="3">
         <v>312900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>295100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>303300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>76800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>82400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>86000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>66600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>163100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>162300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>159800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>145500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>147700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3307400</v>
+        <v>3354600</v>
       </c>
       <c r="E62" s="3">
-        <v>3303000</v>
+        <v>3198500</v>
       </c>
       <c r="F62" s="3">
-        <v>2920800</v>
+        <v>3194200</v>
       </c>
       <c r="G62" s="3">
-        <v>2557300</v>
+        <v>2824700</v>
       </c>
       <c r="H62" s="3">
-        <v>3072500</v>
+        <v>2473000</v>
       </c>
       <c r="I62" s="3">
-        <v>2929800</v>
+        <v>2971300</v>
       </c>
       <c r="J62" s="3">
+        <v>2833400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2919600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2537500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2472500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2170000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2405300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3018100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2828400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2870000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2752300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2804800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2786100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2754100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2878100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8314000</v>
+        <v>8344200</v>
       </c>
       <c r="E66" s="3">
-        <v>8217700</v>
+        <v>8040200</v>
       </c>
       <c r="F66" s="3">
-        <v>7302000</v>
+        <v>7947100</v>
       </c>
       <c r="G66" s="3">
-        <v>6947000</v>
+        <v>7061600</v>
       </c>
       <c r="H66" s="3">
-        <v>7531600</v>
+        <v>6718200</v>
       </c>
       <c r="I66" s="3">
-        <v>7452400</v>
+        <v>7283600</v>
       </c>
       <c r="J66" s="3">
+        <v>7206900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7428200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7179600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7055000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6751600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6827000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7961700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7466300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7259300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7372800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7200900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6888400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6885300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6899900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16052100</v>
+        <v>15809400</v>
       </c>
       <c r="E72" s="3">
-        <v>15944900</v>
+        <v>15523500</v>
       </c>
       <c r="F72" s="3">
-        <v>15492100</v>
+        <v>15419800</v>
       </c>
       <c r="G72" s="3">
-        <v>15414500</v>
+        <v>14981900</v>
       </c>
       <c r="H72" s="3">
-        <v>15305300</v>
+        <v>14906800</v>
       </c>
       <c r="I72" s="3">
-        <v>15365600</v>
+        <v>14801300</v>
       </c>
       <c r="J72" s="3">
+        <v>14859600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15312800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15341600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15038900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15748000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15257500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15207200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14551600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14261900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15225700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15164100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14925300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14530100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14237500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23841800</v>
+        <v>23873200</v>
       </c>
       <c r="E76" s="3">
-        <v>23607800</v>
+        <v>23056600</v>
       </c>
       <c r="F76" s="3">
-        <v>22114900</v>
+        <v>22830400</v>
       </c>
       <c r="G76" s="3">
-        <v>21100500</v>
+        <v>21386600</v>
       </c>
       <c r="H76" s="3">
-        <v>22216600</v>
+        <v>20405600</v>
       </c>
       <c r="I76" s="3">
-        <v>22156700</v>
+        <v>21485000</v>
       </c>
       <c r="J76" s="3">
+        <v>21427100</v>
+      </c>
+      <c r="K76" s="3">
         <v>22884400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21845200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21385500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21775500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21689500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22907300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21713100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21025200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21569500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21754100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21407200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20704500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20534600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>371300</v>
+        <v>286000</v>
       </c>
       <c r="E81" s="3">
-        <v>239400</v>
+        <v>359100</v>
       </c>
       <c r="F81" s="3">
-        <v>269400</v>
+        <v>231600</v>
       </c>
       <c r="G81" s="3">
-        <v>109100</v>
+        <v>260500</v>
       </c>
       <c r="H81" s="3">
-        <v>203900</v>
+        <v>105500</v>
       </c>
       <c r="I81" s="3">
-        <v>58800</v>
+        <v>197200</v>
       </c>
       <c r="J81" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K81" s="3">
         <v>379400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>253400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>293500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>335500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>384400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-76600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>268000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>256900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>316600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>292600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>307800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277400</v>
+        <v>272100</v>
       </c>
       <c r="E83" s="3">
-        <v>266800</v>
+        <v>268200</v>
       </c>
       <c r="F83" s="3">
-        <v>251100</v>
+        <v>258100</v>
       </c>
       <c r="G83" s="3">
-        <v>243100</v>
+        <v>242800</v>
       </c>
       <c r="H83" s="3">
-        <v>232500</v>
+        <v>235100</v>
       </c>
       <c r="I83" s="3">
-        <v>237000</v>
+        <v>224900</v>
       </c>
       <c r="J83" s="3">
+        <v>229200</v>
+      </c>
+      <c r="K83" s="3">
         <v>221300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>198000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>191400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>158500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>159600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>134500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>220900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>195500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>172900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>159100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>193000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>179000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>629800</v>
+        <v>410800</v>
       </c>
       <c r="E89" s="3">
-        <v>615100</v>
+        <v>609000</v>
       </c>
       <c r="F89" s="3">
-        <v>610800</v>
+        <v>594800</v>
       </c>
       <c r="G89" s="3">
-        <v>447800</v>
+        <v>590700</v>
       </c>
       <c r="H89" s="3">
-        <v>338000</v>
+        <v>433100</v>
       </c>
       <c r="I89" s="3">
-        <v>595400</v>
+        <v>326800</v>
       </c>
       <c r="J89" s="3">
+        <v>575800</v>
+      </c>
+      <c r="K89" s="3">
         <v>358100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>507200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>501700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>590800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>307700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>516600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>639500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>416100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>197400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>283100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>540300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>612200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>196700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-279600</v>
+        <v>-291100</v>
       </c>
       <c r="E91" s="3">
-        <v>-275200</v>
+        <v>-270400</v>
       </c>
       <c r="F91" s="3">
-        <v>-356100</v>
+        <v>-266100</v>
       </c>
       <c r="G91" s="3">
-        <v>-281700</v>
+        <v>-344400</v>
       </c>
       <c r="H91" s="3">
-        <v>-206100</v>
+        <v>-272400</v>
       </c>
       <c r="I91" s="3">
-        <v>-234800</v>
+        <v>-199300</v>
       </c>
       <c r="J91" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-241000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-248400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-255400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-263700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-277400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-250700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-247600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-249700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-184700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-148400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-178400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-138400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-161800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-247200</v>
+        <v>-2400</v>
       </c>
       <c r="E94" s="3">
-        <v>-461400</v>
+        <v>-239000</v>
       </c>
       <c r="F94" s="3">
-        <v>-582500</v>
+        <v>-446200</v>
       </c>
       <c r="G94" s="3">
-        <v>-289100</v>
+        <v>-563300</v>
       </c>
       <c r="H94" s="3">
-        <v>-341400</v>
+        <v>-279600</v>
       </c>
       <c r="I94" s="3">
-        <v>-122800</v>
+        <v>-330100</v>
       </c>
       <c r="J94" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-293300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-202700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-712800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>360200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>137400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-863100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>381500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-398000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-90200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-373500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-118500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-142300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-263600</v>
+        <v>-15400</v>
       </c>
       <c r="E96" s="3">
-        <v>-9200</v>
+        <v>-254900</v>
       </c>
       <c r="F96" s="3">
-        <v>-192300</v>
+        <v>-8900</v>
       </c>
       <c r="G96" s="3">
-        <v>-15600</v>
+        <v>-185900</v>
       </c>
       <c r="H96" s="3">
-        <v>-259800</v>
+        <v>-15100</v>
       </c>
       <c r="I96" s="3">
-        <v>-17300</v>
+        <v>-251200</v>
       </c>
       <c r="J96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-260500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-266700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-206300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-204800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-199100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-199000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-161000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-322000</v>
+        <v>-64600</v>
       </c>
       <c r="E100" s="3">
-        <v>-76600</v>
+        <v>-311400</v>
       </c>
       <c r="F100" s="3">
-        <v>-242300</v>
+        <v>-74100</v>
       </c>
       <c r="G100" s="3">
-        <v>-98700</v>
+        <v>-234300</v>
       </c>
       <c r="H100" s="3">
-        <v>-320100</v>
+        <v>-95400</v>
       </c>
       <c r="I100" s="3">
-        <v>-508500</v>
+        <v>-309500</v>
       </c>
       <c r="J100" s="3">
+        <v>-491800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-309200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-610500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-214700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-558900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-202200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-54900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-202300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-168000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9000</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>118500</v>
+        <v>-8700</v>
       </c>
       <c r="F101" s="3">
-        <v>8400</v>
+        <v>114600</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>8100</v>
       </c>
       <c r="H101" s="3">
-        <v>-17100</v>
+        <v>-8900</v>
       </c>
       <c r="I101" s="3">
-        <v>-44700</v>
+        <v>-16500</v>
       </c>
       <c r="J101" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K101" s="3">
         <v>56200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-62300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>44900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>50100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-111700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>22600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-79900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>228500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>51700</v>
+        <v>346700</v>
       </c>
       <c r="E102" s="3">
-        <v>195500</v>
+        <v>50000</v>
       </c>
       <c r="F102" s="3">
-        <v>-205500</v>
+        <v>189100</v>
       </c>
       <c r="G102" s="3">
-        <v>50900</v>
+        <v>-198800</v>
       </c>
       <c r="H102" s="3">
-        <v>-340600</v>
+        <v>49200</v>
       </c>
       <c r="I102" s="3">
-        <v>-80500</v>
+        <v>-329300</v>
       </c>
       <c r="J102" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-188200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>280700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-863300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>928000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>168200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-321500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>680300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-388500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>162900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>403300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>114900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4014100</v>
+        <v>4088700</v>
       </c>
       <c r="E8" s="3">
-        <v>3706500</v>
+        <v>3886500</v>
       </c>
       <c r="F8" s="3">
-        <v>3756300</v>
+        <v>3588700</v>
       </c>
       <c r="G8" s="3">
-        <v>3563600</v>
+        <v>3636900</v>
       </c>
       <c r="H8" s="3">
-        <v>3338500</v>
+        <v>3450400</v>
       </c>
       <c r="I8" s="3">
-        <v>2793600</v>
+        <v>3232400</v>
       </c>
       <c r="J8" s="3">
+        <v>2704800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3543100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3624300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3805700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3526000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3933300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3906100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3838200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3522200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3905500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3676300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3554400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3120300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3620100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3205500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2860500</v>
+        <v>2937000</v>
       </c>
       <c r="E9" s="3">
-        <v>2656200</v>
+        <v>2769600</v>
       </c>
       <c r="F9" s="3">
-        <v>2743200</v>
+        <v>2571800</v>
       </c>
       <c r="G9" s="3">
-        <v>2583400</v>
+        <v>2656000</v>
       </c>
       <c r="H9" s="3">
-        <v>2483000</v>
+        <v>2501300</v>
       </c>
       <c r="I9" s="3">
-        <v>2057100</v>
+        <v>2404100</v>
       </c>
       <c r="J9" s="3">
+        <v>1991700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2639300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2604400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2734000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2518200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2847200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2757200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2722900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2529100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3355700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2680900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2574800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2240500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2643900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2335900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1153600</v>
+        <v>1151700</v>
       </c>
       <c r="E10" s="3">
-        <v>1050200</v>
+        <v>1116900</v>
       </c>
       <c r="F10" s="3">
-        <v>1013100</v>
+        <v>1016900</v>
       </c>
       <c r="G10" s="3">
-        <v>980200</v>
+        <v>980900</v>
       </c>
       <c r="H10" s="3">
-        <v>855400</v>
+        <v>949000</v>
       </c>
       <c r="I10" s="3">
-        <v>736500</v>
+        <v>828300</v>
       </c>
       <c r="J10" s="3">
+        <v>713100</v>
+      </c>
+      <c r="K10" s="3">
         <v>903800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1019900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1071700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1007800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1086200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1148800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1115300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>993100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>549800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>995400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>979600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>879800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>976200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>869600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,11 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1193,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3632600</v>
+        <v>3723800</v>
       </c>
       <c r="E17" s="3">
-        <v>3421200</v>
+        <v>3517100</v>
       </c>
       <c r="F17" s="3">
-        <v>3512600</v>
+        <v>3312500</v>
       </c>
       <c r="G17" s="3">
-        <v>3397000</v>
+        <v>3400900</v>
       </c>
       <c r="H17" s="3">
-        <v>3193200</v>
+        <v>3289000</v>
       </c>
       <c r="I17" s="3">
-        <v>2726900</v>
+        <v>3091700</v>
       </c>
       <c r="J17" s="3">
+        <v>2640200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3496100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3309600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3459300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3318700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3604200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4114000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3415500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3185000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4026700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3323300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3210700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2837700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3288000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2910000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>381500</v>
+        <v>364900</v>
       </c>
       <c r="E18" s="3">
-        <v>285200</v>
+        <v>369400</v>
       </c>
       <c r="F18" s="3">
-        <v>243700</v>
+        <v>276200</v>
       </c>
       <c r="G18" s="3">
-        <v>166700</v>
+        <v>235900</v>
       </c>
       <c r="H18" s="3">
-        <v>145300</v>
+        <v>161400</v>
       </c>
       <c r="I18" s="3">
-        <v>66700</v>
+        <v>140700</v>
       </c>
       <c r="J18" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K18" s="3">
         <v>47000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>314700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>346400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>207300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>329100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-207900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>422700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>337300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-121200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>353000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>343600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>282600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>332100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>295500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13800</v>
+        <v>178900</v>
       </c>
       <c r="E20" s="3">
-        <v>194700</v>
+        <v>13400</v>
       </c>
       <c r="F20" s="3">
-        <v>23600</v>
+        <v>188500</v>
       </c>
       <c r="G20" s="3">
-        <v>176600</v>
+        <v>22900</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>171000</v>
       </c>
       <c r="I20" s="3">
-        <v>201200</v>
+        <v>11500</v>
       </c>
       <c r="J20" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K20" s="3">
         <v>16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>209400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>192900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>167100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>160500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>166500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>149100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>667400</v>
+        <v>828000</v>
       </c>
       <c r="E21" s="3">
-        <v>748200</v>
+        <v>646200</v>
       </c>
       <c r="F21" s="3">
-        <v>525400</v>
+        <v>724400</v>
       </c>
       <c r="G21" s="3">
-        <v>586100</v>
+        <v>508700</v>
       </c>
       <c r="H21" s="3">
-        <v>392200</v>
+        <v>567500</v>
       </c>
       <c r="I21" s="3">
-        <v>492800</v>
+        <v>379700</v>
       </c>
       <c r="J21" s="3">
+        <v>477100</v>
+      </c>
+      <c r="K21" s="3">
         <v>292600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>735300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>563000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>608000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>509400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>612100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>638900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>110100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>707700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>549700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>607500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>543200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>623600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1613,8 +1652,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1631,165 +1670,174 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>3700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3000</v>
       </c>
       <c r="T22" s="3">
         <v>3000</v>
       </c>
       <c r="U22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>395300</v>
+        <v>543800</v>
       </c>
       <c r="E23" s="3">
-        <v>479900</v>
+        <v>382800</v>
       </c>
       <c r="F23" s="3">
-        <v>267300</v>
+        <v>464700</v>
       </c>
       <c r="G23" s="3">
-        <v>343300</v>
+        <v>258800</v>
       </c>
       <c r="H23" s="3">
-        <v>157200</v>
+        <v>332400</v>
       </c>
       <c r="I23" s="3">
-        <v>267900</v>
+        <v>152200</v>
       </c>
       <c r="J23" s="3">
+        <v>259400</v>
+      </c>
+      <c r="K23" s="3">
         <v>63400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>513900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>365100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>416700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>350900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>466400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>504400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-117500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>510500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>374600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>446200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>347200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>444600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100400</v>
+        <v>139000</v>
       </c>
       <c r="E24" s="3">
-        <v>114800</v>
+        <v>97200</v>
       </c>
       <c r="F24" s="3">
-        <v>25800</v>
+        <v>111200</v>
       </c>
       <c r="G24" s="3">
-        <v>76400</v>
+        <v>24900</v>
       </c>
       <c r="H24" s="3">
-        <v>44600</v>
+        <v>74000</v>
       </c>
       <c r="I24" s="3">
-        <v>66500</v>
+        <v>43200</v>
       </c>
       <c r="J24" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K24" s="3">
         <v>23900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>102100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>95700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-54600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>101200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-57600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>261300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>115400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>123600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>295000</v>
+        <v>404800</v>
       </c>
       <c r="E26" s="3">
-        <v>365100</v>
+        <v>285600</v>
       </c>
       <c r="F26" s="3">
-        <v>241600</v>
+        <v>353500</v>
       </c>
       <c r="G26" s="3">
-        <v>266900</v>
+        <v>233900</v>
       </c>
       <c r="H26" s="3">
-        <v>112600</v>
+        <v>258400</v>
       </c>
       <c r="I26" s="3">
-        <v>201400</v>
+        <v>109000</v>
       </c>
       <c r="J26" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K26" s="3">
         <v>39500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>397500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>314500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>255200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>365200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>407200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-59900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>249300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>273900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>330700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>309900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>321000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>286000</v>
+        <v>397600</v>
       </c>
       <c r="E27" s="3">
-        <v>359100</v>
+        <v>276900</v>
       </c>
       <c r="F27" s="3">
-        <v>231600</v>
+        <v>347700</v>
       </c>
       <c r="G27" s="3">
-        <v>260500</v>
+        <v>224200</v>
       </c>
       <c r="H27" s="3">
-        <v>105500</v>
+        <v>252200</v>
       </c>
       <c r="I27" s="3">
-        <v>197200</v>
+        <v>102200</v>
       </c>
       <c r="J27" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K27" s="3">
         <v>56900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>379400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>253400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>293500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>228600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>335500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>384400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-76600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>268000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>256900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>316600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>292600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>307800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13800</v>
+        <v>-178900</v>
       </c>
       <c r="E32" s="3">
-        <v>-194700</v>
+        <v>-13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-23600</v>
+        <v>-188500</v>
       </c>
       <c r="G32" s="3">
-        <v>-176600</v>
+        <v>-22900</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-171000</v>
       </c>
       <c r="I32" s="3">
-        <v>-201200</v>
+        <v>-11500</v>
       </c>
       <c r="J32" s="3">
+        <v>-194800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-209400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-192900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-167100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-160500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-166500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-149100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>286000</v>
+        <v>397600</v>
       </c>
       <c r="E33" s="3">
-        <v>359100</v>
+        <v>276900</v>
       </c>
       <c r="F33" s="3">
-        <v>231600</v>
+        <v>347700</v>
       </c>
       <c r="G33" s="3">
-        <v>260500</v>
+        <v>224200</v>
       </c>
       <c r="H33" s="3">
-        <v>105500</v>
+        <v>252200</v>
       </c>
       <c r="I33" s="3">
-        <v>197200</v>
+        <v>102200</v>
       </c>
       <c r="J33" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K33" s="3">
         <v>56900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>379400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>253400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>293500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>335500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>384400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-76600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>268000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>256900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>316600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>292600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>307800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>286000</v>
+        <v>397600</v>
       </c>
       <c r="E35" s="3">
-        <v>359100</v>
+        <v>276900</v>
       </c>
       <c r="F35" s="3">
-        <v>231600</v>
+        <v>347700</v>
       </c>
       <c r="G35" s="3">
-        <v>260500</v>
+        <v>224200</v>
       </c>
       <c r="H35" s="3">
-        <v>105500</v>
+        <v>252200</v>
       </c>
       <c r="I35" s="3">
-        <v>197200</v>
+        <v>102200</v>
       </c>
       <c r="J35" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K35" s="3">
         <v>56900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>379400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>253400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>293500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>335500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>384400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-76600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>268000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>256900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>316600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>292600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>307800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3803800</v>
+        <v>3312100</v>
       </c>
       <c r="E41" s="3">
-        <v>3457000</v>
+        <v>3682900</v>
       </c>
       <c r="F41" s="3">
-        <v>3407100</v>
+        <v>3347200</v>
       </c>
       <c r="G41" s="3">
-        <v>3218000</v>
+        <v>3298800</v>
       </c>
       <c r="H41" s="3">
-        <v>3416700</v>
+        <v>3115700</v>
       </c>
       <c r="I41" s="3">
-        <v>3367500</v>
+        <v>3308200</v>
       </c>
       <c r="J41" s="3">
+        <v>3260500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3696900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3903300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4127400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3834100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4928100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3929400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3701500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3936400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3841400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3161100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3549600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3386800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3336800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2933500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>504400</v>
+        <v>402000</v>
       </c>
       <c r="E42" s="3">
-        <v>786900</v>
+        <v>488400</v>
       </c>
       <c r="F42" s="3">
-        <v>857700</v>
+        <v>761900</v>
       </c>
       <c r="G42" s="3">
-        <v>965700</v>
+        <v>830400</v>
       </c>
       <c r="H42" s="3">
-        <v>771500</v>
+        <v>935000</v>
       </c>
       <c r="I42" s="3">
-        <v>611300</v>
+        <v>747000</v>
       </c>
       <c r="J42" s="3">
+        <v>591900</v>
+      </c>
+      <c r="K42" s="3">
         <v>652200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>873500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>780100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>825200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1048300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1800100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2283700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1698900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2240300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2625500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2485300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2702500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2637700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2861200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2952600</v>
+        <v>3069300</v>
       </c>
       <c r="E43" s="3">
-        <v>2820200</v>
+        <v>2858800</v>
       </c>
       <c r="F43" s="3">
-        <v>2992100</v>
+        <v>2730600</v>
       </c>
       <c r="G43" s="3">
-        <v>2769000</v>
+        <v>2897000</v>
       </c>
       <c r="H43" s="3">
-        <v>2639200</v>
+        <v>2681000</v>
       </c>
       <c r="I43" s="3">
-        <v>2519300</v>
+        <v>2555300</v>
       </c>
       <c r="J43" s="3">
+        <v>2439300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2962800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3008000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2949100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3017900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3434200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3476600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3282400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3091900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6642700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2955300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2875900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2498600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2787500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2605300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3464700</v>
+        <v>3601500</v>
       </c>
       <c r="E44" s="3">
-        <v>3246900</v>
+        <v>3354600</v>
       </c>
       <c r="F44" s="3">
-        <v>3042600</v>
+        <v>3143700</v>
       </c>
       <c r="G44" s="3">
-        <v>3010600</v>
+        <v>2945900</v>
       </c>
       <c r="H44" s="3">
-        <v>3075700</v>
+        <v>2914900</v>
       </c>
       <c r="I44" s="3">
-        <v>3307000</v>
+        <v>2977900</v>
       </c>
       <c r="J44" s="3">
+        <v>3201900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3033300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3393700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3391100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3371600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3304700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3262400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3464600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3359200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6596900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3688200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3229400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3190100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2937300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3162600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>269000</v>
+        <v>304300</v>
       </c>
       <c r="E45" s="3">
-        <v>261000</v>
+        <v>260500</v>
       </c>
       <c r="F45" s="3">
-        <v>270500</v>
+        <v>252700</v>
       </c>
       <c r="G45" s="3">
-        <v>248800</v>
+        <v>261900</v>
       </c>
       <c r="H45" s="3">
-        <v>277300</v>
+        <v>240900</v>
       </c>
       <c r="I45" s="3">
-        <v>292600</v>
+        <v>268500</v>
       </c>
       <c r="J45" s="3">
+        <v>283300</v>
+      </c>
+      <c r="K45" s="3">
         <v>250700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>245000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>304500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>320100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>332900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>305200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>830200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>785400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>756000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1155700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1160800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1034600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1061900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1071600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10994500</v>
+        <v>10689200</v>
       </c>
       <c r="E46" s="3">
-        <v>10572000</v>
+        <v>10645100</v>
       </c>
       <c r="F46" s="3">
-        <v>10569900</v>
+        <v>10236000</v>
       </c>
       <c r="G46" s="3">
-        <v>10212000</v>
+        <v>10234000</v>
       </c>
       <c r="H46" s="3">
-        <v>10180400</v>
+        <v>9887400</v>
       </c>
       <c r="I46" s="3">
-        <v>10097800</v>
+        <v>9856900</v>
       </c>
       <c r="J46" s="3">
+        <v>9776800</v>
+      </c>
+      <c r="K46" s="3">
         <v>10595800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11423500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11552200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11368900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13048100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12773700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13562400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12871800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13251700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13585900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13301000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12812500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12761200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12634200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12515700</v>
+        <v>11215000</v>
       </c>
       <c r="E47" s="3">
-        <v>11800900</v>
+        <v>12117900</v>
       </c>
       <c r="F47" s="3">
-        <v>11669100</v>
+        <v>11425900</v>
       </c>
       <c r="G47" s="3">
-        <v>10669900</v>
+        <v>11298200</v>
       </c>
       <c r="H47" s="3">
-        <v>9367300</v>
+        <v>10330800</v>
       </c>
       <c r="I47" s="3">
-        <v>11189000</v>
+        <v>9069600</v>
       </c>
       <c r="J47" s="3">
+        <v>10833300</v>
+      </c>
+      <c r="K47" s="3">
         <v>10935300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11646800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10371700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10180300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9472400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10046500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11552400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10879300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9832500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9896100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10362200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10425800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10029800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9971200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4459400</v>
+        <v>4452400</v>
       </c>
       <c r="E48" s="3">
-        <v>4378800</v>
+        <v>4317700</v>
       </c>
       <c r="F48" s="3">
-        <v>4209000</v>
+        <v>4239600</v>
       </c>
       <c r="G48" s="3">
-        <v>3961600</v>
+        <v>4075200</v>
       </c>
       <c r="H48" s="3">
-        <v>3906100</v>
+        <v>3835700</v>
       </c>
       <c r="I48" s="3">
-        <v>3801000</v>
+        <v>3781900</v>
       </c>
       <c r="J48" s="3">
+        <v>3680200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3684300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3742000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3604300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3470800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3285200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3052800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3012700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2790300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5332000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2661600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2499100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2443200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2364800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2386800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3559300</v>
+        <v>3452400</v>
       </c>
       <c r="E49" s="3">
-        <v>3592100</v>
+        <v>3446200</v>
       </c>
       <c r="F49" s="3">
-        <v>3593000</v>
+        <v>3477900</v>
       </c>
       <c r="G49" s="3">
-        <v>3073000</v>
+        <v>3478800</v>
       </c>
       <c r="H49" s="3">
-        <v>3133200</v>
+        <v>2975300</v>
       </c>
       <c r="I49" s="3">
-        <v>3142500</v>
+        <v>3033600</v>
       </c>
       <c r="J49" s="3">
+        <v>3042600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2913800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2996000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2995600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2927700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2205500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2103800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2146800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2060600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4058100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1904600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1872200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1573300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1523000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1531900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>688400</v>
+        <v>679000</v>
       </c>
       <c r="E52" s="3">
-        <v>753100</v>
+        <v>666500</v>
       </c>
       <c r="F52" s="3">
-        <v>736500</v>
+        <v>729100</v>
       </c>
       <c r="G52" s="3">
-        <v>531700</v>
+        <v>713100</v>
       </c>
       <c r="H52" s="3">
-        <v>536900</v>
+        <v>514800</v>
       </c>
       <c r="I52" s="3">
-        <v>538400</v>
+        <v>519800</v>
       </c>
       <c r="J52" s="3">
+        <v>521300</v>
+      </c>
+      <c r="K52" s="3">
         <v>504800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>504300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>492800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>515800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>539700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>594600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>577500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>559500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>894000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>920500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1040700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>911000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>910300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32217300</v>
+        <v>30488000</v>
       </c>
       <c r="E54" s="3">
-        <v>31096800</v>
+        <v>31193400</v>
       </c>
       <c r="F54" s="3">
-        <v>30777500</v>
+        <v>30108500</v>
       </c>
       <c r="G54" s="3">
-        <v>28448200</v>
+        <v>29799300</v>
       </c>
       <c r="H54" s="3">
-        <v>27123900</v>
+        <v>27544100</v>
       </c>
       <c r="I54" s="3">
-        <v>28768600</v>
+        <v>26261800</v>
       </c>
       <c r="J54" s="3">
+        <v>27854300</v>
+      </c>
+      <c r="K54" s="3">
         <v>28634000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30312600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29024800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28440500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28527000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28516600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30869000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29179400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28284500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28942300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28955100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28295600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27589900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27434500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1828600</v>
+        <v>1814300</v>
       </c>
       <c r="E57" s="3">
-        <v>1753200</v>
+        <v>1770500</v>
       </c>
       <c r="F57" s="3">
-        <v>1613500</v>
+        <v>1697500</v>
       </c>
       <c r="G57" s="3">
-        <v>1476000</v>
+        <v>1562200</v>
       </c>
       <c r="H57" s="3">
-        <v>1413000</v>
+        <v>1429100</v>
       </c>
       <c r="I57" s="3">
-        <v>1470800</v>
+        <v>1368100</v>
       </c>
       <c r="J57" s="3">
+        <v>1424100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1526800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1642300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1674900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1790200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1763100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1978300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1911500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3312400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1440600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1268300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1185500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1148300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1089600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>483500</v>
+        <v>474800</v>
       </c>
       <c r="E58" s="3">
-        <v>489500</v>
+        <v>468100</v>
       </c>
       <c r="F58" s="3">
-        <v>492300</v>
+        <v>473900</v>
       </c>
       <c r="G58" s="3">
-        <v>466600</v>
+        <v>476700</v>
       </c>
       <c r="H58" s="3">
-        <v>471500</v>
+        <v>451800</v>
       </c>
       <c r="I58" s="3">
-        <v>503900</v>
+        <v>456500</v>
       </c>
       <c r="J58" s="3">
+        <v>487900</v>
+      </c>
+      <c r="K58" s="3">
         <v>444900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>111300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>96400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>89300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>123800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>88100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>130900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>82000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>80700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>78200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>74700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1655200</v>
+        <v>1676500</v>
       </c>
       <c r="E59" s="3">
-        <v>1575300</v>
+        <v>1602600</v>
       </c>
       <c r="F59" s="3">
-        <v>1619500</v>
+        <v>1525200</v>
       </c>
       <c r="G59" s="3">
-        <v>1371000</v>
+        <v>1568000</v>
       </c>
       <c r="H59" s="3">
-        <v>1433700</v>
+        <v>1327400</v>
       </c>
       <c r="I59" s="3">
-        <v>1414100</v>
+        <v>1388200</v>
       </c>
       <c r="J59" s="3">
+        <v>1369100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1530400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1528900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1685900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1613900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1770800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1630000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1870100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1727300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3013000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2156700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2082900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1899900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2011500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1948800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3967200</v>
+        <v>3965600</v>
       </c>
       <c r="E60" s="3">
-        <v>3818000</v>
+        <v>3841200</v>
       </c>
       <c r="F60" s="3">
-        <v>3725300</v>
+        <v>3696600</v>
       </c>
       <c r="G60" s="3">
-        <v>3313600</v>
+        <v>3606900</v>
       </c>
       <c r="H60" s="3">
-        <v>3318300</v>
+        <v>3208300</v>
       </c>
       <c r="I60" s="3">
-        <v>3388800</v>
+        <v>3212800</v>
       </c>
       <c r="J60" s="3">
+        <v>3281100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3502100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3282400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3457100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3403500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3601300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3447400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3972100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3726900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3791300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3679300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3431900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3163500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3234500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3115700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>797900</v>
+        <v>773400</v>
       </c>
       <c r="E61" s="3">
-        <v>806500</v>
+        <v>772600</v>
       </c>
       <c r="F61" s="3">
-        <v>810000</v>
+        <v>780900</v>
       </c>
       <c r="G61" s="3">
-        <v>712900</v>
+        <v>784200</v>
       </c>
       <c r="H61" s="3">
-        <v>721400</v>
+        <v>690200</v>
       </c>
       <c r="I61" s="3">
-        <v>723200</v>
+        <v>698400</v>
       </c>
       <c r="J61" s="3">
+        <v>700200</v>
+      </c>
+      <c r="K61" s="3">
         <v>676800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>312900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>295100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>303300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>76800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>82400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>86000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>66600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>163100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>162300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>159800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>145500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>147700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3354600</v>
+        <v>2972400</v>
       </c>
       <c r="E62" s="3">
-        <v>3198500</v>
+        <v>3248000</v>
       </c>
       <c r="F62" s="3">
-        <v>3194200</v>
+        <v>3096900</v>
       </c>
       <c r="G62" s="3">
-        <v>2824700</v>
+        <v>3092700</v>
       </c>
       <c r="H62" s="3">
-        <v>2473000</v>
+        <v>2734900</v>
       </c>
       <c r="I62" s="3">
-        <v>2971300</v>
+        <v>2394400</v>
       </c>
       <c r="J62" s="3">
+        <v>2876900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2833400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2919600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2537500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2472500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2170000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2405300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3018100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2828400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2870000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2752300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2804800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2786100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2754100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2878100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8344200</v>
+        <v>7934200</v>
       </c>
       <c r="E66" s="3">
-        <v>8040200</v>
+        <v>8079000</v>
       </c>
       <c r="F66" s="3">
-        <v>7947100</v>
+        <v>7784600</v>
       </c>
       <c r="G66" s="3">
-        <v>7061600</v>
+        <v>7694500</v>
       </c>
       <c r="H66" s="3">
-        <v>6718200</v>
+        <v>6837100</v>
       </c>
       <c r="I66" s="3">
-        <v>7283600</v>
+        <v>6504700</v>
       </c>
       <c r="J66" s="3">
+        <v>7052100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7206900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7428200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7179600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7055000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6751600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6827000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7961700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7466300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7259300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7372800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7200900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6888400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6885300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6899900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15809400</v>
+        <v>15426300</v>
       </c>
       <c r="E72" s="3">
-        <v>15523500</v>
+        <v>15307000</v>
       </c>
       <c r="F72" s="3">
-        <v>15419800</v>
+        <v>15030100</v>
       </c>
       <c r="G72" s="3">
-        <v>14981900</v>
+        <v>14929700</v>
       </c>
       <c r="H72" s="3">
-        <v>14906800</v>
+        <v>14505800</v>
       </c>
       <c r="I72" s="3">
-        <v>14801300</v>
+        <v>14433100</v>
       </c>
       <c r="J72" s="3">
+        <v>14330900</v>
+      </c>
+      <c r="K72" s="3">
         <v>14859600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15312800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15341600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15038900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15748000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15257500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15207200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14551600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14261900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15225700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15164100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14925300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14530100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14237500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23873200</v>
+        <v>22553700</v>
       </c>
       <c r="E76" s="3">
-        <v>23056600</v>
+        <v>23114400</v>
       </c>
       <c r="F76" s="3">
-        <v>22830400</v>
+        <v>22323900</v>
       </c>
       <c r="G76" s="3">
-        <v>21386600</v>
+        <v>22104800</v>
       </c>
       <c r="H76" s="3">
-        <v>20405600</v>
+        <v>20706900</v>
       </c>
       <c r="I76" s="3">
-        <v>21485000</v>
+        <v>19757100</v>
       </c>
       <c r="J76" s="3">
+        <v>20802200</v>
+      </c>
+      <c r="K76" s="3">
         <v>21427100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22884400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21845200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21385500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21775500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21689500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22907300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21713100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21025200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21569500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21754100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21407200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20704500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20534600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>286000</v>
+        <v>397600</v>
       </c>
       <c r="E81" s="3">
-        <v>359100</v>
+        <v>276900</v>
       </c>
       <c r="F81" s="3">
-        <v>231600</v>
+        <v>347700</v>
       </c>
       <c r="G81" s="3">
-        <v>260500</v>
+        <v>224200</v>
       </c>
       <c r="H81" s="3">
-        <v>105500</v>
+        <v>252200</v>
       </c>
       <c r="I81" s="3">
-        <v>197200</v>
+        <v>102200</v>
       </c>
       <c r="J81" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K81" s="3">
         <v>56900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>379400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>253400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>293500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>335500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>384400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-76600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>268000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>256900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>316600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>292600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>307800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>272100</v>
+        <v>284200</v>
       </c>
       <c r="E83" s="3">
-        <v>268200</v>
+        <v>263400</v>
       </c>
       <c r="F83" s="3">
-        <v>258100</v>
+        <v>259700</v>
       </c>
       <c r="G83" s="3">
-        <v>242800</v>
+        <v>249900</v>
       </c>
       <c r="H83" s="3">
         <v>235100</v>
       </c>
       <c r="I83" s="3">
-        <v>224900</v>
+        <v>227600</v>
       </c>
       <c r="J83" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K83" s="3">
         <v>229200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>221300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>198000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>191400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>158500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>159600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>134500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>220900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>195500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>172900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>159100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>193000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>179000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>410800</v>
+        <v>355400</v>
       </c>
       <c r="E89" s="3">
-        <v>609000</v>
+        <v>397800</v>
       </c>
       <c r="F89" s="3">
-        <v>594800</v>
+        <v>589700</v>
       </c>
       <c r="G89" s="3">
-        <v>590700</v>
+        <v>575900</v>
       </c>
       <c r="H89" s="3">
-        <v>433100</v>
+        <v>571900</v>
       </c>
       <c r="I89" s="3">
-        <v>326800</v>
+        <v>419300</v>
       </c>
       <c r="J89" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K89" s="3">
         <v>575800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>358100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>507200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>501700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>590800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>307700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>516600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>639500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>416100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>197400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>283100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>540300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>612200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>196700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-291100</v>
+        <v>-304400</v>
       </c>
       <c r="E91" s="3">
-        <v>-270400</v>
+        <v>-281800</v>
       </c>
       <c r="F91" s="3">
-        <v>-266100</v>
+        <v>-261800</v>
       </c>
       <c r="G91" s="3">
-        <v>-344400</v>
+        <v>-257700</v>
       </c>
       <c r="H91" s="3">
-        <v>-272400</v>
+        <v>-333400</v>
       </c>
       <c r="I91" s="3">
-        <v>-199300</v>
+        <v>-263800</v>
       </c>
       <c r="J91" s="3">
+        <v>-192900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-227000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-241000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-248400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-255400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-263700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-277400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-247600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-249700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-184700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-148400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-178400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-138400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-161800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2400</v>
+        <v>-252700</v>
       </c>
       <c r="E94" s="3">
-        <v>-239000</v>
+        <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>-446200</v>
+        <v>-231400</v>
       </c>
       <c r="G94" s="3">
-        <v>-563300</v>
+        <v>-432000</v>
       </c>
       <c r="H94" s="3">
-        <v>-279600</v>
+        <v>-545400</v>
       </c>
       <c r="I94" s="3">
-        <v>-330100</v>
+        <v>-270700</v>
       </c>
       <c r="J94" s="3">
+        <v>-319600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-118800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-293300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-202700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-712800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>360200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>137400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-863100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>381500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-398000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-90200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-373500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-118500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-142300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15400</v>
+        <v>-270500</v>
       </c>
       <c r="E96" s="3">
-        <v>-254900</v>
+        <v>-14900</v>
       </c>
       <c r="F96" s="3">
-        <v>-8900</v>
+        <v>-246800</v>
       </c>
       <c r="G96" s="3">
-        <v>-185900</v>
+        <v>-8600</v>
       </c>
       <c r="H96" s="3">
-        <v>-15100</v>
+        <v>-180000</v>
       </c>
       <c r="I96" s="3">
-        <v>-251200</v>
+        <v>-14600</v>
       </c>
       <c r="J96" s="3">
+        <v>-243200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-260500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-266700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-206300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-204800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-199100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-199000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-161000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-64600</v>
+        <v>-526100</v>
       </c>
       <c r="E100" s="3">
-        <v>-311400</v>
+        <v>-62500</v>
       </c>
       <c r="F100" s="3">
-        <v>-74100</v>
+        <v>-301500</v>
       </c>
       <c r="G100" s="3">
-        <v>-234300</v>
+        <v>-71700</v>
       </c>
       <c r="H100" s="3">
-        <v>-95400</v>
+        <v>-226800</v>
       </c>
       <c r="I100" s="3">
-        <v>-309500</v>
+        <v>-92400</v>
       </c>
       <c r="J100" s="3">
+        <v>-299700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-491800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-309200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-610500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-214700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-558900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-202200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-54900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-202300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-168000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>52600</v>
       </c>
       <c r="E101" s="3">
-        <v>-8700</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>114600</v>
+        <v>-8400</v>
       </c>
       <c r="G101" s="3">
-        <v>8100</v>
+        <v>110900</v>
       </c>
       <c r="H101" s="3">
-        <v>-8900</v>
+        <v>7900</v>
       </c>
       <c r="I101" s="3">
-        <v>-16500</v>
+        <v>-8600</v>
       </c>
       <c r="J101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-43200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>56200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-62300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>44900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>50100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-111700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>22600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-79900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>228500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>346700</v>
+        <v>-370800</v>
       </c>
       <c r="E102" s="3">
-        <v>50000</v>
+        <v>335700</v>
       </c>
       <c r="F102" s="3">
-        <v>189100</v>
+        <v>48400</v>
       </c>
       <c r="G102" s="3">
-        <v>-198800</v>
+        <v>183100</v>
       </c>
       <c r="H102" s="3">
-        <v>49200</v>
+        <v>-192400</v>
       </c>
       <c r="I102" s="3">
-        <v>-329300</v>
+        <v>47700</v>
       </c>
       <c r="J102" s="3">
+        <v>-318900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-77900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-188200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>280700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-863300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>928000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>168200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-321500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>680300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-388500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>162900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>403300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>114900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4088700</v>
+        <v>3764700</v>
       </c>
       <c r="E8" s="3">
-        <v>3886500</v>
+        <v>3734000</v>
       </c>
       <c r="F8" s="3">
-        <v>3588700</v>
+        <v>3549300</v>
       </c>
       <c r="G8" s="3">
-        <v>3636900</v>
+        <v>3277300</v>
       </c>
       <c r="H8" s="3">
-        <v>3450400</v>
+        <v>3321400</v>
       </c>
       <c r="I8" s="3">
-        <v>3232400</v>
+        <v>3151000</v>
       </c>
       <c r="J8" s="3">
+        <v>2952000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2704800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3543100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3624300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3805700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3526000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3933300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3906100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3838200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3522200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3905500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3676300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3554400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3120300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3620100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3205500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2937000</v>
+        <v>2763800</v>
       </c>
       <c r="E9" s="3">
-        <v>2769600</v>
+        <v>2682200</v>
       </c>
       <c r="F9" s="3">
-        <v>2571800</v>
+        <v>2529300</v>
       </c>
       <c r="G9" s="3">
-        <v>2656000</v>
+        <v>2348700</v>
       </c>
       <c r="H9" s="3">
-        <v>2501300</v>
+        <v>2425600</v>
       </c>
       <c r="I9" s="3">
-        <v>2404100</v>
+        <v>2284300</v>
       </c>
       <c r="J9" s="3">
+        <v>2195600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1991700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2639300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2604400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2734000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2518200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2847200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2757200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2722900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2529100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3355700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2680900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2574800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2240500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2643900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2335900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1151700</v>
+        <v>1000900</v>
       </c>
       <c r="E10" s="3">
-        <v>1116900</v>
+        <v>1051800</v>
       </c>
       <c r="F10" s="3">
-        <v>1016900</v>
+        <v>1020000</v>
       </c>
       <c r="G10" s="3">
-        <v>980900</v>
+        <v>928600</v>
       </c>
       <c r="H10" s="3">
-        <v>949000</v>
+        <v>895800</v>
       </c>
       <c r="I10" s="3">
-        <v>828300</v>
+        <v>866700</v>
       </c>
       <c r="J10" s="3">
+        <v>756400</v>
+      </c>
+      <c r="K10" s="3">
         <v>713100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>903800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1019900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1071700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1007800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1086200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1148800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1115300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>993100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>549800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>995400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>979600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>879800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>976200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>869600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,11 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1216,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3723800</v>
+        <v>3527500</v>
       </c>
       <c r="E17" s="3">
-        <v>3517100</v>
+        <v>3400700</v>
       </c>
       <c r="F17" s="3">
-        <v>3312500</v>
+        <v>3212000</v>
       </c>
       <c r="G17" s="3">
-        <v>3400900</v>
+        <v>3025100</v>
       </c>
       <c r="H17" s="3">
-        <v>3289000</v>
+        <v>3105900</v>
       </c>
       <c r="I17" s="3">
-        <v>3091700</v>
+        <v>3003700</v>
       </c>
       <c r="J17" s="3">
+        <v>2823500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2640200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3496100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3309600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3459300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3318700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3604200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4114000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3415500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3185000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4026700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3323300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3210700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2837700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3288000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2910000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>364900</v>
+        <v>237200</v>
       </c>
       <c r="E18" s="3">
-        <v>369400</v>
+        <v>333200</v>
       </c>
       <c r="F18" s="3">
-        <v>276200</v>
+        <v>337300</v>
       </c>
       <c r="G18" s="3">
-        <v>235900</v>
+        <v>252200</v>
       </c>
       <c r="H18" s="3">
-        <v>161400</v>
+        <v>215500</v>
       </c>
       <c r="I18" s="3">
-        <v>140700</v>
+        <v>147400</v>
       </c>
       <c r="J18" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K18" s="3">
         <v>64600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>314700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>346400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>207300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>329100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-207900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>422700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>337300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-121200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>353000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>343600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>282600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>332100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>295500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>178900</v>
+        <v>42000</v>
       </c>
       <c r="E20" s="3">
-        <v>13400</v>
+        <v>163400</v>
       </c>
       <c r="F20" s="3">
-        <v>188500</v>
+        <v>12200</v>
       </c>
       <c r="G20" s="3">
-        <v>22900</v>
+        <v>172200</v>
       </c>
       <c r="H20" s="3">
-        <v>171000</v>
+        <v>20900</v>
       </c>
       <c r="I20" s="3">
-        <v>11500</v>
+        <v>156200</v>
       </c>
       <c r="J20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K20" s="3">
         <v>194800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>199300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>209400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>192900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>43700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>167100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>160500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>166500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>149100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>828000</v>
+        <v>546500</v>
       </c>
       <c r="E21" s="3">
-        <v>646200</v>
+        <v>756200</v>
       </c>
       <c r="F21" s="3">
-        <v>724400</v>
+        <v>590200</v>
       </c>
       <c r="G21" s="3">
-        <v>508700</v>
+        <v>661600</v>
       </c>
       <c r="H21" s="3">
-        <v>567500</v>
+        <v>464500</v>
       </c>
       <c r="I21" s="3">
-        <v>379700</v>
+        <v>518300</v>
       </c>
       <c r="J21" s="3">
+        <v>346800</v>
+      </c>
+      <c r="K21" s="3">
         <v>477100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>292600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>735300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>563000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>608000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>509400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>612100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>638900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>110100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>707700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>549700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>607500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>543200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>623600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1655,8 +1695,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1673,171 +1713,180 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>3700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3000</v>
       </c>
       <c r="U22" s="3">
         <v>3000</v>
       </c>
       <c r="V22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W22" s="3">
         <v>2900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>543800</v>
+        <v>279200</v>
       </c>
       <c r="E23" s="3">
-        <v>382800</v>
+        <v>496600</v>
       </c>
       <c r="F23" s="3">
-        <v>464700</v>
+        <v>349600</v>
       </c>
       <c r="G23" s="3">
-        <v>258800</v>
+        <v>424400</v>
       </c>
       <c r="H23" s="3">
-        <v>332400</v>
+        <v>236400</v>
       </c>
       <c r="I23" s="3">
-        <v>152200</v>
+        <v>303600</v>
       </c>
       <c r="J23" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K23" s="3">
         <v>259400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>63400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>513900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>365100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>416700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>350900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>466400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>504400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-117500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>510500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>374600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>446200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>347200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>444600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139000</v>
+        <v>48300</v>
       </c>
       <c r="E24" s="3">
-        <v>97200</v>
+        <v>126900</v>
       </c>
       <c r="F24" s="3">
-        <v>111200</v>
+        <v>88700</v>
       </c>
       <c r="G24" s="3">
-        <v>24900</v>
+        <v>101500</v>
       </c>
       <c r="H24" s="3">
-        <v>74000</v>
+        <v>22800</v>
       </c>
       <c r="I24" s="3">
-        <v>43200</v>
+        <v>67600</v>
       </c>
       <c r="J24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K24" s="3">
         <v>64400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>102100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>95700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>101200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-57600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>261300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>115400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>123600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>404800</v>
+        <v>231000</v>
       </c>
       <c r="E26" s="3">
-        <v>285600</v>
+        <v>369700</v>
       </c>
       <c r="F26" s="3">
-        <v>353500</v>
+        <v>260800</v>
       </c>
       <c r="G26" s="3">
-        <v>233900</v>
+        <v>322900</v>
       </c>
       <c r="H26" s="3">
-        <v>258400</v>
+        <v>213600</v>
       </c>
       <c r="I26" s="3">
-        <v>109000</v>
+        <v>236000</v>
       </c>
       <c r="J26" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K26" s="3">
         <v>195000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>397500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>314500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>255200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>365200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>407200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-59900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>249300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>273900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>330700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>309900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>321000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>397600</v>
+        <v>222600</v>
       </c>
       <c r="E27" s="3">
-        <v>276900</v>
+        <v>363100</v>
       </c>
       <c r="F27" s="3">
-        <v>347700</v>
+        <v>252900</v>
       </c>
       <c r="G27" s="3">
-        <v>224200</v>
+        <v>317500</v>
       </c>
       <c r="H27" s="3">
-        <v>252200</v>
+        <v>204700</v>
       </c>
       <c r="I27" s="3">
-        <v>102200</v>
+        <v>230400</v>
       </c>
       <c r="J27" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K27" s="3">
         <v>190900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>379400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>253400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>293500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>228600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>335500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>384400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-76600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>268000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>256900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>316600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>292600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>307800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-178900</v>
+        <v>-42000</v>
       </c>
       <c r="E32" s="3">
-        <v>-13400</v>
+        <v>-163400</v>
       </c>
       <c r="F32" s="3">
-        <v>-188500</v>
+        <v>-12200</v>
       </c>
       <c r="G32" s="3">
-        <v>-22900</v>
+        <v>-172200</v>
       </c>
       <c r="H32" s="3">
-        <v>-171000</v>
+        <v>-20900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11500</v>
+        <v>-156200</v>
       </c>
       <c r="J32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-194800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-199300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-209400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-192900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-43700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-167100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-160500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-166500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-149100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>397600</v>
+        <v>222600</v>
       </c>
       <c r="E33" s="3">
-        <v>276900</v>
+        <v>363100</v>
       </c>
       <c r="F33" s="3">
-        <v>347700</v>
+        <v>252900</v>
       </c>
       <c r="G33" s="3">
-        <v>224200</v>
+        <v>317500</v>
       </c>
       <c r="H33" s="3">
-        <v>252200</v>
+        <v>204700</v>
       </c>
       <c r="I33" s="3">
-        <v>102200</v>
+        <v>230400</v>
       </c>
       <c r="J33" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K33" s="3">
         <v>190900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>379400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>253400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>293500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>228600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>335500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>384400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-76600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>268000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>256900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>316600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>292600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>307800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>397600</v>
+        <v>222600</v>
       </c>
       <c r="E35" s="3">
-        <v>276900</v>
+        <v>363100</v>
       </c>
       <c r="F35" s="3">
-        <v>347700</v>
+        <v>252900</v>
       </c>
       <c r="G35" s="3">
-        <v>224200</v>
+        <v>317500</v>
       </c>
       <c r="H35" s="3">
-        <v>252200</v>
+        <v>204700</v>
       </c>
       <c r="I35" s="3">
-        <v>102200</v>
+        <v>230400</v>
       </c>
       <c r="J35" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K35" s="3">
         <v>190900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>379400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>253400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>293500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>228600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>335500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>384400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-76600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>268000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>256900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>316600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>292600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>307800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3312100</v>
+        <v>3226100</v>
       </c>
       <c r="E41" s="3">
-        <v>3682900</v>
+        <v>3024700</v>
       </c>
       <c r="F41" s="3">
-        <v>3347200</v>
+        <v>3363400</v>
       </c>
       <c r="G41" s="3">
-        <v>3298800</v>
+        <v>3056800</v>
       </c>
       <c r="H41" s="3">
-        <v>3115700</v>
+        <v>3012600</v>
       </c>
       <c r="I41" s="3">
-        <v>3308200</v>
+        <v>2845400</v>
       </c>
       <c r="J41" s="3">
+        <v>3021200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3260500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3696900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3903300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4127400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3834100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4928100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3929400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3701500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3936400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3841400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3161100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3549600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3386800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3336800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2933500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>402000</v>
+        <v>343400</v>
       </c>
       <c r="E42" s="3">
-        <v>488400</v>
+        <v>367100</v>
       </c>
       <c r="F42" s="3">
-        <v>761900</v>
+        <v>446000</v>
       </c>
       <c r="G42" s="3">
-        <v>830400</v>
+        <v>695800</v>
       </c>
       <c r="H42" s="3">
-        <v>935000</v>
+        <v>758400</v>
       </c>
       <c r="I42" s="3">
-        <v>747000</v>
+        <v>853900</v>
       </c>
       <c r="J42" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K42" s="3">
         <v>591900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>652200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>873500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>780100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>825200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1048300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1800100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2283700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1698900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2240300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2625500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2485300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2702500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2637700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2861200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3069300</v>
+        <v>2952900</v>
       </c>
       <c r="E43" s="3">
-        <v>2858800</v>
+        <v>2803000</v>
       </c>
       <c r="F43" s="3">
-        <v>2730600</v>
+        <v>2610800</v>
       </c>
       <c r="G43" s="3">
-        <v>2897000</v>
+        <v>2493700</v>
       </c>
       <c r="H43" s="3">
-        <v>2681000</v>
+        <v>2645600</v>
       </c>
       <c r="I43" s="3">
-        <v>2555300</v>
+        <v>2448400</v>
       </c>
       <c r="J43" s="3">
+        <v>2333700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2439300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2962800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3008000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2949100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3017900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3434200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3476600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3282400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3091900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6642700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2955300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2875900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2498600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2787500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2605300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3601500</v>
+        <v>3525000</v>
       </c>
       <c r="E44" s="3">
-        <v>3354600</v>
+        <v>3289100</v>
       </c>
       <c r="F44" s="3">
-        <v>3143700</v>
+        <v>3063500</v>
       </c>
       <c r="G44" s="3">
-        <v>2945900</v>
+        <v>2870900</v>
       </c>
       <c r="H44" s="3">
-        <v>2914900</v>
+        <v>2690300</v>
       </c>
       <c r="I44" s="3">
-        <v>2977900</v>
+        <v>2662000</v>
       </c>
       <c r="J44" s="3">
+        <v>2719600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3201900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3033300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3393700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3391100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3371600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3304700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3262400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3464600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3359200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6596900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3688200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3229400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3190100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2937300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3162600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>304300</v>
+        <v>306500</v>
       </c>
       <c r="E45" s="3">
-        <v>260500</v>
+        <v>277900</v>
       </c>
       <c r="F45" s="3">
-        <v>252700</v>
+        <v>237900</v>
       </c>
       <c r="G45" s="3">
-        <v>261900</v>
+        <v>230800</v>
       </c>
       <c r="H45" s="3">
-        <v>240900</v>
+        <v>239200</v>
       </c>
       <c r="I45" s="3">
-        <v>268500</v>
+        <v>220000</v>
       </c>
       <c r="J45" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K45" s="3">
         <v>283300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>245000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>304500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>320100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>332900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>305200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>830200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>785400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>756000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1155700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1160800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1034600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1061900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1071600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10689200</v>
+        <v>10353900</v>
       </c>
       <c r="E46" s="3">
-        <v>10645100</v>
+        <v>9761900</v>
       </c>
       <c r="F46" s="3">
-        <v>10236000</v>
+        <v>9721600</v>
       </c>
       <c r="G46" s="3">
-        <v>10234000</v>
+        <v>9348000</v>
       </c>
       <c r="H46" s="3">
-        <v>9887400</v>
+        <v>9346200</v>
       </c>
       <c r="I46" s="3">
-        <v>9856900</v>
+        <v>9029700</v>
       </c>
       <c r="J46" s="3">
+        <v>9001800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9776800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10595800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11423500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11552200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11368900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13048100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12773700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13562400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12871800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13251700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13585900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13301000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12812500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12761200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12634200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11215000</v>
+        <v>11891200</v>
       </c>
       <c r="E47" s="3">
-        <v>12117900</v>
+        <v>10242100</v>
       </c>
       <c r="F47" s="3">
-        <v>11425900</v>
+        <v>11066700</v>
       </c>
       <c r="G47" s="3">
-        <v>11298200</v>
+        <v>10434700</v>
       </c>
       <c r="H47" s="3">
-        <v>10330800</v>
+        <v>10318100</v>
       </c>
       <c r="I47" s="3">
-        <v>9069600</v>
+        <v>9434500</v>
       </c>
       <c r="J47" s="3">
+        <v>8282800</v>
+      </c>
+      <c r="K47" s="3">
         <v>10833300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10935300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11646800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10371700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10180300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9472400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10046500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11552400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10879300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9832500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9896100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10362200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10425800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10029800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9971200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4452400</v>
+        <v>4306900</v>
       </c>
       <c r="E48" s="3">
-        <v>4317700</v>
+        <v>4066100</v>
       </c>
       <c r="F48" s="3">
-        <v>4239600</v>
+        <v>3943100</v>
       </c>
       <c r="G48" s="3">
-        <v>4075200</v>
+        <v>3871800</v>
       </c>
       <c r="H48" s="3">
-        <v>3835700</v>
+        <v>3721700</v>
       </c>
       <c r="I48" s="3">
-        <v>3781900</v>
+        <v>3503000</v>
       </c>
       <c r="J48" s="3">
+        <v>3453900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3680200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3684300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3742000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3604300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3470800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3285200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3052800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3012700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2790300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5332000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2661600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2499100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2443200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2364800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2386800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3452400</v>
+        <v>3216200</v>
       </c>
       <c r="E49" s="3">
-        <v>3446200</v>
+        <v>3152900</v>
       </c>
       <c r="F49" s="3">
-        <v>3477900</v>
+        <v>3147200</v>
       </c>
       <c r="G49" s="3">
-        <v>3478800</v>
+        <v>3176200</v>
       </c>
       <c r="H49" s="3">
-        <v>2975300</v>
+        <v>3177000</v>
       </c>
       <c r="I49" s="3">
-        <v>3033600</v>
+        <v>2717200</v>
       </c>
       <c r="J49" s="3">
+        <v>2770400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3042600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2913800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2996000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2995600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2927700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2205500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2103800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2146800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2060600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4058100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1904600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1872200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1573300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1523000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1531900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>679000</v>
+        <v>747300</v>
       </c>
       <c r="E52" s="3">
-        <v>666500</v>
+        <v>620100</v>
       </c>
       <c r="F52" s="3">
-        <v>729100</v>
+        <v>608700</v>
       </c>
       <c r="G52" s="3">
-        <v>713100</v>
+        <v>665900</v>
       </c>
       <c r="H52" s="3">
-        <v>514800</v>
+        <v>651300</v>
       </c>
       <c r="I52" s="3">
-        <v>519800</v>
+        <v>470100</v>
       </c>
       <c r="J52" s="3">
+        <v>474700</v>
+      </c>
+      <c r="K52" s="3">
         <v>521300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>504800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>504300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>492800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>515800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>539700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>594600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>577500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>559500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>894000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>920500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1040700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>911000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>910300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30488000</v>
+        <v>30515500</v>
       </c>
       <c r="E54" s="3">
-        <v>31193400</v>
+        <v>27843000</v>
       </c>
       <c r="F54" s="3">
-        <v>30108500</v>
+        <v>28487300</v>
       </c>
       <c r="G54" s="3">
-        <v>29799300</v>
+        <v>27496500</v>
       </c>
       <c r="H54" s="3">
-        <v>27544100</v>
+        <v>27214100</v>
       </c>
       <c r="I54" s="3">
-        <v>26261800</v>
+        <v>25154500</v>
       </c>
       <c r="J54" s="3">
+        <v>23983500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27854300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28634000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30312600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29024800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28440500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28527000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28516600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30869000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29179400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28284500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28942300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28955100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28295600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27589900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27434500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1814300</v>
+        <v>1736900</v>
       </c>
       <c r="E57" s="3">
-        <v>1770500</v>
+        <v>1656900</v>
       </c>
       <c r="F57" s="3">
-        <v>1697500</v>
+        <v>1616900</v>
       </c>
       <c r="G57" s="3">
-        <v>1562200</v>
+        <v>1550200</v>
       </c>
       <c r="H57" s="3">
-        <v>1429100</v>
+        <v>1426700</v>
       </c>
       <c r="I57" s="3">
-        <v>1368100</v>
+        <v>1305100</v>
       </c>
       <c r="J57" s="3">
+        <v>1249400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1424100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1526800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1642300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1674900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1790200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1763100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1978300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1911500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3312400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1440600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1268300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1185500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1148300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1089600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>474800</v>
+        <v>753400</v>
       </c>
       <c r="E58" s="3">
-        <v>468100</v>
+        <v>433600</v>
       </c>
       <c r="F58" s="3">
-        <v>473900</v>
+        <v>427500</v>
       </c>
       <c r="G58" s="3">
-        <v>476700</v>
+        <v>432800</v>
       </c>
       <c r="H58" s="3">
-        <v>451800</v>
+        <v>435300</v>
       </c>
       <c r="I58" s="3">
-        <v>456500</v>
+        <v>412600</v>
       </c>
       <c r="J58" s="3">
+        <v>416900</v>
+      </c>
+      <c r="K58" s="3">
         <v>487900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>444900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>111300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>89300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>123800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>88100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>130900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>82000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>80700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>78200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>74700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1676500</v>
+        <v>1711300</v>
       </c>
       <c r="E59" s="3">
-        <v>1602600</v>
+        <v>1531100</v>
       </c>
       <c r="F59" s="3">
-        <v>1525200</v>
+        <v>1463500</v>
       </c>
       <c r="G59" s="3">
-        <v>1568000</v>
+        <v>1392900</v>
       </c>
       <c r="H59" s="3">
-        <v>1327400</v>
+        <v>1432000</v>
       </c>
       <c r="I59" s="3">
-        <v>1388200</v>
+        <v>1212300</v>
       </c>
       <c r="J59" s="3">
+        <v>1267700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1369100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1530400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1528900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1685900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1613900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1770800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1630000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1870100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1727300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3013000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2156700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2082900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1899900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2011500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1948800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3965600</v>
+        <v>4201500</v>
       </c>
       <c r="E60" s="3">
-        <v>3841200</v>
+        <v>3621500</v>
       </c>
       <c r="F60" s="3">
-        <v>3696600</v>
+        <v>3507900</v>
       </c>
       <c r="G60" s="3">
-        <v>3606900</v>
+        <v>3375900</v>
       </c>
       <c r="H60" s="3">
-        <v>3208300</v>
+        <v>3294000</v>
       </c>
       <c r="I60" s="3">
-        <v>3212800</v>
+        <v>2929900</v>
       </c>
       <c r="J60" s="3">
+        <v>2934100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3281100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3502100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3282400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3457100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3403500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3601300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3447400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3972100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3726900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3791300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3679300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3431900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3163500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3234500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3115700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>773400</v>
+        <v>409400</v>
       </c>
       <c r="E61" s="3">
-        <v>772600</v>
+        <v>706300</v>
       </c>
       <c r="F61" s="3">
-        <v>780900</v>
+        <v>705600</v>
       </c>
       <c r="G61" s="3">
-        <v>784200</v>
+        <v>713200</v>
       </c>
       <c r="H61" s="3">
-        <v>690200</v>
+        <v>716200</v>
       </c>
       <c r="I61" s="3">
-        <v>698400</v>
+        <v>630400</v>
       </c>
       <c r="J61" s="3">
+        <v>637800</v>
+      </c>
+      <c r="K61" s="3">
         <v>700200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>676800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>312900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>295100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>303300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>76800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>82400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>86000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>66600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>163100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>162300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>159800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>145500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>147700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2972400</v>
+        <v>3327000</v>
       </c>
       <c r="E62" s="3">
-        <v>3248000</v>
+        <v>2714500</v>
       </c>
       <c r="F62" s="3">
-        <v>3096900</v>
+        <v>2966200</v>
       </c>
       <c r="G62" s="3">
-        <v>3092700</v>
+        <v>2828200</v>
       </c>
       <c r="H62" s="3">
-        <v>2734900</v>
+        <v>2824400</v>
       </c>
       <c r="I62" s="3">
-        <v>2394400</v>
+        <v>2497600</v>
       </c>
       <c r="J62" s="3">
+        <v>2186700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2876900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2833400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2919600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2537500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2472500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2170000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2405300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3018100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2828400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2870000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2752300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2804800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2786100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2754100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2878100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7934200</v>
+        <v>8146100</v>
       </c>
       <c r="E66" s="3">
-        <v>8079000</v>
+        <v>7245900</v>
       </c>
       <c r="F66" s="3">
-        <v>7784600</v>
+        <v>7378100</v>
       </c>
       <c r="G66" s="3">
-        <v>7694500</v>
+        <v>7109300</v>
       </c>
       <c r="H66" s="3">
-        <v>6837100</v>
+        <v>7027000</v>
       </c>
       <c r="I66" s="3">
-        <v>6504700</v>
+        <v>6244000</v>
       </c>
       <c r="J66" s="3">
+        <v>5940400</v>
+      </c>
+      <c r="K66" s="3">
         <v>7052100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7206900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7428200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7179600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7055000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6751600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6827000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7961700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7466300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7259300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7372800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7200900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6888400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6885300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6899900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15426300</v>
+        <v>14381100</v>
       </c>
       <c r="E72" s="3">
-        <v>15307000</v>
+        <v>14088100</v>
       </c>
       <c r="F72" s="3">
-        <v>15030100</v>
+        <v>13979000</v>
       </c>
       <c r="G72" s="3">
-        <v>14929700</v>
+        <v>13726200</v>
       </c>
       <c r="H72" s="3">
-        <v>14505800</v>
+        <v>13634500</v>
       </c>
       <c r="I72" s="3">
-        <v>14433100</v>
+        <v>13247400</v>
       </c>
       <c r="J72" s="3">
+        <v>13181000</v>
+      </c>
+      <c r="K72" s="3">
         <v>14330900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14859600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15312800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15341600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15038900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15748000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15257500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15207200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14551600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14261900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15225700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15164100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14925300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14530100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14237500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22553700</v>
+        <v>22369400</v>
       </c>
       <c r="E76" s="3">
-        <v>23114400</v>
+        <v>20597100</v>
       </c>
       <c r="F76" s="3">
-        <v>22323900</v>
+        <v>21109200</v>
       </c>
       <c r="G76" s="3">
-        <v>22104800</v>
+        <v>20387200</v>
       </c>
       <c r="H76" s="3">
-        <v>20706900</v>
+        <v>20187100</v>
       </c>
       <c r="I76" s="3">
-        <v>19757100</v>
+        <v>18910500</v>
       </c>
       <c r="J76" s="3">
+        <v>18043100</v>
+      </c>
+      <c r="K76" s="3">
         <v>20802200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21427100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22884400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21845200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21385500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21775500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21689500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22907300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21713100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21025200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21569500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21754100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21407200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20704500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20534600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>397600</v>
+        <v>222600</v>
       </c>
       <c r="E81" s="3">
-        <v>276900</v>
+        <v>363100</v>
       </c>
       <c r="F81" s="3">
-        <v>347700</v>
+        <v>252900</v>
       </c>
       <c r="G81" s="3">
-        <v>224200</v>
+        <v>317500</v>
       </c>
       <c r="H81" s="3">
-        <v>252200</v>
+        <v>204700</v>
       </c>
       <c r="I81" s="3">
-        <v>102200</v>
+        <v>230400</v>
       </c>
       <c r="J81" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K81" s="3">
         <v>190900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>379400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>253400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>293500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>228600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>335500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>384400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-76600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>268000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>256900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>316600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>292600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>307800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>284200</v>
+        <v>267300</v>
       </c>
       <c r="E83" s="3">
-        <v>263400</v>
+        <v>259500</v>
       </c>
       <c r="F83" s="3">
-        <v>259700</v>
+        <v>240600</v>
       </c>
       <c r="G83" s="3">
-        <v>249900</v>
+        <v>237200</v>
       </c>
       <c r="H83" s="3">
-        <v>235100</v>
+        <v>228200</v>
       </c>
       <c r="I83" s="3">
-        <v>227600</v>
+        <v>214700</v>
       </c>
       <c r="J83" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K83" s="3">
         <v>217700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>229200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>221300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>198000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>191400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>158500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>159600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>134500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>220900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>195500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>172900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>159100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>193000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>179000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>355400</v>
+        <v>346900</v>
       </c>
       <c r="E89" s="3">
-        <v>397800</v>
+        <v>324500</v>
       </c>
       <c r="F89" s="3">
-        <v>589700</v>
+        <v>363300</v>
       </c>
       <c r="G89" s="3">
-        <v>575900</v>
+        <v>538500</v>
       </c>
       <c r="H89" s="3">
-        <v>571900</v>
+        <v>525900</v>
       </c>
       <c r="I89" s="3">
-        <v>419300</v>
+        <v>522300</v>
       </c>
       <c r="J89" s="3">
+        <v>383000</v>
+      </c>
+      <c r="K89" s="3">
         <v>316500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>575800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>358100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>507200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>501700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>590800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>307700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>516600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>639500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>416100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>197400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>283100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>540300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>612200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>196700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304400</v>
+        <v>-273200</v>
       </c>
       <c r="E91" s="3">
-        <v>-281800</v>
+        <v>-278000</v>
       </c>
       <c r="F91" s="3">
-        <v>-261800</v>
+        <v>-257400</v>
       </c>
       <c r="G91" s="3">
-        <v>-257700</v>
+        <v>-239100</v>
       </c>
       <c r="H91" s="3">
-        <v>-333400</v>
+        <v>-235300</v>
       </c>
       <c r="I91" s="3">
-        <v>-263800</v>
+        <v>-304500</v>
       </c>
       <c r="J91" s="3">
+        <v>-240900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-192900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-227000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-241000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-248400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-255400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-263700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-277400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-250700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-247600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-249700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-184700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-148400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-178400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-138400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-161800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252700</v>
+        <v>-174800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2300</v>
+        <v>-230700</v>
       </c>
       <c r="F94" s="3">
-        <v>-231400</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>-432000</v>
+        <v>-211400</v>
       </c>
       <c r="H94" s="3">
-        <v>-545400</v>
+        <v>-394500</v>
       </c>
       <c r="I94" s="3">
-        <v>-270700</v>
+        <v>-498100</v>
       </c>
       <c r="J94" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-319600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-293300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-202700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-712800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>360200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>137400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-863100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>381500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-398000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-90200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-373500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-118500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-270500</v>
+        <v>-10700</v>
       </c>
       <c r="E96" s="3">
-        <v>-14900</v>
+        <v>-247100</v>
       </c>
       <c r="F96" s="3">
-        <v>-246800</v>
+        <v>-13600</v>
       </c>
       <c r="G96" s="3">
-        <v>-8600</v>
+        <v>-225400</v>
       </c>
       <c r="H96" s="3">
-        <v>-180000</v>
+        <v>-7900</v>
       </c>
       <c r="I96" s="3">
-        <v>-14600</v>
+        <v>-164400</v>
       </c>
       <c r="J96" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-243200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-260500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-22100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-266700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-206300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-204800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-199100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-199000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-161000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-526100</v>
+        <v>-55500</v>
       </c>
       <c r="E100" s="3">
-        <v>-62500</v>
+        <v>-480400</v>
       </c>
       <c r="F100" s="3">
-        <v>-301500</v>
+        <v>-57100</v>
       </c>
       <c r="G100" s="3">
-        <v>-71700</v>
+        <v>-275300</v>
       </c>
       <c r="H100" s="3">
-        <v>-226800</v>
+        <v>-65500</v>
       </c>
       <c r="I100" s="3">
-        <v>-92400</v>
+        <v>-207200</v>
       </c>
       <c r="J100" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-299700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-491800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-309200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-610500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-214700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-558900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-202200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-54900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-202300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-168000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>52600</v>
+        <v>84700</v>
       </c>
       <c r="E101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>101300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>56200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>110900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>56200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>44900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>50100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-111700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>22600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-79900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>228500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-370800</v>
+        <v>201300</v>
       </c>
       <c r="E102" s="3">
-        <v>335700</v>
+        <v>-338600</v>
       </c>
       <c r="F102" s="3">
-        <v>48400</v>
+        <v>306600</v>
       </c>
       <c r="G102" s="3">
-        <v>183100</v>
+        <v>44200</v>
       </c>
       <c r="H102" s="3">
-        <v>-192400</v>
+        <v>167200</v>
       </c>
       <c r="I102" s="3">
-        <v>47700</v>
+        <v>-175700</v>
       </c>
       <c r="J102" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-318900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-77900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-188200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>280700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-863300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>928000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>168200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-321500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>73700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>680300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-388500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>162900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>403300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>114900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3764700</v>
+        <v>3606000</v>
       </c>
       <c r="E8" s="3">
-        <v>3734000</v>
+        <v>3542400</v>
       </c>
       <c r="F8" s="3">
-        <v>3549300</v>
+        <v>3513500</v>
       </c>
       <c r="G8" s="3">
-        <v>3277300</v>
+        <v>3339700</v>
       </c>
       <c r="H8" s="3">
-        <v>3321400</v>
+        <v>3083800</v>
       </c>
       <c r="I8" s="3">
-        <v>3151000</v>
+        <v>3125200</v>
       </c>
       <c r="J8" s="3">
+        <v>2965000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2952000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2704800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3543100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3624300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3805700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3526000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3933300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3906100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3838200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3522200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3905500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3676300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3554400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3120300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3620100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3205500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2763800</v>
+        <v>2559800</v>
       </c>
       <c r="E9" s="3">
-        <v>2682200</v>
+        <v>2600600</v>
       </c>
       <c r="F9" s="3">
-        <v>2529300</v>
+        <v>2523800</v>
       </c>
       <c r="G9" s="3">
-        <v>2348700</v>
+        <v>2379900</v>
       </c>
       <c r="H9" s="3">
-        <v>2425600</v>
+        <v>2210000</v>
       </c>
       <c r="I9" s="3">
-        <v>2284300</v>
+        <v>2282400</v>
       </c>
       <c r="J9" s="3">
+        <v>2149400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2195600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1991700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2639300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2604400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2734000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2518200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2847200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2757200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2722900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2529100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3355700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2680900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2574800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2240500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2643900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2335900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1000900</v>
+        <v>1046300</v>
       </c>
       <c r="E10" s="3">
-        <v>1051800</v>
+        <v>941800</v>
       </c>
       <c r="F10" s="3">
-        <v>1020000</v>
+        <v>989700</v>
       </c>
       <c r="G10" s="3">
-        <v>928600</v>
+        <v>959800</v>
       </c>
       <c r="H10" s="3">
-        <v>895800</v>
+        <v>873800</v>
       </c>
       <c r="I10" s="3">
-        <v>866700</v>
+        <v>842900</v>
       </c>
       <c r="J10" s="3">
+        <v>815500</v>
+      </c>
+      <c r="K10" s="3">
         <v>756400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>713100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>903800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1019900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1071700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1007800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1086200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1148800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1115300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>993100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>549800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>995400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>979600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>879800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>976200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>869600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,11 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1239,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3527500</v>
+        <v>3302400</v>
       </c>
       <c r="E17" s="3">
-        <v>3400700</v>
+        <v>3319200</v>
       </c>
       <c r="F17" s="3">
-        <v>3212000</v>
+        <v>3199900</v>
       </c>
       <c r="G17" s="3">
-        <v>3025100</v>
+        <v>3022300</v>
       </c>
       <c r="H17" s="3">
-        <v>3105900</v>
+        <v>2846500</v>
       </c>
       <c r="I17" s="3">
-        <v>3003700</v>
+        <v>2922500</v>
       </c>
       <c r="J17" s="3">
+        <v>2826300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2823500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2640200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3496100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3309600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3459300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3318700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3604200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4114000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3415500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3185000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4026700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3323300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3210700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2837700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3288000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2910000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>237200</v>
+        <v>303700</v>
       </c>
       <c r="E18" s="3">
-        <v>333200</v>
+        <v>223200</v>
       </c>
       <c r="F18" s="3">
+        <v>313600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>317400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>237300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>202800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>128500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>64600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>47000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>314700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>346400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>207300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>329100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="S18" s="3">
+        <v>422700</v>
+      </c>
+      <c r="T18" s="3">
         <v>337300</v>
       </c>
-      <c r="G18" s="3">
-        <v>252200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>215500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>147400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>128500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>64600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>47000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>314700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>346400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>207300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>329100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-207900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>422700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>337300</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-121200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>343600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>282600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>332100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>295500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="E20" s="3">
-        <v>163400</v>
+        <v>39500</v>
       </c>
       <c r="F20" s="3">
-        <v>12200</v>
+        <v>153700</v>
       </c>
       <c r="G20" s="3">
-        <v>172200</v>
+        <v>11500</v>
       </c>
       <c r="H20" s="3">
-        <v>20900</v>
+        <v>162000</v>
       </c>
       <c r="I20" s="3">
-        <v>156200</v>
+        <v>19700</v>
       </c>
       <c r="J20" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K20" s="3">
         <v>10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>194800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>199300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>209400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>192900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>43700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>167100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>160500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>166500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>149100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>546500</v>
+        <v>762300</v>
       </c>
       <c r="E21" s="3">
-        <v>756200</v>
+        <v>514300</v>
       </c>
       <c r="F21" s="3">
-        <v>590200</v>
+        <v>711500</v>
       </c>
       <c r="G21" s="3">
-        <v>661600</v>
+        <v>555300</v>
       </c>
       <c r="H21" s="3">
-        <v>464500</v>
+        <v>622500</v>
       </c>
       <c r="I21" s="3">
-        <v>518300</v>
+        <v>437100</v>
       </c>
       <c r="J21" s="3">
+        <v>487700</v>
+      </c>
+      <c r="K21" s="3">
         <v>346800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>477100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>292600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>735300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>563000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>608000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>509400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>612100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>638900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>110100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>707700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>549700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>607500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>543200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>623600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1698,8 +1738,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1716,177 +1756,186 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>3700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3000</v>
       </c>
       <c r="V22" s="3">
         <v>3000</v>
       </c>
       <c r="W22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>279200</v>
+        <v>503700</v>
       </c>
       <c r="E23" s="3">
-        <v>496600</v>
+        <v>262700</v>
       </c>
       <c r="F23" s="3">
-        <v>349600</v>
+        <v>467300</v>
       </c>
       <c r="G23" s="3">
-        <v>424400</v>
+        <v>328900</v>
       </c>
       <c r="H23" s="3">
-        <v>236400</v>
+        <v>399300</v>
       </c>
       <c r="I23" s="3">
-        <v>303600</v>
+        <v>222400</v>
       </c>
       <c r="J23" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K23" s="3">
         <v>139000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>259400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>63400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>513900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>365100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>416700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>350900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>466400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>504400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-117500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>510500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>374600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>446200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>347200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>444600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48300</v>
+        <v>131600</v>
       </c>
       <c r="E24" s="3">
-        <v>126900</v>
+        <v>45400</v>
       </c>
       <c r="F24" s="3">
-        <v>88700</v>
+        <v>119400</v>
       </c>
       <c r="G24" s="3">
-        <v>101500</v>
+        <v>83500</v>
       </c>
       <c r="H24" s="3">
-        <v>22800</v>
+        <v>95500</v>
       </c>
       <c r="I24" s="3">
-        <v>67600</v>
+        <v>21400</v>
       </c>
       <c r="J24" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K24" s="3">
         <v>39400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>94900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>102100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>95700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-54600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>101200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-57600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>261300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>115400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>123600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>231000</v>
+        <v>372000</v>
       </c>
       <c r="E26" s="3">
-        <v>369700</v>
+        <v>217300</v>
       </c>
       <c r="F26" s="3">
-        <v>260800</v>
+        <v>347900</v>
       </c>
       <c r="G26" s="3">
-        <v>322900</v>
+        <v>245400</v>
       </c>
       <c r="H26" s="3">
-        <v>213600</v>
+        <v>303800</v>
       </c>
       <c r="I26" s="3">
-        <v>236000</v>
+        <v>201000</v>
       </c>
       <c r="J26" s="3">
+        <v>222000</v>
+      </c>
+      <c r="K26" s="3">
         <v>99500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>397500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>270200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>314500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>255200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>365200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>407200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-59900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>249300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>273900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>330700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>309900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>321000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>222600</v>
+        <v>366300</v>
       </c>
       <c r="E27" s="3">
-        <v>363100</v>
+        <v>209500</v>
       </c>
       <c r="F27" s="3">
-        <v>252900</v>
+        <v>341700</v>
       </c>
       <c r="G27" s="3">
-        <v>317500</v>
+        <v>237900</v>
       </c>
       <c r="H27" s="3">
-        <v>204700</v>
+        <v>298800</v>
       </c>
       <c r="I27" s="3">
-        <v>230400</v>
+        <v>192700</v>
       </c>
       <c r="J27" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K27" s="3">
         <v>93300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>190900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>379400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>253400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>293500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>228600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>335500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>384400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-76600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>268000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>256900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>316600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>292600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>307800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42000</v>
+        <v>-200000</v>
       </c>
       <c r="E32" s="3">
-        <v>-163400</v>
+        <v>-39500</v>
       </c>
       <c r="F32" s="3">
-        <v>-12200</v>
+        <v>-153700</v>
       </c>
       <c r="G32" s="3">
-        <v>-172200</v>
+        <v>-11500</v>
       </c>
       <c r="H32" s="3">
-        <v>-20900</v>
+        <v>-162000</v>
       </c>
       <c r="I32" s="3">
-        <v>-156200</v>
+        <v>-19700</v>
       </c>
       <c r="J32" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-194800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-199300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-209400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-192900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-43700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-167100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-160500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-166500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-149100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>222600</v>
+        <v>366300</v>
       </c>
       <c r="E33" s="3">
-        <v>363100</v>
+        <v>209500</v>
       </c>
       <c r="F33" s="3">
-        <v>252900</v>
+        <v>341700</v>
       </c>
       <c r="G33" s="3">
-        <v>317500</v>
+        <v>237900</v>
       </c>
       <c r="H33" s="3">
-        <v>204700</v>
+        <v>298800</v>
       </c>
       <c r="I33" s="3">
-        <v>230400</v>
+        <v>192700</v>
       </c>
       <c r="J33" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K33" s="3">
         <v>93300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>190900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>379400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>253400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>293500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>228600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>335500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>384400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-76600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>268000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>256900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>316600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>292600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>307800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>222600</v>
+        <v>366300</v>
       </c>
       <c r="E35" s="3">
-        <v>363100</v>
+        <v>209500</v>
       </c>
       <c r="F35" s="3">
-        <v>252900</v>
+        <v>341700</v>
       </c>
       <c r="G35" s="3">
-        <v>317500</v>
+        <v>237900</v>
       </c>
       <c r="H35" s="3">
-        <v>204700</v>
+        <v>298800</v>
       </c>
       <c r="I35" s="3">
-        <v>230400</v>
+        <v>192700</v>
       </c>
       <c r="J35" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K35" s="3">
         <v>93300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>190900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>379400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>253400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>293500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>228600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>335500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>384400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-76600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>268000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>256900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>316600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>292600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>307800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3226100</v>
+        <v>2817500</v>
       </c>
       <c r="E41" s="3">
-        <v>3024700</v>
+        <v>3035600</v>
       </c>
       <c r="F41" s="3">
-        <v>3363400</v>
+        <v>2846100</v>
       </c>
       <c r="G41" s="3">
-        <v>3056800</v>
+        <v>3164800</v>
       </c>
       <c r="H41" s="3">
-        <v>3012600</v>
+        <v>2876300</v>
       </c>
       <c r="I41" s="3">
-        <v>2845400</v>
+        <v>2834700</v>
       </c>
       <c r="J41" s="3">
+        <v>2677400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3021200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3260500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3696900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3903300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4127400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3834100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4928100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3929400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3701500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3936400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3841400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3161100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3549600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3386800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3336800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2933500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>343400</v>
+        <v>286300</v>
       </c>
       <c r="E42" s="3">
-        <v>367100</v>
+        <v>323100</v>
       </c>
       <c r="F42" s="3">
-        <v>446000</v>
+        <v>345400</v>
       </c>
       <c r="G42" s="3">
-        <v>695800</v>
+        <v>419700</v>
       </c>
       <c r="H42" s="3">
-        <v>758400</v>
+        <v>654700</v>
       </c>
       <c r="I42" s="3">
-        <v>853900</v>
+        <v>713600</v>
       </c>
       <c r="J42" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K42" s="3">
         <v>682200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>591900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>652200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>873500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>780100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>825200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1048300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1800100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2283700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1698900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2240300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2625500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2485300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2702500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2637700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2861200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2952900</v>
+        <v>2702500</v>
       </c>
       <c r="E43" s="3">
-        <v>2803000</v>
+        <v>2778600</v>
       </c>
       <c r="F43" s="3">
-        <v>2610800</v>
+        <v>2637500</v>
       </c>
       <c r="G43" s="3">
-        <v>2493700</v>
+        <v>2456600</v>
       </c>
       <c r="H43" s="3">
-        <v>2645600</v>
+        <v>2346500</v>
       </c>
       <c r="I43" s="3">
-        <v>2448400</v>
+        <v>2489400</v>
       </c>
       <c r="J43" s="3">
+        <v>2303800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2333700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2439300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2962800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3008000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2949100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3017900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3434200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3476600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3282400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3091900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6642700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2955300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2875900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2498600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2787500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2605300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3525000</v>
+        <v>3864400</v>
       </c>
       <c r="E44" s="3">
-        <v>3289100</v>
+        <v>3316900</v>
       </c>
       <c r="F44" s="3">
-        <v>3063500</v>
+        <v>3094800</v>
       </c>
       <c r="G44" s="3">
-        <v>2870900</v>
+        <v>2882600</v>
       </c>
       <c r="H44" s="3">
-        <v>2690300</v>
+        <v>2701400</v>
       </c>
       <c r="I44" s="3">
-        <v>2662000</v>
+        <v>2531400</v>
       </c>
       <c r="J44" s="3">
+        <v>2504800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2719600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3201900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3033300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3393700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3391100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3371600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3304700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3262400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3464600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3359200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6596900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3688200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3229400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3190100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2937300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3162600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306500</v>
+        <v>329700</v>
       </c>
       <c r="E45" s="3">
-        <v>277900</v>
+        <v>288400</v>
       </c>
       <c r="F45" s="3">
-        <v>237900</v>
+        <v>261500</v>
       </c>
       <c r="G45" s="3">
-        <v>230800</v>
+        <v>223800</v>
       </c>
       <c r="H45" s="3">
-        <v>239200</v>
+        <v>217100</v>
       </c>
       <c r="I45" s="3">
-        <v>220000</v>
+        <v>225100</v>
       </c>
       <c r="J45" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K45" s="3">
         <v>245200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>283300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>245000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>304500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>320100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>332900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>305200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>830200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>785400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>756000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1155700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1160800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1034600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1061900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1071600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10353900</v>
+        <v>10000400</v>
       </c>
       <c r="E46" s="3">
-        <v>9761900</v>
+        <v>9742500</v>
       </c>
       <c r="F46" s="3">
-        <v>9721600</v>
+        <v>9185500</v>
       </c>
       <c r="G46" s="3">
-        <v>9348000</v>
+        <v>9147500</v>
       </c>
       <c r="H46" s="3">
-        <v>9346200</v>
+        <v>8796000</v>
       </c>
       <c r="I46" s="3">
-        <v>9029700</v>
+        <v>8794300</v>
       </c>
       <c r="J46" s="3">
+        <v>8496500</v>
+      </c>
+      <c r="K46" s="3">
         <v>9001800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9776800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10595800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11423500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11552200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11368900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13048100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12773700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13562400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12871800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13251700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13585900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13301000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12812500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12761200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12634200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11891200</v>
+        <v>11905700</v>
       </c>
       <c r="E47" s="3">
-        <v>10242100</v>
+        <v>11189000</v>
       </c>
       <c r="F47" s="3">
-        <v>11066700</v>
+        <v>9637300</v>
       </c>
       <c r="G47" s="3">
-        <v>10434700</v>
+        <v>10413200</v>
       </c>
       <c r="H47" s="3">
-        <v>10318100</v>
+        <v>9818500</v>
       </c>
       <c r="I47" s="3">
-        <v>9434500</v>
+        <v>9708800</v>
       </c>
       <c r="J47" s="3">
+        <v>8877400</v>
+      </c>
+      <c r="K47" s="3">
         <v>8282800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10833300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10935300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11646800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10371700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10180300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9472400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10046500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11552400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10879300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9832500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9896100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10362200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10425800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10029800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9971200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4306900</v>
+        <v>4420800</v>
       </c>
       <c r="E48" s="3">
-        <v>4066100</v>
+        <v>4052600</v>
       </c>
       <c r="F48" s="3">
-        <v>3943100</v>
+        <v>3826000</v>
       </c>
       <c r="G48" s="3">
-        <v>3871800</v>
+        <v>3710300</v>
       </c>
       <c r="H48" s="3">
-        <v>3721700</v>
+        <v>3643200</v>
       </c>
       <c r="I48" s="3">
-        <v>3503000</v>
+        <v>3501900</v>
       </c>
       <c r="J48" s="3">
+        <v>3296100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3453900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3680200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3684300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3742000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3604300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3470800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3285200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3052800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3012700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2790300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5332000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2661600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2499100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2443200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2364800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2386800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3216200</v>
+        <v>3144500</v>
       </c>
       <c r="E49" s="3">
-        <v>3152900</v>
+        <v>3026300</v>
       </c>
       <c r="F49" s="3">
-        <v>3147200</v>
+        <v>2966700</v>
       </c>
       <c r="G49" s="3">
-        <v>3176200</v>
+        <v>2961400</v>
       </c>
       <c r="H49" s="3">
-        <v>3177000</v>
+        <v>2988700</v>
       </c>
       <c r="I49" s="3">
-        <v>2717200</v>
+        <v>2989400</v>
       </c>
       <c r="J49" s="3">
+        <v>2556800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2770400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3042600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2913800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2996000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2995600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2927700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2205500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2103800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2146800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2060600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4058100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1904600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1872200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1573300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1523000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1531900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>747300</v>
+        <v>677100</v>
       </c>
       <c r="E52" s="3">
-        <v>620100</v>
+        <v>703200</v>
       </c>
       <c r="F52" s="3">
-        <v>608700</v>
+        <v>583400</v>
       </c>
       <c r="G52" s="3">
-        <v>665900</v>
+        <v>572800</v>
       </c>
       <c r="H52" s="3">
-        <v>651300</v>
+        <v>626600</v>
       </c>
       <c r="I52" s="3">
-        <v>470100</v>
+        <v>612800</v>
       </c>
       <c r="J52" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K52" s="3">
         <v>474700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>521300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>504800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>504300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>492800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>515800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>539700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>594600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>577500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>559500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>894000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>920500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1040700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>911000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>910300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30515500</v>
+        <v>30148500</v>
       </c>
       <c r="E54" s="3">
-        <v>27843000</v>
+        <v>28713600</v>
       </c>
       <c r="F54" s="3">
-        <v>28487300</v>
+        <v>26198900</v>
       </c>
       <c r="G54" s="3">
-        <v>27496500</v>
+        <v>26805100</v>
       </c>
       <c r="H54" s="3">
-        <v>27214100</v>
+        <v>25872800</v>
       </c>
       <c r="I54" s="3">
-        <v>25154500</v>
+        <v>25607100</v>
       </c>
       <c r="J54" s="3">
+        <v>23669200</v>
+      </c>
+      <c r="K54" s="3">
         <v>23983500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27854300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28634000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30312600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29024800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28440500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28527000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28516600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30869000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29179400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28284500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28942300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28955100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28295600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27589900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27434500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1736900</v>
+        <v>1672900</v>
       </c>
       <c r="E57" s="3">
-        <v>1656900</v>
+        <v>1634300</v>
       </c>
       <c r="F57" s="3">
-        <v>1616900</v>
+        <v>1559000</v>
       </c>
       <c r="G57" s="3">
-        <v>1550200</v>
+        <v>1521400</v>
       </c>
       <c r="H57" s="3">
-        <v>1426700</v>
+        <v>1458700</v>
       </c>
       <c r="I57" s="3">
-        <v>1305100</v>
+        <v>1342500</v>
       </c>
       <c r="J57" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1249400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1424100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1526800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1642300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1674900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1790200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1763100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1978300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1911500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3312400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1440600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1268300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1185500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1148300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1089600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>753400</v>
+        <v>715000</v>
       </c>
       <c r="E58" s="3">
-        <v>433600</v>
+        <v>708900</v>
       </c>
       <c r="F58" s="3">
-        <v>427500</v>
+        <v>408000</v>
       </c>
       <c r="G58" s="3">
-        <v>432800</v>
+        <v>402300</v>
       </c>
       <c r="H58" s="3">
-        <v>435300</v>
+        <v>407200</v>
       </c>
       <c r="I58" s="3">
-        <v>412600</v>
+        <v>409600</v>
       </c>
       <c r="J58" s="3">
+        <v>388200</v>
+      </c>
+      <c r="K58" s="3">
         <v>416900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>487900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>444900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>111300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>89300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>54300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>123800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>88100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>130900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>82000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>80700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>78200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>74700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>77300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1711300</v>
+        <v>1657100</v>
       </c>
       <c r="E59" s="3">
-        <v>1531100</v>
+        <v>1610200</v>
       </c>
       <c r="F59" s="3">
-        <v>1463500</v>
+        <v>1440700</v>
       </c>
       <c r="G59" s="3">
-        <v>1392900</v>
+        <v>1377100</v>
       </c>
       <c r="H59" s="3">
-        <v>1432000</v>
+        <v>1310700</v>
       </c>
       <c r="I59" s="3">
-        <v>1212300</v>
+        <v>1347400</v>
       </c>
       <c r="J59" s="3">
+        <v>1140700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1267700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1369100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1530400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1528900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1685900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1613900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1770800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1630000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1870100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1727300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3013000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2156700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2082900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1899900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2011500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1948800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4201500</v>
+        <v>4045000</v>
       </c>
       <c r="E60" s="3">
-        <v>3621500</v>
+        <v>3953400</v>
       </c>
       <c r="F60" s="3">
-        <v>3507900</v>
+        <v>3407700</v>
       </c>
       <c r="G60" s="3">
-        <v>3375900</v>
+        <v>3300800</v>
       </c>
       <c r="H60" s="3">
-        <v>3294000</v>
+        <v>3176600</v>
       </c>
       <c r="I60" s="3">
-        <v>2929900</v>
+        <v>3099500</v>
       </c>
       <c r="J60" s="3">
+        <v>2756900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2934100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3281100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3502100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3282400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3457100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3403500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3601300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3447400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3972100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3726900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3791300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3679300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3431900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3163500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3234500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3115700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>409400</v>
+        <v>417000</v>
       </c>
       <c r="E61" s="3">
-        <v>706300</v>
+        <v>385200</v>
       </c>
       <c r="F61" s="3">
-        <v>705600</v>
+        <v>664600</v>
       </c>
       <c r="G61" s="3">
-        <v>713200</v>
+        <v>663900</v>
       </c>
       <c r="H61" s="3">
-        <v>716200</v>
+        <v>671000</v>
       </c>
       <c r="I61" s="3">
-        <v>630400</v>
+        <v>673900</v>
       </c>
       <c r="J61" s="3">
+        <v>593100</v>
+      </c>
+      <c r="K61" s="3">
         <v>637800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>676800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>312900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>295100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>303300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>76800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>82400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>86000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>66600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>163100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>162300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>159800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>145500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>147700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3327000</v>
+        <v>3247600</v>
       </c>
       <c r="E62" s="3">
-        <v>2714500</v>
+        <v>3130600</v>
       </c>
       <c r="F62" s="3">
-        <v>2966200</v>
+        <v>2554200</v>
       </c>
       <c r="G62" s="3">
-        <v>2828200</v>
+        <v>2791000</v>
       </c>
       <c r="H62" s="3">
-        <v>2824400</v>
+        <v>2661200</v>
       </c>
       <c r="I62" s="3">
-        <v>2497600</v>
+        <v>2657600</v>
       </c>
       <c r="J62" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2186700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2876900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2833400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2919600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2537500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2472500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2170000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2405300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3018100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2828400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2870000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2752300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2804800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2786100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2754100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2878100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8146100</v>
+        <v>7909100</v>
       </c>
       <c r="E66" s="3">
-        <v>7245900</v>
+        <v>7665100</v>
       </c>
       <c r="F66" s="3">
-        <v>7378100</v>
+        <v>6818000</v>
       </c>
       <c r="G66" s="3">
-        <v>7109300</v>
+        <v>6942400</v>
       </c>
       <c r="H66" s="3">
-        <v>7027000</v>
+        <v>6689500</v>
       </c>
       <c r="I66" s="3">
-        <v>6244000</v>
+        <v>6612100</v>
       </c>
       <c r="J66" s="3">
+        <v>5875300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5940400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7052100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7206900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7428200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7179600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7055000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6751600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6827000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7961700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7466300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7259300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7372800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7200900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6888400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6885300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6899900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14381100</v>
+        <v>13658200</v>
       </c>
       <c r="E72" s="3">
-        <v>14088100</v>
+        <v>13531900</v>
       </c>
       <c r="F72" s="3">
-        <v>13979000</v>
+        <v>13256200</v>
       </c>
       <c r="G72" s="3">
-        <v>13726200</v>
+        <v>13153600</v>
       </c>
       <c r="H72" s="3">
-        <v>13634500</v>
+        <v>12915700</v>
       </c>
       <c r="I72" s="3">
-        <v>13247400</v>
+        <v>12829400</v>
       </c>
       <c r="J72" s="3">
+        <v>12465100</v>
+      </c>
+      <c r="K72" s="3">
         <v>13181000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14330900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14859600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15312800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15341600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15038900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15748000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15257500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15207200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14551600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14261900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15225700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15164100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14925300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14530100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14237500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22369400</v>
+        <v>22239400</v>
       </c>
       <c r="E76" s="3">
-        <v>20597100</v>
+        <v>21048500</v>
       </c>
       <c r="F76" s="3">
-        <v>21109200</v>
+        <v>19380900</v>
       </c>
       <c r="G76" s="3">
-        <v>20387200</v>
+        <v>19862700</v>
       </c>
       <c r="H76" s="3">
-        <v>20187100</v>
+        <v>19183300</v>
       </c>
       <c r="I76" s="3">
-        <v>18910500</v>
+        <v>18995100</v>
       </c>
       <c r="J76" s="3">
+        <v>17793900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18043100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20802200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21427100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22884400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21845200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21385500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21775500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21689500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22907300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21713100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21025200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21569500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21754100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21407200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20704500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20534600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>222600</v>
+        <v>366300</v>
       </c>
       <c r="E81" s="3">
-        <v>363100</v>
+        <v>209500</v>
       </c>
       <c r="F81" s="3">
-        <v>252900</v>
+        <v>341700</v>
       </c>
       <c r="G81" s="3">
-        <v>317500</v>
+        <v>237900</v>
       </c>
       <c r="H81" s="3">
-        <v>204700</v>
+        <v>298800</v>
       </c>
       <c r="I81" s="3">
-        <v>230400</v>
+        <v>192700</v>
       </c>
       <c r="J81" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K81" s="3">
         <v>93300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>190900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>379400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>253400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>293500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>228600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>335500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>384400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-76600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>268000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>256900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>316600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>292600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>307800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>267300</v>
+        <v>258600</v>
       </c>
       <c r="E83" s="3">
-        <v>259500</v>
+        <v>251500</v>
       </c>
       <c r="F83" s="3">
-        <v>240600</v>
+        <v>244200</v>
       </c>
       <c r="G83" s="3">
-        <v>237200</v>
+        <v>226400</v>
       </c>
       <c r="H83" s="3">
-        <v>228200</v>
+        <v>223200</v>
       </c>
       <c r="I83" s="3">
         <v>214700</v>
       </c>
       <c r="J83" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K83" s="3">
         <v>207800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>217700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>229200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>221300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>198000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>191400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>158500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>159600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>134500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>220900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>195500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>172900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>159100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>193000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>179000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>346900</v>
+        <v>214200</v>
       </c>
       <c r="E89" s="3">
-        <v>324500</v>
+        <v>326400</v>
       </c>
       <c r="F89" s="3">
-        <v>363300</v>
+        <v>305400</v>
       </c>
       <c r="G89" s="3">
-        <v>538500</v>
+        <v>341800</v>
       </c>
       <c r="H89" s="3">
-        <v>525900</v>
+        <v>506700</v>
       </c>
       <c r="I89" s="3">
-        <v>522300</v>
+        <v>494900</v>
       </c>
       <c r="J89" s="3">
+        <v>491500</v>
+      </c>
+      <c r="K89" s="3">
         <v>383000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>316500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>575800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>358100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>507200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>501700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>590800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>307700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>516600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>639500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>416100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>197400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>283100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>540300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>612200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>196700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-273200</v>
+        <v>-306700</v>
       </c>
       <c r="E91" s="3">
-        <v>-278000</v>
+        <v>-257100</v>
       </c>
       <c r="F91" s="3">
-        <v>-257400</v>
+        <v>-261600</v>
       </c>
       <c r="G91" s="3">
-        <v>-239100</v>
+        <v>-242200</v>
       </c>
       <c r="H91" s="3">
-        <v>-235300</v>
+        <v>-225000</v>
       </c>
       <c r="I91" s="3">
-        <v>-304500</v>
+        <v>-221400</v>
       </c>
       <c r="J91" s="3">
+        <v>-286500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-240900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-192900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-227000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-241000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-248400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-255400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-263700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-277400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-250700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-247600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-249700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-184700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-148400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-178400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-138400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-161800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174800</v>
+        <v>-272600</v>
       </c>
       <c r="E94" s="3">
-        <v>-230700</v>
+        <v>-164500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-217100</v>
       </c>
       <c r="G94" s="3">
-        <v>-211400</v>
+        <v>-2000</v>
       </c>
       <c r="H94" s="3">
-        <v>-394500</v>
+        <v>-198900</v>
       </c>
       <c r="I94" s="3">
-        <v>-498100</v>
+        <v>-371200</v>
       </c>
       <c r="J94" s="3">
+        <v>-468700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-247200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-319600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-293300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-202700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-712800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>360200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>137400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-863100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>381500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-398000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-90200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-373500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-118500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-142300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10700</v>
+        <v>-241100</v>
       </c>
       <c r="E96" s="3">
-        <v>-247100</v>
+        <v>-10100</v>
       </c>
       <c r="F96" s="3">
-        <v>-13600</v>
+        <v>-232500</v>
       </c>
       <c r="G96" s="3">
-        <v>-225400</v>
+        <v>-12800</v>
       </c>
       <c r="H96" s="3">
-        <v>-7900</v>
+        <v>-212100</v>
       </c>
       <c r="I96" s="3">
-        <v>-164400</v>
+        <v>-7400</v>
       </c>
       <c r="J96" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-243200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-260500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-22100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-266700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-206300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-204800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-199100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-199000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-161000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-55500</v>
+        <v>-296100</v>
       </c>
       <c r="E100" s="3">
-        <v>-480400</v>
+        <v>-52200</v>
       </c>
       <c r="F100" s="3">
-        <v>-57100</v>
+        <v>-452100</v>
       </c>
       <c r="G100" s="3">
-        <v>-275300</v>
+        <v>-53700</v>
       </c>
       <c r="H100" s="3">
-        <v>-65500</v>
+        <v>-259100</v>
       </c>
       <c r="I100" s="3">
-        <v>-207200</v>
+        <v>-61700</v>
       </c>
       <c r="J100" s="3">
+        <v>-194900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-84400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-299700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-491800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-309200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-610500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-214700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-558900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-202200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-54900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-202300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-168000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84700</v>
+        <v>136500</v>
       </c>
       <c r="E101" s="3">
-        <v>48000</v>
+        <v>79700</v>
       </c>
       <c r="F101" s="3">
-        <v>2500</v>
+        <v>45200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>2400</v>
       </c>
       <c r="H101" s="3">
-        <v>101300</v>
+        <v>-7200</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>95300</v>
       </c>
       <c r="J101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-43200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>56200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-62300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>44900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>50100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-111700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>24600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>22600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-79900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>228500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>201300</v>
+        <v>-218000</v>
       </c>
       <c r="E102" s="3">
-        <v>-338600</v>
+        <v>189400</v>
       </c>
       <c r="F102" s="3">
-        <v>306600</v>
+        <v>-318600</v>
       </c>
       <c r="G102" s="3">
-        <v>44200</v>
+        <v>288500</v>
       </c>
       <c r="H102" s="3">
-        <v>167200</v>
+        <v>41600</v>
       </c>
       <c r="I102" s="3">
-        <v>-175700</v>
+        <v>157300</v>
       </c>
       <c r="J102" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="K102" s="3">
         <v>43500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-318900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-77900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-188200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>280700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-863300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>928000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>168200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-321500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>680300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-388500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>162900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>403300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>114900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3606000</v>
+        <v>3688300</v>
       </c>
       <c r="E8" s="3">
-        <v>3542400</v>
+        <v>3488000</v>
       </c>
       <c r="F8" s="3">
-        <v>3513500</v>
+        <v>3426400</v>
       </c>
       <c r="G8" s="3">
-        <v>3339700</v>
+        <v>3398400</v>
       </c>
       <c r="H8" s="3">
-        <v>3083800</v>
+        <v>3230400</v>
       </c>
       <c r="I8" s="3">
-        <v>3125200</v>
+        <v>2982800</v>
       </c>
       <c r="J8" s="3">
+        <v>3022900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2965000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2952000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2704800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3543100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3624300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3805700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3526000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3933300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3906100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3838200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3522200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3905500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3676300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3554400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3120300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3620100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3205500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2559800</v>
+        <v>2638200</v>
       </c>
       <c r="E9" s="3">
-        <v>2600600</v>
+        <v>2476000</v>
       </c>
       <c r="F9" s="3">
-        <v>2523800</v>
+        <v>2515500</v>
       </c>
       <c r="G9" s="3">
-        <v>2379900</v>
+        <v>2441200</v>
       </c>
       <c r="H9" s="3">
-        <v>2210000</v>
+        <v>2302000</v>
       </c>
       <c r="I9" s="3">
-        <v>2282400</v>
+        <v>2137600</v>
       </c>
       <c r="J9" s="3">
+        <v>2207600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2149400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2195600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1991700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2639300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2604400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2734000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2518200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2847200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2757200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2722900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2529100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3355700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2680900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2574800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2240500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2643900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2335900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1046300</v>
+        <v>1050200</v>
       </c>
       <c r="E10" s="3">
-        <v>941800</v>
+        <v>1012000</v>
       </c>
       <c r="F10" s="3">
-        <v>989700</v>
+        <v>910900</v>
       </c>
       <c r="G10" s="3">
-        <v>959800</v>
+        <v>957300</v>
       </c>
       <c r="H10" s="3">
-        <v>873800</v>
+        <v>928400</v>
       </c>
       <c r="I10" s="3">
-        <v>842900</v>
+        <v>845200</v>
       </c>
       <c r="J10" s="3">
+        <v>815300</v>
+      </c>
+      <c r="K10" s="3">
         <v>815500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>756400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>713100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>903800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1019900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1071700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1007800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1086200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1148800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1115300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>993100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>549800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>995400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>979600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>879800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>976200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>869600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,11 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1262,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3302400</v>
+        <v>3439800</v>
       </c>
       <c r="E17" s="3">
-        <v>3319200</v>
+        <v>3194200</v>
       </c>
       <c r="F17" s="3">
-        <v>3199900</v>
+        <v>3210500</v>
       </c>
       <c r="G17" s="3">
-        <v>3022300</v>
+        <v>3095100</v>
       </c>
       <c r="H17" s="3">
-        <v>2846500</v>
+        <v>2923400</v>
       </c>
       <c r="I17" s="3">
-        <v>2922500</v>
+        <v>2753300</v>
       </c>
       <c r="J17" s="3">
+        <v>2826800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2826300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2823500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2640200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3496100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3309600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3459300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3318700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3604200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4114000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3415500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3185000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4026700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3323300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3210700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2837700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3288000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2910000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>303700</v>
+        <v>248600</v>
       </c>
       <c r="E18" s="3">
-        <v>223200</v>
+        <v>293700</v>
       </c>
       <c r="F18" s="3">
-        <v>313600</v>
+        <v>215900</v>
       </c>
       <c r="G18" s="3">
-        <v>317400</v>
+        <v>303300</v>
       </c>
       <c r="H18" s="3">
-        <v>237300</v>
+        <v>307000</v>
       </c>
       <c r="I18" s="3">
-        <v>202800</v>
+        <v>229500</v>
       </c>
       <c r="J18" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K18" s="3">
         <v>138700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>314700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>346400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>207300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>329100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-207900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>422700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>337300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-121200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>353000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>343600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>282600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>332100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>295500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200000</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
-        <v>39500</v>
+        <v>193400</v>
       </c>
       <c r="F20" s="3">
-        <v>153700</v>
+        <v>38200</v>
       </c>
       <c r="G20" s="3">
-        <v>11500</v>
+        <v>148700</v>
       </c>
       <c r="H20" s="3">
-        <v>162000</v>
+        <v>11100</v>
       </c>
       <c r="I20" s="3">
-        <v>19700</v>
+        <v>156700</v>
       </c>
       <c r="J20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K20" s="3">
         <v>147000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>194800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>199300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>209400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>192900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>43700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>167100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>160500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>166500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>149100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>762300</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>514300</v>
+        <v>-177000</v>
       </c>
       <c r="F21" s="3">
-        <v>711500</v>
+        <v>497400</v>
       </c>
       <c r="G21" s="3">
-        <v>555300</v>
+        <v>688200</v>
       </c>
       <c r="H21" s="3">
-        <v>622500</v>
+        <v>753000</v>
       </c>
       <c r="I21" s="3">
-        <v>437100</v>
+        <v>-171100</v>
       </c>
       <c r="J21" s="3">
+        <v>422800</v>
+      </c>
+      <c r="K21" s="3">
         <v>487700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>346800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>477100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>292600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>735300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>563000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>608000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>509400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>144600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>612100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>638900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>110100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>707700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>549700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>607500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>543200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>623600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +1781,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1759,183 +1799,192 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>3700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3000</v>
       </c>
       <c r="W22" s="3">
         <v>3000</v>
       </c>
       <c r="X22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3000</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>503700</v>
+        <v>252400</v>
       </c>
       <c r="E23" s="3">
-        <v>262700</v>
+        <v>487200</v>
       </c>
       <c r="F23" s="3">
-        <v>467300</v>
+        <v>254100</v>
       </c>
       <c r="G23" s="3">
-        <v>328900</v>
+        <v>452000</v>
       </c>
       <c r="H23" s="3">
-        <v>399300</v>
+        <v>318200</v>
       </c>
       <c r="I23" s="3">
-        <v>222400</v>
+        <v>386200</v>
       </c>
       <c r="J23" s="3">
+        <v>215100</v>
+      </c>
+      <c r="K23" s="3">
         <v>285600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>259400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>513900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>365100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>416700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>350900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>466400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>504400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-117500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>510500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>374600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>446200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>347200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>444600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131600</v>
+        <v>64700</v>
       </c>
       <c r="E24" s="3">
-        <v>45400</v>
+        <v>127300</v>
       </c>
       <c r="F24" s="3">
-        <v>119400</v>
+        <v>43900</v>
       </c>
       <c r="G24" s="3">
-        <v>83500</v>
+        <v>115500</v>
       </c>
       <c r="H24" s="3">
-        <v>95500</v>
+        <v>80800</v>
       </c>
       <c r="I24" s="3">
-        <v>21400</v>
+        <v>92400</v>
       </c>
       <c r="J24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K24" s="3">
         <v>63600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>94900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>102100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>95700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-54600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>101200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-57600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>261300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>115400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>37300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>123600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>372000</v>
+        <v>187700</v>
       </c>
       <c r="E26" s="3">
-        <v>217300</v>
+        <v>359800</v>
       </c>
       <c r="F26" s="3">
-        <v>347900</v>
+        <v>210200</v>
       </c>
       <c r="G26" s="3">
-        <v>245400</v>
+        <v>336500</v>
       </c>
       <c r="H26" s="3">
-        <v>303800</v>
+        <v>237400</v>
       </c>
       <c r="I26" s="3">
-        <v>201000</v>
+        <v>293800</v>
       </c>
       <c r="J26" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K26" s="3">
         <v>222000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>397500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>314500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>255200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>365200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>407200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-59900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>249300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>273900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>330700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>309900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>321000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>366300</v>
+        <v>181600</v>
       </c>
       <c r="E27" s="3">
-        <v>209500</v>
+        <v>354300</v>
       </c>
       <c r="F27" s="3">
-        <v>341700</v>
+        <v>202600</v>
       </c>
       <c r="G27" s="3">
-        <v>237900</v>
+        <v>330500</v>
       </c>
       <c r="H27" s="3">
-        <v>298800</v>
+        <v>230100</v>
       </c>
       <c r="I27" s="3">
-        <v>192700</v>
+        <v>289000</v>
       </c>
       <c r="J27" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K27" s="3">
         <v>216800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>190900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>379400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>253400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>293500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>228600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>335500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>384400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-76600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>268000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>256900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>316600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>292600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>307800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200000</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
-        <v>-39500</v>
+        <v>-193400</v>
       </c>
       <c r="F32" s="3">
-        <v>-153700</v>
+        <v>-38200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11500</v>
+        <v>-148700</v>
       </c>
       <c r="H32" s="3">
-        <v>-162000</v>
+        <v>-11100</v>
       </c>
       <c r="I32" s="3">
-        <v>-19700</v>
+        <v>-156700</v>
       </c>
       <c r="J32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-147000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-194800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-199300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-209400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-192900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-43700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-167100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-160500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-166500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-149100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>366300</v>
+        <v>181600</v>
       </c>
       <c r="E33" s="3">
-        <v>209500</v>
+        <v>354300</v>
       </c>
       <c r="F33" s="3">
-        <v>341700</v>
+        <v>202600</v>
       </c>
       <c r="G33" s="3">
-        <v>237900</v>
+        <v>330500</v>
       </c>
       <c r="H33" s="3">
-        <v>298800</v>
+        <v>230100</v>
       </c>
       <c r="I33" s="3">
-        <v>192700</v>
+        <v>289000</v>
       </c>
       <c r="J33" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K33" s="3">
         <v>216800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>190900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>379400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>253400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>293500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>228600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>335500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>384400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-76600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>268000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>256900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>316600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>292600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>307800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>366300</v>
+        <v>181600</v>
       </c>
       <c r="E35" s="3">
-        <v>209500</v>
+        <v>354300</v>
       </c>
       <c r="F35" s="3">
-        <v>341700</v>
+        <v>202600</v>
       </c>
       <c r="G35" s="3">
-        <v>237900</v>
+        <v>330500</v>
       </c>
       <c r="H35" s="3">
-        <v>298800</v>
+        <v>230100</v>
       </c>
       <c r="I35" s="3">
-        <v>192700</v>
+        <v>289000</v>
       </c>
       <c r="J35" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K35" s="3">
         <v>216800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>190900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>379400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>253400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>293500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>228600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>335500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>384400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-76600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>268000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>256900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>316600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>292600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>307800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2817500</v>
+        <v>2680600</v>
       </c>
       <c r="E41" s="3">
-        <v>3035600</v>
+        <v>2725300</v>
       </c>
       <c r="F41" s="3">
-        <v>2846100</v>
+        <v>2936200</v>
       </c>
       <c r="G41" s="3">
-        <v>3164800</v>
+        <v>2752900</v>
       </c>
       <c r="H41" s="3">
-        <v>2876300</v>
+        <v>3061200</v>
       </c>
       <c r="I41" s="3">
-        <v>2834700</v>
+        <v>2782100</v>
       </c>
       <c r="J41" s="3">
+        <v>2741900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2677400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3021200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3260500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3696900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3903300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4127400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3834100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4928100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3929400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3701500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3936400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3841400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3161100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3549600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3386800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3336800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2933500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>286300</v>
+        <v>168700</v>
       </c>
       <c r="E42" s="3">
-        <v>323100</v>
+        <v>276900</v>
       </c>
       <c r="F42" s="3">
-        <v>345400</v>
+        <v>312500</v>
       </c>
       <c r="G42" s="3">
-        <v>419700</v>
+        <v>334100</v>
       </c>
       <c r="H42" s="3">
-        <v>654700</v>
+        <v>406000</v>
       </c>
       <c r="I42" s="3">
-        <v>713600</v>
+        <v>633300</v>
       </c>
       <c r="J42" s="3">
+        <v>690300</v>
+      </c>
+      <c r="K42" s="3">
         <v>803500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>682200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>591900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>652200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>873500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>780100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>825200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1048300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1800100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2283700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1698900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2240300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2625500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2485300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2702500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2637700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2861200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2702500</v>
+        <v>2720500</v>
       </c>
       <c r="E43" s="3">
-        <v>2778600</v>
+        <v>2614000</v>
       </c>
       <c r="F43" s="3">
-        <v>2637500</v>
+        <v>2687600</v>
       </c>
       <c r="G43" s="3">
-        <v>2456600</v>
+        <v>2551200</v>
       </c>
       <c r="H43" s="3">
-        <v>2346500</v>
+        <v>2376200</v>
       </c>
       <c r="I43" s="3">
-        <v>2489400</v>
+        <v>2269600</v>
       </c>
       <c r="J43" s="3">
+        <v>2407900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2303800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2333700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2439300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2962800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3008000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2949100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3017900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3434200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3476600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3282400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3091900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6642700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2955300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2875900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2498600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2787500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2605300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3864400</v>
+        <v>3967000</v>
       </c>
       <c r="E44" s="3">
-        <v>3316900</v>
+        <v>3737900</v>
       </c>
       <c r="F44" s="3">
-        <v>3094800</v>
+        <v>3208300</v>
       </c>
       <c r="G44" s="3">
-        <v>2882600</v>
+        <v>2993500</v>
       </c>
       <c r="H44" s="3">
-        <v>2701400</v>
+        <v>2788300</v>
       </c>
       <c r="I44" s="3">
-        <v>2531400</v>
+        <v>2613000</v>
       </c>
       <c r="J44" s="3">
+        <v>2448600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2504800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2719600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3201900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3033300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3393700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3391100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3371600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3304700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3262400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3464600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3359200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6596900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3688200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3229400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3190100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2937300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3162600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>329700</v>
+        <v>321700</v>
       </c>
       <c r="E45" s="3">
-        <v>288400</v>
+        <v>318900</v>
       </c>
       <c r="F45" s="3">
-        <v>261500</v>
+        <v>278900</v>
       </c>
       <c r="G45" s="3">
-        <v>223800</v>
+        <v>253000</v>
       </c>
       <c r="H45" s="3">
-        <v>217100</v>
+        <v>216500</v>
       </c>
       <c r="I45" s="3">
-        <v>225100</v>
+        <v>210000</v>
       </c>
       <c r="J45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K45" s="3">
         <v>207000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>245200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>283300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>245000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>304500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>320100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>332900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>305200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>830200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>785400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>756000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1155700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1160800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1034600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1061900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1071600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10000400</v>
+        <v>9858500</v>
       </c>
       <c r="E46" s="3">
-        <v>9742500</v>
+        <v>9673000</v>
       </c>
       <c r="F46" s="3">
-        <v>9185500</v>
+        <v>9423500</v>
       </c>
       <c r="G46" s="3">
-        <v>9147500</v>
+        <v>8884700</v>
       </c>
       <c r="H46" s="3">
-        <v>8796000</v>
+        <v>8848000</v>
       </c>
       <c r="I46" s="3">
-        <v>8794300</v>
+        <v>8508000</v>
       </c>
       <c r="J46" s="3">
+        <v>8506300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8496500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9001800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9776800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10595800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11423500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11552200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11368900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13048100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12773700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13562400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12871800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13251700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13585900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13301000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12812500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12761200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12634200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11905700</v>
+        <v>11412500</v>
       </c>
       <c r="E47" s="3">
-        <v>11189000</v>
+        <v>11515900</v>
       </c>
       <c r="F47" s="3">
-        <v>9637300</v>
+        <v>10822700</v>
       </c>
       <c r="G47" s="3">
-        <v>10413200</v>
+        <v>9321700</v>
       </c>
       <c r="H47" s="3">
-        <v>9818500</v>
+        <v>10072200</v>
       </c>
       <c r="I47" s="3">
-        <v>9708800</v>
+        <v>9497000</v>
       </c>
       <c r="J47" s="3">
+        <v>9390900</v>
+      </c>
+      <c r="K47" s="3">
         <v>8877400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8282800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10833300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10935300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11646800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10371700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10180300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9472400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10046500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11552400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10879300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9832500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9896100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10362200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10425800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10029800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9971200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4420800</v>
+        <v>4417000</v>
       </c>
       <c r="E48" s="3">
-        <v>4052600</v>
+        <v>4276000</v>
       </c>
       <c r="F48" s="3">
-        <v>3826000</v>
+        <v>3919900</v>
       </c>
       <c r="G48" s="3">
-        <v>3710300</v>
+        <v>3700700</v>
       </c>
       <c r="H48" s="3">
-        <v>3643200</v>
+        <v>3588800</v>
       </c>
       <c r="I48" s="3">
-        <v>3501900</v>
+        <v>3523900</v>
       </c>
       <c r="J48" s="3">
+        <v>3387200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3296100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3453900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3680200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3684300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3742000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3604300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3470800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3285200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3052800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3012700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2790300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5332000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2661600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2499100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2443200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2364800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2386800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3144500</v>
+        <v>3074200</v>
       </c>
       <c r="E49" s="3">
-        <v>3026300</v>
+        <v>3041600</v>
       </c>
       <c r="F49" s="3">
-        <v>2966700</v>
+        <v>2927200</v>
       </c>
       <c r="G49" s="3">
-        <v>2961400</v>
+        <v>2869600</v>
       </c>
       <c r="H49" s="3">
-        <v>2988700</v>
+        <v>2864400</v>
       </c>
       <c r="I49" s="3">
-        <v>2989400</v>
+        <v>2890800</v>
       </c>
       <c r="J49" s="3">
+        <v>2891500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2556800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2770400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3042600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2913800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2996000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2995600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2927700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2205500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2103800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2146800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2060600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4058100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1904600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1872200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1573300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1523000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1531900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>677100</v>
+        <v>661300</v>
       </c>
       <c r="E52" s="3">
-        <v>703200</v>
+        <v>654900</v>
       </c>
       <c r="F52" s="3">
-        <v>583400</v>
+        <v>680200</v>
       </c>
       <c r="G52" s="3">
-        <v>572800</v>
+        <v>564300</v>
       </c>
       <c r="H52" s="3">
-        <v>626600</v>
+        <v>554000</v>
       </c>
       <c r="I52" s="3">
-        <v>612800</v>
+        <v>606000</v>
       </c>
       <c r="J52" s="3">
+        <v>592700</v>
+      </c>
+      <c r="K52" s="3">
         <v>442400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>474700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>521300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>504800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>504300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>492800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>515800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>539700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>594600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>577500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>559500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>894000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>920500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1040700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>911000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>910300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30148500</v>
+        <v>29423500</v>
       </c>
       <c r="E54" s="3">
-        <v>28713600</v>
+        <v>29161400</v>
       </c>
       <c r="F54" s="3">
-        <v>26198900</v>
+        <v>27773400</v>
       </c>
       <c r="G54" s="3">
-        <v>26805100</v>
+        <v>25341100</v>
       </c>
       <c r="H54" s="3">
-        <v>25872800</v>
+        <v>25927500</v>
       </c>
       <c r="I54" s="3">
-        <v>25607100</v>
+        <v>25025700</v>
       </c>
       <c r="J54" s="3">
+        <v>24768700</v>
+      </c>
+      <c r="K54" s="3">
         <v>23669200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23983500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27854300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28634000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30312600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29024800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28440500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28527000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28516600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30869000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29179400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28284500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28942300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28955100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28295600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27589900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27434500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1672900</v>
+        <v>1601300</v>
       </c>
       <c r="E57" s="3">
-        <v>1634300</v>
+        <v>1618200</v>
       </c>
       <c r="F57" s="3">
-        <v>1559000</v>
+        <v>1580800</v>
       </c>
       <c r="G57" s="3">
-        <v>1521400</v>
+        <v>1508000</v>
       </c>
       <c r="H57" s="3">
-        <v>1458700</v>
+        <v>1471600</v>
       </c>
       <c r="I57" s="3">
-        <v>1342500</v>
+        <v>1410900</v>
       </c>
       <c r="J57" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1228000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1249400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1424100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1526800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1642300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1674900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1790200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1763100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1978300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1911500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3312400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1440600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1268300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1185500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1148300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1089600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>715000</v>
+        <v>689000</v>
       </c>
       <c r="E58" s="3">
-        <v>708900</v>
+        <v>691500</v>
       </c>
       <c r="F58" s="3">
-        <v>408000</v>
+        <v>685700</v>
       </c>
       <c r="G58" s="3">
-        <v>402300</v>
+        <v>394600</v>
       </c>
       <c r="H58" s="3">
-        <v>407200</v>
+        <v>389100</v>
       </c>
       <c r="I58" s="3">
-        <v>409600</v>
+        <v>393900</v>
       </c>
       <c r="J58" s="3">
+        <v>396200</v>
+      </c>
+      <c r="K58" s="3">
         <v>388200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>416900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>487900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>444900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>111300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>96400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>89300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>54300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>123800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>88100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>130900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>82000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>80700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>78200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>74700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>77300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1657100</v>
+        <v>1577700</v>
       </c>
       <c r="E59" s="3">
-        <v>1610200</v>
+        <v>1602800</v>
       </c>
       <c r="F59" s="3">
-        <v>1440700</v>
+        <v>1557500</v>
       </c>
       <c r="G59" s="3">
-        <v>1377100</v>
+        <v>1393500</v>
       </c>
       <c r="H59" s="3">
-        <v>1310700</v>
+        <v>1332000</v>
       </c>
       <c r="I59" s="3">
-        <v>1347400</v>
+        <v>1267800</v>
       </c>
       <c r="J59" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1140700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1267700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1369100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1530400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1528900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1685900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1613900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1770800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1630000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1870100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1727300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3013000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2156700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2082900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1899900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2011500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1948800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4045000</v>
+        <v>3867900</v>
       </c>
       <c r="E60" s="3">
-        <v>3953400</v>
+        <v>3912500</v>
       </c>
       <c r="F60" s="3">
-        <v>3407700</v>
+        <v>3824000</v>
       </c>
       <c r="G60" s="3">
-        <v>3300800</v>
+        <v>3296100</v>
       </c>
       <c r="H60" s="3">
-        <v>3176600</v>
+        <v>3192700</v>
       </c>
       <c r="I60" s="3">
-        <v>3099500</v>
+        <v>3072600</v>
       </c>
       <c r="J60" s="3">
+        <v>2998000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2756900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2934100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3281100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3502100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3282400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3457100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3403500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3601300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3447400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3972100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3726900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3791300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3679300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3431900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3163500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3234500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3115700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>417000</v>
+        <v>407900</v>
       </c>
       <c r="E61" s="3">
-        <v>385200</v>
+        <v>403300</v>
       </c>
       <c r="F61" s="3">
-        <v>664600</v>
+        <v>372600</v>
       </c>
       <c r="G61" s="3">
-        <v>663900</v>
+        <v>642800</v>
       </c>
       <c r="H61" s="3">
-        <v>671000</v>
+        <v>642200</v>
       </c>
       <c r="I61" s="3">
-        <v>673900</v>
+        <v>649100</v>
       </c>
       <c r="J61" s="3">
+        <v>651800</v>
+      </c>
+      <c r="K61" s="3">
         <v>593100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>637800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>676800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>312900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>295100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>303300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>76800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>82400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>86000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>66600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>163100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>162300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>159800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>145500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>147700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3247600</v>
+        <v>3117200</v>
       </c>
       <c r="E62" s="3">
-        <v>3130600</v>
+        <v>3141300</v>
       </c>
       <c r="F62" s="3">
-        <v>2554200</v>
+        <v>3028100</v>
       </c>
       <c r="G62" s="3">
-        <v>2791000</v>
+        <v>2470600</v>
       </c>
       <c r="H62" s="3">
-        <v>2661200</v>
+        <v>2699700</v>
       </c>
       <c r="I62" s="3">
-        <v>2657600</v>
+        <v>2574100</v>
       </c>
       <c r="J62" s="3">
+        <v>2570600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2350100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2186700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2876900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2833400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2919600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2537500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2472500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2170000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2405300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3018100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2828400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2870000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2752300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2804800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2786100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2754100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2878100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7909100</v>
+        <v>7591400</v>
       </c>
       <c r="E66" s="3">
-        <v>7665100</v>
+        <v>7650100</v>
       </c>
       <c r="F66" s="3">
-        <v>6818000</v>
+        <v>7414100</v>
       </c>
       <c r="G66" s="3">
-        <v>6942400</v>
+        <v>6594800</v>
       </c>
       <c r="H66" s="3">
-        <v>6689500</v>
+        <v>6715100</v>
       </c>
       <c r="I66" s="3">
-        <v>6612100</v>
+        <v>6470500</v>
       </c>
       <c r="J66" s="3">
+        <v>6395600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5875300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5940400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7052100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7206900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7428200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7179600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7055000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6751600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6827000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7961700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7466300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7259300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7372800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7200900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6888400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6885300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6899900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13658200</v>
+        <v>13392800</v>
       </c>
       <c r="E72" s="3">
-        <v>13531900</v>
+        <v>13211000</v>
       </c>
       <c r="F72" s="3">
-        <v>13256200</v>
+        <v>13088900</v>
       </c>
       <c r="G72" s="3">
-        <v>13153600</v>
+        <v>12822100</v>
       </c>
       <c r="H72" s="3">
-        <v>12915700</v>
+        <v>12722900</v>
       </c>
       <c r="I72" s="3">
-        <v>12829400</v>
+        <v>12492800</v>
       </c>
       <c r="J72" s="3">
+        <v>12409300</v>
+      </c>
+      <c r="K72" s="3">
         <v>12465100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13181000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14330900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14859600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15312800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15341600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15038900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15748000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15257500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15207200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14551600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14261900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15225700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15164100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14925300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14530100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14237500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22239400</v>
+        <v>21832100</v>
       </c>
       <c r="E76" s="3">
-        <v>21048500</v>
+        <v>21511200</v>
       </c>
       <c r="F76" s="3">
-        <v>19380900</v>
+        <v>20359300</v>
       </c>
       <c r="G76" s="3">
-        <v>19862700</v>
+        <v>18746300</v>
       </c>
       <c r="H76" s="3">
-        <v>19183300</v>
+        <v>19212400</v>
       </c>
       <c r="I76" s="3">
-        <v>18995100</v>
+        <v>18555200</v>
       </c>
       <c r="J76" s="3">
+        <v>18373100</v>
+      </c>
+      <c r="K76" s="3">
         <v>17793900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18043100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20802200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21427100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22884400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21845200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21385500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21775500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21689500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22907300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21713100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21025200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21569500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21754100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21407200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20704500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20534600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>366300</v>
+        <v>181600</v>
       </c>
       <c r="E81" s="3">
-        <v>209500</v>
+        <v>354300</v>
       </c>
       <c r="F81" s="3">
-        <v>341700</v>
+        <v>202600</v>
       </c>
       <c r="G81" s="3">
-        <v>237900</v>
+        <v>330500</v>
       </c>
       <c r="H81" s="3">
-        <v>298800</v>
+        <v>230100</v>
       </c>
       <c r="I81" s="3">
-        <v>192700</v>
+        <v>289000</v>
       </c>
       <c r="J81" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K81" s="3">
         <v>216800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>190900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>379400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>253400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>293500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>228600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>335500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>384400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-76600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>268000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>256900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>316600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>292600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>307800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>258600</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>251500</v>
+        <v>-664200</v>
       </c>
       <c r="F83" s="3">
-        <v>244200</v>
+        <v>243300</v>
       </c>
       <c r="G83" s="3">
-        <v>226400</v>
+        <v>236200</v>
       </c>
       <c r="H83" s="3">
-        <v>223200</v>
+        <v>434800</v>
       </c>
       <c r="I83" s="3">
-        <v>214700</v>
+        <v>-557400</v>
       </c>
       <c r="J83" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K83" s="3">
         <v>202000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>207800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>217700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>229200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>221300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>198000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>158500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>159600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>145700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>134500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>220900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>195500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>172900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>159100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>193000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>179000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>214200</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>326400</v>
+        <v>-1224700</v>
       </c>
       <c r="F89" s="3">
-        <v>305400</v>
+        <v>315700</v>
       </c>
       <c r="G89" s="3">
-        <v>341800</v>
+        <v>295400</v>
       </c>
       <c r="H89" s="3">
-        <v>506700</v>
+        <v>820800</v>
       </c>
       <c r="I89" s="3">
-        <v>494900</v>
+        <v>-1075500</v>
       </c>
       <c r="J89" s="3">
+        <v>478700</v>
+      </c>
+      <c r="K89" s="3">
         <v>491500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>383000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>316500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>575800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>358100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>507200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>501700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>590800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>307700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>516600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>639500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>416100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>197400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>283100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>540300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>612200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>196700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-306700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-257100</v>
+        <v>656900</v>
       </c>
       <c r="F91" s="3">
-        <v>-261600</v>
+        <v>-248700</v>
       </c>
       <c r="G91" s="3">
-        <v>-242200</v>
+        <v>-253000</v>
       </c>
       <c r="H91" s="3">
-        <v>-225000</v>
+        <v>-451800</v>
       </c>
       <c r="I91" s="3">
-        <v>-221400</v>
+        <v>653300</v>
       </c>
       <c r="J91" s="3">
+        <v>-214200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-286500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-240900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-192900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-227000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-241000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-248400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-255400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-263700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-277400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-250700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-247600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-249700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-184700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-148400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-178400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-138400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-161800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-272600</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-164500</v>
+        <v>299700</v>
       </c>
       <c r="F94" s="3">
-        <v>-217100</v>
+        <v>-159100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2000</v>
+        <v>-210000</v>
       </c>
       <c r="H94" s="3">
-        <v>-198900</v>
+        <v>-194300</v>
       </c>
       <c r="I94" s="3">
-        <v>-371200</v>
+        <v>1110700</v>
       </c>
       <c r="J94" s="3">
+        <v>-359100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-468700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-247200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-319600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-293300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-202700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-712800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>360200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>137400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-863100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>381500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-398000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-90200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-373500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-118500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-142300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-241100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-10100</v>
+        <v>218900</v>
       </c>
       <c r="F96" s="3">
-        <v>-232500</v>
+        <v>-9700</v>
       </c>
       <c r="G96" s="3">
-        <v>-12800</v>
+        <v>-224900</v>
       </c>
       <c r="H96" s="3">
-        <v>-212100</v>
+        <v>-217500</v>
       </c>
       <c r="I96" s="3">
-        <v>-7400</v>
+        <v>166000</v>
       </c>
       <c r="J96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-154700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-243200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-260500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-266700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-206300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-19500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-204800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-199100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-199000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-161000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-296100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>-52200</v>
+        <v>503900</v>
       </c>
       <c r="F100" s="3">
-        <v>-452100</v>
+        <v>-50500</v>
       </c>
       <c r="G100" s="3">
-        <v>-53700</v>
+        <v>-437300</v>
       </c>
       <c r="H100" s="3">
-        <v>-259100</v>
+        <v>-302500</v>
       </c>
       <c r="I100" s="3">
-        <v>-61700</v>
+        <v>323500</v>
       </c>
       <c r="J100" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-194900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-84400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-299700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-491800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-309200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-610500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-214700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-558900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-202200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-54900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-202300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-168000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>136500</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>79700</v>
+        <v>15900</v>
       </c>
       <c r="F101" s="3">
-        <v>45200</v>
+        <v>77100</v>
       </c>
       <c r="G101" s="3">
-        <v>2400</v>
+        <v>43700</v>
       </c>
       <c r="H101" s="3">
-        <v>-7200</v>
+        <v>-4700</v>
       </c>
       <c r="I101" s="3">
-        <v>95300</v>
+        <v>-85300</v>
       </c>
       <c r="J101" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-43200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>56200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-62300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>44900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>50100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-111700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>15100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>24600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>22600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-79900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>228500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-218000</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>189400</v>
+        <v>-405200</v>
       </c>
       <c r="F102" s="3">
-        <v>-318600</v>
+        <v>183200</v>
       </c>
       <c r="G102" s="3">
-        <v>288500</v>
+        <v>-308200</v>
       </c>
       <c r="H102" s="3">
-        <v>41600</v>
+        <v>319300</v>
       </c>
       <c r="I102" s="3">
-        <v>157300</v>
+        <v>273400</v>
       </c>
       <c r="J102" s="3">
+        <v>152200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-165400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-318900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-77900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-188200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>280700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-863300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>928000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>168200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-321500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>680300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-388500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>162900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>403300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>114900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3688300</v>
+        <v>3780300</v>
       </c>
       <c r="E8" s="3">
-        <v>3488000</v>
+        <v>3823600</v>
       </c>
       <c r="F8" s="3">
-        <v>3426400</v>
+        <v>3615900</v>
       </c>
       <c r="G8" s="3">
-        <v>3398400</v>
+        <v>3552100</v>
       </c>
       <c r="H8" s="3">
-        <v>3230400</v>
+        <v>3523100</v>
       </c>
       <c r="I8" s="3">
-        <v>2982800</v>
+        <v>3348800</v>
       </c>
       <c r="J8" s="3">
+        <v>3092200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3022900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2965000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2952000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2704800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3543100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3624300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3805700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3526000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3933300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3906100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3838200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3522200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3905500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3676300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3554400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3120300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3620100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3205500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2638200</v>
+        <v>2683200</v>
       </c>
       <c r="E9" s="3">
-        <v>2476000</v>
+        <v>2734900</v>
       </c>
       <c r="F9" s="3">
-        <v>2515500</v>
+        <v>2566800</v>
       </c>
       <c r="G9" s="3">
-        <v>2441200</v>
+        <v>2607700</v>
       </c>
       <c r="H9" s="3">
-        <v>2302000</v>
+        <v>2530700</v>
       </c>
       <c r="I9" s="3">
-        <v>2137600</v>
+        <v>2386400</v>
       </c>
       <c r="J9" s="3">
+        <v>2216000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2207600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2149400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2195600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1991700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2639300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2604400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2734000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2518200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2847200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2757200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2722900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2529100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3355700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2680900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2574800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2240500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2643900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2335900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1050200</v>
+        <v>1097100</v>
       </c>
       <c r="E10" s="3">
-        <v>1012000</v>
+        <v>1088700</v>
       </c>
       <c r="F10" s="3">
-        <v>910900</v>
+        <v>1049100</v>
       </c>
       <c r="G10" s="3">
-        <v>957300</v>
+        <v>944300</v>
       </c>
       <c r="H10" s="3">
-        <v>928400</v>
+        <v>992400</v>
       </c>
       <c r="I10" s="3">
-        <v>845200</v>
+        <v>962400</v>
       </c>
       <c r="J10" s="3">
+        <v>876200</v>
+      </c>
+      <c r="K10" s="3">
         <v>815300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>815500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>756400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>713100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>903800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1019900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1071700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1007800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1086200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1148800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1115300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>993100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>549800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>995400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>979600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>879800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>976200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>869600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,11 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1284,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3439800</v>
+        <v>3505400</v>
       </c>
       <c r="E17" s="3">
-        <v>3194200</v>
+        <v>3565900</v>
       </c>
       <c r="F17" s="3">
-        <v>3210500</v>
+        <v>3311400</v>
       </c>
       <c r="G17" s="3">
-        <v>3095100</v>
+        <v>3328200</v>
       </c>
       <c r="H17" s="3">
-        <v>2923400</v>
+        <v>3208600</v>
       </c>
       <c r="I17" s="3">
-        <v>2753300</v>
+        <v>3030600</v>
       </c>
       <c r="J17" s="3">
+        <v>2854300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2826800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2826300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2823500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2640200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3496100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3309600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3459300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3318700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3604200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4114000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3415500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3185000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4026700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3323300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3210700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2837700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3288000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2910000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>248600</v>
+        <v>274900</v>
       </c>
       <c r="E18" s="3">
-        <v>293700</v>
+        <v>257700</v>
       </c>
       <c r="F18" s="3">
-        <v>215900</v>
+        <v>304500</v>
       </c>
       <c r="G18" s="3">
-        <v>303300</v>
+        <v>223800</v>
       </c>
       <c r="H18" s="3">
-        <v>307000</v>
+        <v>314400</v>
       </c>
       <c r="I18" s="3">
-        <v>229500</v>
+        <v>318300</v>
       </c>
       <c r="J18" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K18" s="3">
         <v>196100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>138700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>314700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>346400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>207300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>329100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-207900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>422700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>337300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-121200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>353000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>343600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>282600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>332100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>295500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>154700</v>
       </c>
       <c r="E20" s="3">
-        <v>193400</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>38200</v>
+        <v>200500</v>
       </c>
       <c r="G20" s="3">
-        <v>148700</v>
+        <v>39600</v>
       </c>
       <c r="H20" s="3">
-        <v>11100</v>
+        <v>154200</v>
       </c>
       <c r="I20" s="3">
-        <v>156700</v>
+        <v>11600</v>
       </c>
       <c r="J20" s="3">
+        <v>162400</v>
+      </c>
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>147000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>194800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>199300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>209400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>192900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>43700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>167100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>160500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>166500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>149100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>711400</v>
       </c>
       <c r="E21" s="3">
-        <v>-177000</v>
+        <v>536500</v>
       </c>
       <c r="F21" s="3">
-        <v>497400</v>
+        <v>764400</v>
       </c>
       <c r="G21" s="3">
-        <v>688200</v>
+        <v>515700</v>
       </c>
       <c r="H21" s="3">
-        <v>753000</v>
+        <v>713400</v>
       </c>
       <c r="I21" s="3">
-        <v>-171100</v>
+        <v>556800</v>
       </c>
       <c r="J21" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K21" s="3">
         <v>422800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>487700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>346800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>477100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>292600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>735300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>563000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>608000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>509400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>144600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>612100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>638900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>110100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>707700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>549700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>607500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>543200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>623600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,8 +1823,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1802,189 +1841,198 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>3700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3000</v>
       </c>
       <c r="X22" s="3">
         <v>3000</v>
       </c>
       <c r="Y22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>252400</v>
+        <v>429600</v>
       </c>
       <c r="E23" s="3">
-        <v>487200</v>
+        <v>261700</v>
       </c>
       <c r="F23" s="3">
-        <v>254100</v>
+        <v>505000</v>
       </c>
       <c r="G23" s="3">
-        <v>452000</v>
+        <v>263500</v>
       </c>
       <c r="H23" s="3">
-        <v>318200</v>
+        <v>468600</v>
       </c>
       <c r="I23" s="3">
-        <v>386200</v>
+        <v>329800</v>
       </c>
       <c r="J23" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K23" s="3">
         <v>215100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>285600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>259400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>513900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>365100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>416700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>350900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>466400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>504400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-117500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>510500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>374600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>446200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>347200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>444600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64700</v>
+        <v>108900</v>
       </c>
       <c r="E24" s="3">
-        <v>127300</v>
+        <v>67100</v>
       </c>
       <c r="F24" s="3">
-        <v>43900</v>
+        <v>132000</v>
       </c>
       <c r="G24" s="3">
-        <v>115500</v>
+        <v>45500</v>
       </c>
       <c r="H24" s="3">
-        <v>80800</v>
+        <v>119800</v>
       </c>
       <c r="I24" s="3">
-        <v>92400</v>
+        <v>83700</v>
       </c>
       <c r="J24" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K24" s="3">
         <v>20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>116500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>94900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>102100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>95700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-54600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>101200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>97100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-57600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>261300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>115400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>37300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>123600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187700</v>
+        <v>320700</v>
       </c>
       <c r="E26" s="3">
-        <v>359800</v>
+        <v>194600</v>
       </c>
       <c r="F26" s="3">
-        <v>210200</v>
+        <v>373000</v>
       </c>
       <c r="G26" s="3">
-        <v>336500</v>
+        <v>217900</v>
       </c>
       <c r="H26" s="3">
-        <v>237400</v>
+        <v>348800</v>
       </c>
       <c r="I26" s="3">
-        <v>293800</v>
+        <v>246100</v>
       </c>
       <c r="J26" s="3">
+        <v>304600</v>
+      </c>
+      <c r="K26" s="3">
         <v>194400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>222000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>195000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>397500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>314500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>255200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>365200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>407200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-59900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>249300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>273900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>330700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>309900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>321000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>181600</v>
+        <v>317500</v>
       </c>
       <c r="E27" s="3">
-        <v>354300</v>
+        <v>188200</v>
       </c>
       <c r="F27" s="3">
-        <v>202600</v>
+        <v>367300</v>
       </c>
       <c r="G27" s="3">
-        <v>330500</v>
+        <v>210100</v>
       </c>
       <c r="H27" s="3">
-        <v>230100</v>
+        <v>342600</v>
       </c>
       <c r="I27" s="3">
-        <v>289000</v>
+        <v>238600</v>
       </c>
       <c r="J27" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K27" s="3">
         <v>186300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>216800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>190900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>379400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>253400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>293500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>228600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>335500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>384400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-76600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>268000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>256900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>316600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>292600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>307800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>-154700</v>
       </c>
       <c r="E32" s="3">
-        <v>-193400</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>-38200</v>
+        <v>-200500</v>
       </c>
       <c r="G32" s="3">
-        <v>-148700</v>
+        <v>-39600</v>
       </c>
       <c r="H32" s="3">
-        <v>-11100</v>
+        <v>-154200</v>
       </c>
       <c r="I32" s="3">
-        <v>-156700</v>
+        <v>-11600</v>
       </c>
       <c r="J32" s="3">
+        <v>-162400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-147000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-194800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-199300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-209400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-192900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-43700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-167100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-160500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-166500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-149100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>181600</v>
+        <v>317500</v>
       </c>
       <c r="E33" s="3">
-        <v>354300</v>
+        <v>188200</v>
       </c>
       <c r="F33" s="3">
-        <v>202600</v>
+        <v>367300</v>
       </c>
       <c r="G33" s="3">
-        <v>330500</v>
+        <v>210100</v>
       </c>
       <c r="H33" s="3">
-        <v>230100</v>
+        <v>342600</v>
       </c>
       <c r="I33" s="3">
-        <v>289000</v>
+        <v>238600</v>
       </c>
       <c r="J33" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K33" s="3">
         <v>186300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>216800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>190900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>379400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>253400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>293500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>228600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>335500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>384400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-76600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>268000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>256900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>316600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>292600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>307800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>181600</v>
+        <v>317500</v>
       </c>
       <c r="E35" s="3">
-        <v>354300</v>
+        <v>188200</v>
       </c>
       <c r="F35" s="3">
-        <v>202600</v>
+        <v>367300</v>
       </c>
       <c r="G35" s="3">
-        <v>330500</v>
+        <v>210100</v>
       </c>
       <c r="H35" s="3">
-        <v>230100</v>
+        <v>342600</v>
       </c>
       <c r="I35" s="3">
-        <v>289000</v>
+        <v>238600</v>
       </c>
       <c r="J35" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K35" s="3">
         <v>186300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>216800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>190900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>379400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>253400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>293500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>228600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>335500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>384400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-76600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>268000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>256900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>316600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>292600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>307800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2680600</v>
+        <v>2463100</v>
       </c>
       <c r="E41" s="3">
-        <v>2725300</v>
+        <v>2778900</v>
       </c>
       <c r="F41" s="3">
-        <v>2936200</v>
+        <v>2825200</v>
       </c>
       <c r="G41" s="3">
-        <v>2752900</v>
+        <v>3043800</v>
       </c>
       <c r="H41" s="3">
-        <v>3061200</v>
+        <v>2853900</v>
       </c>
       <c r="I41" s="3">
-        <v>2782100</v>
+        <v>3173400</v>
       </c>
       <c r="J41" s="3">
+        <v>2884100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2741900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2677400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3021200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3260500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3696900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3903300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4127400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3834100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4928100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3929400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3701500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3936400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3841400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3161100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3549600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3386800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3336800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2933500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168700</v>
+        <v>255800</v>
       </c>
       <c r="E42" s="3">
-        <v>276900</v>
+        <v>174900</v>
       </c>
       <c r="F42" s="3">
-        <v>312500</v>
+        <v>287000</v>
       </c>
       <c r="G42" s="3">
-        <v>334100</v>
+        <v>324000</v>
       </c>
       <c r="H42" s="3">
-        <v>406000</v>
+        <v>346400</v>
       </c>
       <c r="I42" s="3">
-        <v>633300</v>
+        <v>420800</v>
       </c>
       <c r="J42" s="3">
+        <v>656500</v>
+      </c>
+      <c r="K42" s="3">
         <v>690300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>803500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>682200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>591900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>652200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>873500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>780100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>825200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1048300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1800100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2283700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1698900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2240300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2625500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2485300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2702500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2637700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2861200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2720500</v>
+        <v>2754400</v>
       </c>
       <c r="E43" s="3">
-        <v>2614000</v>
+        <v>2820300</v>
       </c>
       <c r="F43" s="3">
-        <v>2687600</v>
+        <v>2709900</v>
       </c>
       <c r="G43" s="3">
-        <v>2551200</v>
+        <v>2786100</v>
       </c>
       <c r="H43" s="3">
-        <v>2376200</v>
+        <v>2644700</v>
       </c>
       <c r="I43" s="3">
-        <v>2269600</v>
+        <v>2463300</v>
       </c>
       <c r="J43" s="3">
+        <v>2352900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2407900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2303800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2333700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2439300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2962800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3008000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2949100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3017900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3434200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3476600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3282400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3091900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6642700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2955300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2875900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2498600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2787500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2605300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3967000</v>
+        <v>4089500</v>
       </c>
       <c r="E44" s="3">
-        <v>3737900</v>
+        <v>4112500</v>
       </c>
       <c r="F44" s="3">
-        <v>3208300</v>
+        <v>3875000</v>
       </c>
       <c r="G44" s="3">
-        <v>2993500</v>
+        <v>3325900</v>
       </c>
       <c r="H44" s="3">
-        <v>2788300</v>
+        <v>3103300</v>
       </c>
       <c r="I44" s="3">
-        <v>2613000</v>
+        <v>2890500</v>
       </c>
       <c r="J44" s="3">
+        <v>2708800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2448600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2504800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2719600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3201900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3033300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3393700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3391100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3371600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3304700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3262400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3464600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3359200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6596900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3688200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3229400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3190100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2937300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3162600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>321700</v>
+        <v>326700</v>
       </c>
       <c r="E45" s="3">
-        <v>318900</v>
+        <v>333500</v>
       </c>
       <c r="F45" s="3">
-        <v>278900</v>
+        <v>330600</v>
       </c>
       <c r="G45" s="3">
-        <v>253000</v>
+        <v>289100</v>
       </c>
       <c r="H45" s="3">
-        <v>216500</v>
+        <v>262200</v>
       </c>
       <c r="I45" s="3">
-        <v>210000</v>
+        <v>224400</v>
       </c>
       <c r="J45" s="3">
         <v>217700</v>
       </c>
       <c r="K45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="L45" s="3">
         <v>207000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>245200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>283300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>250700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>245000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>304500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>320100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>332900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>305200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>830200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>785400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>756000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1155700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1160800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1034600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1061900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1071600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9858500</v>
+        <v>9889400</v>
       </c>
       <c r="E46" s="3">
-        <v>9673000</v>
+        <v>10220000</v>
       </c>
       <c r="F46" s="3">
-        <v>9423500</v>
+        <v>10027700</v>
       </c>
       <c r="G46" s="3">
-        <v>8884700</v>
+        <v>9769100</v>
       </c>
       <c r="H46" s="3">
-        <v>8848000</v>
+        <v>9210500</v>
       </c>
       <c r="I46" s="3">
-        <v>8508000</v>
+        <v>9172500</v>
       </c>
       <c r="J46" s="3">
+        <v>8820000</v>
+      </c>
+      <c r="K46" s="3">
         <v>8506300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8496500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9001800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9776800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10595800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11423500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11552200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11368900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13048100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12773700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13562400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12871800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13251700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13585900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13301000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12812500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12761200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12634200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11412500</v>
+        <v>11172100</v>
       </c>
       <c r="E47" s="3">
-        <v>11515900</v>
+        <v>11831000</v>
       </c>
       <c r="F47" s="3">
-        <v>10822700</v>
+        <v>11938200</v>
       </c>
       <c r="G47" s="3">
-        <v>9321700</v>
+        <v>11219500</v>
       </c>
       <c r="H47" s="3">
-        <v>10072200</v>
+        <v>9663600</v>
       </c>
       <c r="I47" s="3">
-        <v>9497000</v>
+        <v>10441600</v>
       </c>
       <c r="J47" s="3">
+        <v>9845300</v>
+      </c>
+      <c r="K47" s="3">
         <v>9390900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8877400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8282800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10833300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10935300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11646800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10371700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10180300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9472400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10046500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11552400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10879300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9832500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9896100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10362200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10425800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>10029800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>9971200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4417000</v>
+        <v>4551400</v>
       </c>
       <c r="E48" s="3">
-        <v>4276000</v>
+        <v>4579000</v>
       </c>
       <c r="F48" s="3">
-        <v>3919900</v>
+        <v>4432800</v>
       </c>
       <c r="G48" s="3">
-        <v>3700700</v>
+        <v>4063700</v>
       </c>
       <c r="H48" s="3">
-        <v>3588800</v>
+        <v>3836500</v>
       </c>
       <c r="I48" s="3">
-        <v>3523900</v>
+        <v>3720400</v>
       </c>
       <c r="J48" s="3">
+        <v>3653100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3387200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3296100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3453900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3680200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3684300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3742000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3604300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3470800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3285200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3052800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3012700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2790300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5332000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2661600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2499100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2443200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2364800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2386800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3074200</v>
+        <v>3065600</v>
       </c>
       <c r="E49" s="3">
-        <v>3041600</v>
+        <v>3187000</v>
       </c>
       <c r="F49" s="3">
-        <v>2927200</v>
+        <v>3153100</v>
       </c>
       <c r="G49" s="3">
-        <v>2869600</v>
+        <v>3034600</v>
       </c>
       <c r="H49" s="3">
-        <v>2864400</v>
+        <v>2974800</v>
       </c>
       <c r="I49" s="3">
-        <v>2890800</v>
+        <v>2969500</v>
       </c>
       <c r="J49" s="3">
+        <v>2996800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2891500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2556800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2770400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3042600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2913800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2996000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2995600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2927700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2205500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2103800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2146800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2060600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4058100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1904600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1872200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1573300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1523000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1531900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>661300</v>
+        <v>661800</v>
       </c>
       <c r="E52" s="3">
-        <v>654900</v>
+        <v>685500</v>
       </c>
       <c r="F52" s="3">
-        <v>680200</v>
+        <v>678900</v>
       </c>
       <c r="G52" s="3">
-        <v>564300</v>
+        <v>705100</v>
       </c>
       <c r="H52" s="3">
-        <v>554000</v>
+        <v>585000</v>
       </c>
       <c r="I52" s="3">
-        <v>606000</v>
+        <v>574300</v>
       </c>
       <c r="J52" s="3">
+        <v>628300</v>
+      </c>
+      <c r="K52" s="3">
         <v>592700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>442400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>474700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>521300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>504800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>504300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>492800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>515800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>539700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>594600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>577500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>559500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>894000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>920500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1040700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>911000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>910300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29423500</v>
+        <v>29340400</v>
       </c>
       <c r="E54" s="3">
-        <v>29161400</v>
+        <v>30502500</v>
       </c>
       <c r="F54" s="3">
-        <v>27773400</v>
+        <v>30230800</v>
       </c>
       <c r="G54" s="3">
-        <v>25341100</v>
+        <v>28791900</v>
       </c>
       <c r="H54" s="3">
-        <v>25927500</v>
+        <v>26270400</v>
       </c>
       <c r="I54" s="3">
-        <v>25025700</v>
+        <v>26878300</v>
       </c>
       <c r="J54" s="3">
+        <v>25943400</v>
+      </c>
+      <c r="K54" s="3">
         <v>24768700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23669200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23983500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27854300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28634000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30312600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29024800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28440500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28527000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28516600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30869000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29179400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28284500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28942300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28955100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28295600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27589900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27434500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1601300</v>
+        <v>1506900</v>
       </c>
       <c r="E57" s="3">
-        <v>1618200</v>
+        <v>1660000</v>
       </c>
       <c r="F57" s="3">
-        <v>1580800</v>
+        <v>1677500</v>
       </c>
       <c r="G57" s="3">
-        <v>1508000</v>
+        <v>1638800</v>
       </c>
       <c r="H57" s="3">
-        <v>1471600</v>
+        <v>1563300</v>
       </c>
       <c r="I57" s="3">
-        <v>1410900</v>
+        <v>1525500</v>
       </c>
       <c r="J57" s="3">
+        <v>1462700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1298500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1228000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1249400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1424100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1526800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1642300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1674900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1790200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1763100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1978300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1911500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3312400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1440600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1268300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1185500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1148300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1089600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>689000</v>
+        <v>930200</v>
       </c>
       <c r="E58" s="3">
-        <v>691500</v>
+        <v>714200</v>
       </c>
       <c r="F58" s="3">
-        <v>685700</v>
+        <v>716900</v>
       </c>
       <c r="G58" s="3">
-        <v>394600</v>
+        <v>710800</v>
       </c>
       <c r="H58" s="3">
-        <v>389100</v>
+        <v>409100</v>
       </c>
       <c r="I58" s="3">
-        <v>393900</v>
+        <v>403400</v>
       </c>
       <c r="J58" s="3">
+        <v>408400</v>
+      </c>
+      <c r="K58" s="3">
         <v>396200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>388200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>416900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>487900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>444900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>111300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>96400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>89300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>54300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>123800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>88100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>130900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>82000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>80700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>78200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>74700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>77300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1577700</v>
+        <v>1445500</v>
       </c>
       <c r="E59" s="3">
-        <v>1602800</v>
+        <v>1635500</v>
       </c>
       <c r="F59" s="3">
-        <v>1557500</v>
+        <v>1661600</v>
       </c>
       <c r="G59" s="3">
-        <v>1393500</v>
+        <v>1614600</v>
       </c>
       <c r="H59" s="3">
-        <v>1332000</v>
+        <v>1444600</v>
       </c>
       <c r="I59" s="3">
-        <v>1267800</v>
+        <v>1380900</v>
       </c>
       <c r="J59" s="3">
+        <v>1314200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1303300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1140700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1267700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1369100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1530400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1528900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1685900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1613900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1770800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1630000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1870100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1727300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3013000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2156700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2082900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1899900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2011500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1948800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3867900</v>
+        <v>3882600</v>
       </c>
       <c r="E60" s="3">
-        <v>3912500</v>
+        <v>4009800</v>
       </c>
       <c r="F60" s="3">
-        <v>3824000</v>
+        <v>4056000</v>
       </c>
       <c r="G60" s="3">
-        <v>3296100</v>
+        <v>3964200</v>
       </c>
       <c r="H60" s="3">
-        <v>3192700</v>
+        <v>3417000</v>
       </c>
       <c r="I60" s="3">
-        <v>3072600</v>
+        <v>3309800</v>
       </c>
       <c r="J60" s="3">
+        <v>3185300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2998000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2756900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2934100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3281100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3502100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3282400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3457100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3403500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3601300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3447400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3972100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3726900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3791300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3679300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3431900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3163500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3234500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3115700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>407900</v>
+        <v>415100</v>
       </c>
       <c r="E61" s="3">
-        <v>403300</v>
+        <v>422800</v>
       </c>
       <c r="F61" s="3">
-        <v>372600</v>
+        <v>418100</v>
       </c>
       <c r="G61" s="3">
-        <v>642800</v>
+        <v>386300</v>
       </c>
       <c r="H61" s="3">
-        <v>642200</v>
+        <v>666400</v>
       </c>
       <c r="I61" s="3">
-        <v>649100</v>
+        <v>665700</v>
       </c>
       <c r="J61" s="3">
+        <v>672900</v>
+      </c>
+      <c r="K61" s="3">
         <v>651800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>593100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>637800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>676800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>312900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>295100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>303300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>76800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>82400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>86000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>66600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>163100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>162300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>159800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>145500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>147700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3117200</v>
+        <v>3018900</v>
       </c>
       <c r="E62" s="3">
-        <v>3141300</v>
+        <v>3231500</v>
       </c>
       <c r="F62" s="3">
-        <v>3028100</v>
+        <v>3256500</v>
       </c>
       <c r="G62" s="3">
-        <v>2470600</v>
+        <v>3139100</v>
       </c>
       <c r="H62" s="3">
-        <v>2699700</v>
+        <v>2561200</v>
       </c>
       <c r="I62" s="3">
-        <v>2574100</v>
+        <v>2798700</v>
       </c>
       <c r="J62" s="3">
+        <v>2668400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2570600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2350100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2186700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2876900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2833400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2919600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2537500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2472500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2170000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2405300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3018100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2828400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2870000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2752300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2804800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2786100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2754100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2878100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7591400</v>
+        <v>7517400</v>
       </c>
       <c r="E66" s="3">
-        <v>7650100</v>
+        <v>7869800</v>
       </c>
       <c r="F66" s="3">
-        <v>7414100</v>
+        <v>7930700</v>
       </c>
       <c r="G66" s="3">
-        <v>6594800</v>
+        <v>7686000</v>
       </c>
       <c r="H66" s="3">
-        <v>6715100</v>
+        <v>6836600</v>
       </c>
       <c r="I66" s="3">
-        <v>6470500</v>
+        <v>6961400</v>
       </c>
       <c r="J66" s="3">
+        <v>6707800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6395600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5875300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5940400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7052100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7206900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7428200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7179600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7055000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6751600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6827000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7961700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7466300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7259300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7372800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7200900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6888400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6885300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6899900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13392800</v>
+        <v>13938000</v>
       </c>
       <c r="E72" s="3">
-        <v>13211000</v>
+        <v>13883900</v>
       </c>
       <c r="F72" s="3">
-        <v>13088900</v>
+        <v>13695500</v>
       </c>
       <c r="G72" s="3">
-        <v>12822100</v>
+        <v>13568800</v>
       </c>
       <c r="H72" s="3">
-        <v>12722900</v>
+        <v>13292300</v>
       </c>
       <c r="I72" s="3">
-        <v>12492800</v>
+        <v>13189500</v>
       </c>
       <c r="J72" s="3">
+        <v>12950900</v>
+      </c>
+      <c r="K72" s="3">
         <v>12409300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12465100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13181000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14330900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14859600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15312800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15341600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15038900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15748000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15257500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15207200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14551600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14261900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15225700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15164100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14925300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14530100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14237500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21832100</v>
+        <v>21822900</v>
       </c>
       <c r="E76" s="3">
-        <v>21511200</v>
+        <v>22632700</v>
       </c>
       <c r="F76" s="3">
-        <v>20359300</v>
+        <v>22300100</v>
       </c>
       <c r="G76" s="3">
-        <v>18746300</v>
+        <v>21105900</v>
       </c>
       <c r="H76" s="3">
-        <v>19212400</v>
+        <v>19433800</v>
       </c>
       <c r="I76" s="3">
-        <v>18555200</v>
+        <v>19916900</v>
       </c>
       <c r="J76" s="3">
+        <v>19235700</v>
+      </c>
+      <c r="K76" s="3">
         <v>18373100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17793900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18043100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20802200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21427100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22884400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21845200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21385500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21775500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21689500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22907300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21713100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21025200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21569500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21754100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21407200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20704500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20534600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>181600</v>
+        <v>317500</v>
       </c>
       <c r="E81" s="3">
-        <v>354300</v>
+        <v>188200</v>
       </c>
       <c r="F81" s="3">
-        <v>202600</v>
+        <v>367300</v>
       </c>
       <c r="G81" s="3">
-        <v>330500</v>
+        <v>210100</v>
       </c>
       <c r="H81" s="3">
-        <v>230100</v>
+        <v>342600</v>
       </c>
       <c r="I81" s="3">
-        <v>289000</v>
+        <v>238600</v>
       </c>
       <c r="J81" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K81" s="3">
         <v>186300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>216800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>190900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>379400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>253400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>293500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>228600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>335500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>384400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-76600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>268000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>256900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>316600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>292600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>307800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>281800</v>
       </c>
       <c r="E83" s="3">
-        <v>-664200</v>
+        <v>274800</v>
       </c>
       <c r="F83" s="3">
-        <v>243300</v>
+        <v>259300</v>
       </c>
       <c r="G83" s="3">
-        <v>236200</v>
+        <v>252200</v>
       </c>
       <c r="H83" s="3">
-        <v>434800</v>
+        <v>244900</v>
       </c>
       <c r="I83" s="3">
-        <v>-557400</v>
+        <v>227000</v>
       </c>
       <c r="J83" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K83" s="3">
         <v>207700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>202000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>207800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>217700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>229200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>221300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>198000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>191400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>158500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>159600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>145700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>134500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>220900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>195500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>172900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>159100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>193000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>179000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>303500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1224700</v>
+        <v>226600</v>
       </c>
       <c r="F89" s="3">
-        <v>315700</v>
+        <v>214800</v>
       </c>
       <c r="G89" s="3">
-        <v>295400</v>
+        <v>327300</v>
       </c>
       <c r="H89" s="3">
-        <v>820800</v>
+        <v>306200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1075500</v>
+        <v>342800</v>
       </c>
       <c r="J89" s="3">
+        <v>508100</v>
+      </c>
+      <c r="K89" s="3">
         <v>478700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>491500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>383000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>316500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>575800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>358100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>507200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>501700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>590800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>307700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>516600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>639500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>416100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>197400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>283100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>540300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>612200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>196700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-350900</v>
       </c>
       <c r="E91" s="3">
-        <v>656900</v>
+        <v>-329100</v>
       </c>
       <c r="F91" s="3">
-        <v>-248700</v>
+        <v>-307500</v>
       </c>
       <c r="G91" s="3">
-        <v>-253000</v>
+        <v>-257800</v>
       </c>
       <c r="H91" s="3">
-        <v>-451800</v>
+        <v>-262300</v>
       </c>
       <c r="I91" s="3">
-        <v>653300</v>
+        <v>-242800</v>
       </c>
       <c r="J91" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-214200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-240900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-192900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-227000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-241000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-248400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-255400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-263700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-277400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-250700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-247600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-249700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-184700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-148400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-178400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-138400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-161800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-378700</v>
       </c>
       <c r="E94" s="3">
-        <v>299700</v>
+        <v>-238600</v>
       </c>
       <c r="F94" s="3">
-        <v>-159100</v>
+        <v>-273300</v>
       </c>
       <c r="G94" s="3">
-        <v>-210000</v>
+        <v>-164900</v>
       </c>
       <c r="H94" s="3">
-        <v>-194300</v>
+        <v>-217700</v>
       </c>
       <c r="I94" s="3">
-        <v>1110700</v>
+        <v>-2000</v>
       </c>
       <c r="J94" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-359100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-468700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-247200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-319600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-118800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-293300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-202700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-712800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>360200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>137400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-863100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>381500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-398000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-90200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-373500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-118500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-142300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-254300</v>
       </c>
       <c r="E96" s="3">
-        <v>218900</v>
+        <v>-14300</v>
       </c>
       <c r="F96" s="3">
-        <v>-9700</v>
+        <v>-241800</v>
       </c>
       <c r="G96" s="3">
-        <v>-224900</v>
+        <v>-10100</v>
       </c>
       <c r="H96" s="3">
-        <v>-217500</v>
+        <v>-233100</v>
       </c>
       <c r="I96" s="3">
-        <v>166000</v>
+        <v>-12900</v>
       </c>
       <c r="J96" s="3">
+        <v>-212700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-154700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-243200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-260500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-266700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-206300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-19500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-204800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-199100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-199000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-161000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-77600</v>
       </c>
       <c r="E100" s="3">
-        <v>503900</v>
+        <v>-64300</v>
       </c>
       <c r="F100" s="3">
-        <v>-50500</v>
+        <v>-296900</v>
       </c>
       <c r="G100" s="3">
-        <v>-437300</v>
+        <v>-52400</v>
       </c>
       <c r="H100" s="3">
-        <v>-302500</v>
+        <v>-453300</v>
       </c>
       <c r="I100" s="3">
-        <v>323500</v>
+        <v>-53900</v>
       </c>
       <c r="J100" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-59600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-194900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-84400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-299700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-491800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-309200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-610500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-214700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-558900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-202200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-202300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-168000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-163000</v>
       </c>
       <c r="E101" s="3">
-        <v>15900</v>
+        <v>30000</v>
       </c>
       <c r="F101" s="3">
-        <v>77100</v>
+        <v>136800</v>
       </c>
       <c r="G101" s="3">
-        <v>43700</v>
+        <v>80000</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>45300</v>
       </c>
       <c r="I101" s="3">
-        <v>-85300</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K101" s="3">
         <v>92200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-43200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>56200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-41600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-62300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>44900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>50100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-111700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>24600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>22600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-79900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>228500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-315800</v>
       </c>
       <c r="E102" s="3">
-        <v>-405200</v>
+        <v>-46300</v>
       </c>
       <c r="F102" s="3">
-        <v>183200</v>
+        <v>-218600</v>
       </c>
       <c r="G102" s="3">
-        <v>-308200</v>
+        <v>190000</v>
       </c>
       <c r="H102" s="3">
-        <v>319300</v>
+        <v>-319500</v>
       </c>
       <c r="I102" s="3">
-        <v>273400</v>
+        <v>289300</v>
       </c>
       <c r="J102" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K102" s="3">
         <v>152200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-165400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-318900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-77900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-188200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>280700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-863300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>928000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>168200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-321500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>73700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>680300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-388500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>162900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>403300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>114900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3780300</v>
+        <v>3596600</v>
       </c>
       <c r="E8" s="3">
-        <v>3823600</v>
+        <v>3708300</v>
       </c>
       <c r="F8" s="3">
-        <v>3615900</v>
+        <v>3750800</v>
       </c>
       <c r="G8" s="3">
-        <v>3552100</v>
+        <v>3547000</v>
       </c>
       <c r="H8" s="3">
-        <v>3523100</v>
+        <v>3484400</v>
       </c>
       <c r="I8" s="3">
-        <v>3348800</v>
+        <v>3456000</v>
       </c>
       <c r="J8" s="3">
+        <v>3285100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3092200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3022900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2965000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2952000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2704800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3543100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3624300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3805700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3526000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3933300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3906100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3838200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3522200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3905500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3676300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3554400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3120300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3620100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3205500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2683200</v>
+        <v>2696600</v>
       </c>
       <c r="E9" s="3">
-        <v>2734900</v>
+        <v>2632100</v>
       </c>
       <c r="F9" s="3">
-        <v>2566800</v>
+        <v>2682800</v>
       </c>
       <c r="G9" s="3">
-        <v>2607700</v>
+        <v>2517900</v>
       </c>
       <c r="H9" s="3">
-        <v>2530700</v>
+        <v>2558100</v>
       </c>
       <c r="I9" s="3">
-        <v>2386400</v>
+        <v>2482500</v>
       </c>
       <c r="J9" s="3">
+        <v>2341000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2216000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2207600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2149400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2195600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1991700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2639300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2604400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2734000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2518200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2847200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2757200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2722900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2529100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3355700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2680900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2574800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2240500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2643900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2335900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1097100</v>
+        <v>900000</v>
       </c>
       <c r="E10" s="3">
-        <v>1088700</v>
+        <v>1076200</v>
       </c>
       <c r="F10" s="3">
-        <v>1049100</v>
+        <v>1067900</v>
       </c>
       <c r="G10" s="3">
-        <v>944300</v>
+        <v>1029100</v>
       </c>
       <c r="H10" s="3">
-        <v>992400</v>
+        <v>926300</v>
       </c>
       <c r="I10" s="3">
-        <v>962400</v>
+        <v>973500</v>
       </c>
       <c r="J10" s="3">
+        <v>944100</v>
+      </c>
+      <c r="K10" s="3">
         <v>876200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>815300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>815500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>756400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>713100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>903800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1019900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1071700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1007800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1086200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1148800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1115300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>993100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>549800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>995400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>979600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>879800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>976200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>869600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,11 +1149,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1238,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1303,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1308,8 +1324,11 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3505400</v>
+        <v>3491100</v>
       </c>
       <c r="E17" s="3">
-        <v>3565900</v>
+        <v>3438700</v>
       </c>
       <c r="F17" s="3">
-        <v>3311400</v>
+        <v>3498000</v>
       </c>
       <c r="G17" s="3">
-        <v>3328200</v>
+        <v>3248300</v>
       </c>
       <c r="H17" s="3">
-        <v>3208600</v>
+        <v>3264800</v>
       </c>
       <c r="I17" s="3">
-        <v>3030600</v>
+        <v>3147500</v>
       </c>
       <c r="J17" s="3">
+        <v>2972800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2854300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2826800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2826300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2823500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2640200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3496100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3309600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3459300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3318700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3604200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4114000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3415500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3185000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4026700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3323300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3210700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2837700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3288000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2910000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>274900</v>
+        <v>105500</v>
       </c>
       <c r="E18" s="3">
-        <v>257700</v>
+        <v>269600</v>
       </c>
       <c r="F18" s="3">
-        <v>304500</v>
+        <v>252800</v>
       </c>
       <c r="G18" s="3">
-        <v>223800</v>
+        <v>298700</v>
       </c>
       <c r="H18" s="3">
-        <v>314400</v>
+        <v>219600</v>
       </c>
       <c r="I18" s="3">
-        <v>318300</v>
+        <v>308400</v>
       </c>
       <c r="J18" s="3">
+        <v>312200</v>
+      </c>
+      <c r="K18" s="3">
         <v>238000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>47000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>314700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>346400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>207300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>329100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-207900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>422700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>337300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-121200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>353000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>343600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>282600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>332100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>295500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>154700</v>
+        <v>-8600</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>151800</v>
       </c>
       <c r="F20" s="3">
-        <v>200500</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
-        <v>39600</v>
+        <v>196700</v>
       </c>
       <c r="H20" s="3">
-        <v>154200</v>
+        <v>38900</v>
       </c>
       <c r="I20" s="3">
-        <v>11600</v>
+        <v>151200</v>
       </c>
       <c r="J20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K20" s="3">
         <v>162400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>147000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>194800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>199300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>209400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>21700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>192900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>43700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>167100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>160500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>166500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>18100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>149100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>711400</v>
+        <v>375100</v>
       </c>
       <c r="E21" s="3">
-        <v>536500</v>
+        <v>697900</v>
       </c>
       <c r="F21" s="3">
-        <v>764400</v>
+        <v>526200</v>
       </c>
       <c r="G21" s="3">
-        <v>515700</v>
+        <v>749800</v>
       </c>
       <c r="H21" s="3">
-        <v>713400</v>
+        <v>505800</v>
       </c>
       <c r="I21" s="3">
-        <v>556800</v>
+        <v>699900</v>
       </c>
       <c r="J21" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K21" s="3">
         <v>624200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>422800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>487700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>346800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>477100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>292600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>735300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>563000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>608000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>509400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>144600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>612100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>638900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>110100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>707700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>549700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>607500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>543200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>623600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1826,8 +1862,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1844,195 +1880,204 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>3700</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3000</v>
       </c>
       <c r="Y22" s="3">
         <v>3000</v>
       </c>
       <c r="Z22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>429600</v>
+        <v>96900</v>
       </c>
       <c r="E23" s="3">
-        <v>261700</v>
+        <v>421400</v>
       </c>
       <c r="F23" s="3">
-        <v>505000</v>
+        <v>256700</v>
       </c>
       <c r="G23" s="3">
-        <v>263500</v>
+        <v>495400</v>
       </c>
       <c r="H23" s="3">
-        <v>468600</v>
+        <v>258400</v>
       </c>
       <c r="I23" s="3">
-        <v>329800</v>
+        <v>459700</v>
       </c>
       <c r="J23" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K23" s="3">
         <v>400400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>285600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>259400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>513900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>365100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>416700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>350900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>466400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>504400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-117500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>510500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>374600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>446200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>347200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>444600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108900</v>
+        <v>24000</v>
       </c>
       <c r="E24" s="3">
-        <v>67100</v>
+        <v>106800</v>
       </c>
       <c r="F24" s="3">
-        <v>132000</v>
+        <v>65800</v>
       </c>
       <c r="G24" s="3">
-        <v>45500</v>
+        <v>129500</v>
       </c>
       <c r="H24" s="3">
-        <v>119800</v>
+        <v>44700</v>
       </c>
       <c r="I24" s="3">
-        <v>83700</v>
+        <v>117500</v>
       </c>
       <c r="J24" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K24" s="3">
         <v>95800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>116500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>94900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>102100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>95700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-54600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>101200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>97100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-57600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>261300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>115400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>37300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>123600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>320700</v>
+        <v>72900</v>
       </c>
       <c r="E26" s="3">
-        <v>194600</v>
+        <v>314600</v>
       </c>
       <c r="F26" s="3">
-        <v>373000</v>
+        <v>190900</v>
       </c>
       <c r="G26" s="3">
-        <v>217900</v>
+        <v>365900</v>
       </c>
       <c r="H26" s="3">
-        <v>348800</v>
+        <v>213800</v>
       </c>
       <c r="I26" s="3">
-        <v>246100</v>
+        <v>342200</v>
       </c>
       <c r="J26" s="3">
+        <v>241400</v>
+      </c>
+      <c r="K26" s="3">
         <v>304600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>194400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>222000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>397500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>314500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>255200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>365200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>407200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-59900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>249300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>273900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>330700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>309900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>321000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>317500</v>
+        <v>66400</v>
       </c>
       <c r="E27" s="3">
-        <v>188200</v>
+        <v>311500</v>
       </c>
       <c r="F27" s="3">
-        <v>367300</v>
+        <v>184700</v>
       </c>
       <c r="G27" s="3">
-        <v>210100</v>
+        <v>360300</v>
       </c>
       <c r="H27" s="3">
-        <v>342600</v>
+        <v>206100</v>
       </c>
       <c r="I27" s="3">
-        <v>238600</v>
+        <v>336100</v>
       </c>
       <c r="J27" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K27" s="3">
         <v>299600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>186300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>190900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>379400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>253400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>293500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>228600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>335500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>384400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-76600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>268000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>256900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>316600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>292600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>307800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-154700</v>
+        <v>8600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-151800</v>
       </c>
       <c r="F32" s="3">
-        <v>-200500</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-39600</v>
+        <v>-196700</v>
       </c>
       <c r="H32" s="3">
-        <v>-154200</v>
+        <v>-38900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11600</v>
+        <v>-151200</v>
       </c>
       <c r="J32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-162400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-147000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-194800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-199300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-209400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-21700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-192900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-43700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-167100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-160500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-166500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-149100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>317500</v>
+        <v>66400</v>
       </c>
       <c r="E33" s="3">
-        <v>188200</v>
+        <v>311500</v>
       </c>
       <c r="F33" s="3">
-        <v>367300</v>
+        <v>184700</v>
       </c>
       <c r="G33" s="3">
-        <v>210100</v>
+        <v>360300</v>
       </c>
       <c r="H33" s="3">
-        <v>342600</v>
+        <v>206100</v>
       </c>
       <c r="I33" s="3">
-        <v>238600</v>
+        <v>336100</v>
       </c>
       <c r="J33" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K33" s="3">
         <v>299600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>186300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>216800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>93300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>190900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>379400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>253400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>293500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>228600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>335500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>384400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-76600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>268000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>256900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>316600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>292600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>307800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>317500</v>
+        <v>66400</v>
       </c>
       <c r="E35" s="3">
-        <v>188200</v>
+        <v>311500</v>
       </c>
       <c r="F35" s="3">
-        <v>367300</v>
+        <v>184700</v>
       </c>
       <c r="G35" s="3">
-        <v>210100</v>
+        <v>360300</v>
       </c>
       <c r="H35" s="3">
-        <v>342600</v>
+        <v>206100</v>
       </c>
       <c r="I35" s="3">
-        <v>238600</v>
+        <v>336100</v>
       </c>
       <c r="J35" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K35" s="3">
         <v>299600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>186300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>216800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>93300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>190900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>379400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>253400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>293500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>228600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>335500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>384400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-76600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>268000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>256900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>316600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>292600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>307800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3176,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2463100</v>
+        <v>2692900</v>
       </c>
       <c r="E41" s="3">
-        <v>2778900</v>
+        <v>2416100</v>
       </c>
       <c r="F41" s="3">
-        <v>2825200</v>
+        <v>2726000</v>
       </c>
       <c r="G41" s="3">
-        <v>3043800</v>
+        <v>2771400</v>
       </c>
       <c r="H41" s="3">
-        <v>2853900</v>
+        <v>2985900</v>
       </c>
       <c r="I41" s="3">
-        <v>3173400</v>
+        <v>2799500</v>
       </c>
       <c r="J41" s="3">
+        <v>3113000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2884100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2741900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2677400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3021200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3260500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3696900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3903300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4127400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3834100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4928100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3929400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3701500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3936400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3841400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3161100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3549600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3386800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3336800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2933500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>255800</v>
+        <v>168700</v>
       </c>
       <c r="E42" s="3">
-        <v>174900</v>
+        <v>251000</v>
       </c>
       <c r="F42" s="3">
-        <v>287000</v>
+        <v>171600</v>
       </c>
       <c r="G42" s="3">
-        <v>324000</v>
+        <v>281600</v>
       </c>
       <c r="H42" s="3">
-        <v>346400</v>
+        <v>317800</v>
       </c>
       <c r="I42" s="3">
-        <v>420800</v>
+        <v>339800</v>
       </c>
       <c r="J42" s="3">
+        <v>412800</v>
+      </c>
+      <c r="K42" s="3">
         <v>656500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>690300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>803500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>682200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>591900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>652200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>873500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>780100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>825200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1048300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1800100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2283700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1698900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2240300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2625500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2485300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2702500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2637700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2861200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2754400</v>
+        <v>2746800</v>
       </c>
       <c r="E43" s="3">
-        <v>2820300</v>
+        <v>2701900</v>
       </c>
       <c r="F43" s="3">
-        <v>2709900</v>
+        <v>2766500</v>
       </c>
       <c r="G43" s="3">
-        <v>2786100</v>
+        <v>2658300</v>
       </c>
       <c r="H43" s="3">
-        <v>2644700</v>
+        <v>2733100</v>
       </c>
       <c r="I43" s="3">
-        <v>2463300</v>
+        <v>2594300</v>
       </c>
       <c r="J43" s="3">
+        <v>2416400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2352900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2407900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2303800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2333700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2439300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2962800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3008000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2949100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3017900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3434200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3476600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3282400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3091900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6642700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2955300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2875900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2498600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2787500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2605300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4089500</v>
+        <v>3889400</v>
       </c>
       <c r="E44" s="3">
-        <v>4112500</v>
+        <v>4011600</v>
       </c>
       <c r="F44" s="3">
-        <v>3875000</v>
+        <v>4034100</v>
       </c>
       <c r="G44" s="3">
-        <v>3325900</v>
+        <v>3801200</v>
       </c>
       <c r="H44" s="3">
-        <v>3103300</v>
+        <v>3262600</v>
       </c>
       <c r="I44" s="3">
-        <v>2890500</v>
+        <v>3044200</v>
       </c>
       <c r="J44" s="3">
+        <v>2835500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2708800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2448600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2504800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2719600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3201900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3033300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3393700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3391100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3371600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3304700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3262400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3464600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3359200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6596900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3688200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3229400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3190100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2937300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3162600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>326700</v>
+        <v>288400</v>
       </c>
       <c r="E45" s="3">
-        <v>333500</v>
+        <v>320400</v>
       </c>
       <c r="F45" s="3">
-        <v>330600</v>
+        <v>327100</v>
       </c>
       <c r="G45" s="3">
-        <v>289100</v>
+        <v>324300</v>
       </c>
       <c r="H45" s="3">
-        <v>262200</v>
+        <v>283600</v>
       </c>
       <c r="I45" s="3">
-        <v>224400</v>
+        <v>257200</v>
       </c>
       <c r="J45" s="3">
-        <v>217700</v>
+        <v>220200</v>
       </c>
       <c r="K45" s="3">
         <v>217700</v>
       </c>
       <c r="L45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="M45" s="3">
         <v>207000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>245200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>283300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>245000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>304500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>320100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>332900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>305200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>830200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>785400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>756000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1155700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1160800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1034600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1061900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1071600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9889400</v>
+        <v>9786200</v>
       </c>
       <c r="E46" s="3">
-        <v>10220000</v>
+        <v>9701100</v>
       </c>
       <c r="F46" s="3">
-        <v>10027700</v>
+        <v>10025300</v>
       </c>
       <c r="G46" s="3">
-        <v>9769100</v>
+        <v>9836700</v>
       </c>
       <c r="H46" s="3">
-        <v>9210500</v>
+        <v>9583000</v>
       </c>
       <c r="I46" s="3">
-        <v>9172500</v>
+        <v>9035100</v>
       </c>
       <c r="J46" s="3">
+        <v>8997800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8820000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8506300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8496500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9001800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9776800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10595800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11423500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11552200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11368900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13048100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12773700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13562400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12871800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13251700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13585900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13301000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12812500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12761200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12634200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11172100</v>
+        <v>11302200</v>
       </c>
       <c r="E47" s="3">
-        <v>11831000</v>
+        <v>10959300</v>
       </c>
       <c r="F47" s="3">
-        <v>11938200</v>
+        <v>11605600</v>
       </c>
       <c r="G47" s="3">
-        <v>11219500</v>
+        <v>11710800</v>
       </c>
       <c r="H47" s="3">
-        <v>9663600</v>
+        <v>11005800</v>
       </c>
       <c r="I47" s="3">
-        <v>10441600</v>
+        <v>9479500</v>
       </c>
       <c r="J47" s="3">
+        <v>10242700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9845300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9390900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8877400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8282800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10833300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10935300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11646800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10371700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10180300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9472400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10046500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11552400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10879300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9832500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9896100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10362200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>10425800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>10029800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>9971200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4551400</v>
+        <v>4687200</v>
       </c>
       <c r="E48" s="3">
-        <v>4579000</v>
+        <v>4464700</v>
       </c>
       <c r="F48" s="3">
-        <v>4432800</v>
+        <v>4491800</v>
       </c>
       <c r="G48" s="3">
-        <v>4063700</v>
+        <v>4348400</v>
       </c>
       <c r="H48" s="3">
-        <v>3836500</v>
+        <v>3986300</v>
       </c>
       <c r="I48" s="3">
-        <v>3720400</v>
+        <v>3763400</v>
       </c>
       <c r="J48" s="3">
+        <v>3649500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3653100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3387200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3296100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3453900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3680200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3684300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3742000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3604300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3470800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3285200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3052800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3012700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2790300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5332000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2661600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2499100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2443200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2364800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2386800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3065600</v>
+        <v>3020500</v>
       </c>
       <c r="E49" s="3">
-        <v>3187000</v>
+        <v>3007200</v>
       </c>
       <c r="F49" s="3">
-        <v>3153100</v>
+        <v>3126300</v>
       </c>
       <c r="G49" s="3">
-        <v>3034600</v>
+        <v>3093100</v>
       </c>
       <c r="H49" s="3">
-        <v>2974800</v>
+        <v>2976700</v>
       </c>
       <c r="I49" s="3">
-        <v>2969500</v>
+        <v>2918100</v>
       </c>
       <c r="J49" s="3">
+        <v>2912900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2996800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2891500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2556800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2770400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3042600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2913800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2996000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2995600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2927700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2205500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2103800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2146800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2060600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4058100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1904600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1872200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1573300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1523000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1531900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>661800</v>
+        <v>721000</v>
       </c>
       <c r="E52" s="3">
-        <v>685500</v>
+        <v>649200</v>
       </c>
       <c r="F52" s="3">
-        <v>678900</v>
+        <v>672400</v>
       </c>
       <c r="G52" s="3">
-        <v>705100</v>
+        <v>666000</v>
       </c>
       <c r="H52" s="3">
-        <v>585000</v>
+        <v>691700</v>
       </c>
       <c r="I52" s="3">
-        <v>574300</v>
+        <v>573900</v>
       </c>
       <c r="J52" s="3">
+        <v>563400</v>
+      </c>
+      <c r="K52" s="3">
         <v>628300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>592700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>442400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>474700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>521300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>504800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>504300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>492800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>515800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>539700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>594600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>577500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>559500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>894000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>920500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1040700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>911000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>910300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29340400</v>
+        <v>29517200</v>
       </c>
       <c r="E54" s="3">
-        <v>30502500</v>
+        <v>28781500</v>
       </c>
       <c r="F54" s="3">
-        <v>30230800</v>
+        <v>29921500</v>
       </c>
       <c r="G54" s="3">
-        <v>28791900</v>
+        <v>29654900</v>
       </c>
       <c r="H54" s="3">
-        <v>26270400</v>
+        <v>28243500</v>
       </c>
       <c r="I54" s="3">
-        <v>26878300</v>
+        <v>25770000</v>
       </c>
       <c r="J54" s="3">
+        <v>26366300</v>
+      </c>
+      <c r="K54" s="3">
         <v>25943400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24768700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23669200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23983500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27854300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28634000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30312600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29024800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28440500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28527000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28516600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30869000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29179400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28284500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28942300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28955100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28295600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27589900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>27434500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1506900</v>
+        <v>1469900</v>
       </c>
       <c r="E57" s="3">
-        <v>1660000</v>
+        <v>1478200</v>
       </c>
       <c r="F57" s="3">
-        <v>1677500</v>
+        <v>1628400</v>
       </c>
       <c r="G57" s="3">
-        <v>1638800</v>
+        <v>1645600</v>
       </c>
       <c r="H57" s="3">
-        <v>1563300</v>
+        <v>1607600</v>
       </c>
       <c r="I57" s="3">
-        <v>1525500</v>
+        <v>1533500</v>
       </c>
       <c r="J57" s="3">
+        <v>1496500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1462700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1298500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1228000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1249400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1424100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1526800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1642300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1674900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1790200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1763100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1978300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1911500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3312400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1440600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1268300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1185500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1148300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1089600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>930200</v>
+        <v>356300</v>
       </c>
       <c r="E58" s="3">
-        <v>714200</v>
+        <v>912500</v>
       </c>
       <c r="F58" s="3">
-        <v>716900</v>
+        <v>700600</v>
       </c>
       <c r="G58" s="3">
-        <v>710800</v>
+        <v>703200</v>
       </c>
       <c r="H58" s="3">
-        <v>409100</v>
+        <v>697300</v>
       </c>
       <c r="I58" s="3">
-        <v>403400</v>
+        <v>401300</v>
       </c>
       <c r="J58" s="3">
+        <v>395700</v>
+      </c>
+      <c r="K58" s="3">
         <v>408400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>396200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>388200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>416900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>487900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>444900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>111300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>96400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>89300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>54300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>123800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>88100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>130900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>82000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>80700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>78200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>74700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>77300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1445500</v>
+        <v>1498200</v>
       </c>
       <c r="E59" s="3">
-        <v>1635500</v>
+        <v>1418000</v>
       </c>
       <c r="F59" s="3">
-        <v>1661600</v>
+        <v>1604400</v>
       </c>
       <c r="G59" s="3">
-        <v>1614600</v>
+        <v>1630000</v>
       </c>
       <c r="H59" s="3">
-        <v>1444600</v>
+        <v>1583900</v>
       </c>
       <c r="I59" s="3">
-        <v>1380900</v>
+        <v>1417100</v>
       </c>
       <c r="J59" s="3">
+        <v>1354600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1314200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1303300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1140700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1267700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1369100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1530400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1528900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1685900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1613900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1770800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1630000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1870100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1727300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3013000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2156700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2082900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1899900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2011500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1948800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3882600</v>
+        <v>3324300</v>
       </c>
       <c r="E60" s="3">
-        <v>4009800</v>
+        <v>3808600</v>
       </c>
       <c r="F60" s="3">
-        <v>4056000</v>
+        <v>3933400</v>
       </c>
       <c r="G60" s="3">
-        <v>3964200</v>
+        <v>3978800</v>
       </c>
       <c r="H60" s="3">
-        <v>3417000</v>
+        <v>3888700</v>
       </c>
       <c r="I60" s="3">
-        <v>3309800</v>
+        <v>3351900</v>
       </c>
       <c r="J60" s="3">
+        <v>3246700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3185300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2998000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2756900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2934100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3281100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3502100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3282400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3457100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3403500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3601300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3447400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3972100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3726900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3791300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3679300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3431900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3163500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3234500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3115700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>415100</v>
+        <v>1156400</v>
       </c>
       <c r="E61" s="3">
-        <v>422800</v>
+        <v>407200</v>
       </c>
       <c r="F61" s="3">
-        <v>418100</v>
+        <v>414800</v>
       </c>
       <c r="G61" s="3">
-        <v>386300</v>
+        <v>410100</v>
       </c>
       <c r="H61" s="3">
-        <v>666400</v>
+        <v>378900</v>
       </c>
       <c r="I61" s="3">
-        <v>665700</v>
+        <v>653700</v>
       </c>
       <c r="J61" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K61" s="3">
         <v>672900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>651800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>593100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>637800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>676800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>312900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>295100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>303300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>76800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>82400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>86000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>66600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>163100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>162300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>159800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>145500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>147700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3018900</v>
+        <v>3054400</v>
       </c>
       <c r="E62" s="3">
-        <v>3231500</v>
+        <v>2961400</v>
       </c>
       <c r="F62" s="3">
-        <v>3256500</v>
+        <v>3169900</v>
       </c>
       <c r="G62" s="3">
-        <v>3139100</v>
+        <v>3194400</v>
       </c>
       <c r="H62" s="3">
-        <v>2561200</v>
+        <v>3079300</v>
       </c>
       <c r="I62" s="3">
-        <v>2798700</v>
+        <v>2512400</v>
       </c>
       <c r="J62" s="3">
+        <v>2745400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2668400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2570600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2350100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2186700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2876900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2833400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2919600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2537500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2472500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2170000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2405300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3018100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2828400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2870000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2752300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2804800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2786100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2754100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2878100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7517400</v>
+        <v>7715800</v>
       </c>
       <c r="E66" s="3">
-        <v>7869800</v>
+        <v>7374300</v>
       </c>
       <c r="F66" s="3">
-        <v>7930700</v>
+        <v>7719900</v>
       </c>
       <c r="G66" s="3">
-        <v>7686000</v>
+        <v>7779600</v>
       </c>
       <c r="H66" s="3">
-        <v>6836600</v>
+        <v>7539600</v>
       </c>
       <c r="I66" s="3">
-        <v>6961400</v>
+        <v>6706400</v>
       </c>
       <c r="J66" s="3">
+        <v>6828800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6707800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6395600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5875300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5940400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7052100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7206900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7428200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7179600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7055000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6751600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6827000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7961700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7466300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7259300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7372800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7200900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6888400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6885300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6899900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13938000</v>
+        <v>13788200</v>
       </c>
       <c r="E72" s="3">
-        <v>13883900</v>
+        <v>13672500</v>
       </c>
       <c r="F72" s="3">
-        <v>13695500</v>
+        <v>13619500</v>
       </c>
       <c r="G72" s="3">
-        <v>13568800</v>
+        <v>13434600</v>
       </c>
       <c r="H72" s="3">
-        <v>13292300</v>
+        <v>13310400</v>
       </c>
       <c r="I72" s="3">
-        <v>13189500</v>
+        <v>13039100</v>
       </c>
       <c r="J72" s="3">
+        <v>12938200</v>
+      </c>
+      <c r="K72" s="3">
         <v>12950900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12409300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12465100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13181000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14330900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14859600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15312800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15341600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15038900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15748000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15257500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15207200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14551600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14261900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15225700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15164100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14925300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14530100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14237500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21822900</v>
+        <v>21801400</v>
       </c>
       <c r="E76" s="3">
-        <v>22632700</v>
+        <v>21407300</v>
       </c>
       <c r="F76" s="3">
-        <v>22300100</v>
+        <v>22201600</v>
       </c>
       <c r="G76" s="3">
-        <v>21105900</v>
+        <v>21875300</v>
       </c>
       <c r="H76" s="3">
-        <v>19433800</v>
+        <v>20703900</v>
       </c>
       <c r="I76" s="3">
-        <v>19916900</v>
+        <v>19063600</v>
       </c>
       <c r="J76" s="3">
+        <v>19537500</v>
+      </c>
+      <c r="K76" s="3">
         <v>19235700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18373100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17793900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18043100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20802200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21427100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22884400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21845200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21385500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21775500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21689500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22907300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21713100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21025200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21569500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21754100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21407200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20704500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20534600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>317500</v>
+        <v>66400</v>
       </c>
       <c r="E81" s="3">
-        <v>188200</v>
+        <v>311500</v>
       </c>
       <c r="F81" s="3">
-        <v>367300</v>
+        <v>184700</v>
       </c>
       <c r="G81" s="3">
-        <v>210100</v>
+        <v>360300</v>
       </c>
       <c r="H81" s="3">
-        <v>342600</v>
+        <v>206100</v>
       </c>
       <c r="I81" s="3">
-        <v>238600</v>
+        <v>336100</v>
       </c>
       <c r="J81" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K81" s="3">
         <v>299600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>186300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>216800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>93300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>190900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>379400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>253400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>293500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>228600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>335500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>384400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-76600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>268000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>256900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>316600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>292600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>307800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281800</v>
+        <v>278200</v>
       </c>
       <c r="E83" s="3">
-        <v>274800</v>
+        <v>276500</v>
       </c>
       <c r="F83" s="3">
-        <v>259300</v>
+        <v>269600</v>
       </c>
       <c r="G83" s="3">
-        <v>252200</v>
+        <v>254400</v>
       </c>
       <c r="H83" s="3">
-        <v>244900</v>
+        <v>247400</v>
       </c>
       <c r="I83" s="3">
-        <v>227000</v>
+        <v>240200</v>
       </c>
       <c r="J83" s="3">
+        <v>222700</v>
+      </c>
+      <c r="K83" s="3">
         <v>223800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>207700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>202000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>207800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>217700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>229200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>221300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>198000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>191400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>158500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>159600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>145700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>134500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>220900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>195500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>172900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>159100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>193000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>179000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>303500</v>
+        <v>561500</v>
       </c>
       <c r="E89" s="3">
-        <v>226600</v>
+        <v>297700</v>
       </c>
       <c r="F89" s="3">
-        <v>214800</v>
+        <v>222300</v>
       </c>
       <c r="G89" s="3">
-        <v>327300</v>
+        <v>210700</v>
       </c>
       <c r="H89" s="3">
-        <v>306200</v>
+        <v>321100</v>
       </c>
       <c r="I89" s="3">
-        <v>342800</v>
+        <v>300400</v>
       </c>
       <c r="J89" s="3">
+        <v>336200</v>
+      </c>
+      <c r="K89" s="3">
         <v>508100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>478700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>491500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>383000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>316500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>575800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>358100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>507200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>501700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>590800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>307700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>516600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>639500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>416100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>197400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>283100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>540300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>612200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>196700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-350900</v>
+        <v>-44813000</v>
       </c>
       <c r="E91" s="3">
-        <v>-329100</v>
+        <v>-50144000</v>
       </c>
       <c r="F91" s="3">
-        <v>-307500</v>
+        <v>-47247000</v>
       </c>
       <c r="G91" s="3">
-        <v>-257800</v>
+        <v>-44439000</v>
       </c>
       <c r="H91" s="3">
-        <v>-262300</v>
+        <v>-38095000</v>
       </c>
       <c r="I91" s="3">
-        <v>-242800</v>
+        <v>-38202000</v>
       </c>
       <c r="J91" s="3">
+        <v>-35051000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-225600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-214200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-240900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-192900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-227000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-248400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-255400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-263700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-277400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-250700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-247600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-249700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-184700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-148400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-178400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-138400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-161800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-378700</v>
+        <v>-343600</v>
       </c>
       <c r="E94" s="3">
-        <v>-238600</v>
+        <v>-371500</v>
       </c>
       <c r="F94" s="3">
-        <v>-273300</v>
+        <v>-234100</v>
       </c>
       <c r="G94" s="3">
-        <v>-164900</v>
+        <v>-268100</v>
       </c>
       <c r="H94" s="3">
-        <v>-217700</v>
+        <v>-161800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2000</v>
+        <v>-213600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-359100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-468700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-247200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-319600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-118800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-293300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-202700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-712800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>360200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>137400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-863100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-56900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>381500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-398000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-90200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-373500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-118500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-142300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-254300</v>
+        <v>-4900</v>
       </c>
       <c r="E96" s="3">
-        <v>-14300</v>
+        <v>-249500</v>
       </c>
       <c r="F96" s="3">
-        <v>-241800</v>
+        <v>-14000</v>
       </c>
       <c r="G96" s="3">
-        <v>-10100</v>
+        <v>-237200</v>
       </c>
       <c r="H96" s="3">
-        <v>-233100</v>
+        <v>-9900</v>
       </c>
       <c r="I96" s="3">
-        <v>-12900</v>
+        <v>-228700</v>
       </c>
       <c r="J96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-212700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-154700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-243200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-260500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-266700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-206300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-19500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-204800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-16400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-199100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-199000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-161000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-77600</v>
+        <v>-11200</v>
       </c>
       <c r="E100" s="3">
-        <v>-64300</v>
+        <v>-76100</v>
       </c>
       <c r="F100" s="3">
-        <v>-296900</v>
+        <v>-63000</v>
       </c>
       <c r="G100" s="3">
-        <v>-52400</v>
+        <v>-291300</v>
       </c>
       <c r="H100" s="3">
-        <v>-453300</v>
+        <v>-51400</v>
       </c>
       <c r="I100" s="3">
-        <v>-53900</v>
+        <v>-444700</v>
       </c>
       <c r="J100" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-259800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-194900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-84400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-299700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-491800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-309200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-610500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-214700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-558900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-202200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-202300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-168000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-163000</v>
+        <v>70100</v>
       </c>
       <c r="E101" s="3">
-        <v>30000</v>
+        <v>-159900</v>
       </c>
       <c r="F101" s="3">
-        <v>136800</v>
+        <v>29400</v>
       </c>
       <c r="G101" s="3">
-        <v>80000</v>
+        <v>134200</v>
       </c>
       <c r="H101" s="3">
-        <v>45300</v>
+        <v>78400</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>44400</v>
       </c>
       <c r="J101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>92200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-43200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>56200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-41600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-62300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>44900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>50100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-111700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>15100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>24600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>22600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-79900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>228500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-315800</v>
+        <v>276800</v>
       </c>
       <c r="E102" s="3">
-        <v>-46300</v>
+        <v>-309800</v>
       </c>
       <c r="F102" s="3">
-        <v>-218600</v>
+        <v>-45500</v>
       </c>
       <c r="G102" s="3">
-        <v>190000</v>
+        <v>-214500</v>
       </c>
       <c r="H102" s="3">
-        <v>-319500</v>
+        <v>186300</v>
       </c>
       <c r="I102" s="3">
-        <v>289300</v>
+        <v>-313400</v>
       </c>
       <c r="J102" s="3">
+        <v>283800</v>
+      </c>
+      <c r="K102" s="3">
         <v>41700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-165400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-318900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-77900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-188200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>280700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-863300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>928000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>168200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-321500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>73700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>680300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-388500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>162900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>403300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>114900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3596600</v>
+        <v>3293600</v>
       </c>
       <c r="E8" s="3">
-        <v>3708300</v>
+        <v>3427000</v>
       </c>
       <c r="F8" s="3">
-        <v>3750800</v>
+        <v>3533400</v>
       </c>
       <c r="G8" s="3">
-        <v>3547000</v>
+        <v>3573900</v>
       </c>
       <c r="H8" s="3">
-        <v>3484400</v>
+        <v>3379700</v>
       </c>
       <c r="I8" s="3">
-        <v>3456000</v>
+        <v>3320100</v>
       </c>
       <c r="J8" s="3">
+        <v>3293000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3285100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3092200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3022900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2965000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2952000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2704800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3543100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3624300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3805700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3526000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3933300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3906100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3838200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3522200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3905500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3676300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3554400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3120300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3620100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3205500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2696600</v>
+        <v>2363100</v>
       </c>
       <c r="E9" s="3">
-        <v>2632100</v>
+        <v>2569500</v>
       </c>
       <c r="F9" s="3">
-        <v>2682800</v>
+        <v>2507900</v>
       </c>
       <c r="G9" s="3">
-        <v>2517900</v>
+        <v>2556300</v>
       </c>
       <c r="H9" s="3">
-        <v>2558100</v>
+        <v>2399100</v>
       </c>
       <c r="I9" s="3">
-        <v>2482500</v>
+        <v>2437400</v>
       </c>
       <c r="J9" s="3">
+        <v>2365400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2341000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2216000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2207600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2149400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2195600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1991700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2639300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2604400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2734000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2518200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2847200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2757200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2722900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2529100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3355700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2680900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2574800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2240500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2643900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2335900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900000</v>
+        <v>930600</v>
       </c>
       <c r="E10" s="3">
-        <v>1076200</v>
+        <v>857500</v>
       </c>
       <c r="F10" s="3">
-        <v>1067900</v>
+        <v>1025500</v>
       </c>
       <c r="G10" s="3">
-        <v>1029100</v>
+        <v>1017600</v>
       </c>
       <c r="H10" s="3">
-        <v>926300</v>
+        <v>980600</v>
       </c>
       <c r="I10" s="3">
-        <v>973500</v>
+        <v>882700</v>
       </c>
       <c r="J10" s="3">
+        <v>927600</v>
+      </c>
+      <c r="K10" s="3">
         <v>944100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>876200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>815300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>815500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>756400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>713100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>903800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1019900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1071700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1007800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1086200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1148800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1115300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>993100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>549800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>995400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>979600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>879800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>976200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>869600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,11 +1165,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1257,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1325,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1327,8 +1346,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3491100</v>
+        <v>3117200</v>
       </c>
       <c r="E17" s="3">
-        <v>3438700</v>
+        <v>3326500</v>
       </c>
       <c r="F17" s="3">
-        <v>3498000</v>
+        <v>3276500</v>
       </c>
       <c r="G17" s="3">
-        <v>3248300</v>
+        <v>3333000</v>
       </c>
       <c r="H17" s="3">
-        <v>3264800</v>
+        <v>3095100</v>
       </c>
       <c r="I17" s="3">
-        <v>3147500</v>
+        <v>3110900</v>
       </c>
       <c r="J17" s="3">
+        <v>2999100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2972800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2854300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2826800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2826300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2823500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2640200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3496100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3309600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3459300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3318700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3604200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4114000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3415500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3185000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4026700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3323300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3210700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2837700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3288000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2910000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105500</v>
+        <v>176400</v>
       </c>
       <c r="E18" s="3">
-        <v>269600</v>
+        <v>100500</v>
       </c>
       <c r="F18" s="3">
-        <v>252800</v>
+        <v>256900</v>
       </c>
       <c r="G18" s="3">
-        <v>298700</v>
+        <v>240900</v>
       </c>
       <c r="H18" s="3">
-        <v>219600</v>
+        <v>284600</v>
       </c>
       <c r="I18" s="3">
-        <v>308400</v>
+        <v>209200</v>
       </c>
       <c r="J18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="K18" s="3">
         <v>312200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>238000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>314700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>207300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>329100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-207900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>422700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>337300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-121200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>353000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>343600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>282600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>332100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>295500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1678,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8600</v>
+        <v>170400</v>
       </c>
       <c r="E20" s="3">
-        <v>151800</v>
+        <v>-8200</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>144600</v>
       </c>
       <c r="G20" s="3">
-        <v>196700</v>
+        <v>3700</v>
       </c>
       <c r="H20" s="3">
-        <v>38900</v>
+        <v>187400</v>
       </c>
       <c r="I20" s="3">
-        <v>151200</v>
+        <v>37000</v>
       </c>
       <c r="J20" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>162400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>147000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>194800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>199300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>209400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>192900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>43700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>167100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>160500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>166500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>18100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>149100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>375100</v>
+        <v>597400</v>
       </c>
       <c r="E21" s="3">
-        <v>697900</v>
+        <v>357400</v>
       </c>
       <c r="F21" s="3">
-        <v>526200</v>
+        <v>665000</v>
       </c>
       <c r="G21" s="3">
-        <v>749800</v>
+        <v>501400</v>
       </c>
       <c r="H21" s="3">
-        <v>505800</v>
+        <v>714500</v>
       </c>
       <c r="I21" s="3">
-        <v>699900</v>
+        <v>482000</v>
       </c>
       <c r="J21" s="3">
+        <v>666900</v>
+      </c>
+      <c r="K21" s="3">
         <v>546200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>624200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>422800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>487700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>346800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>477100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>292600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>735300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>563000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>608000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>509400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>144600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>612100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>638900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>110100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>707700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>549700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>607500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>543200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>623600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,8 +1904,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1883,201 +1922,210 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>3000</v>
       </c>
       <c r="Z22" s="3">
         <v>3000</v>
       </c>
       <c r="AA22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>96900</v>
+        <v>346800</v>
       </c>
       <c r="E23" s="3">
-        <v>421400</v>
+        <v>92300</v>
       </c>
       <c r="F23" s="3">
-        <v>256700</v>
+        <v>401500</v>
       </c>
       <c r="G23" s="3">
-        <v>495400</v>
+        <v>244600</v>
       </c>
       <c r="H23" s="3">
-        <v>258400</v>
+        <v>472000</v>
       </c>
       <c r="I23" s="3">
-        <v>459700</v>
+        <v>246200</v>
       </c>
       <c r="J23" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K23" s="3">
         <v>323500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>215100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>285600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>259400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>63400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>513900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>365100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>416700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>350900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>466400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>504400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-117500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>510500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>374600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>446200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>347200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>444600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>85100</v>
       </c>
       <c r="E24" s="3">
-        <v>106800</v>
+        <v>22800</v>
       </c>
       <c r="F24" s="3">
-        <v>65800</v>
+        <v>101800</v>
       </c>
       <c r="G24" s="3">
-        <v>129500</v>
+        <v>62700</v>
       </c>
       <c r="H24" s="3">
-        <v>44700</v>
+        <v>123400</v>
       </c>
       <c r="I24" s="3">
-        <v>117500</v>
+        <v>42600</v>
       </c>
       <c r="J24" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K24" s="3">
         <v>82100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>95800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>116500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>94900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>102100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>95700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-54600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>101200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>97100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-57600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>261300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>115400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>37300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>123600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72900</v>
+        <v>261600</v>
       </c>
       <c r="E26" s="3">
-        <v>314600</v>
+        <v>69500</v>
       </c>
       <c r="F26" s="3">
-        <v>190900</v>
+        <v>299700</v>
       </c>
       <c r="G26" s="3">
-        <v>365900</v>
+        <v>181900</v>
       </c>
       <c r="H26" s="3">
-        <v>213800</v>
+        <v>348700</v>
       </c>
       <c r="I26" s="3">
-        <v>342200</v>
+        <v>203700</v>
       </c>
       <c r="J26" s="3">
+        <v>326000</v>
+      </c>
+      <c r="K26" s="3">
         <v>241400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>304600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>194400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>222000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>397500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>314500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>255200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>365200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>407200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-59900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>249300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>273900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>330700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>309900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>321000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66400</v>
+        <v>256900</v>
       </c>
       <c r="E27" s="3">
-        <v>311500</v>
+        <v>63200</v>
       </c>
       <c r="F27" s="3">
-        <v>184700</v>
+        <v>296800</v>
       </c>
       <c r="G27" s="3">
-        <v>360300</v>
+        <v>176000</v>
       </c>
       <c r="H27" s="3">
-        <v>206100</v>
+        <v>343300</v>
       </c>
       <c r="I27" s="3">
-        <v>336100</v>
+        <v>196400</v>
       </c>
       <c r="J27" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K27" s="3">
         <v>234000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>299600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>186300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>216800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>190900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>379400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>253400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>293500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>228600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>335500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>384400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>268000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>256900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>316600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>292600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>307800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8600</v>
+        <v>-170400</v>
       </c>
       <c r="E32" s="3">
-        <v>-151800</v>
+        <v>8200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>-144600</v>
       </c>
       <c r="G32" s="3">
-        <v>-196700</v>
+        <v>-3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-38900</v>
+        <v>-187400</v>
       </c>
       <c r="I32" s="3">
-        <v>-151200</v>
+        <v>-37000</v>
       </c>
       <c r="J32" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-162400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-147000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-194800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-199300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-209400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-192900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-43700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-167100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-160500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-166500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-149100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66400</v>
+        <v>256900</v>
       </c>
       <c r="E33" s="3">
-        <v>311500</v>
+        <v>63200</v>
       </c>
       <c r="F33" s="3">
-        <v>184700</v>
+        <v>296800</v>
       </c>
       <c r="G33" s="3">
-        <v>360300</v>
+        <v>176000</v>
       </c>
       <c r="H33" s="3">
-        <v>206100</v>
+        <v>343300</v>
       </c>
       <c r="I33" s="3">
-        <v>336100</v>
+        <v>196400</v>
       </c>
       <c r="J33" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K33" s="3">
         <v>234000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>299600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>186300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>216800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>93300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>190900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>379400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>253400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>293500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>228600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>335500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>384400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>268000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>256900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>316600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>292600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>307800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66400</v>
+        <v>256900</v>
       </c>
       <c r="E35" s="3">
-        <v>311500</v>
+        <v>63200</v>
       </c>
       <c r="F35" s="3">
-        <v>184700</v>
+        <v>296800</v>
       </c>
       <c r="G35" s="3">
-        <v>360300</v>
+        <v>176000</v>
       </c>
       <c r="H35" s="3">
-        <v>206100</v>
+        <v>343300</v>
       </c>
       <c r="I35" s="3">
-        <v>336100</v>
+        <v>196400</v>
       </c>
       <c r="J35" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K35" s="3">
         <v>234000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>299600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>186300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>216800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>93300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>190900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>379400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>253400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>293500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>228600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>335500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>384400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>268000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>256900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>316600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>292600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>307800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,782 +3262,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2692900</v>
+        <v>2744400</v>
       </c>
       <c r="E41" s="3">
-        <v>2416100</v>
+        <v>2565900</v>
       </c>
       <c r="F41" s="3">
-        <v>2726000</v>
+        <v>2302200</v>
       </c>
       <c r="G41" s="3">
-        <v>2771400</v>
+        <v>2597400</v>
       </c>
       <c r="H41" s="3">
-        <v>2985900</v>
+        <v>2640700</v>
       </c>
       <c r="I41" s="3">
-        <v>2799500</v>
+        <v>2845100</v>
       </c>
       <c r="J41" s="3">
+        <v>2667500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3113000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2884100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2741900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2677400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3021200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3260500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3696900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3903300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4127400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3834100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4928100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3929400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3701500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3936400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3841400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3161100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3549600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3386800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3336800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2933500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168700</v>
+        <v>171700</v>
       </c>
       <c r="E42" s="3">
-        <v>251000</v>
+        <v>160800</v>
       </c>
       <c r="F42" s="3">
-        <v>171600</v>
+        <v>239100</v>
       </c>
       <c r="G42" s="3">
-        <v>281600</v>
+        <v>163500</v>
       </c>
       <c r="H42" s="3">
-        <v>317800</v>
+        <v>268300</v>
       </c>
       <c r="I42" s="3">
-        <v>339800</v>
+        <v>302900</v>
       </c>
       <c r="J42" s="3">
+        <v>323800</v>
+      </c>
+      <c r="K42" s="3">
         <v>412800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>656500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>690300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>803500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>682200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>591900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>652200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>873500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>780100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>825200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1048300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1800100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2283700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1698900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2240300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2625500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2485300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2702500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2637700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2861200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2746800</v>
+        <v>2422600</v>
       </c>
       <c r="E43" s="3">
-        <v>2701900</v>
+        <v>2617300</v>
       </c>
       <c r="F43" s="3">
-        <v>2766500</v>
+        <v>2574500</v>
       </c>
       <c r="G43" s="3">
-        <v>2658300</v>
+        <v>2636100</v>
       </c>
       <c r="H43" s="3">
-        <v>2733100</v>
+        <v>2532900</v>
       </c>
       <c r="I43" s="3">
-        <v>2594300</v>
+        <v>2604200</v>
       </c>
       <c r="J43" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2416400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2352900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2407900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2303800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2333700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2439300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2962800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3008000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2949100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3017900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3434200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3476600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3282400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3091900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6642700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2955300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2875900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2498600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2787500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2605300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3889400</v>
+        <v>3954300</v>
       </c>
       <c r="E44" s="3">
-        <v>4011600</v>
+        <v>3706000</v>
       </c>
       <c r="F44" s="3">
-        <v>4034100</v>
+        <v>3822500</v>
       </c>
       <c r="G44" s="3">
-        <v>3801200</v>
+        <v>3843900</v>
       </c>
       <c r="H44" s="3">
-        <v>3262600</v>
+        <v>3621900</v>
       </c>
       <c r="I44" s="3">
-        <v>3044200</v>
+        <v>3108700</v>
       </c>
       <c r="J44" s="3">
+        <v>2900600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2835500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2708800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2448600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2504800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2719600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3201900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3033300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3393700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3391100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3371600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3304700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3262400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3464600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3359200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6596900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3688200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3229400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3190100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2937300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3162600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>288400</v>
+        <v>321600</v>
       </c>
       <c r="E45" s="3">
-        <v>320400</v>
+        <v>274800</v>
       </c>
       <c r="F45" s="3">
-        <v>327100</v>
+        <v>305300</v>
       </c>
       <c r="G45" s="3">
-        <v>324300</v>
+        <v>311700</v>
       </c>
       <c r="H45" s="3">
-        <v>283600</v>
+        <v>309000</v>
       </c>
       <c r="I45" s="3">
-        <v>257200</v>
+        <v>270300</v>
       </c>
       <c r="J45" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K45" s="3">
         <v>220200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>217700</v>
       </c>
       <c r="L45" s="3">
         <v>217700</v>
       </c>
       <c r="M45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="N45" s="3">
         <v>207000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>245200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>283300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>250700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>245000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>304500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>320100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>332900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>305200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>830200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>785400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>756000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1155700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1160800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1034600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1061900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1071600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9786200</v>
+        <v>9614700</v>
       </c>
       <c r="E46" s="3">
-        <v>9701100</v>
+        <v>9324700</v>
       </c>
       <c r="F46" s="3">
-        <v>10025300</v>
+        <v>9243600</v>
       </c>
       <c r="G46" s="3">
-        <v>9836700</v>
+        <v>9552600</v>
       </c>
       <c r="H46" s="3">
-        <v>9583000</v>
+        <v>9372800</v>
       </c>
       <c r="I46" s="3">
-        <v>9035100</v>
+        <v>9131100</v>
       </c>
       <c r="J46" s="3">
+        <v>8609000</v>
+      </c>
+      <c r="K46" s="3">
         <v>8997800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8820000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8506300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8496500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9001800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9776800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10595800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11423500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11552200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11368900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13048100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12773700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13562400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12871800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13251700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13585900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13301000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12812500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12761200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12634200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11302200</v>
+        <v>11719300</v>
       </c>
       <c r="E47" s="3">
-        <v>10959300</v>
+        <v>10769300</v>
       </c>
       <c r="F47" s="3">
-        <v>11605600</v>
+        <v>10442500</v>
       </c>
       <c r="G47" s="3">
-        <v>11710800</v>
+        <v>11058300</v>
       </c>
       <c r="H47" s="3">
-        <v>11005800</v>
+        <v>11158500</v>
       </c>
       <c r="I47" s="3">
-        <v>9479500</v>
+        <v>10486800</v>
       </c>
       <c r="J47" s="3">
+        <v>9032500</v>
+      </c>
+      <c r="K47" s="3">
         <v>10242700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9845300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9390900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8877400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8282800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10833300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10935300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11646800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10371700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10180300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9472400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10046500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11552400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10879300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9832500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9896100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>10362200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>10425800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>10029800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>9971200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4687200</v>
+        <v>4678900</v>
       </c>
       <c r="E48" s="3">
-        <v>4464700</v>
+        <v>4466200</v>
       </c>
       <c r="F48" s="3">
-        <v>4491800</v>
+        <v>4254200</v>
       </c>
       <c r="G48" s="3">
-        <v>4348400</v>
+        <v>4280000</v>
       </c>
       <c r="H48" s="3">
-        <v>3986300</v>
+        <v>4143300</v>
       </c>
       <c r="I48" s="3">
-        <v>3763400</v>
+        <v>3798300</v>
       </c>
       <c r="J48" s="3">
+        <v>3585900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3649500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3653100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3387200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3296100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3453900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3680200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3684300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3742000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3604300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3470800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3285200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3052800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3012700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2790300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5332000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2661600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2499100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2443200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2364800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2386800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3020500</v>
+        <v>2979000</v>
       </c>
       <c r="E49" s="3">
-        <v>3007200</v>
+        <v>2878100</v>
       </c>
       <c r="F49" s="3">
-        <v>3126300</v>
+        <v>2865400</v>
       </c>
       <c r="G49" s="3">
-        <v>3093100</v>
+        <v>2978800</v>
       </c>
       <c r="H49" s="3">
-        <v>2976700</v>
+        <v>2947200</v>
       </c>
       <c r="I49" s="3">
-        <v>2918100</v>
+        <v>2836400</v>
       </c>
       <c r="J49" s="3">
+        <v>2780500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2912900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2996800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2891500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2556800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2770400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3042600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2913800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2996000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2995600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2927700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2205500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2103800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2146800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2060600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4058100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1904600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1872200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1573300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1523000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1531900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>721000</v>
+        <v>712100</v>
       </c>
       <c r="E52" s="3">
-        <v>649200</v>
+        <v>687000</v>
       </c>
       <c r="F52" s="3">
-        <v>672400</v>
+        <v>618600</v>
       </c>
       <c r="G52" s="3">
-        <v>666000</v>
+        <v>640700</v>
       </c>
       <c r="H52" s="3">
-        <v>691700</v>
+        <v>634600</v>
       </c>
       <c r="I52" s="3">
-        <v>573900</v>
+        <v>659100</v>
       </c>
       <c r="J52" s="3">
+        <v>546800</v>
+      </c>
+      <c r="K52" s="3">
         <v>563400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>628300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>592700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>442400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>474700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>521300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>504800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>504300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>492800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>515800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>539700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>594600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>577500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>559500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>894000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>920500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1040700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>911000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>910300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29517200</v>
+        <v>29703900</v>
       </c>
       <c r="E54" s="3">
-        <v>28781500</v>
+        <v>28125300</v>
       </c>
       <c r="F54" s="3">
-        <v>29921500</v>
+        <v>27424300</v>
       </c>
       <c r="G54" s="3">
-        <v>29654900</v>
+        <v>28510500</v>
       </c>
       <c r="H54" s="3">
-        <v>28243500</v>
+        <v>28256500</v>
       </c>
       <c r="I54" s="3">
-        <v>25770000</v>
+        <v>26911600</v>
       </c>
       <c r="J54" s="3">
+        <v>24554800</v>
+      </c>
+      <c r="K54" s="3">
         <v>26366300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25943400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24768700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23669200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23983500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27854300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28634000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30312600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29024800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28440500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28527000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28516600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30869000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29179400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28284500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28942300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28955100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28295600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>27589900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>27434500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1469900</v>
+        <v>1317600</v>
       </c>
       <c r="E57" s="3">
-        <v>1478200</v>
+        <v>1400500</v>
       </c>
       <c r="F57" s="3">
-        <v>1628400</v>
+        <v>1408500</v>
       </c>
       <c r="G57" s="3">
-        <v>1645600</v>
+        <v>1551600</v>
       </c>
       <c r="H57" s="3">
-        <v>1607600</v>
+        <v>1568000</v>
       </c>
       <c r="I57" s="3">
-        <v>1533500</v>
+        <v>1531700</v>
       </c>
       <c r="J57" s="3">
+        <v>1461200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1496500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1462700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1298500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1228000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1249400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1424100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1526800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1642300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1674900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1790200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1763100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1978300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1911500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3312400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1440600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1268300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1185500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1148300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1089600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>356300</v>
+        <v>702400</v>
       </c>
       <c r="E58" s="3">
-        <v>912500</v>
+        <v>339500</v>
       </c>
       <c r="F58" s="3">
-        <v>700600</v>
+        <v>869500</v>
       </c>
       <c r="G58" s="3">
-        <v>703200</v>
+        <v>667600</v>
       </c>
       <c r="H58" s="3">
-        <v>697300</v>
+        <v>670100</v>
       </c>
       <c r="I58" s="3">
-        <v>401300</v>
+        <v>664400</v>
       </c>
       <c r="J58" s="3">
+        <v>382400</v>
+      </c>
+      <c r="K58" s="3">
         <v>395700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>408400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>396200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>388200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>416900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>487900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>444900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>111300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>96400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>89300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>54300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>123800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>88100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>130900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>82000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>80700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>78200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>74700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>77300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1498200</v>
+        <v>1467600</v>
       </c>
       <c r="E59" s="3">
-        <v>1418000</v>
+        <v>1427600</v>
       </c>
       <c r="F59" s="3">
-        <v>1604400</v>
+        <v>1351100</v>
       </c>
       <c r="G59" s="3">
+        <v>1528700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1553100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1509200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1350300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1354600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1314200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1140700</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1267700</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1369100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1530400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1528900</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1685900</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1613900</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1770800</v>
+      </c>
+      <c r="V59" s="3">
         <v>1630000</v>
       </c>
-      <c r="H59" s="3">
-        <v>1583900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1417100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1354600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1314200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1303300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1140700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1267700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1369100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1530400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1528900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1685900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1613900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1770800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1630000</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1870100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1727300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3013000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2156700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2082900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1899900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2011500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1948800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3324300</v>
+        <v>3487600</v>
       </c>
       <c r="E60" s="3">
-        <v>3808600</v>
+        <v>3167600</v>
       </c>
       <c r="F60" s="3">
-        <v>3933400</v>
+        <v>3629000</v>
       </c>
       <c r="G60" s="3">
-        <v>3978800</v>
+        <v>3747900</v>
       </c>
       <c r="H60" s="3">
-        <v>3888700</v>
+        <v>3791100</v>
       </c>
       <c r="I60" s="3">
-        <v>3351900</v>
+        <v>3705300</v>
       </c>
       <c r="J60" s="3">
+        <v>3193800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3246700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3185300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2998000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2756900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2934100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3281100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3502100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3282400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3457100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3403500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3601300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3447400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3972100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3726900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3791300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3679300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3431900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3163500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3234500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3115700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1156400</v>
+        <v>1247400</v>
       </c>
       <c r="E61" s="3">
-        <v>407200</v>
+        <v>1101900</v>
       </c>
       <c r="F61" s="3">
-        <v>414800</v>
+        <v>388000</v>
       </c>
       <c r="G61" s="3">
-        <v>410100</v>
+        <v>395200</v>
       </c>
       <c r="H61" s="3">
-        <v>378900</v>
+        <v>390800</v>
       </c>
       <c r="I61" s="3">
-        <v>653700</v>
+        <v>361000</v>
       </c>
       <c r="J61" s="3">
+        <v>622900</v>
+      </c>
+      <c r="K61" s="3">
         <v>653000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>672900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>651800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>593100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>637800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>676800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>312900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>295100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>303300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>54400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>76800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>82400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>86000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>66600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>163100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>162300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>159800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>145500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>147700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3054400</v>
+        <v>3201700</v>
       </c>
       <c r="E62" s="3">
-        <v>2961400</v>
+        <v>2910300</v>
       </c>
       <c r="F62" s="3">
-        <v>3169900</v>
+        <v>2821700</v>
       </c>
       <c r="G62" s="3">
-        <v>3194400</v>
+        <v>3020400</v>
       </c>
       <c r="H62" s="3">
-        <v>3079300</v>
+        <v>3043800</v>
       </c>
       <c r="I62" s="3">
-        <v>2512400</v>
+        <v>2934100</v>
       </c>
       <c r="J62" s="3">
+        <v>2393900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2745400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2668400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2570600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2350100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2186700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2876900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2833400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2919600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2537500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2472500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2170000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2405300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3018100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2828400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2870000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2752300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2804800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2786100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2754100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2878100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7715800</v>
+        <v>8109300</v>
       </c>
       <c r="E66" s="3">
-        <v>7374300</v>
+        <v>7351900</v>
       </c>
       <c r="F66" s="3">
-        <v>7719900</v>
+        <v>7026500</v>
       </c>
       <c r="G66" s="3">
-        <v>7779600</v>
+        <v>7355800</v>
       </c>
       <c r="H66" s="3">
-        <v>7539600</v>
+        <v>7412800</v>
       </c>
       <c r="I66" s="3">
-        <v>6706400</v>
+        <v>7184000</v>
       </c>
       <c r="J66" s="3">
+        <v>6390200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6828800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6707800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6395600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5875300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5940400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7052100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7206900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7428200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7179600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7055000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6751600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6827000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7961700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7466300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7259300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7372800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7200900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6888400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6885300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6899900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13788200</v>
+        <v>13148400</v>
       </c>
       <c r="E72" s="3">
-        <v>13672500</v>
+        <v>13138000</v>
       </c>
       <c r="F72" s="3">
-        <v>13619500</v>
+        <v>13027700</v>
       </c>
       <c r="G72" s="3">
-        <v>13434600</v>
+        <v>12977200</v>
       </c>
       <c r="H72" s="3">
-        <v>13310400</v>
+        <v>12801100</v>
       </c>
       <c r="I72" s="3">
-        <v>13039100</v>
+        <v>12682700</v>
       </c>
       <c r="J72" s="3">
+        <v>12424300</v>
+      </c>
+      <c r="K72" s="3">
         <v>12938200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12950900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12409300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12465100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13181000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14330900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14859600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15312800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15341600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15038900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15748000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15257500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15207200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14551600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14261900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15225700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15164100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14925300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14530100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14237500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21801400</v>
+        <v>21594600</v>
       </c>
       <c r="E76" s="3">
-        <v>21407300</v>
+        <v>20773300</v>
       </c>
       <c r="F76" s="3">
-        <v>22201600</v>
+        <v>20397800</v>
       </c>
       <c r="G76" s="3">
-        <v>21875300</v>
+        <v>21154600</v>
       </c>
       <c r="H76" s="3">
-        <v>20703900</v>
+        <v>20843700</v>
       </c>
       <c r="I76" s="3">
-        <v>19063600</v>
+        <v>19727600</v>
       </c>
       <c r="J76" s="3">
+        <v>18164600</v>
+      </c>
+      <c r="K76" s="3">
         <v>19537500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19235700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18373100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17793900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18043100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20802200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21427100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22884400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21845200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21385500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21775500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21689500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22907300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21713100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21025200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21569500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21754100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21407200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20704500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20534600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66400</v>
+        <v>256900</v>
       </c>
       <c r="E81" s="3">
-        <v>311500</v>
+        <v>63200</v>
       </c>
       <c r="F81" s="3">
-        <v>184700</v>
+        <v>296800</v>
       </c>
       <c r="G81" s="3">
-        <v>360300</v>
+        <v>176000</v>
       </c>
       <c r="H81" s="3">
-        <v>206100</v>
+        <v>343300</v>
       </c>
       <c r="I81" s="3">
-        <v>336100</v>
+        <v>196400</v>
       </c>
       <c r="J81" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K81" s="3">
         <v>234000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>299600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>186300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>216800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>93300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>190900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>379400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>253400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>293500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>228600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>335500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>384400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>268000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>256900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>316600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>292600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>307800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>278200</v>
+        <v>250600</v>
       </c>
       <c r="E83" s="3">
-        <v>276500</v>
+        <v>265100</v>
       </c>
       <c r="F83" s="3">
-        <v>269600</v>
+        <v>263400</v>
       </c>
       <c r="G83" s="3">
-        <v>254400</v>
+        <v>256900</v>
       </c>
       <c r="H83" s="3">
-        <v>247400</v>
+        <v>242400</v>
       </c>
       <c r="I83" s="3">
-        <v>240200</v>
+        <v>235700</v>
       </c>
       <c r="J83" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K83" s="3">
         <v>222700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>223800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>207700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>202000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>207800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>217700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>229200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>221300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>198000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>191400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>158500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>159600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>145700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>134500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>220900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>195500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>172900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>159100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>193000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>179000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>561500</v>
+        <v>528000</v>
       </c>
       <c r="E89" s="3">
-        <v>297700</v>
+        <v>535000</v>
       </c>
       <c r="F89" s="3">
-        <v>222300</v>
+        <v>283600</v>
       </c>
       <c r="G89" s="3">
-        <v>210700</v>
+        <v>211800</v>
       </c>
       <c r="H89" s="3">
-        <v>321100</v>
+        <v>200800</v>
       </c>
       <c r="I89" s="3">
-        <v>300400</v>
+        <v>305900</v>
       </c>
       <c r="J89" s="3">
+        <v>286200</v>
+      </c>
+      <c r="K89" s="3">
         <v>336200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>508100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>478700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>491500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>383000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>316500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>575800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>358100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>507200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>501700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>590800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>307700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>516600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>639500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>416100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>197400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>283100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>540300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>612200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>196700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42033000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44813000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50144000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47247000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44439000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38095000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38202000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35051000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-225600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-214200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-286500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-240900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-192900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-241000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-248400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-255400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-263700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-277400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-250700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-247600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-249700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-184700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-148400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-178400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-138400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-161800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343600</v>
+        <v>-287600</v>
       </c>
       <c r="E94" s="3">
-        <v>-371500</v>
+        <v>-327400</v>
       </c>
       <c r="F94" s="3">
-        <v>-234100</v>
+        <v>-354000</v>
       </c>
       <c r="G94" s="3">
-        <v>-268100</v>
+        <v>-223000</v>
       </c>
       <c r="H94" s="3">
-        <v>-161800</v>
+        <v>-255500</v>
       </c>
       <c r="I94" s="3">
-        <v>-213600</v>
+        <v>-154100</v>
       </c>
       <c r="J94" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-199400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-359100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-468700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-247200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-319600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-118800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-293300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-202700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-712800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>360200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>137400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-863100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-56900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>381500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-398000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-90200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-373500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-118500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-142300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7648,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4900</v>
+        <v>-248500</v>
       </c>
       <c r="E96" s="3">
-        <v>-249500</v>
+        <v>-4600</v>
       </c>
       <c r="F96" s="3">
-        <v>-14000</v>
+        <v>-237700</v>
       </c>
       <c r="G96" s="3">
-        <v>-237200</v>
+        <v>-13400</v>
       </c>
       <c r="H96" s="3">
-        <v>-9900</v>
+        <v>-226000</v>
       </c>
       <c r="I96" s="3">
-        <v>-228700</v>
+        <v>-9400</v>
       </c>
       <c r="J96" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-212700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-154700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-243200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-260500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-266700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-206300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-19500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-204800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-199100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-199000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-13400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-161000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11200</v>
+        <v>-177300</v>
       </c>
       <c r="E100" s="3">
-        <v>-76100</v>
+        <v>-10700</v>
       </c>
       <c r="F100" s="3">
-        <v>-63000</v>
+        <v>-72500</v>
       </c>
       <c r="G100" s="3">
-        <v>-291300</v>
+        <v>-60100</v>
       </c>
       <c r="H100" s="3">
-        <v>-51400</v>
+        <v>-277500</v>
       </c>
       <c r="I100" s="3">
-        <v>-444700</v>
+        <v>-49000</v>
       </c>
       <c r="J100" s="3">
+        <v>-423700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-259800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-194900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-84400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-299700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-491800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-309200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-610500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-214700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-558900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-202200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-54900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-202300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-168000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70100</v>
+        <v>115300</v>
       </c>
       <c r="E101" s="3">
-        <v>-159900</v>
+        <v>66800</v>
       </c>
       <c r="F101" s="3">
-        <v>29400</v>
+        <v>-152300</v>
       </c>
       <c r="G101" s="3">
-        <v>134200</v>
+        <v>28000</v>
       </c>
       <c r="H101" s="3">
-        <v>78400</v>
+        <v>127900</v>
       </c>
       <c r="I101" s="3">
-        <v>44400</v>
+        <v>74700</v>
       </c>
       <c r="J101" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>92200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>56200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-41600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-62300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>44900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>50100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-111700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>15100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>24600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>22600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-79900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>228500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>276800</v>
+        <v>178400</v>
       </c>
       <c r="E102" s="3">
-        <v>-309800</v>
+        <v>263700</v>
       </c>
       <c r="F102" s="3">
-        <v>-45500</v>
+        <v>-295200</v>
       </c>
       <c r="G102" s="3">
-        <v>-214500</v>
+        <v>-43300</v>
       </c>
       <c r="H102" s="3">
-        <v>186300</v>
+        <v>-204300</v>
       </c>
       <c r="I102" s="3">
-        <v>-313400</v>
+        <v>177500</v>
       </c>
       <c r="J102" s="3">
+        <v>-298600</v>
+      </c>
+      <c r="K102" s="3">
         <v>283800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>152200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-165400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-318900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-77900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-188200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>280700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-863300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>928000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>168200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-321500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>73700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>680300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-388500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>162900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>403300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>114900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-241700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KYOCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3293600</v>
+        <v>3359000</v>
       </c>
       <c r="E8" s="3">
-        <v>3427000</v>
+        <v>3183300</v>
       </c>
       <c r="F8" s="3">
-        <v>3533400</v>
+        <v>3312300</v>
       </c>
       <c r="G8" s="3">
-        <v>3573900</v>
+        <v>3415100</v>
       </c>
       <c r="H8" s="3">
-        <v>3379700</v>
+        <v>3454200</v>
       </c>
       <c r="I8" s="3">
-        <v>3320100</v>
+        <v>3266600</v>
       </c>
       <c r="J8" s="3">
+        <v>3208900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3293000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3285100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3092200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3022900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2965000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2952000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2704800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3543100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3624300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3805700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3526000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3933300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3906100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3838200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3522200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3905500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3676300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3554400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3120300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3620100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3205500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2956000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2363100</v>
+        <v>2401700</v>
       </c>
       <c r="E9" s="3">
-        <v>2569500</v>
+        <v>2283900</v>
       </c>
       <c r="F9" s="3">
-        <v>2507900</v>
+        <v>2483400</v>
       </c>
       <c r="G9" s="3">
-        <v>2556300</v>
+        <v>2424000</v>
       </c>
       <c r="H9" s="3">
-        <v>2399100</v>
+        <v>2470700</v>
       </c>
       <c r="I9" s="3">
-        <v>2437400</v>
+        <v>2318800</v>
       </c>
       <c r="J9" s="3">
+        <v>2355800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2365400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2341000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2216000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2207600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2149400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2195600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1991700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2639300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2604400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2734000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2518200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2847200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2757200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2722900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2529100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3355700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2680900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2574800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2240500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2643900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2335900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2201500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>930600</v>
+        <v>957300</v>
       </c>
       <c r="E10" s="3">
-        <v>857500</v>
+        <v>899400</v>
       </c>
       <c r="F10" s="3">
-        <v>1025500</v>
+        <v>828800</v>
       </c>
       <c r="G10" s="3">
-        <v>1017600</v>
+        <v>991100</v>
       </c>
       <c r="H10" s="3">
-        <v>980600</v>
+        <v>983500</v>
       </c>
       <c r="I10" s="3">
-        <v>882700</v>
+        <v>947800</v>
       </c>
       <c r="J10" s="3">
+        <v>853100</v>
+      </c>
+      <c r="K10" s="3">
         <v>927600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>944100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>876200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>815300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>815500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>756400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>713100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>903800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1019900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1071700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1007800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1086200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1148800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1115300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>993100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>549800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>995400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>979600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>879800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>976200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>869600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>754500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1168,11 +1181,14 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,8 +1276,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,8 +1347,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1349,8 +1368,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3117200</v>
+        <v>3170900</v>
       </c>
       <c r="E17" s="3">
-        <v>3326500</v>
+        <v>3012900</v>
       </c>
       <c r="F17" s="3">
-        <v>3276500</v>
+        <v>3215100</v>
       </c>
       <c r="G17" s="3">
-        <v>3333000</v>
+        <v>3166800</v>
       </c>
       <c r="H17" s="3">
-        <v>3095100</v>
+        <v>3221400</v>
       </c>
       <c r="I17" s="3">
-        <v>3110900</v>
+        <v>2991500</v>
       </c>
       <c r="J17" s="3">
+        <v>3006700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2999100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2972800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2854300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2826800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2826300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2823500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2640200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3496100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3309600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3459300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3318700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3604200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4114000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3415500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3185000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4026700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3323300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3210700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2837700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3288000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2910000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2765200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>176400</v>
+        <v>188100</v>
       </c>
       <c r="E18" s="3">
-        <v>100500</v>
+        <v>170500</v>
       </c>
       <c r="F18" s="3">
-        <v>256900</v>
+        <v>97200</v>
       </c>
       <c r="G18" s="3">
-        <v>240900</v>
+        <v>248300</v>
       </c>
       <c r="H18" s="3">
-        <v>284600</v>
+        <v>232800</v>
       </c>
       <c r="I18" s="3">
-        <v>209200</v>
+        <v>275100</v>
       </c>
       <c r="J18" s="3">
+        <v>202200</v>
+      </c>
+      <c r="K18" s="3">
         <v>293900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>238000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>138700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>314700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>207300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>329100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-207900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>422700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>337300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-121200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>353000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>343600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>282600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>332100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>295500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>190800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,186 +1711,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>170400</v>
+        <v>-6200</v>
       </c>
       <c r="E20" s="3">
-        <v>-8200</v>
+        <v>164700</v>
       </c>
       <c r="F20" s="3">
-        <v>144600</v>
+        <v>-7900</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>139800</v>
       </c>
       <c r="H20" s="3">
-        <v>187400</v>
+        <v>3600</v>
       </c>
       <c r="I20" s="3">
-        <v>37000</v>
+        <v>181200</v>
       </c>
       <c r="J20" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K20" s="3">
         <v>144100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>162400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>147000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>194800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>199300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>209400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>192900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>43700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>167100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>160500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>166500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>18100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>149100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>597400</v>
+        <v>440100</v>
       </c>
       <c r="E21" s="3">
-        <v>357400</v>
+        <v>577400</v>
       </c>
       <c r="F21" s="3">
-        <v>665000</v>
+        <v>345400</v>
       </c>
       <c r="G21" s="3">
-        <v>501400</v>
+        <v>642700</v>
       </c>
       <c r="H21" s="3">
-        <v>714500</v>
+        <v>484600</v>
       </c>
       <c r="I21" s="3">
-        <v>482000</v>
+        <v>690500</v>
       </c>
       <c r="J21" s="3">
+        <v>465800</v>
+      </c>
+      <c r="K21" s="3">
         <v>666900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>546200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>624200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>422800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>487700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>346800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>477100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>292600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>735300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>563000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>608000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>509400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>144600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>612100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>638900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>110100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>707700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>549700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>607500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>543200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>623600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>376300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1907,8 +1946,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1925,207 +1964,216 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>3000</v>
       </c>
       <c r="AA22" s="3">
         <v>3000</v>
       </c>
       <c r="AB22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>2900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>346800</v>
+        <v>181900</v>
       </c>
       <c r="E23" s="3">
-        <v>92300</v>
+        <v>335200</v>
       </c>
       <c r="F23" s="3">
-        <v>401500</v>
+        <v>89200</v>
       </c>
       <c r="G23" s="3">
-        <v>244600</v>
+        <v>388100</v>
       </c>
       <c r="H23" s="3">
-        <v>472000</v>
+        <v>236400</v>
       </c>
       <c r="I23" s="3">
-        <v>246200</v>
+        <v>456200</v>
       </c>
       <c r="J23" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K23" s="3">
         <v>438000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>323500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>285600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>259400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>63400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>513900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>365100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>416700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>350900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>466400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>504400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-117500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>510500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>374600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>446200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>347200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>444600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>210900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85100</v>
+        <v>49400</v>
       </c>
       <c r="E24" s="3">
-        <v>22800</v>
+        <v>82300</v>
       </c>
       <c r="F24" s="3">
-        <v>101800</v>
+        <v>22100</v>
       </c>
       <c r="G24" s="3">
-        <v>62700</v>
+        <v>98400</v>
       </c>
       <c r="H24" s="3">
-        <v>123400</v>
+        <v>60600</v>
       </c>
       <c r="I24" s="3">
-        <v>42600</v>
+        <v>119200</v>
       </c>
       <c r="J24" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K24" s="3">
         <v>111900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>95800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>116500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>94900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>102100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>95700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-54600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>101200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>97100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-57600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>261300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>115400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>37300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>123600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>261600</v>
+        <v>132500</v>
       </c>
       <c r="E26" s="3">
-        <v>69500</v>
+        <v>252900</v>
       </c>
       <c r="F26" s="3">
-        <v>299700</v>
+        <v>67100</v>
       </c>
       <c r="G26" s="3">
-        <v>181900</v>
+        <v>289700</v>
       </c>
       <c r="H26" s="3">
-        <v>348700</v>
+        <v>175800</v>
       </c>
       <c r="I26" s="3">
-        <v>203700</v>
+        <v>337000</v>
       </c>
       <c r="J26" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K26" s="3">
         <v>326000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>241400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>304600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>194400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>222000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>99500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>397500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>270200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>314500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>255200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>365200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>407200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-59900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>249300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>273900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>330700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>309900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>321000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>286800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>170100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>331800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>320200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>234000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>299600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>186300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>216800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>93300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>190900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>56900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>379400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>253400</v>
+      </c>
+      <c r="U27" s="3">
+        <v>293500</v>
+      </c>
+      <c r="V27" s="3">
+        <v>228600</v>
+      </c>
+      <c r="W27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="X27" s="3">
+        <v>335500</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>384400</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>268000</v>
+      </c>
+      <c r="AB27" s="3">
         <v>256900</v>
       </c>
-      <c r="E27" s="3">
-        <v>63200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>176000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>343300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>196400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>320200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>234000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>299600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>186300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>216800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>93300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>190900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>56900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>379400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>253400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>293500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>228600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>9700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>335500</v>
-      </c>
-      <c r="X27" s="3">
-        <v>384400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>268000</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>256900</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>316600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>292600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>307800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-170400</v>
+        <v>6200</v>
       </c>
       <c r="E32" s="3">
-        <v>8200</v>
+        <v>-164700</v>
       </c>
       <c r="F32" s="3">
-        <v>-144600</v>
+        <v>7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-139800</v>
       </c>
       <c r="H32" s="3">
-        <v>-187400</v>
+        <v>-3600</v>
       </c>
       <c r="I32" s="3">
-        <v>-37000</v>
+        <v>-181200</v>
       </c>
       <c r="J32" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-144100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-162400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-147000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-194800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-199300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-209400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-192900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-43700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-167100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-160500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-166500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-149100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>286800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>170100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>331800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>320200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>234000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>299600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>186300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>216800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>93300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>190900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>56900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>379400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>253400</v>
+      </c>
+      <c r="U33" s="3">
+        <v>293500</v>
+      </c>
+      <c r="V33" s="3">
+        <v>228600</v>
+      </c>
+      <c r="W33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="X33" s="3">
+        <v>335500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>384400</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>268000</v>
+      </c>
+      <c r="AB33" s="3">
         <v>256900</v>
       </c>
-      <c r="E33" s="3">
-        <v>63200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>176000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>343300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>196400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>320200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>234000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>299600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>186300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>216800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>93300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>190900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>56900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>379400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>253400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>293500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>228600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>9700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>335500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>384400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>268000</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>256900</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>316600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>292600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>307800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>286800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>170100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>331800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>320200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>234000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>299600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>186300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>216800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>93300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>190900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>56900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>379400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>253400</v>
+      </c>
+      <c r="U35" s="3">
+        <v>293500</v>
+      </c>
+      <c r="V35" s="3">
+        <v>228600</v>
+      </c>
+      <c r="W35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="X35" s="3">
+        <v>335500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>384400</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>268000</v>
+      </c>
+      <c r="AB35" s="3">
         <v>256900</v>
       </c>
-      <c r="E35" s="3">
-        <v>63200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>176000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>343300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>196400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>320200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>234000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>299600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>186300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>216800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>93300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>190900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>56900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>379400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>253400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>293500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>228600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>9700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>335500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>384400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>268000</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>256900</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>316600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>292600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>307800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,809 +3348,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2744400</v>
+        <v>2620500</v>
       </c>
       <c r="E41" s="3">
-        <v>2565900</v>
+        <v>2652500</v>
       </c>
       <c r="F41" s="3">
-        <v>2302200</v>
+        <v>2480000</v>
       </c>
       <c r="G41" s="3">
-        <v>2597400</v>
+        <v>2225100</v>
       </c>
       <c r="H41" s="3">
-        <v>2640700</v>
+        <v>2510500</v>
       </c>
       <c r="I41" s="3">
-        <v>2845100</v>
+        <v>2552300</v>
       </c>
       <c r="J41" s="3">
+        <v>2749800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2667500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3113000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2884100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2741900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2677400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3021200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3260500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3696900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3903300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4127400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3834100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4928100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3929400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3701500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3936400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3841400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3161100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3549600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3386800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3336800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2933500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2818600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>171700</v>
+        <v>167500</v>
       </c>
       <c r="E42" s="3">
-        <v>160800</v>
+        <v>166000</v>
       </c>
       <c r="F42" s="3">
-        <v>239100</v>
+        <v>155400</v>
       </c>
       <c r="G42" s="3">
-        <v>163500</v>
+        <v>231100</v>
       </c>
       <c r="H42" s="3">
-        <v>268300</v>
+        <v>158000</v>
       </c>
       <c r="I42" s="3">
-        <v>302900</v>
+        <v>259300</v>
       </c>
       <c r="J42" s="3">
+        <v>292700</v>
+      </c>
+      <c r="K42" s="3">
         <v>323800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>412800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>656500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>690300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>803500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>682200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>591900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>652200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>873500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>780100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>825200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1048300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1800100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2283700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1698900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2240300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2625500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2485300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2702500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2637700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2861200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2817900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2422600</v>
+        <v>2532400</v>
       </c>
       <c r="E43" s="3">
-        <v>2617300</v>
+        <v>2341500</v>
       </c>
       <c r="F43" s="3">
-        <v>2574500</v>
+        <v>2529700</v>
       </c>
       <c r="G43" s="3">
-        <v>2636100</v>
+        <v>2488300</v>
       </c>
       <c r="H43" s="3">
-        <v>2532900</v>
+        <v>2547800</v>
       </c>
       <c r="I43" s="3">
-        <v>2604200</v>
+        <v>2448100</v>
       </c>
       <c r="J43" s="3">
+        <v>2517000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2472000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2416400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2352900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2407900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2303800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2333700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2439300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2962800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3008000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2949100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3017900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3434200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3476600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3282400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3091900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6642700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2955300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2875900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2498600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2787500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2605300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2252400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3954300</v>
+        <v>3866000</v>
       </c>
       <c r="E44" s="3">
-        <v>3706000</v>
+        <v>3821900</v>
       </c>
       <c r="F44" s="3">
-        <v>3822500</v>
+        <v>3581900</v>
       </c>
       <c r="G44" s="3">
-        <v>3843900</v>
+        <v>3694500</v>
       </c>
       <c r="H44" s="3">
-        <v>3621900</v>
+        <v>3715200</v>
       </c>
       <c r="I44" s="3">
-        <v>3108700</v>
+        <v>3500700</v>
       </c>
       <c r="J44" s="3">
+        <v>3004600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2900600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2835500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2708800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2448600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2504800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2719600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3201900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3033300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3393700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3391100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3371600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3304700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3262400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3464600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3359200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6596900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3688200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3229400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3190100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2937300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3162600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2805900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>321600</v>
+        <v>307400</v>
       </c>
       <c r="E45" s="3">
-        <v>274800</v>
+        <v>310900</v>
       </c>
       <c r="F45" s="3">
-        <v>305300</v>
+        <v>265600</v>
       </c>
       <c r="G45" s="3">
-        <v>311700</v>
+        <v>295100</v>
       </c>
       <c r="H45" s="3">
-        <v>309000</v>
+        <v>301300</v>
       </c>
       <c r="I45" s="3">
-        <v>270300</v>
+        <v>298600</v>
       </c>
       <c r="J45" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K45" s="3">
         <v>245100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>217700</v>
       </c>
       <c r="M45" s="3">
         <v>217700</v>
       </c>
       <c r="N45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="O45" s="3">
         <v>207000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>245200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>283300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>250700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>245000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>304500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>320100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>332900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>305200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>830200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>785400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>756000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1155700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1160800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1034600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1061900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1071600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1053900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9614700</v>
+        <v>9493700</v>
       </c>
       <c r="E46" s="3">
-        <v>9324700</v>
+        <v>9292800</v>
       </c>
       <c r="F46" s="3">
-        <v>9243600</v>
+        <v>9012600</v>
       </c>
       <c r="G46" s="3">
-        <v>9552600</v>
+        <v>8934100</v>
       </c>
       <c r="H46" s="3">
-        <v>9372800</v>
+        <v>9232800</v>
       </c>
       <c r="I46" s="3">
-        <v>9131100</v>
+        <v>9059000</v>
       </c>
       <c r="J46" s="3">
+        <v>8825400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8609000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8997800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8820000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8506300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8496500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9001800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9776800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10595800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11423500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11552200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11368900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13048100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12773700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13562400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12871800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13251700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13585900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>13301000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12812500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12761200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>12634200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>11748700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11719300</v>
+        <v>11580800</v>
       </c>
       <c r="E47" s="3">
-        <v>10769300</v>
+        <v>11326900</v>
       </c>
       <c r="F47" s="3">
-        <v>10442500</v>
+        <v>10408700</v>
       </c>
       <c r="G47" s="3">
-        <v>11058300</v>
+        <v>10092900</v>
       </c>
       <c r="H47" s="3">
-        <v>11158500</v>
+        <v>10688100</v>
       </c>
       <c r="I47" s="3">
-        <v>10486800</v>
+        <v>10785000</v>
       </c>
       <c r="J47" s="3">
+        <v>10135700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9032500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10242700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9845300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9390900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8877400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8282800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10833300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10935300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11646800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10371700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10180300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9472400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10046500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11552400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10879300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9832500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9896100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>10362200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>10425800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>10029800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>9971200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>10355300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4678900</v>
+        <v>4638000</v>
       </c>
       <c r="E48" s="3">
-        <v>4466200</v>
+        <v>4522200</v>
       </c>
       <c r="F48" s="3">
-        <v>4254200</v>
+        <v>4316700</v>
       </c>
       <c r="G48" s="3">
-        <v>4280000</v>
+        <v>4111800</v>
       </c>
       <c r="H48" s="3">
-        <v>4143300</v>
+        <v>4136700</v>
       </c>
       <c r="I48" s="3">
-        <v>3798300</v>
+        <v>4004600</v>
       </c>
       <c r="J48" s="3">
+        <v>3671100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3585900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3649500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3653100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3387200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3296100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3453900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3680200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3684300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3742000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3604300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3470800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3285200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3052800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3012700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2790300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5332000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2661600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2499100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2443200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2364800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2386800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2979000</v>
+        <v>2905200</v>
       </c>
       <c r="E49" s="3">
-        <v>2878100</v>
+        <v>2879300</v>
       </c>
       <c r="F49" s="3">
-        <v>2865400</v>
+        <v>2781700</v>
       </c>
       <c r="G49" s="3">
-        <v>2978800</v>
+        <v>2769500</v>
       </c>
       <c r="H49" s="3">
-        <v>2947200</v>
+        <v>2879100</v>
       </c>
       <c r="I49" s="3">
-        <v>2836400</v>
+        <v>2848500</v>
       </c>
       <c r="J49" s="3">
+        <v>2741400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2780500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2912900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2996800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2891500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2556800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2770400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3042600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2913800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2996000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2995600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2927700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2205500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2103800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2146800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2060600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4058100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1904600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1872200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1573300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1523000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1531900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1354600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>712100</v>
+        <v>700200</v>
       </c>
       <c r="E52" s="3">
-        <v>687000</v>
+        <v>688300</v>
       </c>
       <c r="F52" s="3">
-        <v>618600</v>
+        <v>664000</v>
       </c>
       <c r="G52" s="3">
-        <v>640700</v>
+        <v>597900</v>
       </c>
       <c r="H52" s="3">
-        <v>634600</v>
+        <v>619300</v>
       </c>
       <c r="I52" s="3">
-        <v>659100</v>
+        <v>613400</v>
       </c>
       <c r="J52" s="3">
+        <v>637000</v>
+      </c>
+      <c r="K52" s="3">
         <v>546800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>563400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>628300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>592700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>442400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>474700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>521300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>504800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>504300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>500900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>492800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>515800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>539700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>594600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>577500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>559500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>894000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>920500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1040700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>911000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>910300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29703900</v>
+        <v>29317900</v>
       </c>
       <c r="E54" s="3">
-        <v>28125300</v>
+        <v>28709400</v>
       </c>
       <c r="F54" s="3">
-        <v>27424300</v>
+        <v>27183700</v>
       </c>
       <c r="G54" s="3">
-        <v>28510500</v>
+        <v>26506100</v>
       </c>
       <c r="H54" s="3">
-        <v>28256500</v>
+        <v>27556000</v>
       </c>
       <c r="I54" s="3">
-        <v>26911600</v>
+        <v>27310500</v>
       </c>
       <c r="J54" s="3">
+        <v>26010600</v>
+      </c>
+      <c r="K54" s="3">
         <v>24554800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26366300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25943400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24768700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23669200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23983500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27854300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28634000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30312600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29024800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28440500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28527000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28516600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30869000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29179400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28284500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28942300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28955100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28295600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>27589900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>27434500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>26642600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1317600</v>
+        <v>1284800</v>
       </c>
       <c r="E57" s="3">
-        <v>1400500</v>
+        <v>1273500</v>
       </c>
       <c r="F57" s="3">
-        <v>1408500</v>
+        <v>1353700</v>
       </c>
       <c r="G57" s="3">
-        <v>1551600</v>
+        <v>1361300</v>
       </c>
       <c r="H57" s="3">
-        <v>1568000</v>
+        <v>1499600</v>
       </c>
       <c r="I57" s="3">
-        <v>1531700</v>
+        <v>1515500</v>
       </c>
       <c r="J57" s="3">
+        <v>1480500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1461200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1496500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1462700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1298500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1228000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1249400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1424100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1526800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1642300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1674900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1790200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1763100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1978300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1911500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3312400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1440600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1268300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1185500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1148300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1089600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>988700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>702400</v>
+        <v>214500</v>
       </c>
       <c r="E58" s="3">
-        <v>339500</v>
+        <v>678900</v>
       </c>
       <c r="F58" s="3">
-        <v>869500</v>
+        <v>328100</v>
       </c>
       <c r="G58" s="3">
-        <v>667600</v>
+        <v>840400</v>
       </c>
       <c r="H58" s="3">
-        <v>670100</v>
+        <v>645200</v>
       </c>
       <c r="I58" s="3">
-        <v>664400</v>
+        <v>647700</v>
       </c>
       <c r="J58" s="3">
+        <v>642100</v>
+      </c>
+      <c r="K58" s="3">
         <v>382400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>395700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>408400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>396200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>388200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>416900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>487900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>444900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>111300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>96400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>89300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>54300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>123800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>88100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>130900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>82000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>80700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>78200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>74700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>77300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1467600</v>
+        <v>1423800</v>
       </c>
       <c r="E59" s="3">
-        <v>1427600</v>
+        <v>1418400</v>
       </c>
       <c r="F59" s="3">
-        <v>1351100</v>
+        <v>1379800</v>
       </c>
       <c r="G59" s="3">
-        <v>1528700</v>
+        <v>1305900</v>
       </c>
       <c r="H59" s="3">
-        <v>1553100</v>
+        <v>1477600</v>
       </c>
       <c r="I59" s="3">
-        <v>1509200</v>
+        <v>1501100</v>
       </c>
       <c r="J59" s="3">
+        <v>1458700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1350300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1354600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1314200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1303300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1140700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1267700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1369100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1530400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1528900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1685900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1613900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1770800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1630000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1870100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1727300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3013000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2156700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2082900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1899900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2011500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1948800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1633900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3487600</v>
+        <v>2923100</v>
       </c>
       <c r="E60" s="3">
-        <v>3167600</v>
+        <v>3370800</v>
       </c>
       <c r="F60" s="3">
-        <v>3629000</v>
+        <v>3061500</v>
       </c>
       <c r="G60" s="3">
-        <v>3747900</v>
+        <v>3507500</v>
       </c>
       <c r="H60" s="3">
-        <v>3791100</v>
+        <v>3622400</v>
       </c>
       <c r="I60" s="3">
-        <v>3705300</v>
+        <v>3664200</v>
       </c>
       <c r="J60" s="3">
+        <v>3581300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3193800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3246700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3185300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2998000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2756900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2934100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3281100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3502100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3282400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3457100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3403500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3601300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3447400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3972100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3726900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3791300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3679300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3431900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3163500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3234500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3115700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2699400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1247400</v>
+        <v>1762800</v>
       </c>
       <c r="E61" s="3">
-        <v>1101900</v>
+        <v>1205700</v>
       </c>
       <c r="F61" s="3">
-        <v>388000</v>
+        <v>1065000</v>
       </c>
       <c r="G61" s="3">
-        <v>395200</v>
+        <v>375000</v>
       </c>
       <c r="H61" s="3">
-        <v>390800</v>
+        <v>382000</v>
       </c>
       <c r="I61" s="3">
-        <v>361000</v>
+        <v>377700</v>
       </c>
       <c r="J61" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K61" s="3">
         <v>622900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>653000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>672900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>651800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>593100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>637800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>676800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>312900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>295100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>303300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>54400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>76800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>82400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>86000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>66600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>163100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>162300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>159800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>145500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>147700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3201700</v>
+        <v>3165100</v>
       </c>
       <c r="E62" s="3">
-        <v>2910300</v>
+        <v>3094500</v>
       </c>
       <c r="F62" s="3">
-        <v>2821700</v>
+        <v>2812900</v>
       </c>
       <c r="G62" s="3">
-        <v>3020400</v>
+        <v>2727300</v>
       </c>
       <c r="H62" s="3">
-        <v>3043800</v>
+        <v>2919300</v>
       </c>
       <c r="I62" s="3">
-        <v>2934100</v>
+        <v>2941900</v>
       </c>
       <c r="J62" s="3">
+        <v>2835900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2393900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2745400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2668400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2570600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2350100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2186700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2876900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2833400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2919600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2537500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2472500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2170000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2405300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3018100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2828400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2870000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2752300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2804800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2786100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2754100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2878100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2971600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8109300</v>
+        <v>8023800</v>
       </c>
       <c r="E66" s="3">
-        <v>7351900</v>
+        <v>7837800</v>
       </c>
       <c r="F66" s="3">
-        <v>7026500</v>
+        <v>7105800</v>
       </c>
       <c r="G66" s="3">
-        <v>7355800</v>
+        <v>6791300</v>
       </c>
       <c r="H66" s="3">
-        <v>7412800</v>
+        <v>7109500</v>
       </c>
       <c r="I66" s="3">
-        <v>7184000</v>
+        <v>7164600</v>
       </c>
       <c r="J66" s="3">
+        <v>6943500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6390200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6828800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6707800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6395600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5875300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5940400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7052100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7206900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7428200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7179600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7055000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6751600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6827000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7961700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7466300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7259300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7372800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7200900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6888400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6885300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6899900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>6482400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13148400</v>
+        <v>12836800</v>
       </c>
       <c r="E72" s="3">
-        <v>13138000</v>
+        <v>12708200</v>
       </c>
       <c r="F72" s="3">
-        <v>13027700</v>
+        <v>12698200</v>
       </c>
       <c r="G72" s="3">
-        <v>12977200</v>
+        <v>12591600</v>
       </c>
       <c r="H72" s="3">
-        <v>12801100</v>
+        <v>12542800</v>
       </c>
       <c r="I72" s="3">
-        <v>12682700</v>
+        <v>12372500</v>
       </c>
       <c r="J72" s="3">
+        <v>12258100</v>
+      </c>
+      <c r="K72" s="3">
         <v>12424300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12938200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12950900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12409300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12465100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13181000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14330900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14859600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15312800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15341600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15038900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15748000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15257500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15207200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14551600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14261900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15225700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15164100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14925300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14530100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14237500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>14092800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21594600</v>
+        <v>21294100</v>
       </c>
       <c r="E76" s="3">
-        <v>20773300</v>
+        <v>20871700</v>
       </c>
       <c r="F76" s="3">
-        <v>20397800</v>
+        <v>20077900</v>
       </c>
       <c r="G76" s="3">
-        <v>21154600</v>
+        <v>19714900</v>
       </c>
       <c r="H76" s="3">
-        <v>20843700</v>
+        <v>20446400</v>
       </c>
       <c r="I76" s="3">
-        <v>19727600</v>
+        <v>20145900</v>
       </c>
       <c r="J76" s="3">
+        <v>19067100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18164600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19537500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19235700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18373100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17793900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18043100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20802200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21427100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22884400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21845200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21385500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21775500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21689500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22907300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21713100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21025200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21569500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21754100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21407200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20704500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20534600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>20160200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>286800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>170100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>331800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>320200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>234000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>299600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>186300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>216800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>93300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>190900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>56900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>379400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>253400</v>
+      </c>
+      <c r="U81" s="3">
+        <v>293500</v>
+      </c>
+      <c r="V81" s="3">
+        <v>228600</v>
+      </c>
+      <c r="W81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="X81" s="3">
+        <v>335500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>384400</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>268000</v>
+      </c>
+      <c r="AB81" s="3">
         <v>256900</v>
       </c>
-      <c r="E81" s="3">
-        <v>63200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>176000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>343300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>196400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>320200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>234000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>299600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>186300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>216800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>93300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>190900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>56900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>379400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>253400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>293500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>228600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>9700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>335500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>384400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>268000</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>256900</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>316600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>292600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>307800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>165900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>250600</v>
+        <v>258200</v>
       </c>
       <c r="E83" s="3">
-        <v>265100</v>
+        <v>242200</v>
       </c>
       <c r="F83" s="3">
-        <v>263400</v>
+        <v>256200</v>
       </c>
       <c r="G83" s="3">
-        <v>256900</v>
+        <v>254600</v>
       </c>
       <c r="H83" s="3">
-        <v>242400</v>
+        <v>248300</v>
       </c>
       <c r="I83" s="3">
-        <v>235700</v>
+        <v>234300</v>
       </c>
       <c r="J83" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K83" s="3">
         <v>228900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>222700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>223800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>207700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>202000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>207800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>217700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>229200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>221300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>198000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>191400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>158500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>159600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>145700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>134500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>220900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>195500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>172900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>159100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>193000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>179000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>528000</v>
+        <v>228500</v>
       </c>
       <c r="E89" s="3">
-        <v>535000</v>
+        <v>510300</v>
       </c>
       <c r="F89" s="3">
-        <v>283600</v>
+        <v>517100</v>
       </c>
       <c r="G89" s="3">
-        <v>211800</v>
+        <v>274100</v>
       </c>
       <c r="H89" s="3">
-        <v>200800</v>
+        <v>204700</v>
       </c>
       <c r="I89" s="3">
-        <v>305900</v>
+        <v>194000</v>
       </c>
       <c r="J89" s="3">
+        <v>295700</v>
+      </c>
+      <c r="K89" s="3">
         <v>286200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>336200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>508100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>478700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>491500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>383000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>316500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>575800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>358100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>507200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>501700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>590800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>307700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>516600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>639500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>416100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>197400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>283100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>540300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>612200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>196700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>315600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39227000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42033000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44813000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50144000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47247000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44439000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38095000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38202000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35051000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-225600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-214200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-286500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-240900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-192900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-227000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-241000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-248400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-255400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-263700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-277400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-250700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-247600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-249700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-184700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-148400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-178400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-138400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-161800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-168800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-287600</v>
+        <v>-263700</v>
       </c>
       <c r="E94" s="3">
-        <v>-327400</v>
+        <v>-277900</v>
       </c>
       <c r="F94" s="3">
-        <v>-354000</v>
+        <v>-316400</v>
       </c>
       <c r="G94" s="3">
-        <v>-223000</v>
+        <v>-342100</v>
       </c>
       <c r="H94" s="3">
-        <v>-255500</v>
+        <v>-215600</v>
       </c>
       <c r="I94" s="3">
-        <v>-154100</v>
+        <v>-246900</v>
       </c>
       <c r="J94" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-203500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-199400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-359100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-468700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-247200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-319600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-118800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-293300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-202700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-712800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>360200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>137400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-863100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-56900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>381500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-398000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-90200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-373500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-118500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-142300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-516700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,97 +7881,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-248500</v>
+        <v>-14500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4600</v>
+        <v>-240200</v>
       </c>
       <c r="F96" s="3">
-        <v>-237700</v>
+        <v>-4500</v>
       </c>
       <c r="G96" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-212700</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-13400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-226000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-217900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-212700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-154700</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
+        <v>-243200</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-266700</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-199100</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-13400</v>
       </c>
-      <c r="P96" s="3">
-        <v>-243200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-260500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-266700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-206300</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-204800</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-199100</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-199000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-161000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-177300</v>
+        <v>-19100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10700</v>
+        <v>-171300</v>
       </c>
       <c r="F100" s="3">
-        <v>-72500</v>
+        <v>-10300</v>
       </c>
       <c r="G100" s="3">
-        <v>-60100</v>
+        <v>-70100</v>
       </c>
       <c r="H100" s="3">
-        <v>-277500</v>
+        <v>-58100</v>
       </c>
       <c r="I100" s="3">
-        <v>-49000</v>
+        <v>-268200</v>
       </c>
       <c r="J100" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-423700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-259800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-194900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-84400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-299700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-491800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-309200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-610500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-214700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-558900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-202200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-54900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-202300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-168000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>115300</v>
+        <v>22300</v>
       </c>
       <c r="E101" s="3">
-        <v>66800</v>
+        <v>111400</v>
       </c>
       <c r="F101" s="3">
-        <v>-152300</v>
+        <v>64600</v>
       </c>
       <c r="G101" s="3">
-        <v>28000</v>
+        <v>-147200</v>
       </c>
       <c r="H101" s="3">
-        <v>127900</v>
+        <v>27100</v>
       </c>
       <c r="I101" s="3">
-        <v>74700</v>
+        <v>123600</v>
       </c>
       <c r="J101" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K101" s="3">
         <v>42300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>92200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-43200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>56200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-41600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-62300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>44900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>50100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-111700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>15100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>24600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>22600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-79900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>228500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>178400</v>
+        <v>-32000</v>
       </c>
       <c r="E102" s="3">
-        <v>263700</v>
+        <v>172500</v>
       </c>
       <c r="F102" s="3">
-        <v>-295200</v>
+        <v>254900</v>
       </c>
       <c r="G102" s="3">
-        <v>-43300</v>
+        <v>-285300</v>
       </c>
       <c r="H102" s="3">
-        <v>-204300</v>
+        <v>-41900</v>
       </c>
       <c r="I102" s="3">
-        <v>177500</v>
+        <v>-197500</v>
       </c>
       <c r="J102" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-298600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>283800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>152200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-165400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-318900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-77900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-188200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>280700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-863300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>928000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>168200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-321500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>73700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>680300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-388500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>162900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>403300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>114900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-241700</v>
       </c>
     </row>
